--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFB047-F668-41D6-8278-0354068B1EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5A673F-047C-4ED6-87C2-F21DD996B5CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Kalenderwoche 2020</t>
   </si>
@@ -48,105 +48,9 @@
     <t>Testkapazität pro Tag</t>
   </si>
   <si>
-    <t>KW11</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>KW12</t>
-  </si>
-  <si>
-    <t>KW13</t>
-  </si>
-  <si>
-    <t>KW14</t>
-  </si>
-  <si>
-    <t>KW15</t>
-  </si>
-  <si>
-    <t>KW16</t>
-  </si>
-  <si>
-    <t>KW17</t>
-  </si>
-  <si>
-    <t>KW18</t>
-  </si>
-  <si>
-    <t>KW19</t>
-  </si>
-  <si>
-    <t>KW20</t>
-  </si>
-  <si>
-    <t>KW21</t>
-  </si>
-  <si>
-    <t>KW22</t>
-  </si>
-  <si>
-    <t>KW23</t>
-  </si>
-  <si>
-    <t>KW24</t>
-  </si>
-  <si>
-    <t>KW25</t>
-  </si>
-  <si>
-    <t>KW26</t>
-  </si>
-  <si>
-    <t>KW27</t>
-  </si>
-  <si>
-    <t>KW28</t>
-  </si>
-  <si>
-    <t>KW29</t>
-  </si>
-  <si>
-    <t>KW30</t>
-  </si>
-  <si>
-    <t>KW31</t>
-  </si>
-  <si>
-    <t>KW32</t>
-  </si>
-  <si>
-    <t>KW33</t>
-  </si>
-  <si>
-    <t>KW34</t>
-  </si>
-  <si>
-    <t>KW35</t>
-  </si>
-  <si>
-    <t>KW36</t>
-  </si>
-  <si>
-    <t>KW37</t>
-  </si>
-  <si>
-    <t>KW38</t>
-  </si>
-  <si>
-    <t>KW39</t>
-  </si>
-  <si>
-    <t>KW40</t>
-  </si>
-  <si>
-    <t>KW41</t>
-  </si>
-  <si>
-    <t>KW42</t>
-  </si>
-  <si>
     <t>Labore mit Rückstau</t>
   </si>
   <si>
@@ -168,64 +72,166 @@
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testzkapazitäten, Probenrückstau). </t>
   </si>
   <si>
-    <t>KW43</t>
-  </si>
-  <si>
-    <t>KW44</t>
-  </si>
-  <si>
-    <t>KW45</t>
-  </si>
-  <si>
-    <t>KW46</t>
-  </si>
-  <si>
-    <t>KW47</t>
-  </si>
-  <si>
     <t>46*</t>
   </si>
   <si>
     <t>47*</t>
   </si>
   <si>
-    <t>KW48</t>
-  </si>
-  <si>
     <t>48*</t>
   </si>
   <si>
-    <t>KW49</t>
-  </si>
-  <si>
     <t>*Ab 03. November 2020 geänderte Testkriterien, Daten nicht direkt mit Vorwochen vergleichbar</t>
   </si>
   <si>
     <t>49*</t>
   </si>
   <si>
-    <t>KW50</t>
-  </si>
-  <si>
     <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlen).</t>
   </si>
   <si>
     <t>50*</t>
   </si>
   <si>
-    <t>KW51</t>
-  </si>
-  <si>
     <t>51*</t>
   </si>
   <si>
-    <t>KW52</t>
-  </si>
-  <si>
     <t>52*</t>
   </si>
   <si>
-    <t>KW53</t>
+    <t>53*</t>
+  </si>
+  <si>
+    <t>2020, KW11</t>
+  </si>
+  <si>
+    <t>2020, KW12</t>
+  </si>
+  <si>
+    <t>2020, KW13</t>
+  </si>
+  <si>
+    <t>2020, KW14</t>
+  </si>
+  <si>
+    <t>2020, KW15</t>
+  </si>
+  <si>
+    <t>2020, KW16</t>
+  </si>
+  <si>
+    <t>2020, KW17</t>
+  </si>
+  <si>
+    <t>2020, KW18</t>
+  </si>
+  <si>
+    <t>2020, KW19</t>
+  </si>
+  <si>
+    <t>2020, KW20</t>
+  </si>
+  <si>
+    <t>2020, KW21</t>
+  </si>
+  <si>
+    <t>2020, KW22</t>
+  </si>
+  <si>
+    <t>2020, KW23</t>
+  </si>
+  <si>
+    <t>2020, KW24</t>
+  </si>
+  <si>
+    <t>2020, KW25</t>
+  </si>
+  <si>
+    <t>2020, KW26</t>
+  </si>
+  <si>
+    <t>2020, KW27</t>
+  </si>
+  <si>
+    <t>2020, KW28</t>
+  </si>
+  <si>
+    <t>2020, KW29</t>
+  </si>
+  <si>
+    <t>2020, KW30</t>
+  </si>
+  <si>
+    <t>2020, KW31</t>
+  </si>
+  <si>
+    <t>2020, KW32</t>
+  </si>
+  <si>
+    <t>2020, KW33</t>
+  </si>
+  <si>
+    <t>2020, KW34</t>
+  </si>
+  <si>
+    <t>2020, KW35</t>
+  </si>
+  <si>
+    <t>2020, KW36</t>
+  </si>
+  <si>
+    <t>2020, KW37</t>
+  </si>
+  <si>
+    <t>2020, KW38</t>
+  </si>
+  <si>
+    <t>2020, KW39</t>
+  </si>
+  <si>
+    <t>2020, KW40</t>
+  </si>
+  <si>
+    <t>2020, KW41</t>
+  </si>
+  <si>
+    <t>2020, KW42</t>
+  </si>
+  <si>
+    <t>2020, KW43</t>
+  </si>
+  <si>
+    <t>2020, KW44</t>
+  </si>
+  <si>
+    <t>2020, KW45</t>
+  </si>
+  <si>
+    <t>2020, KW46</t>
+  </si>
+  <si>
+    <t>2020, KW47</t>
+  </si>
+  <si>
+    <t>2020, KW48</t>
+  </si>
+  <si>
+    <t>2020, KW49</t>
+  </si>
+  <si>
+    <t>2020, KW50</t>
+  </si>
+  <si>
+    <t>2020, KW51</t>
+  </si>
+  <si>
+    <t>2020, KW52</t>
+  </si>
+  <si>
+    <t>2020, KW53</t>
+  </si>
+  <si>
+    <t>2021, KW1</t>
   </si>
 </sst>
 </file>
@@ -585,9 +591,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Probenrückstau!$A$2:$B$39</c:f>
+              <c:f>Probenrückstau!$A$2:$B$40</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>15</c:v>
@@ -702,6 +708,9 @@
                   </c:pt>
                   <c:pt idx="37">
                     <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>53</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -818,6 +827,9 @@
                   </c:pt>
                   <c:pt idx="37">
                     <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>40</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -825,10 +837,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Probenrückstau!$C$2:$C$39</c:f>
+              <c:f>Probenrückstau!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3423</c:v>
                 </c:pt>
@@ -942,6 +954,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>11321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,17 +1459,17 @@
   <sheetData>
     <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1465,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F48"/>
+  <dimension ref="B3:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,17 +1696,17 @@
         <v>20</v>
       </c>
       <c r="C14" s="18">
-        <v>432076</v>
+        <v>431146</v>
       </c>
       <c r="D14" s="18">
-        <v>7080</v>
+        <v>7069</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" ref="E14:E46" si="1">(D14/C14)*100</f>
-        <v>1.6386006165581981</v>
+        <f t="shared" ref="E14:E47" si="1">(D14/C14)*100</f>
+        <v>1.6395838068774846</v>
       </c>
       <c r="F14" s="17">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1771,17 +1786,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="18">
-        <v>386316</v>
+        <v>381933</v>
       </c>
       <c r="D19" s="18">
-        <v>5276</v>
+        <v>5252</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>1.3657213265823833</v>
+        <v>1.3751102942139066</v>
       </c>
       <c r="F19" s="17">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -1861,17 +1876,17 @@
         <v>30</v>
       </c>
       <c r="C24" s="18">
-        <v>553429</v>
+        <v>553742</v>
       </c>
       <c r="D24" s="18">
         <v>4458</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
-        <v>0.80552338240316279</v>
+        <v>0.80506806418873778</v>
       </c>
       <c r="F24" s="17">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -1879,17 +1894,17 @@
         <v>31</v>
       </c>
       <c r="C25" s="18">
-        <v>586620</v>
+        <v>586967</v>
       </c>
       <c r="D25" s="18">
         <v>5738</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="1"/>
-        <v>0.97814598888547943</v>
+        <v>0.9775677337908264</v>
       </c>
       <c r="F25" s="17">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -1897,17 +1912,17 @@
         <v>32</v>
       </c>
       <c r="C26" s="18">
-        <v>716768</v>
+        <v>717123</v>
       </c>
       <c r="D26" s="18">
         <v>7263</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="1"/>
-        <v>1.0132985847582481</v>
+        <v>1.0127969678841706</v>
       </c>
       <c r="F26" s="17">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -1933,17 +1948,17 @@
         <v>34</v>
       </c>
       <c r="C28" s="18">
-        <v>1084446</v>
+        <v>1029715</v>
       </c>
       <c r="D28" s="18">
-        <v>9143</v>
+        <v>8766</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="1"/>
-        <v>0.84310329882723523</v>
+        <v>0.85130351602142351</v>
       </c>
       <c r="F28" s="17">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -1951,17 +1966,17 @@
         <v>35</v>
       </c>
       <c r="C29" s="18">
-        <v>1120883</v>
+        <v>1091207</v>
       </c>
       <c r="D29" s="18">
-        <v>8323</v>
+        <v>8061</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="1"/>
-        <v>0.74253958709338974</v>
+        <v>0.73872326698784008</v>
       </c>
       <c r="F29" s="17">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -1969,17 +1984,17 @@
         <v>36</v>
       </c>
       <c r="C30" s="18">
-        <v>1072316</v>
+        <v>1043713</v>
       </c>
       <c r="D30" s="18">
-        <v>8294</v>
+        <v>8072</v>
       </c>
       <c r="E30" s="22">
         <f t="shared" si="1"/>
-        <v>0.7734660305357749</v>
+        <v>0.77339268553711604</v>
       </c>
       <c r="F30" s="17">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -1987,17 +2002,17 @@
         <v>37</v>
       </c>
       <c r="C31" s="18">
-        <v>1164932</v>
+        <v>1133737</v>
       </c>
       <c r="D31" s="18">
-        <v>10046</v>
+        <v>9855</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="1"/>
-        <v>0.86236793220548502</v>
+        <v>0.86924921741109262</v>
       </c>
       <c r="F31" s="17">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
@@ -2005,17 +2020,17 @@
         <v>38</v>
       </c>
       <c r="C32" s="18">
-        <v>1146565</v>
+        <v>1090740</v>
       </c>
       <c r="D32" s="18">
-        <v>13261</v>
+        <v>12937</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="1"/>
-        <v>1.156585104202553</v>
+        <v>1.1860755083704642</v>
       </c>
       <c r="F32" s="17">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -2023,17 +2038,17 @@
         <v>39</v>
       </c>
       <c r="C33" s="18">
-        <v>1155995</v>
+        <v>1154700</v>
       </c>
       <c r="D33" s="18">
-        <v>14094</v>
+        <v>14140</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="1"/>
-        <v>1.2192094256463049</v>
+        <v>1.2245604919026587</v>
       </c>
       <c r="F33" s="17">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -2077,227 +2092,245 @@
         <v>42</v>
       </c>
       <c r="C36" s="18">
-        <v>1263716</v>
+        <v>1220909</v>
       </c>
       <c r="D36" s="18">
-        <v>44759</v>
+        <v>44046</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="1"/>
-        <v>3.5418559233245448</v>
+        <v>3.6076398814326045</v>
       </c>
       <c r="F36" s="17">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17">
         <v>43</v>
       </c>
-      <c r="C37" s="33">
-        <v>1418726</v>
-      </c>
-      <c r="D37" s="33">
-        <v>78106</v>
+      <c r="C37" s="18">
+        <v>1373753</v>
+      </c>
+      <c r="D37" s="18">
+        <v>77006</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="1"/>
-        <v>5.5053618528172459</v>
-      </c>
-      <c r="F37" s="32">
-        <v>204</v>
+        <v>5.605520060738721</v>
+      </c>
+      <c r="F37" s="17">
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="17">
         <v>44</v>
       </c>
-      <c r="C38" s="33">
-        <v>1631343</v>
-      </c>
-      <c r="D38" s="33">
-        <v>116673</v>
+      <c r="C38" s="18">
+        <v>1593278</v>
+      </c>
+      <c r="D38" s="18">
+        <v>115235</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" si="1"/>
-        <v>7.1519600721614038</v>
-      </c>
-      <c r="F38" s="32">
-        <v>204</v>
+        <v>7.2325733487815675</v>
+      </c>
+      <c r="F38" s="17">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="17">
         <v>45</v>
       </c>
-      <c r="C39" s="33">
-        <v>1608125</v>
-      </c>
-      <c r="D39" s="33">
-        <v>126141</v>
+      <c r="C39" s="18">
+        <v>1598527</v>
+      </c>
+      <c r="D39" s="18">
+        <v>124869</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" si="1"/>
-        <v>7.8439797901282553</v>
-      </c>
-      <c r="F39" s="32">
-        <v>203</v>
+        <v>7.8115039658385497</v>
+      </c>
+      <c r="F39" s="17">
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="33">
-        <v>1422301</v>
-      </c>
-      <c r="D40" s="33">
-        <v>126181</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1396088</v>
+      </c>
+      <c r="D40" s="18">
+        <v>125200</v>
       </c>
       <c r="E40" s="22">
         <f t="shared" si="1"/>
-        <v>8.8716101584685667</v>
-      </c>
-      <c r="F40" s="32">
-        <v>201</v>
+        <v>8.967916062597773</v>
+      </c>
+      <c r="F40" s="17">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="33">
-        <v>1394255</v>
-      </c>
-      <c r="D41" s="33">
-        <v>128668</v>
+        <v>18</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1367570</v>
+      </c>
+      <c r="D41" s="18">
+        <v>127742</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" si="1"/>
-        <v>9.2284409953702884</v>
-      </c>
-      <c r="F41" s="32">
-        <v>201</v>
+        <v>9.3408015677442471</v>
+      </c>
+      <c r="F41" s="17">
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="33">
-        <v>1379859</v>
-      </c>
-      <c r="D42" s="33">
-        <v>126140</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="18">
+        <v>1353980</v>
+      </c>
+      <c r="D42" s="18">
+        <v>125451</v>
       </c>
       <c r="E42" s="22">
         <f t="shared" si="1"/>
-        <v>9.1415137343743105</v>
-      </c>
-      <c r="F42" s="32">
-        <v>205</v>
+        <v>9.2653510391586291</v>
+      </c>
+      <c r="F42" s="17">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="33">
-        <v>1347625</v>
-      </c>
-      <c r="D43" s="33">
-        <v>135136</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1329716</v>
+      </c>
+      <c r="D43" s="18">
+        <v>135062</v>
       </c>
       <c r="E43" s="22">
         <f t="shared" si="1"/>
-        <v>10.027715425285225</v>
-      </c>
-      <c r="F43" s="32">
-        <v>204</v>
+        <v>10.157206501237859</v>
+      </c>
+      <c r="F43" s="17">
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="33">
-        <v>1504313</v>
-      </c>
-      <c r="D44" s="33">
-        <v>170200</v>
+        <v>23</v>
+      </c>
+      <c r="C44" s="18">
+        <v>1442099</v>
+      </c>
+      <c r="D44" s="18">
+        <v>165516</v>
       </c>
       <c r="E44" s="22">
         <f t="shared" si="1"/>
-        <v>11.314134757859568</v>
-      </c>
-      <c r="F44" s="32">
-        <v>201</v>
+        <v>11.477436708575487</v>
+      </c>
+      <c r="F44" s="17">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="33">
-        <v>1599120</v>
-      </c>
-      <c r="D45" s="33">
-        <v>184940</v>
+        <v>24</v>
+      </c>
+      <c r="C45" s="18">
+        <v>1612673</v>
+      </c>
+      <c r="D45" s="18">
+        <v>185669</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" si="1"/>
-        <v>11.56511081094602</v>
-      </c>
-      <c r="F45" s="32">
-        <v>202</v>
+        <v>11.513121382946203</v>
+      </c>
+      <c r="F45" s="17">
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="33">
-        <v>1057269</v>
-      </c>
-      <c r="D46" s="33">
-        <v>136998</v>
+        <v>25</v>
+      </c>
+      <c r="C46" s="18">
+        <v>1071001</v>
+      </c>
+      <c r="D46" s="18">
+        <v>138338</v>
       </c>
       <c r="E46" s="22">
         <f t="shared" si="1"/>
-        <v>12.957724098597422</v>
-      </c>
-      <c r="F46" s="32">
-        <v>188</v>
+        <v>12.916701291595434</v>
+      </c>
+      <c r="F46" s="17">
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="18">
+        <v>789680</v>
+      </c>
+      <c r="D47" s="18">
+        <v>126884</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="1"/>
+        <v>16.06777428831932</v>
+      </c>
+      <c r="F47" s="17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="20">
-        <f>SUM(C4:C46)</f>
-        <v>34801593</v>
-      </c>
-      <c r="D47" s="20">
-        <f>SUM(D4:D46)</f>
-        <v>1750584</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="C48" s="20">
+        <f>SUM(C4:C47)</f>
+        <v>35118592</v>
+      </c>
+      <c r="D48" s="20">
+        <f>SUM(D4:D47)</f>
+        <v>1866295</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2306,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2332,15 +2365,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" s="24">
         <v>28</v>
@@ -2349,15 +2382,15 @@
         <v>7115</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" s="24">
         <v>93</v>
@@ -2366,15 +2399,15 @@
         <v>31010</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" s="24">
         <v>111</v>
@@ -2383,7 +2416,7 @@
         <v>64725</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="33">
         <v>185655.005</v>
@@ -2391,7 +2424,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B6" s="24">
         <v>113</v>
@@ -2400,7 +2433,7 @@
         <v>103515</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="33">
         <v>284580.19</v>
@@ -2408,7 +2441,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" s="24">
         <v>132</v>
@@ -2417,7 +2450,7 @@
         <v>116655</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="33">
         <v>462880.00530000002</v>
@@ -2425,7 +2458,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B8" s="24">
         <v>112</v>
@@ -2442,7 +2475,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" s="24">
         <v>126</v>
@@ -2459,7 +2492,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B10" s="24">
         <v>133</v>
@@ -2476,7 +2509,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" s="24">
         <v>137</v>
@@ -2493,7 +2526,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12" s="24">
         <v>134</v>
@@ -2510,7 +2543,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B13" s="32">
         <v>136</v>
@@ -2527,7 +2560,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B14" s="32">
         <v>143</v>
@@ -2544,7 +2577,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B15" s="32">
         <v>137</v>
@@ -2561,7 +2594,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B16" s="32">
         <v>139</v>
@@ -2578,7 +2611,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B17" s="32">
         <v>138</v>
@@ -2595,7 +2628,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B18" s="32">
         <v>137</v>
@@ -2612,7 +2645,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19" s="32">
         <v>137</v>
@@ -2629,7 +2662,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B20" s="32">
         <v>145</v>
@@ -2646,7 +2679,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B21" s="32">
         <v>146</v>
@@ -2663,7 +2696,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B22" s="32">
         <v>145</v>
@@ -2680,7 +2713,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B23" s="32">
         <v>145</v>
@@ -2696,8 +2729,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>31</v>
+      <c r="A24" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="26">
         <v>149</v>
@@ -2713,8 +2746,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>32</v>
+      <c r="A25" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="26">
         <v>151</v>
@@ -2730,8 +2763,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>33</v>
+      <c r="A26" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="26">
         <v>157</v>
@@ -2747,8 +2780,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>34</v>
+      <c r="A27" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="26">
         <v>163</v>
@@ -2764,8 +2797,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>35</v>
+      <c r="A28" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="B28" s="26">
         <v>168</v>
@@ -2781,8 +2814,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>36</v>
+      <c r="A29" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="26">
         <v>168</v>
@@ -2798,8 +2831,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>37</v>
+      <c r="A30" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B30" s="29">
         <v>165</v>
@@ -2815,8 +2848,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
-        <v>38</v>
+      <c r="A31" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B31" s="29">
         <v>170</v>
@@ -2832,8 +2865,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>39</v>
+      <c r="A32" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="B32" s="29">
         <v>168</v>
@@ -2849,8 +2882,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>40</v>
+      <c r="A33" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="29">
         <v>166</v>
@@ -2866,8 +2899,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>41</v>
+      <c r="A34" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="29">
         <v>164</v>
@@ -2883,8 +2916,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
-        <v>49</v>
+      <c r="A35" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="29">
         <v>167</v>
@@ -2900,8 +2933,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
-        <v>50</v>
+      <c r="A36" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="B36" s="29">
         <v>184</v>
@@ -2917,8 +2950,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="29" t="s">
-        <v>51</v>
+      <c r="A37" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="29">
         <v>176</v>
@@ -2934,8 +2967,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="29" t="s">
-        <v>52</v>
+      <c r="A38" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B38" s="29">
         <v>170</v>
@@ -2951,8 +2984,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
-        <v>53</v>
+      <c r="A39" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B39" s="29">
         <v>175</v>
@@ -2968,8 +3001,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="29" t="s">
-        <v>56</v>
+      <c r="A40" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="B40" s="29">
         <v>169</v>
@@ -2985,8 +3018,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
-        <v>58</v>
+      <c r="A41" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B41" s="29">
         <v>168</v>
@@ -3002,8 +3035,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="29" t="s">
-        <v>61</v>
+      <c r="A42" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="B42" s="29">
         <v>175</v>
@@ -3019,8 +3052,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
-        <v>64</v>
+      <c r="A43" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="B43" s="29">
         <v>175</v>
@@ -3036,8 +3069,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
-        <v>66</v>
+      <c r="A44" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B44" s="29">
         <v>181</v>
@@ -3053,8 +3086,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
-        <v>68</v>
+      <c r="A45" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B45" s="29">
         <v>173</v>
@@ -3067,6 +3100,23 @@
       </c>
       <c r="E45" s="33">
         <v>1227355.3500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="29">
+        <v>177</v>
+      </c>
+      <c r="C46" s="33">
+        <v>331086</v>
+      </c>
+      <c r="D46" s="33">
+        <v>2098574</v>
+      </c>
+      <c r="E46" s="33">
+        <v>1874827</v>
       </c>
     </row>
   </sheetData>
@@ -3077,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3092,13 +3142,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6"/>
     </row>
@@ -3541,6 +3591,17 @@
       </c>
       <c r="C39" s="33">
         <v>11321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
+        <v>40</v>
+      </c>
+      <c r="B40" s="28">
+        <v>53</v>
+      </c>
+      <c r="C40" s="33">
+        <v>6557</v>
       </c>
     </row>
   </sheetData>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -1,12 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5A673F-047C-4ED6-87C2-F21DD996B5CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="5" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="Testkapazitäten" sheetId="2" r:id="rId3"/>
     <sheet name="Probenrückstau" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Kalenderwoche 2020</t>
   </si>
@@ -232,12 +231,15 @@
   </si>
   <si>
     <t>2021, KW1</t>
+  </si>
+  <si>
+    <t>2021, KW2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
@@ -391,7 +393,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,31 +496,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0]" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Percent" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma" xfId="5"/>
+    <cellStyle name="Comma [0]" xfId="6"/>
+    <cellStyle name="Currency" xfId="3"/>
+    <cellStyle name="Currency [0]" xfId="4"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Percent" xfId="2"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Standard 11" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Standard 12" xfId="21" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Standard 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Standard 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Standard 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Standard 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Standard 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Standard 5 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Standard 5 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Standard 5_Tabelle1" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Standard 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Standard 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Standard 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Standard 9" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Standard 10" xfId="19"/>
+    <cellStyle name="Standard 11" xfId="20"/>
+    <cellStyle name="Standard 12" xfId="21"/>
+    <cellStyle name="Standard 2" xfId="8"/>
+    <cellStyle name="Standard 3" xfId="9"/>
+    <cellStyle name="Standard 4" xfId="10"/>
+    <cellStyle name="Standard 5" xfId="12"/>
+    <cellStyle name="Standard 5 2" xfId="13"/>
+    <cellStyle name="Standard 5 2 2" xfId="22"/>
+    <cellStyle name="Standard 5 3" xfId="14"/>
+    <cellStyle name="Standard 5_Tabelle1" xfId="15"/>
+    <cellStyle name="Standard 6" xfId="1"/>
+    <cellStyle name="Standard 7" xfId="16"/>
+    <cellStyle name="Standard 8" xfId="17"/>
+    <cellStyle name="Standard 9" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,7 +537,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -548,6 +551,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -961,7 +965,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68D1-41B7-9863-0787141F2504}"/>
             </c:ext>
@@ -976,11 +980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="64236160"/>
-        <c:axId val="67249280"/>
+        <c:axId val="183621632"/>
+        <c:axId val="37559616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64236160"/>
+        <c:axId val="183621632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67249280"/>
+        <c:crossAx val="37559616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67249280"/>
+        <c:axId val="37559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,13 +1063,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64236160"/>
+        <c:crossAx val="183621632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1102,7 +1107,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,9 +1131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1166,9 +1171,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,26 +1206,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1253,26 +1241,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1445,29 +1416,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.81640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="140.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1479,22 +1450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="19">
         <v>14</v>
       </c>
@@ -1601,7 +1572,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="19">
         <v>15</v>
       </c>
@@ -1619,7 +1590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="19">
         <v>16</v>
       </c>
@@ -1637,7 +1608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="17">
         <v>17</v>
       </c>
@@ -1655,7 +1626,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="17">
         <v>18</v>
       </c>
@@ -1673,7 +1644,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="17">
         <v>19</v>
       </c>
@@ -1702,14 +1673,14 @@
         <v>7069</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" ref="E14:E47" si="1">(D14/C14)*100</f>
+        <f t="shared" ref="E14:E48" si="1">(D14/C14)*100</f>
         <v>1.6395838068774846</v>
       </c>
       <c r="F14" s="17">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="17">
         <v>21</v>
       </c>
@@ -1727,7 +1698,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="17">
         <v>22</v>
       </c>
@@ -1745,7 +1716,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="17">
         <v>23</v>
       </c>
@@ -1763,7 +1734,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="17">
         <v>24</v>
       </c>
@@ -1781,7 +1752,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="17">
         <v>25</v>
       </c>
@@ -1799,7 +1770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" s="17">
         <v>26</v>
       </c>
@@ -1817,7 +1788,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="17">
         <v>27</v>
       </c>
@@ -1835,7 +1806,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="17">
         <v>28</v>
       </c>
@@ -1853,7 +1824,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="17">
         <v>29</v>
       </c>
@@ -1871,7 +1842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="17">
         <v>30</v>
       </c>
@@ -1889,7 +1860,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="17">
         <v>31</v>
       </c>
@@ -1907,7 +1878,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B26" s="17">
         <v>32</v>
       </c>
@@ -1925,7 +1896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="17">
         <v>33</v>
       </c>
@@ -1943,7 +1914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <v>34</v>
       </c>
@@ -1961,7 +1932,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B29" s="17">
         <v>35</v>
       </c>
@@ -1979,7 +1950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="17">
         <v>36</v>
       </c>
@@ -1997,7 +1968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
         <v>37</v>
       </c>
@@ -2015,7 +1986,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <v>38</v>
       </c>
@@ -2033,7 +2004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
         <v>39</v>
       </c>
@@ -2051,7 +2022,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <v>40</v>
       </c>
@@ -2069,7 +2040,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <v>41</v>
       </c>
@@ -2087,7 +2058,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
         <v>42</v>
       </c>
@@ -2105,7 +2076,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <v>43</v>
       </c>
@@ -2123,7 +2094,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
         <v>44</v>
       </c>
@@ -2141,7 +2112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>45</v>
       </c>
@@ -2159,7 +2130,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
@@ -2177,7 +2148,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2166,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2184,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>21</v>
       </c>
@@ -2231,25 +2202,25 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="18">
-        <v>1442099</v>
+        <v>1445671</v>
       </c>
       <c r="D44" s="18">
-        <v>165516</v>
+        <v>165953</v>
       </c>
       <c r="E44" s="22">
         <f t="shared" si="1"/>
-        <v>11.477436708575487</v>
+        <v>11.479306149186087</v>
       </c>
       <c r="F44" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>24</v>
       </c>
@@ -2267,70 +2238,88 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="18">
-        <v>1071001</v>
+        <v>1076581</v>
       </c>
       <c r="D46" s="18">
-        <v>138338</v>
+        <v>138751</v>
       </c>
       <c r="E46" s="22">
         <f t="shared" si="1"/>
-        <v>12.916701291595434</v>
+        <v>12.888115246321458</v>
       </c>
       <c r="F46" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="18">
-        <v>789680</v>
+        <v>804617</v>
       </c>
       <c r="D47" s="18">
-        <v>126884</v>
+        <v>127805</v>
       </c>
       <c r="E47" s="22">
         <f t="shared" si="1"/>
-        <v>16.06777428831932</v>
+        <v>15.883954726285923</v>
       </c>
       <c r="F47" s="17">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="18">
+        <v>1210515</v>
+      </c>
+      <c r="D48" s="18">
+        <v>154709</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="1"/>
+        <v>12.780428164871976</v>
+      </c>
+      <c r="F48" s="17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="20">
-        <f>SUM(C4:C47)</f>
-        <v>35118592</v>
-      </c>
-      <c r="D48" s="20">
-        <f>SUM(D4:D47)</f>
-        <v>1866295</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="35" t="s">
+      <c r="C49" s="20">
+        <f>SUM(C4:C48)</f>
+        <v>36353196</v>
+      </c>
+      <c r="D49" s="20">
+        <f>SUM(D4:D48)</f>
+        <v>2022775</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2338,23 +2327,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>28</v>
       </c>
@@ -2405,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2411,7 @@
         <v>185655.005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>284580.19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
@@ -2456,7 +2445,7 @@
         <v>462880.00530000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2462,7 @@
         <v>596910.04500000004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
@@ -2490,7 +2479,7 @@
         <v>580890</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>34</v>
       </c>
@@ -2507,7 +2496,7 @@
         <v>741399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>35</v>
       </c>
@@ -2524,7 +2513,7 @@
         <v>820491</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>36</v>
       </c>
@@ -2541,7 +2530,7 @@
         <v>831816.00349999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2547,7 @@
         <v>874362</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>38</v>
       </c>
@@ -2575,7 +2564,7 @@
         <v>888561</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>39</v>
       </c>
@@ -2592,7 +2581,7 @@
         <v>896041</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>40</v>
       </c>
@@ -2609,7 +2598,7 @@
         <v>939801</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>41</v>
       </c>
@@ -2626,7 +2615,7 @@
         <v>974698</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>42</v>
       </c>
@@ -2643,7 +2632,7 @@
         <v>1010309</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -2660,7 +2649,7 @@
         <v>994060</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>44</v>
       </c>
@@ -2677,7 +2666,7 @@
         <v>1003758</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>45</v>
       </c>
@@ -2694,7 +2683,7 @@
         <v>1020962</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>46</v>
       </c>
@@ -2711,7 +2700,7 @@
         <v>1041871.025</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>47</v>
       </c>
@@ -2728,7 +2717,7 @@
         <v>1063581</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>48</v>
       </c>
@@ -2745,7 +2734,7 @@
         <v>1063790</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>49</v>
       </c>
@@ -2762,7 +2751,7 @@
         <v>1048585</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>50</v>
       </c>
@@ -2779,7 +2768,7 @@
         <v>1153170</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>51</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>1306192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>52</v>
       </c>
@@ -2813,7 +2802,7 @@
         <v>1155779</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>53</v>
       </c>
@@ -2830,7 +2819,7 @@
         <v>1154136.69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>54</v>
       </c>
@@ -2847,7 +2836,7 @@
         <v>1217216</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>55</v>
       </c>
@@ -2864,7 +2853,7 @@
         <v>1339112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>56</v>
       </c>
@@ -2881,7 +2870,7 @@
         <v>1354917</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>57</v>
       </c>
@@ -2898,7 +2887,7 @@
         <v>1457887</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>58</v>
       </c>
@@ -2915,7 +2904,7 @@
         <v>1568002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>59</v>
       </c>
@@ -2932,7 +2921,7 @@
         <v>1606830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>60</v>
       </c>
@@ -2949,7 +2938,7 @@
         <v>1612826</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>61</v>
       </c>
@@ -2966,7 +2955,7 @@
         <v>1596042</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>62</v>
       </c>
@@ -2983,7 +2972,7 @@
         <v>1677221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>63</v>
       </c>
@@ -3000,7 +2989,7 @@
         <v>1812210</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>64</v>
       </c>
@@ -3017,7 +3006,7 @@
         <v>1837984</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>65</v>
       </c>
@@ -3034,7 +3023,7 @@
         <v>1918794</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>66</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>1944190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>67</v>
       </c>
@@ -3068,7 +3057,7 @@
         <v>2019604</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>68</v>
       </c>
@@ -3085,7 +3074,7 @@
         <v>1203720.93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>69</v>
       </c>
@@ -3102,7 +3091,7 @@
         <v>1227355.3500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>70</v>
       </c>
@@ -3117,6 +3106,20 @@
       </c>
       <c r="E46" s="33">
         <v>1874827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>176</v>
+      </c>
+      <c r="C47" s="36">
+        <v>334756</v>
+      </c>
+      <c r="D47" s="36">
+        <v>2222744</v>
       </c>
     </row>
   </sheetData>
@@ -3126,21 +3129,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -3164,7 +3167,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>34</v>
       </c>
@@ -3176,7 +3179,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>29</v>
       </c>
@@ -3188,7 +3191,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -3200,7 +3203,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>29</v>
       </c>
@@ -3212,7 +3215,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>27</v>
       </c>
@@ -3224,7 +3227,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>28</v>
       </c>
@@ -3236,7 +3239,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -3248,7 +3251,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>51</v>
       </c>
@@ -3272,7 +3275,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>46</v>
       </c>
@@ -3284,7 +3287,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>71</v>
       </c>
@@ -3296,7 +3299,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>46</v>
       </c>
@@ -3308,7 +3311,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -3320,7 +3323,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>42</v>
       </c>
@@ -3332,7 +3335,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -3356,7 +3359,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>36</v>
       </c>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -3380,7 +3383,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>49</v>
       </c>
@@ -3392,7 +3395,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>48</v>
       </c>
@@ -3416,7 +3419,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -3428,7 +3431,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>12876</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>46</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>15983</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>8245.0000999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>47</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>16840</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="32">
         <v>52</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>20799</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <v>57</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>68574</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <v>69</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>98931</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <v>66</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>60113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="32">
         <v>58</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>23654</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <v>48</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>17037</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="32">
         <v>53</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>14091</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="32">
         <v>50</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>50</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>19009</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
         <v>57</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>21364.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>43</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>11321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="28">
         <v>40</v>
       </c>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A8C6D-CF96-47E2-BA0C-1E469381DEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" activeTab="2"/>
+    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="5" r:id="rId1"/>
@@ -13,15 +14,12 @@
     <sheet name="Testkapazitäten" sheetId="2" r:id="rId3"/>
     <sheet name="Probenrückstau" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
-  <si>
-    <t>Kalenderwoche 2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>Anzahl Testungen</t>
   </si>
@@ -29,9 +27,6 @@
     <t>Positiv getestet</t>
   </si>
   <si>
-    <t>Bis einschließlich KW10</t>
-  </si>
-  <si>
     <t>Anzahl übermittelnde Labore</t>
   </si>
   <si>
@@ -71,36 +66,12 @@
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testzkapazitäten, Probenrückstau). </t>
   </si>
   <si>
-    <t>46*</t>
-  </si>
-  <si>
-    <t>47*</t>
-  </si>
-  <si>
-    <t>48*</t>
-  </si>
-  <si>
     <t>*Ab 03. November 2020 geänderte Testkriterien, Daten nicht direkt mit Vorwochen vergleichbar</t>
   </si>
   <si>
-    <t>49*</t>
-  </si>
-  <si>
     <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlen).</t>
   </si>
   <si>
-    <t>50*</t>
-  </si>
-  <si>
-    <t>51*</t>
-  </si>
-  <si>
-    <t>52*</t>
-  </si>
-  <si>
-    <t>53*</t>
-  </si>
-  <si>
     <t>2020, KW11</t>
   </si>
   <si>
@@ -231,6 +202,144 @@
   </si>
   <si>
     <t>2021, KW1</t>
+  </si>
+  <si>
+    <t>Kalenderwoche</t>
+  </si>
+  <si>
+    <t>Bis einschließlich KW10, 2020</t>
+  </si>
+  <si>
+    <t>11/2020</t>
+  </si>
+  <si>
+    <t>12/2020</t>
+  </si>
+  <si>
+    <t>13/2020</t>
+  </si>
+  <si>
+    <t>14/2020</t>
+  </si>
+  <si>
+    <t>15/2020</t>
+  </si>
+  <si>
+    <t>16/2020</t>
+  </si>
+  <si>
+    <t>17/2020</t>
+  </si>
+  <si>
+    <t>18/2020</t>
+  </si>
+  <si>
+    <t>19/2020</t>
+  </si>
+  <si>
+    <t>20/2020</t>
+  </si>
+  <si>
+    <t>21/2020</t>
+  </si>
+  <si>
+    <t>22/2020</t>
+  </si>
+  <si>
+    <t>23/2020</t>
+  </si>
+  <si>
+    <t>24/2020</t>
+  </si>
+  <si>
+    <t>25/2020</t>
+  </si>
+  <si>
+    <t>26/2020</t>
+  </si>
+  <si>
+    <t>27/2020</t>
+  </si>
+  <si>
+    <t>28/2020</t>
+  </si>
+  <si>
+    <t>29/2020</t>
+  </si>
+  <si>
+    <t>30/2020</t>
+  </si>
+  <si>
+    <t>31/2020</t>
+  </si>
+  <si>
+    <t>32/2020</t>
+  </si>
+  <si>
+    <t>33/2020</t>
+  </si>
+  <si>
+    <t>34/2020</t>
+  </si>
+  <si>
+    <t>35/2020</t>
+  </si>
+  <si>
+    <t>36/2020</t>
+  </si>
+  <si>
+    <t>37/2020</t>
+  </si>
+  <si>
+    <t>38/2020</t>
+  </si>
+  <si>
+    <t>39/2020</t>
+  </si>
+  <si>
+    <t>40/2020</t>
+  </si>
+  <si>
+    <t>41/2020</t>
+  </si>
+  <si>
+    <t>42/2020</t>
+  </si>
+  <si>
+    <t>43/2020</t>
+  </si>
+  <si>
+    <t>44/2020</t>
+  </si>
+  <si>
+    <t>45/2020</t>
+  </si>
+  <si>
+    <t>46/2020*</t>
+  </si>
+  <si>
+    <t>47/2020*</t>
+  </si>
+  <si>
+    <t>48/2020*</t>
+  </si>
+  <si>
+    <t>49/2020*</t>
+  </si>
+  <si>
+    <t>50/2020*</t>
+  </si>
+  <si>
+    <t>51/2020*</t>
+  </si>
+  <si>
+    <t>52/2020*</t>
+  </si>
+  <si>
+    <t>53/2020*</t>
+  </si>
+  <si>
+    <t>1/2021*</t>
   </si>
   <si>
     <t>2021, KW2</t>
@@ -239,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
@@ -496,32 +605,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma" xfId="5"/>
-    <cellStyle name="Comma [0]" xfId="6"/>
-    <cellStyle name="Currency" xfId="3"/>
-    <cellStyle name="Currency [0]" xfId="4"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
-    <cellStyle name="Normal" xfId="7"/>
-    <cellStyle name="Percent" xfId="2"/>
+    <cellStyle name="Comma" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 10" xfId="19"/>
-    <cellStyle name="Standard 11" xfId="20"/>
-    <cellStyle name="Standard 12" xfId="21"/>
-    <cellStyle name="Standard 2" xfId="8"/>
-    <cellStyle name="Standard 3" xfId="9"/>
-    <cellStyle name="Standard 4" xfId="10"/>
-    <cellStyle name="Standard 5" xfId="12"/>
-    <cellStyle name="Standard 5 2" xfId="13"/>
-    <cellStyle name="Standard 5 2 2" xfId="22"/>
-    <cellStyle name="Standard 5 3" xfId="14"/>
-    <cellStyle name="Standard 5_Tabelle1" xfId="15"/>
-    <cellStyle name="Standard 6" xfId="1"/>
-    <cellStyle name="Standard 7" xfId="16"/>
-    <cellStyle name="Standard 8" xfId="17"/>
-    <cellStyle name="Standard 9" xfId="18"/>
+    <cellStyle name="Standard 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 11" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard 12" xfId="21" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Standard 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Standard 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Standard 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Standard 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Standard 5 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Standard 5 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Standard 5_Tabelle1" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Standard 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Standard 9" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +648,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -551,7 +662,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -595,9 +705,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Probenrückstau!$A$2:$B$40</c:f>
+              <c:f>Probenrückstau!$A$2:$B$41</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>15</c:v>
@@ -715,6 +825,9 @@
                   </c:pt>
                   <c:pt idx="38">
                     <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -834,6 +947,9 @@
                   </c:pt>
                   <c:pt idx="38">
                     <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>47</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -841,10 +957,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Probenrückstau!$C$2:$C$40</c:f>
+              <c:f>Probenrückstau!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3423</c:v>
                 </c:pt>
@@ -961,11 +1077,14 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>6557</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11691.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68D1-41B7-9863-0787141F2504}"/>
             </c:ext>
@@ -980,11 +1099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183621632"/>
-        <c:axId val="37559616"/>
+        <c:axId val="64236160"/>
+        <c:axId val="67249280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183621632"/>
+        <c:axId val="64236160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37559616"/>
+        <c:crossAx val="67249280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37559616"/>
+        <c:axId val="67249280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,14 +1182,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183621632"/>
+        <c:crossAx val="64236160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,7 +1225,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,9 +1249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1171,9 +1289,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,9 +1324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,9 +1376,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1416,31 +1568,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="140.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="140.81640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1450,41 +1602,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12">
         <v>124716</v>
@@ -1501,8 +1653,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11">
-        <v>11</v>
+      <c r="B5" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="12">
         <v>127457</v>
@@ -1519,8 +1671,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11">
-        <v>12</v>
+      <c r="B6" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="12">
         <v>348619</v>
@@ -1537,8 +1689,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
-        <v>13</v>
+      <c r="B7" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="15">
         <v>361515</v>
@@ -1554,9 +1706,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B8" s="19">
-        <v>14</v>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="14">
         <v>408348</v>
@@ -1572,9 +1724,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B9" s="19">
-        <v>15</v>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="16">
         <v>380197</v>
@@ -1590,9 +1742,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
-        <v>16</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="16">
         <v>331902</v>
@@ -1608,9 +1760,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B11" s="17">
-        <v>17</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="16">
         <v>363890</v>
@@ -1626,9 +1778,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B12" s="17">
-        <v>18</v>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="18">
         <v>326788</v>
@@ -1644,9 +1796,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
-        <v>19</v>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="C13" s="18">
         <v>403875</v>
@@ -1663,8 +1815,8 @@
       </c>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17">
-        <v>20</v>
+      <c r="B14" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="18">
         <v>431146</v>
@@ -1680,9 +1832,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B15" s="17">
-        <v>21</v>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="18">
         <v>354260</v>
@@ -1698,9 +1850,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B16" s="17">
-        <v>22</v>
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="18">
         <v>401589</v>
@@ -1716,9 +1868,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B17" s="17">
-        <v>23</v>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="18">
         <v>337217</v>
@@ -1734,9 +1886,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B18" s="17">
-        <v>24</v>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="18">
         <v>327196</v>
@@ -1752,9 +1904,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B19" s="17">
-        <v>25</v>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="18">
         <v>381933</v>
@@ -1770,9 +1922,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B20" s="17">
-        <v>26</v>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="18">
         <v>464626</v>
@@ -1788,9 +1940,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B21" s="17">
-        <v>27</v>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="18">
         <v>506459</v>
@@ -1806,9 +1958,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B22" s="17">
-        <v>28</v>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="18">
         <v>510551</v>
@@ -1824,9 +1976,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B23" s="17">
-        <v>29</v>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="18">
         <v>538701</v>
@@ -1842,9 +1994,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B24" s="17">
-        <v>30</v>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="18">
         <v>553742</v>
@@ -1860,9 +2012,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B25" s="17">
-        <v>31</v>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="18">
         <v>586967</v>
@@ -1878,9 +2030,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B26" s="17">
-        <v>32</v>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C26" s="18">
         <v>717123</v>
@@ -1896,9 +2048,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B27" s="17">
-        <v>33</v>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="18">
         <v>835384</v>
@@ -1914,9 +2066,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B28" s="17">
-        <v>34</v>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="C28" s="18">
         <v>1029715</v>
@@ -1932,9 +2084,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B29" s="17">
-        <v>35</v>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="18">
         <v>1091207</v>
@@ -1950,9 +2102,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
-        <v>36</v>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="18">
         <v>1043713</v>
@@ -1968,9 +2120,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
-        <v>37</v>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="18">
         <v>1133737</v>
@@ -1986,9 +2138,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
-        <v>38</v>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="18">
         <v>1090740</v>
@@ -2004,9 +2156,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="17">
-        <v>39</v>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="18">
         <v>1154700</v>
@@ -2022,9 +2174,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
-        <v>40</v>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C34" s="18">
         <v>1112967</v>
@@ -2040,9 +2192,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="17">
-        <v>41</v>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C35" s="18">
         <v>1188338</v>
@@ -2058,9 +2210,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
-        <v>42</v>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C36" s="18">
         <v>1220909</v>
@@ -2076,9 +2228,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="17">
-        <v>43</v>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C37" s="18">
         <v>1373753</v>
@@ -2094,9 +2246,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
-        <v>44</v>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C38" s="18">
         <v>1593278</v>
@@ -2112,9 +2264,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
-        <v>45</v>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="C39" s="18">
         <v>1598527</v>
@@ -2130,9 +2282,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>17</v>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="C40" s="18">
         <v>1396088</v>
@@ -2148,9 +2300,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>18</v>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="C41" s="18">
         <v>1367570</v>
@@ -2166,9 +2318,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>19</v>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="C42" s="18">
         <v>1353980</v>
@@ -2184,9 +2336,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>21</v>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="C43" s="18">
         <v>1329716</v>
@@ -2202,9 +2354,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>23</v>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="C44" s="18">
         <v>1445671</v>
@@ -2220,9 +2372,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>24</v>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="C45" s="18">
         <v>1612673</v>
@@ -2238,9 +2390,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>25</v>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="C46" s="18">
         <v>1076581</v>
@@ -2256,9 +2408,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>26</v>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="C47" s="18">
         <v>804617</v>
@@ -2274,9 +2426,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
-        <v>1</v>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="C48" s="18">
         <v>1210515</v>
@@ -2292,9 +2444,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" s="20">
         <f>SUM(C4:C48)</f>
@@ -2307,9 +2459,9 @@
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -2327,42 +2479,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="24">
         <v>28</v>
@@ -2371,15 +2523,15 @@
         <v>7115</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" s="24">
         <v>93</v>
@@ -2388,15 +2540,15 @@
         <v>31010</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" s="24">
         <v>111</v>
@@ -2405,15 +2557,15 @@
         <v>64725</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="33">
         <v>185655.005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="24">
         <v>113</v>
@@ -2422,15 +2574,15 @@
         <v>103515</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="33">
         <v>284580.19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" s="24">
         <v>132</v>
@@ -2439,15 +2591,15 @@
         <v>116655</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="33">
         <v>462880.00530000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B8" s="24">
         <v>112</v>
@@ -2462,9 +2614,9 @@
         <v>596910.04500000004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B9" s="24">
         <v>126</v>
@@ -2479,9 +2631,9 @@
         <v>580890</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B10" s="24">
         <v>133</v>
@@ -2496,9 +2648,9 @@
         <v>741399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11" s="24">
         <v>137</v>
@@ -2513,9 +2665,9 @@
         <v>820491</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B12" s="24">
         <v>134</v>
@@ -2530,9 +2682,9 @@
         <v>831816.00349999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B13" s="32">
         <v>136</v>
@@ -2547,9 +2699,9 @@
         <v>874362</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14" s="32">
         <v>143</v>
@@ -2564,9 +2716,9 @@
         <v>888561</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B15" s="32">
         <v>137</v>
@@ -2581,9 +2733,9 @@
         <v>896041</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" s="32">
         <v>139</v>
@@ -2598,9 +2750,9 @@
         <v>939801</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B17" s="32">
         <v>138</v>
@@ -2615,9 +2767,9 @@
         <v>974698</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B18" s="32">
         <v>137</v>
@@ -2632,9 +2784,9 @@
         <v>1010309</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B19" s="32">
         <v>137</v>
@@ -2649,9 +2801,9 @@
         <v>994060</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B20" s="32">
         <v>145</v>
@@ -2666,9 +2818,9 @@
         <v>1003758</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B21" s="32">
         <v>146</v>
@@ -2683,9 +2835,9 @@
         <v>1020962</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B22" s="32">
         <v>145</v>
@@ -2700,9 +2852,9 @@
         <v>1041871.025</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B23" s="32">
         <v>145</v>
@@ -2717,9 +2869,9 @@
         <v>1063581</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B24" s="26">
         <v>149</v>
@@ -2734,9 +2886,9 @@
         <v>1063790</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B25" s="26">
         <v>151</v>
@@ -2751,9 +2903,9 @@
         <v>1048585</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26" s="26">
         <v>157</v>
@@ -2768,9 +2920,9 @@
         <v>1153170</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B27" s="26">
         <v>163</v>
@@ -2785,9 +2937,9 @@
         <v>1306192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B28" s="26">
         <v>168</v>
@@ -2802,9 +2954,9 @@
         <v>1155779</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B29" s="26">
         <v>168</v>
@@ -2819,9 +2971,9 @@
         <v>1154136.69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B30" s="29">
         <v>165</v>
@@ -2836,9 +2988,9 @@
         <v>1217216</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B31" s="29">
         <v>170</v>
@@ -2853,9 +3005,9 @@
         <v>1339112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B32" s="29">
         <v>168</v>
@@ -2870,9 +3022,9 @@
         <v>1354917</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B33" s="29">
         <v>166</v>
@@ -2887,9 +3039,9 @@
         <v>1457887</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B34" s="29">
         <v>164</v>
@@ -2904,9 +3056,9 @@
         <v>1568002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B35" s="29">
         <v>167</v>
@@ -2921,9 +3073,9 @@
         <v>1606830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B36" s="29">
         <v>184</v>
@@ -2938,9 +3090,9 @@
         <v>1612826</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B37" s="29">
         <v>176</v>
@@ -2955,9 +3107,9 @@
         <v>1596042</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B38" s="29">
         <v>170</v>
@@ -2972,9 +3124,9 @@
         <v>1677221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B39" s="29">
         <v>175</v>
@@ -2989,9 +3141,9 @@
         <v>1812210</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B40" s="29">
         <v>169</v>
@@ -3006,9 +3158,9 @@
         <v>1837984</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B41" s="29">
         <v>168</v>
@@ -3023,9 +3175,9 @@
         <v>1918794</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B42" s="29">
         <v>175</v>
@@ -3040,9 +3192,9 @@
         <v>1944190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B43" s="29">
         <v>175</v>
@@ -3057,9 +3209,9 @@
         <v>2019604</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B44" s="29">
         <v>181</v>
@@ -3074,9 +3226,9 @@
         <v>1203720.93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B45" s="29">
         <v>173</v>
@@ -3091,9 +3243,9 @@
         <v>1227355.3500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B46" s="29">
         <v>177</v>
@@ -3108,18 +3260,21 @@
         <v>1874827</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="29">
         <v>176</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="33">
         <v>334756</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="33">
         <v>2222744</v>
+      </c>
+      <c r="E47" s="33">
+        <v>2017760</v>
       </c>
     </row>
   </sheetData>
@@ -3129,33 +3284,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -3167,7 +3322,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>34</v>
       </c>
@@ -3179,7 +3334,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>29</v>
       </c>
@@ -3191,7 +3346,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -3203,7 +3358,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>29</v>
       </c>
@@ -3215,7 +3370,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>27</v>
       </c>
@@ -3227,7 +3382,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>28</v>
       </c>
@@ -3239,7 +3394,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -3251,7 +3406,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -3263,7 +3418,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>51</v>
       </c>
@@ -3275,7 +3430,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>46</v>
       </c>
@@ -3287,7 +3442,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>71</v>
       </c>
@@ -3299,7 +3454,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>46</v>
       </c>
@@ -3311,7 +3466,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -3323,7 +3478,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>42</v>
       </c>
@@ -3335,7 +3490,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -3347,7 +3502,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -3359,7 +3514,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>36</v>
       </c>
@@ -3371,7 +3526,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -3383,7 +3538,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>49</v>
       </c>
@@ -3395,7 +3550,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -3407,7 +3562,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>48</v>
       </c>
@@ -3419,7 +3574,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -3431,7 +3586,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -3442,7 +3597,7 @@
         <v>12876</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>46</v>
       </c>
@@ -3453,7 +3608,7 @@
         <v>15983</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42</v>
       </c>
@@ -3464,7 +3619,7 @@
         <v>8245.0000999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>47</v>
       </c>
@@ -3475,7 +3630,7 @@
         <v>16840</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="32">
         <v>52</v>
       </c>
@@ -3486,7 +3641,7 @@
         <v>20799</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <v>57</v>
       </c>
@@ -3497,7 +3652,7 @@
         <v>68574</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <v>69</v>
       </c>
@@ -3508,7 +3663,7 @@
         <v>98931</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <v>66</v>
       </c>
@@ -3519,7 +3674,7 @@
         <v>60113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="32">
         <v>58</v>
       </c>
@@ -3530,7 +3685,7 @@
         <v>23654</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <v>48</v>
       </c>
@@ -3541,7 +3696,7 @@
         <v>17037</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="32">
         <v>53</v>
       </c>
@@ -3552,7 +3707,7 @@
         <v>14091</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="32">
         <v>50</v>
       </c>
@@ -3563,7 +3718,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>50</v>
       </c>
@@ -3574,7 +3729,7 @@
         <v>19009</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
         <v>57</v>
       </c>
@@ -3585,7 +3740,7 @@
         <v>21364.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>43</v>
       </c>
@@ -3596,7 +3751,7 @@
         <v>11321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="28">
         <v>40</v>
       </c>
@@ -3605,6 +3760,17 @@
       </c>
       <c r="C40" s="33">
         <v>6557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <v>47</v>
+      </c>
+      <c r="B41" s="28">
+        <v>1</v>
+      </c>
+      <c r="C41" s="33">
+        <v>11691.1</v>
       </c>
     </row>
   </sheetData>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A8C6D-CF96-47E2-BA0C-1E469381DEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5720B-026D-4DAE-AEEF-CBB3AE217A40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Anzahl Testungen</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>2021, KW2</t>
+  </si>
+  <si>
+    <t>2/2021*</t>
+  </si>
+  <si>
+    <t>2021, KW3</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,25 +542,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,14 +587,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -705,9 +693,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Probenrückstau!$A$2:$B$41</c:f>
+              <c:f>Probenrückstau!$A$2:$B$42</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>15</c:v>
@@ -828,6 +816,9 @@
                   </c:pt>
                   <c:pt idx="39">
                     <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -950,6 +941,9 @@
                   </c:pt>
                   <c:pt idx="39">
                     <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>46</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -957,10 +951,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Probenrückstau!$C$2:$C$41</c:f>
+              <c:f>Probenrückstau!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3423</c:v>
                 </c:pt>
@@ -1080,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11691.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11336.5461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F50"/>
+  <dimension ref="B3:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,839 +1636,857 @@
         <v>62</v>
       </c>
       <c r="C4" s="12">
-        <v>124716</v>
+        <v>62253</v>
       </c>
       <c r="D4" s="12">
-        <v>3892</v>
-      </c>
-      <c r="E4" s="22">
+        <v>1589</v>
+      </c>
+      <c r="E4" s="16">
         <f>(D4/C4)*100</f>
-        <v>3.1206902081529231</v>
+        <v>2.5524874303246432</v>
       </c>
       <c r="F4" s="11">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="12">
-        <v>127457</v>
+        <v>126890</v>
       </c>
       <c r="D5" s="12">
-        <v>7582</v>
-      </c>
-      <c r="E5" s="22">
-        <f t="shared" ref="E5:E12" si="0">(D5/C5)*100</f>
-        <v>5.9486728857575502</v>
+        <v>7419</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:E49" si="0">(D5/C5)*100</f>
+        <v>5.8467964378595632</v>
       </c>
       <c r="F5" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="12">
-        <v>348619</v>
+        <v>368346</v>
       </c>
       <c r="D6" s="12">
-        <v>23820</v>
-      </c>
-      <c r="E6" s="22">
-        <f t="shared" si="0"/>
-        <v>6.8326740653836993</v>
+        <v>25205</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>6.8427511090116351</v>
       </c>
       <c r="F6" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="15">
-        <v>361515</v>
-      </c>
-      <c r="D7" s="14">
-        <v>31414</v>
-      </c>
-      <c r="E7" s="22">
-        <f t="shared" si="0"/>
-        <v>8.6895426192550786</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="C7" s="12">
+        <v>369781</v>
+      </c>
+      <c r="D7" s="12">
+        <v>32158</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>8.6964987384424841</v>
+      </c>
+      <c r="F7" s="11">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="14">
-        <v>408348</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="12">
+        <v>409201</v>
+      </c>
+      <c r="D8" s="12">
         <v>36885</v>
       </c>
-      <c r="E8" s="22">
-        <f t="shared" si="0"/>
-        <v>9.032736783331865</v>
-      </c>
-      <c r="F8" s="13">
-        <v>154</v>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>9.013907590646161</v>
+      </c>
+      <c r="F8" s="11">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="16">
-        <v>380197</v>
-      </c>
-      <c r="D9" s="16">
-        <v>30791</v>
-      </c>
-      <c r="E9" s="22">
-        <f t="shared" si="0"/>
-        <v>8.0986962022320004</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="12">
+        <v>372846</v>
+      </c>
+      <c r="D9" s="12">
+        <v>29552</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9260606255665875</v>
+      </c>
+      <c r="F9" s="11">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="16">
-        <v>331902</v>
-      </c>
-      <c r="D10" s="16">
-        <v>22082</v>
-      </c>
-      <c r="E10" s="22">
-        <f t="shared" si="0"/>
-        <v>6.6531687064253902</v>
-      </c>
-      <c r="F10" s="19">
-        <v>168</v>
+      <c r="C10" s="12">
+        <v>337590</v>
+      </c>
+      <c r="D10" s="12">
+        <v>22616</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>6.6992505702183127</v>
+      </c>
+      <c r="F10" s="11">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="16">
-        <v>363890</v>
-      </c>
-      <c r="D11" s="16">
-        <v>18083</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" si="0"/>
-        <v>4.9693588721866497</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="C11" s="12">
+        <v>362741</v>
+      </c>
+      <c r="D11" s="12">
+        <v>18101</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>4.9900617796168616</v>
+      </c>
+      <c r="F11" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="12">
+        <v>326270</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12577</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>3.8547828485610078</v>
+      </c>
+      <c r="F12" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="12">
+        <v>383807</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10172</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>2.6502903803213593</v>
+      </c>
+      <c r="F13" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12">
+        <v>431146</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7069</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6395838068774846</v>
+      </c>
+      <c r="F14" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12">
+        <v>354260</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5228</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4757522723423475</v>
+      </c>
+      <c r="F15" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="18">
-        <v>326788</v>
-      </c>
-      <c r="D12" s="18">
-        <v>12608</v>
-      </c>
-      <c r="E12" s="22">
-        <f t="shared" si="0"/>
-        <v>3.8581588063209176</v>
-      </c>
-      <c r="F12" s="17">
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="12">
+        <v>401589</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4267</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0625291031377853</v>
+      </c>
+      <c r="F16" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12">
+        <v>337217</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3085</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.9148411853494931</v>
+      </c>
+      <c r="F17" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="18">
-        <v>403875</v>
-      </c>
-      <c r="D13" s="18">
-        <v>10755</v>
-      </c>
-      <c r="E13" s="22">
-        <f>(D13/C13)*100</f>
-        <v>2.6629526462395541</v>
-      </c>
-      <c r="F13" s="17">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="18">
-        <v>431146</v>
-      </c>
-      <c r="D14" s="18">
-        <v>7069</v>
-      </c>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:E48" si="1">(D14/C14)*100</f>
-        <v>1.6395838068774846</v>
-      </c>
-      <c r="F14" s="17">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="18">
-        <v>354260</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5228</v>
-      </c>
-      <c r="E15" s="22">
-        <f t="shared" si="1"/>
-        <v>1.4757522723423475</v>
-      </c>
-      <c r="F15" s="17">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="18">
-        <v>401589</v>
-      </c>
-      <c r="D16" s="18">
-        <v>4267</v>
-      </c>
-      <c r="E16" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0625291031377853</v>
-      </c>
-      <c r="F16" s="17">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="12">
+        <v>327196</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2816</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.86064621816892628</v>
+      </c>
+      <c r="F18" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="18">
-        <v>337217</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3085</v>
-      </c>
-      <c r="E17" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9148411853494931</v>
-      </c>
-      <c r="F17" s="17">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="18">
-        <v>327196</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2816</v>
-      </c>
-      <c r="E18" s="22">
-        <f t="shared" si="1"/>
-        <v>0.86064621816892628</v>
-      </c>
-      <c r="F18" s="17">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12">
+        <v>381933</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5252</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3751102942139066</v>
+      </c>
+      <c r="F19" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="18">
-        <v>381933</v>
-      </c>
-      <c r="D19" s="18">
-        <v>5252</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3751102942139066</v>
-      </c>
-      <c r="F19" s="17">
-        <v>173</v>
-      </c>
-    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>464626</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="12">
         <v>3682</v>
       </c>
-      <c r="E20" s="22">
-        <f t="shared" si="1"/>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
         <v>0.79246533771248284</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>506459</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="12">
         <v>3092</v>
       </c>
-      <c r="E21" s="22">
-        <f t="shared" si="1"/>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
         <v>0.61051338805312971</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>510551</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="12">
         <v>2992</v>
       </c>
-      <c r="E22" s="22">
-        <f t="shared" si="1"/>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
         <v>0.58603352064730063</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>538701</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="12">
         <v>3497</v>
       </c>
-      <c r="E23" s="22">
-        <f t="shared" si="1"/>
+      <c r="E23" s="16">
+        <f t="shared" si="0"/>
         <v>0.64915416901026735</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>553742</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="12">
         <v>4458</v>
       </c>
-      <c r="E24" s="22">
-        <f t="shared" si="1"/>
+      <c r="E24" s="16">
+        <f t="shared" si="0"/>
         <v>0.80506806418873778</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>183</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>586967</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="12">
         <v>5738</v>
       </c>
-      <c r="E25" s="22">
-        <f t="shared" si="1"/>
+      <c r="E25" s="16">
+        <f t="shared" si="0"/>
         <v>0.9775677337908264</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>717123</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="12">
         <v>7263</v>
       </c>
-      <c r="E26" s="22">
-        <f t="shared" si="1"/>
+      <c r="E26" s="16">
+        <f t="shared" si="0"/>
         <v>1.0127969678841706</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>835384</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="12">
         <v>8121</v>
       </c>
-      <c r="E27" s="22">
-        <f t="shared" si="1"/>
+      <c r="E27" s="16">
+        <f t="shared" si="0"/>
         <v>0.97212778793943855</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="11">
         <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>1029715</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="12">
         <v>8766</v>
       </c>
-      <c r="E28" s="22">
-        <f t="shared" si="1"/>
+      <c r="E28" s="16">
+        <f t="shared" si="0"/>
         <v>0.85130351602142351</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>1091207</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="12">
         <v>8061</v>
       </c>
-      <c r="E29" s="22">
-        <f t="shared" si="1"/>
+      <c r="E29" s="16">
+        <f t="shared" si="0"/>
         <v>0.73872326698784008</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>1043713</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="12">
         <v>8072</v>
       </c>
-      <c r="E30" s="22">
-        <f t="shared" si="1"/>
+      <c r="E30" s="16">
+        <f t="shared" si="0"/>
         <v>0.77339268553711604</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>1133737</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="12">
         <v>9855</v>
       </c>
-      <c r="E31" s="22">
-        <f t="shared" si="1"/>
+      <c r="E31" s="16">
+        <f t="shared" si="0"/>
         <v>0.86924921741109262</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <v>192</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>1090740</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="12">
         <v>12937</v>
       </c>
-      <c r="E32" s="22">
-        <f t="shared" si="1"/>
+      <c r="E32" s="16">
+        <f t="shared" si="0"/>
         <v>1.1860755083704642</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>1154700</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="12">
         <v>14140</v>
       </c>
-      <c r="E33" s="22">
-        <f t="shared" si="1"/>
+      <c r="E33" s="16">
+        <f t="shared" si="0"/>
         <v>1.2245604919026587</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="11">
         <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>1112967</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="12">
         <v>19407</v>
       </c>
-      <c r="E34" s="22">
-        <f t="shared" si="1"/>
+      <c r="E34" s="16">
+        <f t="shared" si="0"/>
         <v>1.7437174687120103</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>1188338</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="12">
         <v>29567</v>
       </c>
-      <c r="E35" s="22">
-        <f t="shared" si="1"/>
+      <c r="E35" s="16">
+        <f t="shared" si="0"/>
         <v>2.4880968209381504</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="11">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>1220909</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="12">
         <v>44046</v>
       </c>
-      <c r="E36" s="22">
-        <f t="shared" si="1"/>
+      <c r="E36" s="16">
+        <f t="shared" si="0"/>
         <v>3.6076398814326045</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>1373753</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="12">
         <v>77006</v>
       </c>
-      <c r="E37" s="22">
-        <f t="shared" si="1"/>
+      <c r="E37" s="16">
+        <f t="shared" si="0"/>
         <v>5.605520060738721</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>1593278</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="12">
         <v>115235</v>
       </c>
-      <c r="E38" s="22">
-        <f t="shared" si="1"/>
+      <c r="E38" s="16">
+        <f t="shared" si="0"/>
         <v>7.2325733487815675</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>1598527</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="12">
         <v>124869</v>
       </c>
-      <c r="E39" s="22">
-        <f t="shared" si="1"/>
+      <c r="E39" s="16">
+        <f t="shared" si="0"/>
         <v>7.8115039658385497</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="11">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>1396088</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="12">
         <v>125200</v>
       </c>
-      <c r="E40" s="22">
-        <f t="shared" si="1"/>
+      <c r="E40" s="16">
+        <f t="shared" si="0"/>
         <v>8.967916062597773</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="12">
         <v>1367570</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="12">
         <v>127742</v>
       </c>
-      <c r="E41" s="22">
-        <f t="shared" si="1"/>
+      <c r="E41" s="16">
+        <f t="shared" si="0"/>
         <v>9.3408015677442471</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="12">
         <v>1353980</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="12">
         <v>125451</v>
       </c>
-      <c r="E42" s="22">
-        <f t="shared" si="1"/>
+      <c r="E42" s="16">
+        <f t="shared" si="0"/>
         <v>9.2653510391586291</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="12">
         <v>1329716</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="12">
         <v>135062</v>
       </c>
-      <c r="E43" s="22">
-        <f t="shared" si="1"/>
+      <c r="E43" s="16">
+        <f t="shared" si="0"/>
         <v>10.157206501237859</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="12">
         <v>1445671</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="12">
         <v>165953</v>
       </c>
-      <c r="E44" s="22">
-        <f t="shared" si="1"/>
+      <c r="E44" s="16">
+        <f t="shared" si="0"/>
         <v>11.479306149186087</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>201</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="18">
-        <v>1612673</v>
-      </c>
-      <c r="D45" s="18">
-        <v>185669</v>
-      </c>
-      <c r="E45" s="22">
-        <f t="shared" si="1"/>
-        <v>11.513121382946203</v>
-      </c>
-      <c r="F45" s="17">
-        <v>206</v>
+      <c r="C45" s="12">
+        <v>1613358</v>
+      </c>
+      <c r="D45" s="12">
+        <v>185724</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="0"/>
+        <v>11.511642177371668</v>
+      </c>
+      <c r="F45" s="11">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="18">
-        <v>1076581</v>
-      </c>
-      <c r="D46" s="18">
-        <v>138751</v>
-      </c>
-      <c r="E46" s="22">
-        <f t="shared" si="1"/>
-        <v>12.888115246321458</v>
-      </c>
-      <c r="F46" s="17">
-        <v>202</v>
+      <c r="C46" s="12">
+        <v>1077066</v>
+      </c>
+      <c r="D46" s="12">
+        <v>138761</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="0"/>
+        <v>12.883240209977847</v>
+      </c>
+      <c r="F46" s="11">
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="18">
-        <v>804617</v>
-      </c>
-      <c r="D47" s="18">
-        <v>127805</v>
-      </c>
-      <c r="E47" s="22">
-        <f t="shared" si="1"/>
-        <v>15.883954726285923</v>
-      </c>
-      <c r="F47" s="17">
-        <v>197</v>
+      <c r="C47" s="12">
+        <v>806908</v>
+      </c>
+      <c r="D47" s="12">
+        <v>128349</v>
+      </c>
+      <c r="E47" s="16">
+        <f t="shared" si="0"/>
+        <v>15.906274321236127</v>
+      </c>
+      <c r="F47" s="11">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="18">
-        <v>1210515</v>
-      </c>
-      <c r="D48" s="18">
-        <v>154709</v>
-      </c>
-      <c r="E48" s="22">
-        <f t="shared" si="1"/>
-        <v>12.780428164871976</v>
-      </c>
-      <c r="F48" s="17">
-        <v>193</v>
+      <c r="C48" s="12">
+        <v>1214379</v>
+      </c>
+      <c r="D48" s="12">
+        <v>154988</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" si="0"/>
+        <v>12.762737168544581</v>
+      </c>
+      <c r="F48" s="11">
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1146983</v>
+      </c>
+      <c r="D49" s="12">
+        <v>120410</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="0"/>
+        <v>10.497975994413169</v>
+      </c>
+      <c r="F49" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="20">
-        <f>SUM(C4:C48)</f>
-        <v>36353196</v>
-      </c>
-      <c r="D49" s="20">
-        <f>SUM(D4:D48)</f>
-        <v>2022775</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="35" t="s">
+      <c r="C50" s="14">
+        <f>SUM(C4:C49)</f>
+        <v>37449922</v>
+      </c>
+      <c r="D50" s="14">
+        <f>SUM(D4:D49)</f>
+        <v>2142435</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2480,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2496,785 +2511,802 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="18">
         <v>28</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <v>7115</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="18">
         <v>93</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>31010</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="18">
         <v>111</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <v>64725</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="27">
         <v>185655.005</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="18">
         <v>113</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>103515</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <v>284580.19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="18">
         <v>132</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="19">
         <v>116655</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="27">
         <v>462880.00530000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="18">
         <v>112</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>123304</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="21">
         <v>730156</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="27">
         <v>596910.04500000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="18">
         <v>126</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <v>136064</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="21">
         <v>818426</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="27">
         <v>580890</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="18">
         <v>133</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <v>141815</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="21">
         <v>860494</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="27">
         <v>741399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="18">
         <v>137</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="19">
         <v>153698</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="21">
         <v>964962</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="27">
         <v>820491</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="18">
         <v>134</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <v>157150</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="21">
         <v>1038222.5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="27">
         <v>831816.00349999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="26">
         <v>136</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="27">
         <v>159418</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="21">
         <v>1050675.5</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="27">
         <v>874362</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="26">
         <v>143</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="27">
         <v>156824</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="21">
         <v>1017179</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="27">
         <v>888561</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="26">
         <v>137</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="27">
         <v>161911</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="21">
         <v>1083345</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="27">
         <v>896041</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="26">
         <v>139</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="27">
         <v>168748</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="21">
         <v>1092448</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="27">
         <v>939801</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="26">
         <v>138</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="27">
         <v>166445</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="21">
         <v>1099354.5</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="27">
         <v>974698</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="26">
         <v>137</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="27">
         <v>169473</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="21">
         <v>1112075</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="27">
         <v>1010309</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="26">
         <v>137</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="27">
         <v>169501</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="21">
         <v>1118354</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="27">
         <v>994060</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="26">
         <v>145</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="27">
         <v>176898</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="21">
         <v>1174960</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="27">
         <v>1003758</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="26">
         <v>146</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="27">
         <v>176046</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="21">
         <v>1178008</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="27">
         <v>1020962</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="26">
         <v>145</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="27">
         <v>177687</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <v>1182599</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="27">
         <v>1041871.025</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="26">
         <v>145</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="27">
         <v>180539</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="21">
         <v>1203852</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <v>1063581</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="20">
         <v>149</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <v>177442</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="21">
         <v>1167188</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="27">
         <v>1063790</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="20">
         <v>151</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="21">
         <v>183977</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="21">
         <v>1220992</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="27">
         <v>1048585</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="20">
         <v>157</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="21">
         <v>191768</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="21">
         <v>1267655</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="27">
         <v>1153170</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="20">
         <v>163</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="21">
         <v>210142</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="21">
         <v>1402475</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="27">
         <v>1306192</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="20">
         <v>168</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="21">
         <v>202761</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="21">
         <v>1345787</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="27">
         <v>1155779</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="20">
         <v>168</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <v>217499</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="21">
         <v>1440471</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="27">
         <v>1154136.69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="23">
         <v>165</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="24">
         <v>219092</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="24">
         <v>1455142</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="27">
         <v>1217216</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="23">
         <v>170</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="21">
         <v>228348</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="21">
         <v>1516162</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="27">
         <v>1339112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="23">
         <v>168</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="21">
         <v>232334</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="21">
         <v>1541289</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="27">
         <v>1354917</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="23">
         <v>166</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="21">
         <v>235365</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="21">
         <v>1573748</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="27">
         <v>1457887</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="23">
         <v>164</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <v>256100</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="21">
         <v>1712246</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="27">
         <v>1568002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="23">
         <v>167</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="21">
         <v>262817</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="21">
         <v>1755794</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="27">
         <v>1606830</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="23">
         <v>184</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="21">
         <v>272397</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="21">
         <v>1828061</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="27">
         <v>1612826</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="23">
         <v>176</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="21">
         <v>289310</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="21">
         <v>1900642</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="27">
         <v>1596042</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="23">
         <v>170</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="21">
         <v>292639</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="21">
         <v>1959403</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="27">
         <v>1677221</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="23">
         <v>175</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="21">
         <v>307336</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="21">
         <v>2063178</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="27">
         <v>1812210</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="23">
         <v>169</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="21">
         <v>313746</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="21">
         <v>2100608</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="27">
         <v>1837984</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="23">
         <v>168</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="21">
         <v>318746</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="21">
         <v>2136828</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="27">
         <v>1918794</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="23">
         <v>175</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="27">
         <v>331036</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="27">
         <v>2219158</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="27">
         <v>1944190</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="23">
         <v>175</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="27">
         <v>339156</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="27">
         <v>2268312</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="27">
         <v>2019604</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="23">
         <v>181</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="27">
         <v>204862.4</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="27">
         <v>1364843.28</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="27">
         <v>1203720.93</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="23">
         <v>173</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="27">
         <v>208789.75</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="27">
         <v>1355677.05</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="27">
         <v>1227355.3500000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="23">
         <v>177</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="27">
         <v>331086</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="27">
         <v>2098574</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="27">
         <v>1874827</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="23">
         <v>176</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="27">
         <v>334756</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="27">
         <v>2222744</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="27">
         <v>2017760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="23">
+        <v>173</v>
+      </c>
+      <c r="C48" s="27">
+        <v>339447</v>
+      </c>
+      <c r="D48" s="27">
+        <v>2273073</v>
+      </c>
+      <c r="E48" s="27">
+        <v>2121357</v>
       </c>
     </row>
   </sheetData>
@@ -3285,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3631,146 +3663,157 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="32">
+      <c r="A29" s="26">
         <v>52</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="26">
         <v>42</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="27">
         <v>20799</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="32">
+      <c r="A30" s="26">
         <v>57</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="26">
         <v>43</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="27">
         <v>68574</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="32">
+      <c r="A31" s="26">
         <v>69</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="26">
         <v>44</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="27">
         <v>98931</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="32">
+      <c r="A32" s="26">
         <v>66</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="26">
         <v>45</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="27">
         <v>60113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="32">
+      <c r="A33" s="26">
         <v>58</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="26">
         <v>46</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="27">
         <v>23654</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="32">
+      <c r="A34" s="26">
         <v>48</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="26">
         <v>47</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="27">
         <v>17037</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="32">
+      <c r="A35" s="26">
         <v>53</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="26">
         <v>48</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="27">
         <v>14091</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="32">
+      <c r="A36" s="26">
         <v>50</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="26">
         <v>49</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="27">
         <v>12237</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37" s="22">
         <v>50</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="22">
         <v>50</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="27">
         <v>19009</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38" s="22">
         <v>57</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="22">
         <v>51</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="27">
         <v>21364.1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+      <c r="A39" s="22">
         <v>43</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="22">
         <v>52</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="27">
         <v>11321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="A40" s="22">
         <v>40</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="22">
         <v>53</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="27">
         <v>6557</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="A41" s="22">
         <v>47</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="22">
         <v>1</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="27">
         <v>11691.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="22">
+        <v>46</v>
+      </c>
+      <c r="B42" s="22">
+        <v>2</v>
+      </c>
+      <c r="C42" s="27">
+        <v>11336.5461</v>
       </c>
     </row>
   </sheetData>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5720B-026D-4DAE-AEEF-CBB3AE217A40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE04D2E-F096-4D90-A359-229E598B3514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3810" windowWidth="19440" windowHeight="11040" tabRatio="301" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="5610" windowWidth="19440" windowHeight="11040" tabRatio="301" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Anzahl Testungen</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>2021, KW3</t>
+  </si>
+  <si>
+    <t>3/2021*</t>
+  </si>
+  <si>
+    <t>2021, KW4</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -588,6 +594,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,9 +702,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Probenrückstau!$A$2:$B$42</c:f>
+              <c:f>Probenrückstau!$A$2:$B$43</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>15</c:v>
@@ -819,6 +828,9 @@
                   </c:pt>
                   <c:pt idx="40">
                     <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -944,6 +956,9 @@
                   </c:pt>
                   <c:pt idx="40">
                     <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>48</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -951,10 +966,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Probenrückstau!$C$2:$C$42</c:f>
+              <c:f>Probenrückstau!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3423</c:v>
                 </c:pt>
@@ -1077,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11336.5461</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,26 +1586,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.81640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="140.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1600,21 +1618,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F51"/>
+  <dimension ref="B3:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F51"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
@@ -1631,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
@@ -1660,14 +1678,14 @@
         <v>7419</v>
       </c>
       <c r="E5" s="16">
-        <f t="shared" ref="E5:E49" si="0">(D5/C5)*100</f>
+        <f t="shared" ref="E5:E50" si="0">(D5/C5)*100</f>
         <v>5.8467964378595632</v>
       </c>
       <c r="F5" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>64</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
@@ -1721,7 +1739,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>67</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>68</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>69</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>70</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>71</v>
       </c>
@@ -1811,25 +1829,25 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="12">
-        <v>431146</v>
+        <v>431145</v>
       </c>
       <c r="D14" s="12">
         <v>7069</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="0"/>
-        <v>1.6395838068774846</v>
+        <v>1.6395876097368633</v>
       </c>
       <c r="F14" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>73</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>74</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>75</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>77</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>78</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>79</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>80</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
         <v>81</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2027,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>84</v>
       </c>
@@ -2045,7 +2063,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>85</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>87</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>88</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="28" t="s">
         <v>89</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>90</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
         <v>91</v>
       </c>
@@ -2171,7 +2189,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
         <v>92</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>94</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>95</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>96</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>97</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="28" t="s">
         <v>98</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
         <v>99</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>100</v>
       </c>
@@ -2333,7 +2351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>101</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>102</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>103</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
         <v>104</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="28" t="s">
         <v>105</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>106</v>
       </c>
@@ -2441,52 +2459,70 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="12">
-        <v>1146983</v>
+        <v>1162475</v>
       </c>
       <c r="D49" s="12">
-        <v>120410</v>
+        <v>121341</v>
       </c>
       <c r="E49" s="16">
         <f t="shared" si="0"/>
-        <v>10.497975994413169</v>
+        <v>10.438159960429257</v>
       </c>
       <c r="F49" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1068323</v>
+      </c>
+      <c r="D50" s="12">
+        <v>106488</v>
+      </c>
+      <c r="E50" s="16">
+        <f t="shared" si="0"/>
+        <v>9.9677719191667702</v>
+      </c>
+      <c r="F50" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="14">
-        <f>SUM(C4:C49)</f>
-        <v>37449922</v>
-      </c>
-      <c r="D50" s="14">
-        <f>SUM(D4:D49)</f>
-        <v>2142435</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="14">
+        <f>SUM(C4:C50)</f>
+        <v>38533736</v>
+      </c>
+      <c r="D51" s="14">
+        <f>SUM(D4:D50)</f>
+        <v>2249854</v>
+      </c>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
     </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2495,22 +2531,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:E48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
@@ -2561,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
@@ -2578,7 +2614,7 @@
         <v>185655.005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
@@ -2595,7 +2631,7 @@
         <v>284580.19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
@@ -2612,7 +2648,7 @@
         <v>462880.00530000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>22</v>
       </c>
@@ -2629,7 +2665,7 @@
         <v>596910.04500000004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2682,7 @@
         <v>580890</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>24</v>
       </c>
@@ -2663,7 +2699,7 @@
         <v>741399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>820491</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>26</v>
       </c>
@@ -2697,7 +2733,7 @@
         <v>831816.00349999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
@@ -2714,7 +2750,7 @@
         <v>874362</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>28</v>
       </c>
@@ -2731,7 +2767,7 @@
         <v>888561</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
@@ -2748,7 +2784,7 @@
         <v>896041</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
@@ -2765,7 +2801,7 @@
         <v>939801</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>31</v>
       </c>
@@ -2782,7 +2818,7 @@
         <v>974698</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
@@ -2799,7 +2835,7 @@
         <v>1010309</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>33</v>
       </c>
@@ -2816,7 +2852,7 @@
         <v>994060</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2869,7 @@
         <v>1003758</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>35</v>
       </c>
@@ -2850,7 +2886,7 @@
         <v>1020962</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>36</v>
       </c>
@@ -2867,7 +2903,7 @@
         <v>1041871.025</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>37</v>
       </c>
@@ -2884,7 +2920,7 @@
         <v>1063581</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>38</v>
       </c>
@@ -2901,7 +2937,7 @@
         <v>1063790</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>39</v>
       </c>
@@ -2918,7 +2954,7 @@
         <v>1048585</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>40</v>
       </c>
@@ -2935,7 +2971,7 @@
         <v>1153170</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>41</v>
       </c>
@@ -2952,7 +2988,7 @@
         <v>1306192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>42</v>
       </c>
@@ -2969,7 +3005,7 @@
         <v>1155779</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>43</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>1154136.69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>1217216</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>45</v>
       </c>
@@ -3020,7 +3056,7 @@
         <v>1339112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>46</v>
       </c>
@@ -3037,7 +3073,7 @@
         <v>1354917</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>47</v>
       </c>
@@ -3054,7 +3090,7 @@
         <v>1457887</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>48</v>
       </c>
@@ -3071,7 +3107,7 @@
         <v>1568002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>49</v>
       </c>
@@ -3088,7 +3124,7 @@
         <v>1606830</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>50</v>
       </c>
@@ -3105,7 +3141,7 @@
         <v>1612826</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
@@ -3122,7 +3158,7 @@
         <v>1596042</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>52</v>
       </c>
@@ -3139,7 +3175,7 @@
         <v>1677221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>53</v>
       </c>
@@ -3156,7 +3192,7 @@
         <v>1812210</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>54</v>
       </c>
@@ -3173,7 +3209,7 @@
         <v>1837984</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>55</v>
       </c>
@@ -3190,7 +3226,7 @@
         <v>1918794</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>56</v>
       </c>
@@ -3207,7 +3243,7 @@
         <v>1944190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>57</v>
       </c>
@@ -3224,7 +3260,7 @@
         <v>2019604</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>58</v>
       </c>
@@ -3241,7 +3277,7 @@
         <v>1203720.93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>59</v>
       </c>
@@ -3258,7 +3294,7 @@
         <v>1227355.3500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>60</v>
       </c>
@@ -3275,7 +3311,7 @@
         <v>1874827</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>107</v>
       </c>
@@ -3292,7 +3328,7 @@
         <v>2017760</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>109</v>
       </c>
@@ -3307,6 +3343,23 @@
       </c>
       <c r="E48" s="27">
         <v>2121357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="23">
+        <v>173</v>
+      </c>
+      <c r="C49" s="27">
+        <v>344287</v>
+      </c>
+      <c r="D49" s="27">
+        <v>2310717</v>
+      </c>
+      <c r="E49" s="27">
+        <v>2207810</v>
       </c>
     </row>
   </sheetData>
@@ -3317,20 +3370,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3342,7 +3395,7 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -3354,7 +3407,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>34</v>
       </c>
@@ -3366,7 +3419,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>29</v>
       </c>
@@ -3378,7 +3431,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -3390,7 +3443,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29</v>
       </c>
@@ -3402,7 +3455,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>27</v>
       </c>
@@ -3414,7 +3467,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>28</v>
       </c>
@@ -3426,7 +3479,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -3438,7 +3491,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -3450,7 +3503,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>51</v>
       </c>
@@ -3462,7 +3515,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46</v>
       </c>
@@ -3474,7 +3527,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>71</v>
       </c>
@@ -3486,7 +3539,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46</v>
       </c>
@@ -3498,7 +3551,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -3510,7 +3563,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42</v>
       </c>
@@ -3522,7 +3575,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -3534,7 +3587,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -3546,7 +3599,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>36</v>
       </c>
@@ -3558,7 +3611,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -3570,7 +3623,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>49</v>
       </c>
@@ -3582,7 +3635,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -3594,7 +3647,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>48</v>
       </c>
@@ -3606,7 +3659,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -3618,7 +3671,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -3629,7 +3682,7 @@
         <v>12876</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46</v>
       </c>
@@ -3640,7 +3693,7 @@
         <v>15983</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42</v>
       </c>
@@ -3651,7 +3704,7 @@
         <v>8245.0000999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>47</v>
       </c>
@@ -3662,7 +3715,7 @@
         <v>16840</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>52</v>
       </c>
@@ -3673,7 +3726,7 @@
         <v>20799</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>57</v>
       </c>
@@ -3684,7 +3737,7 @@
         <v>68574</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>69</v>
       </c>
@@ -3695,7 +3748,7 @@
         <v>98931</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>66</v>
       </c>
@@ -3706,7 +3759,7 @@
         <v>60113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>58</v>
       </c>
@@ -3717,7 +3770,7 @@
         <v>23654</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>48</v>
       </c>
@@ -3728,7 +3781,7 @@
         <v>17037</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>53</v>
       </c>
@@ -3739,7 +3792,7 @@
         <v>14091</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>50</v>
       </c>
@@ -3750,7 +3803,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>50</v>
       </c>
@@ -3761,7 +3814,7 @@
         <v>19009</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>57</v>
       </c>
@@ -3772,7 +3825,7 @@
         <v>21364.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>43</v>
       </c>
@@ -3783,7 +3836,7 @@
         <v>11321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>40</v>
       </c>
@@ -3794,7 +3847,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>47</v>
       </c>
@@ -3805,7 +3858,7 @@
         <v>11691.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>46</v>
       </c>
@@ -3814,6 +3867,17 @@
       </c>
       <c r="C42" s="27">
         <v>11336.5461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>48</v>
+      </c>
+      <c r="B43" s="22">
+        <v>3</v>
+      </c>
+      <c r="C43" s="27">
+        <v>11980</v>
       </c>
     </row>
   </sheetData>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE04D2E-F096-4D90-A359-229E598B3514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CA3B57-5D52-4310-9D00-198FAB0DF76A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="5610" windowWidth="19440" windowHeight="11040" tabRatio="301" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="6810" windowWidth="19440" windowHeight="11040" tabRatio="301" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>Anzahl Testungen</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>2021, KW4</t>
+  </si>
+  <si>
+    <t>4/2021*</t>
+  </si>
+  <si>
+    <t>2021, KW 5</t>
   </si>
 </sst>
 </file>
@@ -702,9 +708,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Probenrückstau!$A$2:$B$43</c:f>
+              <c:f>Probenrückstau!$A$2:$B$44</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>15</c:v>
@@ -831,6 +837,9 @@
                   </c:pt>
                   <c:pt idx="41">
                     <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -959,6 +968,9 @@
                   </c:pt>
                   <c:pt idx="41">
                     <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>42</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -966,10 +978,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Probenrückstau!$C$2:$C$43</c:f>
+              <c:f>Probenrückstau!$C$2:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>3423</c:v>
                 </c:pt>
@@ -1095,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11980</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F52"/>
+  <dimension ref="B3:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,35 +1669,29 @@
         <v>62</v>
       </c>
       <c r="C4" s="12">
-        <v>62253</v>
+        <v>64388</v>
       </c>
       <c r="D4" s="12">
-        <v>1589</v>
-      </c>
-      <c r="E4" s="16">
-        <f>(D4/C4)*100</f>
-        <v>2.5524874303246432</v>
-      </c>
-      <c r="F4" s="11">
-        <v>90</v>
-      </c>
+        <v>1634</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="12">
-        <v>126890</v>
+        <v>127750</v>
       </c>
       <c r="D5" s="12">
-        <v>7419</v>
+        <v>7456</v>
       </c>
       <c r="E5" s="16">
-        <f t="shared" ref="E5:E50" si="0">(D5/C5)*100</f>
-        <v>5.8467964378595632</v>
+        <v>5.8363992172211354</v>
       </c>
       <c r="F5" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,17 +1699,16 @@
         <v>64</v>
       </c>
       <c r="C6" s="12">
-        <v>368346</v>
+        <v>373856</v>
       </c>
       <c r="D6" s="12">
-        <v>25205</v>
+        <v>25847</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" si="0"/>
-        <v>6.8427511090116351</v>
+        <v>6.9136244971325853</v>
       </c>
       <c r="F6" s="11">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,17 +1716,16 @@
         <v>65</v>
       </c>
       <c r="C7" s="12">
-        <v>369781</v>
+        <v>376920</v>
       </c>
       <c r="D7" s="12">
-        <v>32158</v>
+        <v>33045</v>
       </c>
       <c r="E7" s="16">
-        <f t="shared" si="0"/>
-        <v>8.6964987384424841</v>
+        <v>8.7671123845908951</v>
       </c>
       <c r="F7" s="11">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1726,17 +1733,16 @@
         <v>66</v>
       </c>
       <c r="C8" s="12">
-        <v>409201</v>
+        <v>416510</v>
       </c>
       <c r="D8" s="12">
-        <v>36885</v>
+        <v>37591</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>9.013907590646161</v>
+        <v>9.0252334877914091</v>
       </c>
       <c r="F8" s="11">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1744,17 +1750,16 @@
         <v>67</v>
       </c>
       <c r="C9" s="12">
-        <v>372846</v>
+        <v>386165</v>
       </c>
       <c r="D9" s="12">
-        <v>29552</v>
+        <v>30812</v>
       </c>
       <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9260606255665875</v>
+        <v>7.9789727189154895</v>
       </c>
       <c r="F9" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1762,17 +1767,16 @@
         <v>68</v>
       </c>
       <c r="C10" s="12">
-        <v>337590</v>
+        <v>339983</v>
       </c>
       <c r="D10" s="12">
-        <v>22616</v>
+        <v>22724</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>6.6992505702183127</v>
+        <v>6.6838636049449534</v>
       </c>
       <c r="F10" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1780,14 +1784,13 @@
         <v>69</v>
       </c>
       <c r="C11" s="12">
-        <v>362741</v>
+        <v>363659</v>
       </c>
       <c r="D11" s="12">
-        <v>18101</v>
+        <v>18127</v>
       </c>
       <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>4.9900617796168616</v>
+        <v>4.984614707734444</v>
       </c>
       <c r="F11" s="11">
         <v>180</v>
@@ -1798,17 +1801,16 @@
         <v>70</v>
       </c>
       <c r="C12" s="12">
-        <v>326270</v>
+        <v>327799</v>
       </c>
       <c r="D12" s="12">
-        <v>12577</v>
+        <v>12600</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" si="0"/>
-        <v>3.8547828485610078</v>
+        <v>3.8438189256221036</v>
       </c>
       <c r="F12" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1816,17 +1818,16 @@
         <v>71</v>
       </c>
       <c r="C13" s="12">
-        <v>383807</v>
+        <v>385638</v>
       </c>
       <c r="D13" s="12">
-        <v>10172</v>
+        <v>10181</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>2.6502903803213593</v>
+        <v>2.6400406598934754</v>
       </c>
       <c r="F13" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,17 +1835,16 @@
         <v>72</v>
       </c>
       <c r="C14" s="12">
-        <v>431145</v>
+        <v>431682</v>
       </c>
       <c r="D14" s="12">
-        <v>7069</v>
+        <v>7142</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>1.6395876097368633</v>
+        <v>1.6544586061035669</v>
       </c>
       <c r="F14" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1852,17 +1852,16 @@
         <v>73</v>
       </c>
       <c r="C15" s="12">
-        <v>354260</v>
+        <v>356489</v>
       </c>
       <c r="D15" s="12">
-        <v>5228</v>
+        <v>5315</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" si="0"/>
-        <v>1.4757522723423475</v>
+        <v>1.4909295939005129</v>
       </c>
       <c r="F15" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1870,17 +1869,16 @@
         <v>74</v>
       </c>
       <c r="C16" s="12">
-        <v>401589</v>
+        <v>408078</v>
       </c>
       <c r="D16" s="12">
-        <v>4267</v>
+        <v>4335</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0625291031377853</v>
+        <v>1.0622969138252982</v>
       </c>
       <c r="F16" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1888,17 +1886,16 @@
         <v>75</v>
       </c>
       <c r="C17" s="12">
-        <v>337217</v>
+        <v>342328</v>
       </c>
       <c r="D17" s="12">
-        <v>3085</v>
+        <v>3219</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9148411853494931</v>
+        <v>0.94032623682550076</v>
       </c>
       <c r="F17" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1906,17 +1903,16 @@
         <v>76</v>
       </c>
       <c r="C18" s="12">
-        <v>327196</v>
+        <v>327980</v>
       </c>
       <c r="D18" s="12">
-        <v>2816</v>
+        <v>2956</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86064621816892628</v>
+        <v>0.90127446795536315</v>
       </c>
       <c r="F18" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1924,17 +1920,16 @@
         <v>77</v>
       </c>
       <c r="C19" s="12">
-        <v>381933</v>
+        <v>384834</v>
       </c>
       <c r="D19" s="12">
-        <v>5252</v>
+        <v>5588</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="0"/>
-        <v>1.3751102942139066</v>
+        <v>1.452054652135726</v>
       </c>
       <c r="F19" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1942,17 +1937,16 @@
         <v>78</v>
       </c>
       <c r="C20" s="12">
-        <v>464626</v>
+        <v>472823</v>
       </c>
       <c r="D20" s="12">
-        <v>3682</v>
+        <v>3919</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="0"/>
-        <v>0.79246533771248284</v>
+        <v>0.82885138836308725</v>
       </c>
       <c r="F20" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1960,17 +1954,16 @@
         <v>79</v>
       </c>
       <c r="C21" s="12">
-        <v>506459</v>
+        <v>512969</v>
       </c>
       <c r="D21" s="12">
-        <v>3092</v>
+        <v>3204</v>
       </c>
       <c r="E21" s="16">
-        <f t="shared" si="0"/>
-        <v>0.61051338805312971</v>
+        <v>0.62459914731689448</v>
       </c>
       <c r="F21" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1978,17 +1971,16 @@
         <v>80</v>
       </c>
       <c r="C22" s="12">
-        <v>510551</v>
+        <v>513572</v>
       </c>
       <c r="D22" s="12">
-        <v>2992</v>
+        <v>3042</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="0"/>
-        <v>0.58603352064730063</v>
+        <v>0.59232201132460494</v>
       </c>
       <c r="F22" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1996,17 +1988,16 @@
         <v>81</v>
       </c>
       <c r="C23" s="12">
-        <v>538701</v>
+        <v>544219</v>
       </c>
       <c r="D23" s="12">
-        <v>3497</v>
+        <v>3608</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" si="0"/>
-        <v>0.64915416901026735</v>
+        <v>0.66296840058873363</v>
       </c>
       <c r="F23" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2014,17 +2005,16 @@
         <v>82</v>
       </c>
       <c r="C24" s="12">
-        <v>553742</v>
+        <v>556634</v>
       </c>
       <c r="D24" s="12">
-        <v>4458</v>
+        <v>4537</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="0"/>
-        <v>0.80506806418873778</v>
+        <v>0.81507777103087486</v>
       </c>
       <c r="F24" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -2032,17 +2022,16 @@
         <v>83</v>
       </c>
       <c r="C25" s="12">
-        <v>586967</v>
+        <v>589201</v>
       </c>
       <c r="D25" s="12">
-        <v>5738</v>
+        <v>5888</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9775677337908264</v>
+        <v>0.99931941731259788</v>
       </c>
       <c r="F25" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -2050,17 +2039,16 @@
         <v>84</v>
       </c>
       <c r="C26" s="12">
-        <v>717123</v>
+        <v>719476</v>
       </c>
       <c r="D26" s="12">
-        <v>7263</v>
+        <v>7374</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0127969678841706</v>
+        <v>1.0249125752631083</v>
       </c>
       <c r="F26" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -2068,17 +2056,16 @@
         <v>85</v>
       </c>
       <c r="C27" s="12">
-        <v>835384</v>
+        <v>871191</v>
       </c>
       <c r="D27" s="12">
-        <v>8121</v>
+        <v>8545</v>
       </c>
       <c r="E27" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97212778793943855</v>
+        <v>0.98084117030593754</v>
       </c>
       <c r="F27" s="11">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2086,17 +2073,16 @@
         <v>86</v>
       </c>
       <c r="C28" s="12">
-        <v>1029715</v>
+        <v>1034449</v>
       </c>
       <c r="D28" s="12">
-        <v>8766</v>
+        <v>8868</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" si="0"/>
-        <v>0.85130351602142351</v>
+        <v>0.85726797551160094</v>
       </c>
       <c r="F28" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -2104,17 +2090,16 @@
         <v>87</v>
       </c>
       <c r="C29" s="12">
-        <v>1091207</v>
+        <v>1133623</v>
       </c>
       <c r="D29" s="12">
-        <v>8061</v>
+        <v>8273</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="0"/>
-        <v>0.73872326698784008</v>
+        <v>0.72978406401422702</v>
       </c>
       <c r="F29" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -2122,17 +2107,16 @@
         <v>88</v>
       </c>
       <c r="C30" s="12">
-        <v>1043713</v>
+        <v>1052942</v>
       </c>
       <c r="D30" s="12">
-        <v>8072</v>
+        <v>8203</v>
       </c>
       <c r="E30" s="16">
-        <f t="shared" si="0"/>
-        <v>0.77339268553711604</v>
+        <v>0.77905525660482722</v>
       </c>
       <c r="F30" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -2140,17 +2124,16 @@
         <v>89</v>
       </c>
       <c r="C31" s="12">
-        <v>1133737</v>
+        <v>1148465</v>
       </c>
       <c r="D31" s="12">
-        <v>9855</v>
+        <v>10403</v>
       </c>
       <c r="E31" s="16">
-        <f t="shared" si="0"/>
-        <v>0.86924921741109262</v>
+        <v>0.90581776545214709</v>
       </c>
       <c r="F31" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -2158,17 +2141,16 @@
         <v>90</v>
       </c>
       <c r="C32" s="12">
-        <v>1090740</v>
+        <v>1147879</v>
       </c>
       <c r="D32" s="12">
-        <v>12937</v>
+        <v>13647</v>
       </c>
       <c r="E32" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1860755083704642</v>
+        <v>1.1888883758654005</v>
       </c>
       <c r="F32" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -2176,17 +2158,16 @@
         <v>91</v>
       </c>
       <c r="C33" s="12">
-        <v>1154700</v>
+        <v>1220279</v>
       </c>
       <c r="D33" s="12">
-        <v>14140</v>
+        <v>15178</v>
       </c>
       <c r="E33" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2245604919026587</v>
+        <v>1.2438139146867233</v>
       </c>
       <c r="F33" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -2194,17 +2175,16 @@
         <v>92</v>
       </c>
       <c r="C34" s="12">
-        <v>1112967</v>
+        <v>1129127</v>
       </c>
       <c r="D34" s="12">
-        <v>19407</v>
+        <v>19930</v>
       </c>
       <c r="E34" s="16">
-        <f t="shared" si="0"/>
-        <v>1.7437174687120103</v>
+        <v>1.7650804559628812</v>
       </c>
       <c r="F34" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -2212,17 +2192,16 @@
         <v>93</v>
       </c>
       <c r="C35" s="12">
-        <v>1188338</v>
+        <v>1218988</v>
       </c>
       <c r="D35" s="12">
-        <v>29567</v>
+        <v>30220</v>
       </c>
       <c r="E35" s="16">
-        <f t="shared" si="0"/>
-        <v>2.4880968209381504</v>
+        <v>2.4791056187591676</v>
       </c>
       <c r="F35" s="11">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -2230,17 +2209,16 @@
         <v>94</v>
       </c>
       <c r="C36" s="12">
-        <v>1220909</v>
+        <v>1284349</v>
       </c>
       <c r="D36" s="12">
-        <v>44046</v>
+        <v>46000</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" si="0"/>
-        <v>3.6076398814326045</v>
+        <v>3.581581018866367</v>
       </c>
       <c r="F36" s="11">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -2248,17 +2226,16 @@
         <v>95</v>
       </c>
       <c r="C37" s="12">
-        <v>1373753</v>
+        <v>1445463</v>
       </c>
       <c r="D37" s="12">
-        <v>77006</v>
+        <v>80097</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="0"/>
-        <v>5.605520060738721</v>
+        <v>5.5412694755936336</v>
       </c>
       <c r="F37" s="11">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -2266,17 +2243,16 @@
         <v>96</v>
       </c>
       <c r="C38" s="12">
-        <v>1593278</v>
+        <v>1663992</v>
       </c>
       <c r="D38" s="12">
-        <v>115235</v>
+        <v>118111</v>
       </c>
       <c r="E38" s="16">
-        <f t="shared" si="0"/>
-        <v>7.2325733487815675</v>
+        <v>7.0980509521680393</v>
       </c>
       <c r="F38" s="11">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -2284,17 +2260,16 @@
         <v>97</v>
       </c>
       <c r="C39" s="12">
-        <v>1598527</v>
+        <v>1634729</v>
       </c>
       <c r="D39" s="12">
-        <v>124869</v>
+        <v>128537</v>
       </c>
       <c r="E39" s="16">
-        <f t="shared" si="0"/>
-        <v>7.8115039658385497</v>
+        <v>7.8628934826506418</v>
       </c>
       <c r="F39" s="11">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -2302,17 +2277,16 @@
         <v>98</v>
       </c>
       <c r="C40" s="12">
-        <v>1396088</v>
+        <v>1467454</v>
       </c>
       <c r="D40" s="12">
-        <v>125200</v>
+        <v>128986</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" si="0"/>
-        <v>8.967916062597773</v>
+        <v>8.789781485484383</v>
       </c>
       <c r="F40" s="11">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2320,17 +2294,16 @@
         <v>99</v>
       </c>
       <c r="C41" s="12">
-        <v>1367570</v>
+        <v>1400145</v>
       </c>
       <c r="D41" s="12">
-        <v>127742</v>
+        <v>131185</v>
       </c>
       <c r="E41" s="16">
-        <f t="shared" si="0"/>
-        <v>9.3408015677442471</v>
+        <v>9.3693867420874266</v>
       </c>
       <c r="F41" s="11">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -2338,17 +2311,16 @@
         <v>100</v>
       </c>
       <c r="C42" s="12">
-        <v>1353980</v>
+        <v>1381117</v>
       </c>
       <c r="D42" s="12">
-        <v>125451</v>
+        <v>128882</v>
       </c>
       <c r="E42" s="16">
-        <f t="shared" si="0"/>
-        <v>9.2653510391586291</v>
+        <v>9.3317220771303226</v>
       </c>
       <c r="F42" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -2356,17 +2328,16 @@
         <v>101</v>
       </c>
       <c r="C43" s="12">
-        <v>1329716</v>
+        <v>1395790</v>
       </c>
       <c r="D43" s="12">
-        <v>135062</v>
+        <v>138305</v>
       </c>
       <c r="E43" s="16">
-        <f t="shared" si="0"/>
-        <v>10.157206501237859</v>
+        <v>9.9087255246133008</v>
       </c>
       <c r="F43" s="11">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -2374,17 +2345,16 @@
         <v>102</v>
       </c>
       <c r="C44" s="12">
-        <v>1445671</v>
+        <v>1516038</v>
       </c>
       <c r="D44" s="12">
-        <v>165953</v>
+        <v>169520</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="0"/>
-        <v>11.479306149186087</v>
+        <v>11.181777765464981</v>
       </c>
       <c r="F44" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -2392,17 +2362,16 @@
         <v>103</v>
       </c>
       <c r="C45" s="12">
-        <v>1613358</v>
+        <v>1672033</v>
       </c>
       <c r="D45" s="12">
-        <v>185724</v>
+        <v>188283</v>
       </c>
       <c r="E45" s="16">
-        <f t="shared" si="0"/>
-        <v>11.511642177371668</v>
+        <v>11.260722724970142</v>
       </c>
       <c r="F45" s="11">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -2410,17 +2379,16 @@
         <v>104</v>
       </c>
       <c r="C46" s="12">
-        <v>1077066</v>
+        <v>1091427</v>
       </c>
       <c r="D46" s="12">
-        <v>138761</v>
+        <v>141427</v>
       </c>
       <c r="E46" s="16">
-        <f t="shared" si="0"/>
-        <v>12.883240209977847</v>
+        <v>12.957989860980165</v>
       </c>
       <c r="F46" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -2428,17 +2396,16 @@
         <v>105</v>
       </c>
       <c r="C47" s="12">
-        <v>806908</v>
+        <v>844502</v>
       </c>
       <c r="D47" s="12">
-        <v>128349</v>
+        <v>129872</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" si="0"/>
-        <v>15.906274321236127</v>
+        <v>15.378530779086372</v>
       </c>
       <c r="F47" s="11">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -2446,17 +2413,16 @@
         <v>106</v>
       </c>
       <c r="C48" s="12">
-        <v>1214379</v>
+        <v>1227527</v>
       </c>
       <c r="D48" s="12">
-        <v>154988</v>
+        <v>157569</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="0"/>
-        <v>12.762737168544581</v>
+        <v>12.8362960651782</v>
       </c>
       <c r="F48" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -2464,17 +2430,16 @@
         <v>108</v>
       </c>
       <c r="C49" s="12">
-        <v>1162475</v>
+        <v>1184400</v>
       </c>
       <c r="D49" s="12">
-        <v>121341</v>
+        <v>123851</v>
       </c>
       <c r="E49" s="16">
-        <f t="shared" si="0"/>
-        <v>10.438159960429257</v>
+        <v>10.456855791962175</v>
       </c>
       <c r="F49" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -2482,47 +2447,63 @@
         <v>110</v>
       </c>
       <c r="C50" s="12">
-        <v>1068323</v>
+        <v>1100346</v>
       </c>
       <c r="D50" s="12">
-        <v>106488</v>
+        <v>109391</v>
       </c>
       <c r="E50" s="16">
-        <f t="shared" si="0"/>
-        <v>9.9677719191667702</v>
+        <v>9.9415093070725025</v>
       </c>
       <c r="F50" s="11">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1116314</v>
+      </c>
+      <c r="D51" s="12">
+        <v>95187</v>
+      </c>
+      <c r="E51" s="16">
+        <v>8.5269019290271384</v>
+      </c>
+      <c r="F51" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="14">
-        <f>SUM(C4:C50)</f>
-        <v>38533736</v>
-      </c>
-      <c r="D51" s="14">
-        <f>SUM(D4:D50)</f>
-        <v>2249854</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
+      <c r="C52" s="14">
+        <f>SUM(C4:C51)</f>
+        <v>40705522</v>
+      </c>
+      <c r="D52" s="14">
+        <f>SUM(D4:D51)</f>
+        <v>2398614</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2531,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E49"/>
+  <dimension ref="A2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,6 +3343,23 @@
         <v>2207810</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="23">
+        <v>173</v>
+      </c>
+      <c r="C50" s="27">
+        <v>346155</v>
+      </c>
+      <c r="D50" s="27">
+        <v>2329447</v>
+      </c>
+      <c r="E50" s="27">
+        <v>2237756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3370,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,6 +3878,17 @@
         <v>11980</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>42</v>
+      </c>
+      <c r="B44" s="22">
+        <v>4</v>
+      </c>
+      <c r="C44" s="27">
+        <v>5572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEABB0FD-E0F8-4AE0-96BF-387AE184737A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ABED37-3B10-450C-9C04-C8D804977DEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="27675" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="26085" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="183">
   <si>
     <t>1</t>
   </si>
@@ -193,6 +193,9 @@
     <t>51</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>Bis einschließlich KW10, 2020</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>6/2021*</t>
   </si>
   <si>
+    <t>7/2021*</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
@@ -511,6 +517,9 @@
     <t>2021, KW7</t>
   </si>
   <si>
+    <t>2021, KW8</t>
+  </si>
+  <si>
     <t>Labore mit Rückstau</t>
   </si>
   <si>
@@ -526,12 +535,6 @@
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testzkapazitäten, Probenrückstau). </t>
   </si>
   <si>
-    <t>Bis einschließlich KW49/2020</t>
-  </si>
-  <si>
-    <t>50/2020</t>
-  </si>
-  <si>
     <t>51/2020</t>
   </si>
   <si>
@@ -557,15 +560,21 @@
   </si>
   <si>
     <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>Bis einschließlich KW50/2020</t>
+  </si>
+  <si>
+    <t>* Ab 3. November 2020 geänderte Testkriterien, Daten nicht direkt mit Vorwochen vergleichbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -630,10 +639,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -642,32 +651,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{3F6CB4BE-F08E-4F0A-9074-04A8D9000BDD}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{30953F56-B6B0-450A-9937-EBD260941BC4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,13 +706,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -702,7 +720,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B60D7D-5FD9-4C4D-93BF-A85F6231824D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAB2AFC-DF34-4349-9B9E-1F5335749938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -724,7 +742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="1714500"/>
+          <a:off x="5953125" y="819150"/>
           <a:ext cx="10058400" cy="5364480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1033,10 +1051,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB5B33-EAE0-4900-BA06-83401F7F4EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9E2F3F-C6DA-4288-9546-799E6008E1BB}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1053,12 +1071,12 @@
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1069,47 +1087,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="8">
         <v>64388</v>
@@ -1118,13 +1137,17 @@
         <v>1634</v>
       </c>
       <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="8">
         <v>127750</v>
@@ -1135,16 +1158,19 @@
       <c r="E3" s="9">
         <v>5.8363992172211354</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="8">
         <v>373856</v>
@@ -1155,16 +1181,19 @@
       <c r="E4" s="9">
         <v>6.9136244971325853</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="8">
         <v>376920</v>
@@ -1175,16 +1204,19 @@
       <c r="E5" s="9">
         <v>8.7671123845908951</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="8">
         <v>416510</v>
@@ -1195,16 +1227,19 @@
       <c r="E6" s="9">
         <v>9.0252334877914091</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="8">
         <v>386165</v>
@@ -1215,16 +1250,19 @@
       <c r="E7" s="9">
         <v>7.9789727189154895</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>63</v>
+      <c r="B8" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="8">
         <v>339983</v>
@@ -1235,16 +1273,19 @@
       <c r="E8" s="9">
         <v>6.6838636049449534</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>64</v>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="8">
         <v>363659</v>
@@ -1255,16 +1296,19 @@
       <c r="E9" s="9">
         <v>4.984614707734444</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>65</v>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="8">
         <v>327799</v>
@@ -1275,16 +1319,19 @@
       <c r="E10" s="9">
         <v>3.8438189256221036</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>66</v>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C11" s="8">
         <v>385638</v>
@@ -1295,16 +1342,19 @@
       <c r="E11" s="9">
         <v>2.6400406598934754</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>67</v>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="8">
         <v>431682</v>
@@ -1315,16 +1365,19 @@
       <c r="E12" s="9">
         <v>1.6544586061035669</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>68</v>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="8">
         <v>356489</v>
@@ -1335,16 +1388,19 @@
       <c r="E13" s="9">
         <v>1.4909295939005129</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>69</v>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="8">
         <v>408078</v>
@@ -1355,16 +1411,19 @@
       <c r="E14" s="9">
         <v>1.0622969138252982</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>342328</v>
@@ -1375,16 +1434,19 @@
       <c r="E15" s="9">
         <v>0.94032623682550076</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
+      <c r="B16" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="8">
         <v>327980</v>
@@ -1395,16 +1457,19 @@
       <c r="E16" s="9">
         <v>0.90127446795536315</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>384834</v>
@@ -1415,16 +1480,19 @@
       <c r="E17" s="9">
         <v>1.452054652135726</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
+      <c r="B18" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="8">
         <v>472823</v>
@@ -1435,16 +1503,19 @@
       <c r="E18" s="9">
         <v>0.82885138836308725</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>74</v>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="8">
         <v>512969</v>
@@ -1455,16 +1526,19 @@
       <c r="E19" s="9">
         <v>0.62459914731689448</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="8">
         <v>513572</v>
@@ -1475,16 +1549,19 @@
       <c r="E20" s="9">
         <v>0.59232201132460494</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>76</v>
+      <c r="B21" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="8">
         <v>544219</v>
@@ -1495,16 +1572,19 @@
       <c r="E21" s="9">
         <v>0.66296840058873363</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>77</v>
+      <c r="B22" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="8">
         <v>556634</v>
@@ -1515,16 +1595,19 @@
       <c r="E22" s="9">
         <v>0.81507777103087486</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>78</v>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="8">
         <v>589201</v>
@@ -1535,16 +1618,19 @@
       <c r="E23" s="9">
         <v>0.99931941731259788</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>79</v>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="8">
         <v>719476</v>
@@ -1555,16 +1641,19 @@
       <c r="E24" s="9">
         <v>1.0249125752631083</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>80</v>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="8">
         <v>871191</v>
@@ -1575,16 +1664,19 @@
       <c r="E25" s="9">
         <v>0.98084117030593754</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>81</v>
+      <c r="B26" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="8">
         <v>1034449</v>
@@ -1595,16 +1687,19 @@
       <c r="E26" s="9">
         <v>0.85726797551160094</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>82</v>
+      <c r="B27" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="8">
         <v>1133623</v>
@@ -1615,16 +1710,19 @@
       <c r="E27" s="9">
         <v>0.72978406401422702</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="7">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>83</v>
+      <c r="B28" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="8">
         <v>1052942</v>
@@ -1635,16 +1733,19 @@
       <c r="E28" s="9">
         <v>0.77905525660482722</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>84</v>
+      <c r="B29" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="8">
         <v>1148465</v>
@@ -1655,16 +1756,19 @@
       <c r="E29" s="9">
         <v>0.90581776545214709</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>85</v>
+      <c r="B30" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="8">
         <v>1147879</v>
@@ -1675,16 +1779,19 @@
       <c r="E30" s="9">
         <v>1.1888883758654005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>86</v>
+      <c r="B31" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="8">
         <v>1220279</v>
@@ -1695,16 +1802,19 @@
       <c r="E31" s="9">
         <v>1.2438139146867233</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>87</v>
+      <c r="B32" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="8">
         <v>1129127</v>
@@ -1715,16 +1825,19 @@
       <c r="E32" s="9">
         <v>1.7650804559628812</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>88</v>
+      <c r="B33" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="8">
         <v>1218988</v>
@@ -1735,16 +1848,19 @@
       <c r="E33" s="9">
         <v>2.4791056187591676</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>89</v>
+      <c r="B34" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C34" s="8">
         <v>1284349</v>
@@ -1755,16 +1871,19 @@
       <c r="E34" s="9">
         <v>3.581581018866367</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>90</v>
+      <c r="B35" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="8">
         <v>1445463</v>
@@ -1775,16 +1894,19 @@
       <c r="E35" s="9">
         <v>5.5412694755936336</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>91</v>
+      <c r="B36" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C36" s="8">
         <v>1663992</v>
@@ -1795,16 +1917,19 @@
       <c r="E36" s="9">
         <v>7.0980509521680393</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>92</v>
+      <c r="B37" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="8">
         <v>1634729</v>
@@ -1815,16 +1940,19 @@
       <c r="E37" s="9">
         <v>7.8628934826506418</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>93</v>
+      <c r="B38" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C38" s="8">
         <v>1467454</v>
@@ -1835,16 +1963,19 @@
       <c r="E38" s="9">
         <v>8.789781485484383</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>94</v>
+      <c r="B39" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="8">
         <v>1400145</v>
@@ -1855,16 +1986,19 @@
       <c r="E39" s="9">
         <v>9.3693867420874266</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>95</v>
+      <c r="B40" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C40" s="8">
         <v>1381117</v>
@@ -1875,16 +2009,19 @@
       <c r="E40" s="9">
         <v>9.3317220771303226</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>96</v>
+      <c r="B41" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="8">
         <v>1395790</v>
@@ -1895,16 +2032,19 @@
       <c r="E41" s="9">
         <v>9.9087255246133008</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>97</v>
+      <c r="B42" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C42" s="8">
         <v>1516038</v>
@@ -1915,16 +2055,19 @@
       <c r="E42" s="9">
         <v>11.181777765464981</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>98</v>
+      <c r="B43" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="8">
         <v>1672033</v>
@@ -1935,56 +2078,65 @@
       <c r="E43" s="9">
         <v>11.260722724970142</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="7">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>99</v>
+      <c r="B44" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="8">
-        <v>1091482</v>
+        <v>1090372</v>
       </c>
       <c r="D44" s="8">
-        <v>141461</v>
+        <v>141413</v>
       </c>
       <c r="E44" s="9">
-        <v>12.960451935991616</v>
-      </c>
-      <c r="F44" s="6">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+        <v>12.969243524228427</v>
+      </c>
+      <c r="F44" s="7">
+        <v>208</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>100</v>
+      <c r="B45" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C45" s="8">
-        <v>844502</v>
+        <v>845729</v>
       </c>
       <c r="D45" s="8">
-        <v>129872</v>
+        <v>129930</v>
       </c>
       <c r="E45" s="9">
-        <v>15.378530779086372</v>
-      </c>
-      <c r="F45" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+        <v>15.363077297810529</v>
+      </c>
+      <c r="F45" s="7">
+        <v>205</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>101</v>
+      <c r="B46" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C46" s="8">
         <v>1228604</v>
@@ -1995,16 +2147,19 @@
       <c r="E46" s="9">
         <v>12.825043708143552</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>102</v>
+      <c r="B47" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C47" s="8">
         <v>1185297</v>
@@ -2015,16 +2170,19 @@
       <c r="E47" s="9">
         <v>10.449532901880289</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>103</v>
+      <c r="B48" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C48" s="8">
         <v>1107202</v>
@@ -2035,16 +2193,19 @@
       <c r="E48" s="9">
         <v>9.9136381617807778</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>104</v>
+      <c r="B49" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="8">
         <v>1141389</v>
@@ -2055,16 +2216,19 @@
       <c r="E49" s="9">
         <v>8.4428709230595356</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="7">
         <v>202</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>105</v>
+      <c r="B50" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C50" s="8">
         <v>1092988</v>
@@ -2075,44 +2239,233 @@
       <c r="E50" s="9">
         <v>7.503010097091642</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="7">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>106</v>
+      <c r="B51" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C51" s="8">
-        <v>1040260</v>
+        <v>1047658</v>
       </c>
       <c r="D51" s="8">
-        <v>67204</v>
+        <v>67336</v>
       </c>
       <c r="E51" s="9">
-        <v>6.4603079999230957</v>
-      </c>
-      <c r="F51" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+        <v>6.4272882944625058</v>
+      </c>
+      <c r="F51" s="7">
+        <v>205</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>107</v>
+      <c r="B52" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C52" s="12">
-        <v>42872730</v>
+        <v>1069784</v>
       </c>
       <c r="D52" s="12">
-        <v>2549418</v>
-      </c>
-      <c r="E52" s="15"/>
+        <v>65440</v>
+      </c>
+      <c r="E52" s="13">
+        <v>6.1171227088832891</v>
+      </c>
+      <c r="F52" s="11">
+        <v>190</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43950029</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2615000</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,323 +2475,522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F14"/>
+      <selection activeCell="B1" sqref="B1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
+      <c r="B2" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="8">
-        <v>30952935</v>
+        <v>32468973</v>
       </c>
       <c r="D2" s="8">
-        <v>1283514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+        <v>1453034</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>169</v>
+      <c r="B3" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C3" s="8">
-        <v>1516038</v>
+        <v>1672033</v>
       </c>
       <c r="D3" s="8">
-        <v>169520</v>
-      </c>
-      <c r="E3" s="7">
-        <v>11.181777765464981</v>
-      </c>
-      <c r="F3" s="8">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+        <v>188283</v>
+      </c>
+      <c r="E3" s="15">
+        <v>11.260722724970142</v>
+      </c>
+      <c r="F3" s="17">
+        <v>212</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>170</v>
+      <c r="B4" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="8">
-        <v>1672033</v>
+        <v>1090372</v>
       </c>
       <c r="D4" s="8">
-        <v>188283</v>
-      </c>
-      <c r="E4" s="7">
-        <v>11.260722724970142</v>
-      </c>
-      <c r="F4" s="8">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+        <v>141413</v>
+      </c>
+      <c r="E4" s="15">
+        <v>12.969243524228427</v>
+      </c>
+      <c r="F4" s="17">
+        <v>208</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>171</v>
+      <c r="B5" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C5" s="8">
-        <v>1091482</v>
+        <v>845729</v>
       </c>
       <c r="D5" s="8">
-        <v>141461</v>
-      </c>
-      <c r="E5" s="7">
-        <v>12.960451935991616</v>
-      </c>
-      <c r="F5" s="8">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+        <v>129930</v>
+      </c>
+      <c r="E5" s="15">
+        <v>15.363077297810529</v>
+      </c>
+      <c r="F5" s="17">
+        <v>205</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>172</v>
+      <c r="B6" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="C6" s="8">
-        <v>844502</v>
+        <v>1228604</v>
       </c>
       <c r="D6" s="8">
-        <v>129872</v>
-      </c>
-      <c r="E6" s="7">
-        <v>15.378530779086372</v>
-      </c>
-      <c r="F6" s="8">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+        <v>157569</v>
+      </c>
+      <c r="E6" s="15">
+        <v>12.825043708143552</v>
+      </c>
+      <c r="F6" s="17">
+        <v>205</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>173</v>
+      <c r="B7" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C7" s="8">
-        <v>1228604</v>
+        <v>1185297</v>
       </c>
       <c r="D7" s="8">
-        <v>157569</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12.825043708143552</v>
-      </c>
-      <c r="F7" s="8">
+        <v>123858</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10.449532901880289</v>
+      </c>
+      <c r="F7" s="17">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>174</v>
+      <c r="B8" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C8" s="8">
-        <v>1185297</v>
+        <v>1107202</v>
       </c>
       <c r="D8" s="8">
-        <v>123858</v>
-      </c>
-      <c r="E8" s="7">
-        <v>10.449532901880289</v>
-      </c>
-      <c r="F8" s="8">
+        <v>109764</v>
+      </c>
+      <c r="E8" s="15">
+        <v>9.9136381617807778</v>
+      </c>
+      <c r="F8" s="17">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>175</v>
+      <c r="B9" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C9" s="8">
-        <v>1107202</v>
+        <v>1141389</v>
       </c>
       <c r="D9" s="8">
-        <v>109764</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9.9136381617807778</v>
-      </c>
-      <c r="F9" s="8">
+        <v>96366</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8.4428709230595356</v>
+      </c>
+      <c r="F9" s="17">
+        <v>202</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1092988</v>
+      </c>
+      <c r="D10" s="8">
+        <v>82007</v>
+      </c>
+      <c r="E10" s="15">
+        <v>7.503010097091642</v>
+      </c>
+      <c r="F10" s="17">
+        <v>203</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1047658</v>
+      </c>
+      <c r="D11" s="8">
+        <v>67336</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6.4272882944625058</v>
+      </c>
+      <c r="F11" s="17">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1141389</v>
-      </c>
-      <c r="D10" s="8">
-        <v>96366</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8.4428709230595356</v>
-      </c>
-      <c r="F10" s="8">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1092988</v>
-      </c>
-      <c r="D11" s="8">
-        <v>82007</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7.503010097091642</v>
-      </c>
-      <c r="F11" s="8">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>178</v>
+      <c r="B12" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="C12" s="8">
-        <v>1040260</v>
+        <v>1069784</v>
       </c>
       <c r="D12" s="8">
-        <v>67204</v>
-      </c>
-      <c r="E12" s="7">
-        <v>6.4603079999230957</v>
-      </c>
-      <c r="F12" s="8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+        <v>65440</v>
+      </c>
+      <c r="E12" s="15">
+        <v>6.1171227088832891</v>
+      </c>
+      <c r="F12" s="17">
+        <v>190</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42872730</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2549418</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43950029</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2615000</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="16" t="s">
+    <row r="1" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="7">
         <v>26</v>
       </c>
       <c r="D2" s="8">
@@ -2450,15 +3002,17 @@
       <c r="F2" s="8">
         <v>39550</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="7">
         <v>37</v>
       </c>
       <c r="D3" s="8">
@@ -2470,15 +3024,17 @@
       <c r="F3" s="8">
         <v>118300</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="7">
         <v>106</v>
       </c>
       <c r="D4" s="8">
@@ -2490,15 +3046,17 @@
       <c r="F4" s="8">
         <v>366230.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="7">
         <v>125</v>
       </c>
       <c r="D5" s="8">
@@ -2510,15 +3068,17 @@
       <c r="F5" s="8">
         <v>529980.00529999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7">
         <v>131</v>
       </c>
       <c r="D6" s="8">
@@ -2530,15 +3090,17 @@
       <c r="F6" s="8">
         <v>663560.04500000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="7">
         <v>138</v>
       </c>
       <c r="D7" s="8">
@@ -2550,15 +3112,17 @@
       <c r="F7" s="8">
         <v>669250</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="7">
         <v>135</v>
       </c>
       <c r="D8" s="8">
@@ -2570,15 +3134,17 @@
       <c r="F8" s="8">
         <v>700399</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="7">
         <v>138</v>
       </c>
       <c r="D9" s="8">
@@ -2590,15 +3156,17 @@
       <c r="F9" s="8">
         <v>730541</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7">
         <v>135</v>
       </c>
       <c r="D10" s="8">
@@ -2610,15 +3178,17 @@
       <c r="F10" s="8">
         <v>831816.00349999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="7">
         <v>139</v>
       </c>
       <c r="D11" s="8">
@@ -2630,15 +3200,17 @@
       <c r="F11" s="8">
         <v>873162</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="7">
         <v>139</v>
       </c>
       <c r="D12" s="8">
@@ -2650,15 +3222,17 @@
       <c r="F12" s="8">
         <v>882561</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="7">
         <v>146</v>
       </c>
       <c r="D13" s="8">
@@ -2670,15 +3244,17 @@
       <c r="F13" s="8">
         <v>880441</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="7">
         <v>146</v>
       </c>
       <c r="D14" s="8">
@@ -2690,15 +3266,17 @@
       <c r="F14" s="8">
         <v>939801</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="7">
         <v>144</v>
       </c>
       <c r="D15" s="8">
@@ -2710,15 +3288,17 @@
       <c r="F15" s="8">
         <v>974698</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="7">
         <v>141</v>
       </c>
       <c r="D16" s="8">
@@ -2730,15 +3310,17 @@
       <c r="F16" s="8">
         <v>996309</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="7">
         <v>143</v>
       </c>
       <c r="D17" s="8">
@@ -2750,15 +3332,17 @@
       <c r="F17" s="8">
         <v>994060</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="7">
         <v>147</v>
       </c>
       <c r="D18" s="8">
@@ -2770,15 +3354,17 @@
       <c r="F18" s="8">
         <v>1003758</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="7">
         <v>152</v>
       </c>
       <c r="D19" s="8">
@@ -2790,15 +3376,17 @@
       <c r="F19" s="8">
         <v>1020962</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="7">
         <v>155</v>
       </c>
       <c r="D20" s="8">
@@ -2810,15 +3398,17 @@
       <c r="F20" s="8">
         <v>1041871.025</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="7">
         <v>155</v>
       </c>
       <c r="D21" s="8">
@@ -2830,15 +3420,17 @@
       <c r="F21" s="8">
         <v>1040331</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7">
         <v>159</v>
       </c>
       <c r="D22" s="8">
@@ -2850,15 +3442,17 @@
       <c r="F22" s="8">
         <v>1065190</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7">
         <v>158</v>
       </c>
       <c r="D23" s="8">
@@ -2870,15 +3464,17 @@
       <c r="F23" s="8">
         <v>1046485</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="7">
         <v>155</v>
       </c>
       <c r="D24" s="8">
@@ -2890,15 +3486,17 @@
       <c r="F24" s="8">
         <v>1005162</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7">
         <v>164</v>
       </c>
       <c r="D25" s="8">
@@ -2910,15 +3508,17 @@
       <c r="F25" s="8">
         <v>1081246</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7">
         <v>171</v>
       </c>
       <c r="D26" s="8">
@@ -2930,15 +3530,17 @@
       <c r="F26" s="8">
         <v>1189057</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="7">
         <v>171</v>
       </c>
       <c r="D27" s="8">
@@ -2950,15 +3552,17 @@
       <c r="F27" s="8">
         <v>1153222.69</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="7">
         <v>171</v>
       </c>
       <c r="D28" s="8">
@@ -2970,15 +3574,17 @@
       <c r="F28" s="8">
         <v>1206487</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="7">
         <v>172</v>
       </c>
       <c r="D29" s="8">
@@ -2990,15 +3596,17 @@
       <c r="F29" s="8">
         <v>1280683</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7">
         <v>174</v>
       </c>
       <c r="D30" s="8">
@@ -3010,15 +3618,17 @@
       <c r="F30" s="8">
         <v>1377447</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="7">
         <v>169</v>
       </c>
       <c r="D31" s="8">
@@ -3030,15 +3640,17 @@
       <c r="F31" s="8">
         <v>1454962</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="7">
         <v>173</v>
       </c>
       <c r="D32" s="8">
@@ -3050,15 +3662,17 @@
       <c r="F32" s="8">
         <v>1595907</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="7">
         <v>173</v>
       </c>
       <c r="D33" s="8">
@@ -3070,15 +3684,17 @@
       <c r="F33" s="8">
         <v>1557060</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="7">
         <v>188</v>
       </c>
       <c r="D34" s="8">
@@ -3090,15 +3706,17 @@
       <c r="F34" s="8">
         <v>1632858</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="7">
         <v>183</v>
       </c>
       <c r="D35" s="8">
@@ -3110,15 +3728,17 @@
       <c r="F35" s="8">
         <v>1703929</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="7">
         <v>185</v>
       </c>
       <c r="D36" s="8">
@@ -3130,15 +3750,17 @@
       <c r="F36" s="8">
         <v>1732058</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="7">
         <v>182</v>
       </c>
       <c r="D37" s="8">
@@ -3150,15 +3772,17 @@
       <c r="F37" s="8">
         <v>1787673</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="7">
         <v>181</v>
       </c>
       <c r="D38" s="8">
@@ -3170,15 +3794,17 @@
       <c r="F38" s="8">
         <v>1893368</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="7">
         <v>177</v>
       </c>
       <c r="D39" s="8">
@@ -3190,15 +3816,17 @@
       <c r="F39" s="8">
         <v>1921326</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="7">
         <v>181</v>
       </c>
       <c r="D40" s="8">
@@ -3210,15 +3838,17 @@
       <c r="F40" s="8">
         <v>2016366</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="7">
         <v>180</v>
       </c>
       <c r="D41" s="8">
@@ -3230,15 +3860,17 @@
       <c r="F41" s="8">
         <v>2008132</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="7">
         <v>180</v>
       </c>
       <c r="D42" s="8">
@@ -3250,15 +3882,17 @@
       <c r="F42" s="8">
         <v>2094092</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="7">
         <v>187</v>
       </c>
       <c r="D43" s="8">
@@ -3268,57 +3902,63 @@
         <v>1465033.7</v>
       </c>
       <c r="F43" s="8">
-        <v>1330792.45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+        <v>1331929.95</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="6">
-        <v>186</v>
+      <c r="B44" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="7">
+        <v>185</v>
       </c>
       <c r="D44" s="8">
-        <v>331305</v>
+        <v>331055</v>
       </c>
       <c r="E44" s="8">
-        <v>1332619.94</v>
+        <v>1331534.94</v>
       </c>
       <c r="F44" s="8">
         <v>1264753.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="6">
-        <v>182</v>
+      <c r="B45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="7">
+        <v>183</v>
       </c>
       <c r="D45" s="8">
-        <v>335358</v>
+        <v>335608</v>
       </c>
       <c r="E45" s="8">
-        <v>2127706</v>
+        <v>2129456</v>
       </c>
       <c r="F45" s="8">
-        <v>2057167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+        <v>2058917</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="7">
         <v>182</v>
       </c>
       <c r="D46" s="8">
@@ -3330,15 +3970,17 @@
       <c r="F46" s="8">
         <v>2103510</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="7">
         <v>181</v>
       </c>
       <c r="D47" s="8">
@@ -3350,15 +3992,17 @@
       <c r="F47" s="8">
         <v>2221047</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="7">
         <v>180</v>
       </c>
       <c r="D48" s="8">
@@ -3370,15 +4014,17 @@
       <c r="F48" s="8">
         <v>2244560</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="7">
         <v>176</v>
       </c>
       <c r="D49" s="8">
@@ -3390,15 +4036,17 @@
       <c r="F49" s="8">
         <v>2255508</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="7">
         <v>178</v>
       </c>
       <c r="D50" s="8">
@@ -3410,1021 +4058,1117 @@
       <c r="F50" s="8">
         <v>2304487</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="6">
-        <v>177</v>
+      <c r="B51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="7">
+        <v>180</v>
       </c>
       <c r="D51" s="8">
-        <v>345021.14285714284</v>
+        <v>346901.14285714284</v>
       </c>
       <c r="E51" s="8">
-        <v>2311099.7142857141</v>
+        <v>2322359.7142857141</v>
       </c>
       <c r="F51" s="8">
-        <v>2274790</v>
-      </c>
+        <v>2276730</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="7">
+        <v>172</v>
+      </c>
+      <c r="D52" s="8">
+        <v>353712</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2381160</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2342416</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="16" t="s">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7">
+        <v>180</v>
+      </c>
+      <c r="D2" s="8">
+        <v>333476</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2235788</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2008132</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7">
+        <v>180</v>
+      </c>
+      <c r="D3" s="8">
+        <v>342616</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2290632</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2094092</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="7">
+        <v>187</v>
+      </c>
+      <c r="D4" s="8">
+        <v>338390</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1465033.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1331929.95</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="7">
+        <v>185</v>
+      </c>
+      <c r="D5" s="8">
+        <v>331055</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1331534.94</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1264753.5</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="7">
+        <v>183</v>
+      </c>
+      <c r="D6" s="8">
+        <v>335608</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2129456</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2058917</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="7">
+        <v>182</v>
+      </c>
+      <c r="D7" s="8">
+        <v>337946</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2242574</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2103510</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="7">
         <v>181</v>
       </c>
-      <c r="D2" s="8">
-        <v>329486</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2202408</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2016366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="D8" s="8">
+        <v>346437</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2315703</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2221047</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="7">
         <v>180</v>
       </c>
-      <c r="D3" s="8">
-        <v>333476</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2235788</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2008132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D9" s="8">
+        <v>352577</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2357097</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2244560</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="7">
+        <v>176</v>
+      </c>
+      <c r="D10" s="8">
+        <v>349911</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2351339</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2255508</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7">
+        <v>178</v>
+      </c>
+      <c r="D11" s="8">
+        <v>351185</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2358245</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2304487</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7">
         <v>180</v>
       </c>
-      <c r="D4" s="8">
-        <v>342616</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2290632</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2094092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="6">
-        <v>187</v>
-      </c>
-      <c r="D5" s="8">
-        <v>338390</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1465033.7</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1330792.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="6">
-        <v>186</v>
-      </c>
-      <c r="D6" s="8">
-        <v>331305</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1332619.94</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1264753.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="6">
-        <v>182</v>
-      </c>
-      <c r="D7" s="8">
-        <v>335358</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2127706</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2057167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="6">
-        <v>182</v>
-      </c>
-      <c r="D8" s="8">
-        <v>337946</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2242574</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2103510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="6">
-        <v>181</v>
-      </c>
-      <c r="D9" s="8">
-        <v>346437</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2315703</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="6">
-        <v>180</v>
-      </c>
-      <c r="D10" s="8">
-        <v>352577</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2357097</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2244560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="6">
-        <v>176</v>
-      </c>
-      <c r="D11" s="8">
-        <v>349911</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2351339</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2255508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="6">
-        <v>178</v>
-      </c>
       <c r="D12" s="8">
-        <v>351185</v>
+        <v>346901.14285714284</v>
       </c>
       <c r="E12" s="8">
-        <v>2358245</v>
+        <v>2322359.7142857141</v>
       </c>
       <c r="F12" s="8">
-        <v>2304487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+        <v>2276730</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="6">
-        <v>177</v>
+      <c r="B13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="7">
+        <v>172</v>
       </c>
       <c r="D13" s="8">
-        <v>345021.14285714284</v>
+        <v>353712</v>
       </c>
       <c r="E13" s="8">
-        <v>2311099.7142857141</v>
+        <v>2381160</v>
       </c>
       <c r="F13" s="8">
-        <v>2274790</v>
-      </c>
+        <v>2342416</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>24</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>3423</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>35</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>16</v>
       </c>
       <c r="D3" s="8">
         <v>2259</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>28</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>17</v>
       </c>
       <c r="D4" s="8">
         <v>2243</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>30</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>3790</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>29</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>19</v>
       </c>
       <c r="D6" s="8">
         <v>3224</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>29</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>20</v>
       </c>
       <c r="D7" s="8">
         <v>1552</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>29</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>21</v>
       </c>
       <c r="D8" s="8">
         <v>1578</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>22</v>
       </c>
       <c r="D9" s="8">
         <v>1454</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>27</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>23</v>
       </c>
       <c r="D10" s="8">
         <v>2478</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>27</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>24</v>
       </c>
       <c r="D11" s="8">
         <v>1646</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>22</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>25</v>
       </c>
       <c r="D12" s="8">
         <v>553</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>31</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>26</v>
       </c>
       <c r="D13" s="8">
         <v>3056</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>21</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>27</v>
       </c>
       <c r="D14" s="8">
         <v>960</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>25</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>28</v>
       </c>
       <c r="D15" s="8">
         <v>3242</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>22</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>29</v>
       </c>
       <c r="D16" s="8">
         <v>1483</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>20</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>30</v>
       </c>
       <c r="D17" s="8">
         <v>1256</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>31</v>
       </c>
       <c r="D18" s="8">
         <v>1274</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>35</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>32</v>
       </c>
       <c r="D19" s="8">
         <v>10693</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>44</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>33</v>
       </c>
       <c r="D20" s="8">
         <v>17143</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>48</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>34</v>
       </c>
       <c r="D21" s="8">
         <v>27828</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>49</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>35</v>
       </c>
       <c r="D22" s="8">
         <v>36812</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>47</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>36</v>
       </c>
       <c r="D23" s="8">
         <v>29964</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>51</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>37</v>
       </c>
       <c r="D24" s="8">
         <v>32397</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="7">
         <v>42</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>38</v>
       </c>
       <c r="D25" s="8">
         <v>12617</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="7">
         <v>46</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>39</v>
       </c>
       <c r="D26" s="8">
         <v>15983</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="7">
         <v>42</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>40</v>
       </c>
       <c r="D27" s="8">
         <v>8245</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="7">
         <v>46</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>41</v>
       </c>
       <c r="D28" s="8">
         <v>16829</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>52</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>42</v>
       </c>
       <c r="D29" s="8">
         <v>20799</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="7">
         <v>57</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>43</v>
       </c>
       <c r="D30" s="8">
         <v>69524</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="7">
         <v>69</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>44</v>
       </c>
       <c r="D31" s="8">
         <v>98931</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="7">
         <v>66</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>45</v>
       </c>
       <c r="D32" s="8">
         <v>60113</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="7">
         <v>59</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>46</v>
       </c>
       <c r="D33" s="8">
         <v>23780</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="7">
         <v>50</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>47</v>
       </c>
       <c r="D34" s="8">
         <v>17207</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="7">
         <v>54</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>48</v>
       </c>
       <c r="D35" s="8">
         <v>14191</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="7">
         <v>51</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>49</v>
       </c>
       <c r="D36" s="8">
         <v>12267</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="7">
         <v>51</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>50</v>
       </c>
       <c r="D37" s="8">
         <v>19159</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="7">
         <v>57</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>51</v>
       </c>
       <c r="D38" s="8">
         <v>21364</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="7">
         <v>43</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>52</v>
       </c>
       <c r="D39" s="8">
         <v>11321</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>53</v>
       </c>
       <c r="D40" s="8">
         <v>6507</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="7">
         <v>47</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" s="8">
         <v>11691</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="7">
         <v>46</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="8">
         <v>11336.5461</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="7">
         <v>48</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>3</v>
       </c>
       <c r="D43" s="8">
         <v>11980</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>4</v>
       </c>
       <c r="D44" s="8">
         <v>5572</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="7">
         <v>42</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>5</v>
       </c>
       <c r="D45" s="8">
         <v>6202</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="7">
         <v>46</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>6</v>
       </c>
       <c r="D46" s="8">
         <v>5850</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="7">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8">
+        <v>6820</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C69CE-6911-48AD-9C43-BAC174155FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D7A13C-4984-452F-80C5-4278618EAD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="24045" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25950" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="2_Testkapazitäten kurz" sheetId="5" r:id="rId5"/>
     <sheet name="3_Probenrückstau" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -39,7 +34,7 @@
     <t>Positiv getestet</t>
   </si>
   <si>
-    <t>Positivenquote (%)</t>
+    <t>Positivenanteil (%)</t>
   </si>
   <si>
     <t>Anzahl übermittelnder Labore</t>
@@ -201,9 +196,45 @@
     <t>8/2021*</t>
   </si>
   <si>
+    <t>9/2021*</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
+    <t>Bis einschließlich KW52/2020</t>
+  </si>
+  <si>
+    <t>53/2020</t>
+  </si>
+  <si>
+    <t>1/2021</t>
+  </si>
+  <si>
+    <t>2/2021</t>
+  </si>
+  <si>
+    <t>3/2021</t>
+  </si>
+  <si>
+    <t>4/2021</t>
+  </si>
+  <si>
+    <t>5/2021</t>
+  </si>
+  <si>
+    <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>8/2021</t>
+  </si>
+  <si>
+    <t>9/2021</t>
+  </si>
+  <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
   </si>
   <si>
@@ -219,160 +250,28 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>2020, KW11</t>
-  </si>
-  <si>
-    <t>2020, KW12</t>
-  </si>
-  <si>
-    <t>2020, KW13</t>
-  </si>
-  <si>
-    <t>2020, KW14</t>
-  </si>
-  <si>
-    <t>2020, KW15</t>
-  </si>
-  <si>
-    <t>2020, KW16</t>
-  </si>
-  <si>
-    <t>2020, KW17</t>
-  </si>
-  <si>
-    <t>2020, KW18</t>
-  </si>
-  <si>
-    <t>2020, KW19</t>
-  </si>
-  <si>
-    <t>2020, KW20</t>
-  </si>
-  <si>
-    <t>2020, KW21</t>
-  </si>
-  <si>
-    <t>2020, KW22</t>
-  </si>
-  <si>
-    <t>2020, KW23</t>
-  </si>
-  <si>
-    <t>2020, KW24</t>
-  </si>
-  <si>
-    <t>2020, KW25</t>
-  </si>
-  <si>
-    <t>2020, KW26</t>
-  </si>
-  <si>
-    <t>2020, KW27</t>
-  </si>
-  <si>
-    <t>2020, KW28</t>
-  </si>
-  <si>
-    <t>2020, KW29</t>
-  </si>
-  <si>
-    <t>2020, KW30</t>
-  </si>
-  <si>
-    <t>2020, KW31</t>
-  </si>
-  <si>
-    <t>2020, KW32</t>
-  </si>
-  <si>
-    <t>2020, KW33</t>
-  </si>
-  <si>
-    <t>2020, KW34</t>
-  </si>
-  <si>
-    <t>2020, KW35</t>
-  </si>
-  <si>
-    <t>2020, KW36</t>
-  </si>
-  <si>
-    <t>2020, KW37</t>
-  </si>
-  <si>
-    <t>2020, KW38</t>
-  </si>
-  <si>
-    <t>2020, KW39</t>
-  </si>
-  <si>
-    <t>2020, KW40</t>
-  </si>
-  <si>
-    <t>2020, KW41</t>
-  </si>
-  <si>
-    <t>2020, KW42</t>
-  </si>
-  <si>
-    <t>2020, KW43</t>
-  </si>
-  <si>
-    <t>2020, KW44</t>
-  </si>
-  <si>
-    <t>2020, KW45</t>
-  </si>
-  <si>
-    <t>2020, KW46</t>
-  </si>
-  <si>
-    <t>2020, KW47</t>
-  </si>
-  <si>
-    <t>2020, KW48</t>
-  </si>
-  <si>
-    <t>2020, KW49</t>
-  </si>
-  <si>
-    <t>2020, KW50</t>
-  </si>
-  <si>
-    <t>2020, KW51</t>
-  </si>
-  <si>
-    <t>2020, KW52</t>
-  </si>
-  <si>
-    <t>2020, KW53</t>
-  </si>
-  <si>
-    <t>2021, KW1</t>
-  </si>
-  <si>
-    <t>2021, KW2</t>
-  </si>
-  <si>
-    <t>2021, KW3</t>
-  </si>
-  <si>
-    <t>2021, KW4</t>
-  </si>
-  <si>
-    <t>2021, KW5</t>
-  </si>
-  <si>
-    <t>2021, KW6</t>
-  </si>
-  <si>
-    <t>2021, KW7</t>
-  </si>
-  <si>
-    <t>2021, KW8</t>
-  </si>
-  <si>
-    <t>2021, KW9</t>
+    <t>46/2020</t>
+  </si>
+  <si>
+    <t>47/2020</t>
+  </si>
+  <si>
+    <t>48/2020</t>
+  </si>
+  <si>
+    <t>49/2020</t>
+  </si>
+  <si>
+    <t>50/2020</t>
+  </si>
+  <si>
+    <t>51/2020</t>
+  </si>
+  <si>
+    <t>52/2020</t>
+  </si>
+  <si>
+    <t>10/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -387,43 +286,10 @@
     <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlerfassung).</t>
   </si>
   <si>
+    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
+  </si>
+  <si>
     <t>*Ab 03. November 2020 geänderte Testkriterien, Daten nicht direkt mit Vorwochen vergleichbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
-  </si>
-  <si>
-    <t>52/2020</t>
-  </si>
-  <si>
-    <t>53/2020</t>
-  </si>
-  <si>
-    <t>1/2021</t>
-  </si>
-  <si>
-    <t>2/2021</t>
-  </si>
-  <si>
-    <t>3/2021</t>
-  </si>
-  <si>
-    <t>4/2021</t>
-  </si>
-  <si>
-    <t>5/2021</t>
-  </si>
-  <si>
-    <t>6/2021</t>
-  </si>
-  <si>
-    <t>7/2021</t>
-  </si>
-  <si>
-    <t>8/2021</t>
-  </si>
-  <si>
-    <t>Bis einschließlich KW51/2020</t>
   </si>
 </sst>
 </file>
@@ -490,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -527,6 +393,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,19 +403,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{B68C5FDB-7E9E-4E6F-8901-6A4E50BDBD21}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{AC792CF2-4318-4D97-827E-F26285CDD0CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,23 +432,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06501F8F-5CEB-4F0D-98F8-E1ABDAFD753E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7435B976-D364-4291-9EE0-F4207882B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,8 +470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="933450"/>
-          <a:ext cx="10058400" cy="5364480"/>
+          <a:off x="4248150" y="890270"/>
+          <a:ext cx="9067800" cy="4836160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E2FD76-4593-4062-A07A-498B91E866DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75916A43-D511-44B5-BA57-BE474A7C5110}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -934,12 +799,12 @@
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -950,22 +815,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -990,116 +855,116 @@
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>64388</v>
+        <v>66906</v>
       </c>
       <c r="C2" s="8">
-        <v>1634</v>
+        <v>1717</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>127750</v>
+        <v>128008</v>
       </c>
       <c r="C3" s="8">
-        <v>7456</v>
+        <v>7470</v>
       </c>
       <c r="D3" s="9">
-        <v>5.8363992172211354</v>
+        <v>5.835572776701456</v>
       </c>
       <c r="E3" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>373856</v>
+        <v>374534</v>
       </c>
       <c r="C4" s="8">
-        <v>25847</v>
+        <v>25886</v>
       </c>
       <c r="D4" s="9">
-        <v>6.9136244971325853</v>
+        <v>6.9115220514025424</v>
       </c>
       <c r="E4" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>376920</v>
+        <v>377599</v>
       </c>
       <c r="C5" s="8">
-        <v>33045</v>
+        <v>33139</v>
       </c>
       <c r="D5" s="9">
-        <v>8.7671123845908951</v>
+        <v>8.7762414625038723</v>
       </c>
       <c r="E5" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>416510</v>
+        <v>417646</v>
       </c>
       <c r="C6" s="8">
-        <v>37591</v>
+        <v>37649</v>
       </c>
       <c r="D6" s="9">
-        <v>9.0252334877914091</v>
+        <v>9.0145721496195339</v>
       </c>
       <c r="E6" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>386165</v>
+        <v>386241</v>
       </c>
       <c r="C7" s="8">
-        <v>30812</v>
+        <v>30829</v>
       </c>
       <c r="D7" s="9">
-        <v>7.9789727189154895</v>
+        <v>7.9818041067623575</v>
       </c>
       <c r="E7" s="7">
         <v>175</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1118,8 +983,8 @@
         <v>172</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1138,8 +1003,8 @@
         <v>180</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1158,8 +1023,8 @@
         <v>178</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1178,8 +1043,8 @@
         <v>181</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1198,8 +1063,8 @@
         <v>183</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1218,8 +1083,8 @@
         <v>181</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1238,8 +1103,8 @@
         <v>175</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1258,8 +1123,8 @@
         <v>178</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1278,8 +1143,8 @@
         <v>175</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1298,8 +1163,8 @@
         <v>175</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1318,8 +1183,8 @@
         <v>182</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1338,8 +1203,8 @@
         <v>154</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1358,8 +1223,8 @@
         <v>182</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1378,8 +1243,8 @@
         <v>182</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1398,8 +1263,8 @@
         <v>187</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1418,8 +1283,8 @@
         <v>175</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1438,8 +1303,8 @@
         <v>174</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1458,8 +1323,8 @@
         <v>189</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -1478,8 +1343,8 @@
         <v>197</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -1498,8 +1363,8 @@
         <v>196</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1518,8 +1383,8 @@
         <v>195</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -1538,8 +1403,8 @@
         <v>197</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1558,8 +1423,8 @@
         <v>206</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -1578,8 +1443,8 @@
         <v>200</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1598,8 +1463,8 @@
         <v>198</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1618,8 +1483,8 @@
         <v>198</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -1638,8 +1503,8 @@
         <v>205</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -1658,8 +1523,8 @@
         <v>209</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1678,8 +1543,8 @@
         <v>210</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -1698,8 +1563,8 @@
         <v>208</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -1718,8 +1583,8 @@
         <v>206</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -1738,8 +1603,8 @@
         <v>204</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -1758,8 +1623,8 @@
         <v>206</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -1778,8 +1643,8 @@
         <v>208</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -1798,8 +1663,8 @@
         <v>206</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -1818,8 +1683,8 @@
         <v>212</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -1838,8 +1703,8 @@
         <v>208</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -1858,572 +1723,485 @@
         <v>205</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="8">
-        <v>1228604</v>
+        <v>1231405</v>
       </c>
       <c r="C46" s="8">
-        <v>157569</v>
+        <v>157772</v>
       </c>
       <c r="D46" s="9">
-        <v>12.825043708143552</v>
+        <v>12.812356617035011</v>
       </c>
       <c r="E46" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="8">
-        <v>1185297</v>
+        <v>1187564</v>
       </c>
       <c r="C47" s="8">
-        <v>123858</v>
+        <v>124037</v>
       </c>
       <c r="D47" s="9">
-        <v>10.449532901880289</v>
+        <v>10.44465814052969</v>
       </c>
       <c r="E47" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="8">
-        <v>1107404</v>
+        <v>1110190</v>
       </c>
       <c r="C48" s="8">
-        <v>109764</v>
+        <v>110014</v>
       </c>
       <c r="D48" s="9">
-        <v>9.9118298290416149</v>
+        <v>9.9094749547374779</v>
       </c>
       <c r="E48" s="7">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="8">
-        <v>1144014</v>
+        <v>1148018</v>
       </c>
       <c r="C49" s="8">
-        <v>96856</v>
+        <v>97256</v>
       </c>
       <c r="D49" s="9">
-        <v>8.4663299575005215</v>
+        <v>8.4716441728265597</v>
       </c>
       <c r="E49" s="7">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="8">
-        <v>1096557</v>
+        <v>1097419</v>
       </c>
       <c r="C50" s="8">
-        <v>82250</v>
+        <v>82288</v>
       </c>
       <c r="D50" s="9">
-        <v>7.5007500750075007</v>
+        <v>7.4983210605976387</v>
       </c>
       <c r="E50" s="7">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="8">
-        <v>1051925</v>
+        <v>1056768</v>
       </c>
       <c r="C51" s="8">
-        <v>67377</v>
+        <v>67774</v>
       </c>
       <c r="D51" s="9">
-        <v>6.4051144330631944</v>
+        <v>6.4133281855620154</v>
       </c>
       <c r="E51" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="11">
-        <v>1087897</v>
+        <v>1098665</v>
       </c>
       <c r="C52" s="11">
-        <v>65964</v>
+        <v>67211</v>
       </c>
       <c r="D52" s="12">
-        <v>6.0634416677314116</v>
+        <v>6.1175153481725548</v>
       </c>
       <c r="E52" s="10">
-        <v>200</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="11">
-        <v>1135355</v>
+        <v>1170335</v>
       </c>
       <c r="C53" s="11">
-        <v>69265</v>
+        <v>72008</v>
       </c>
       <c r="D53" s="12">
-        <v>6.1007350123970037</v>
+        <v>6.1527682244827337</v>
       </c>
       <c r="E53" s="7">
-        <v>192</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="13">
-        <v>45114160</v>
-      </c>
-      <c r="C54" s="13">
-        <v>2685563</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="B54" s="11">
+        <v>1136825</v>
+      </c>
+      <c r="C54" s="11">
+        <v>70991</v>
+      </c>
+      <c r="D54" s="12">
+        <v>6.2446726628988634</v>
+      </c>
+      <c r="E54" s="10">
+        <v>201</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="A55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="13">
+        <v>46319641</v>
+      </c>
+      <c r="C55" s="13">
+        <v>2762316</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="A57" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8">
-        <v>34141006</v>
+        <v>35236723</v>
       </c>
       <c r="C2" s="8">
-        <v>1641317</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>122</v>
+        <v>1783035</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="8">
-        <v>1090372</v>
+        <v>845729</v>
       </c>
       <c r="C3" s="8">
-        <v>141413</v>
-      </c>
-      <c r="D3" s="15">
-        <v>12.969243524228427</v>
-      </c>
-      <c r="E3" s="16">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>123</v>
+        <v>129930</v>
+      </c>
+      <c r="D3" s="16">
+        <v>15.363077297810529</v>
+      </c>
+      <c r="E3" s="17">
+        <v>205</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="8">
-        <v>845729</v>
+        <v>1231405</v>
       </c>
       <c r="C4" s="8">
-        <v>129930</v>
-      </c>
-      <c r="D4" s="15">
-        <v>15.363077297810529</v>
-      </c>
-      <c r="E4" s="16">
+        <v>157772</v>
+      </c>
+      <c r="D4" s="16">
+        <v>12.812356617035011</v>
+      </c>
+      <c r="E4" s="17">
+        <v>206</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1187564</v>
+      </c>
+      <c r="C5" s="8">
+        <v>124037</v>
+      </c>
+      <c r="D5" s="16">
+        <v>10.44465814052969</v>
+      </c>
+      <c r="E5" s="17">
+        <v>206</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1110190</v>
+      </c>
+      <c r="C6" s="8">
+        <v>110014</v>
+      </c>
+      <c r="D6" s="16">
+        <v>9.9094749547374779</v>
+      </c>
+      <c r="E6" s="17">
+        <v>207</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1148018</v>
+      </c>
+      <c r="C7" s="8">
+        <v>97256</v>
+      </c>
+      <c r="D7" s="16">
+        <v>8.4716441728265597</v>
+      </c>
+      <c r="E7" s="17">
+        <v>207</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1097419</v>
+      </c>
+      <c r="C8" s="8">
+        <v>82288</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7.4983210605976387</v>
+      </c>
+      <c r="E8" s="17">
+        <v>207</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1056768</v>
+      </c>
+      <c r="C9" s="8">
+        <v>67774</v>
+      </c>
+      <c r="D9" s="16">
+        <v>6.4133281855620154</v>
+      </c>
+      <c r="E9" s="17">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1098665</v>
+      </c>
+      <c r="C10" s="8">
+        <v>67211</v>
+      </c>
+      <c r="D10" s="16">
+        <v>6.1175153481725548</v>
+      </c>
+      <c r="E10" s="17">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1228604</v>
-      </c>
-      <c r="C5" s="8">
-        <v>157569</v>
-      </c>
-      <c r="D5" s="15">
-        <v>12.825043708143552</v>
-      </c>
-      <c r="E5" s="16">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1185297</v>
-      </c>
-      <c r="C6" s="8">
-        <v>123858</v>
-      </c>
-      <c r="D6" s="15">
-        <v>10.449532901880289</v>
-      </c>
-      <c r="E6" s="16">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1107404</v>
-      </c>
-      <c r="C7" s="8">
-        <v>109764</v>
-      </c>
-      <c r="D7" s="15">
-        <v>9.9118298290416149</v>
-      </c>
-      <c r="E7" s="16">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1144014</v>
-      </c>
-      <c r="C8" s="8">
-        <v>96856</v>
-      </c>
-      <c r="D8" s="15">
-        <v>8.4663299575005215</v>
-      </c>
-      <c r="E8" s="16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1096557</v>
-      </c>
-      <c r="C9" s="8">
-        <v>82250</v>
-      </c>
-      <c r="D9" s="15">
-        <v>7.5007500750075007</v>
-      </c>
-      <c r="E9" s="16">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1051925</v>
-      </c>
-      <c r="C10" s="8">
-        <v>67377</v>
-      </c>
-      <c r="D10" s="15">
-        <v>6.4051144330631944</v>
-      </c>
-      <c r="E10" s="16">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>130</v>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="8">
-        <v>1087897</v>
+        <v>1170335</v>
       </c>
       <c r="C11" s="8">
-        <v>65964</v>
-      </c>
-      <c r="D11" s="15">
-        <v>6.0634416677314116</v>
-      </c>
-      <c r="E11" s="16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>131</v>
+        <v>72008</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6.1527682244827337</v>
+      </c>
+      <c r="E11" s="17">
+        <v>209</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="B12" s="8">
-        <v>1135355</v>
+        <v>1136825</v>
       </c>
       <c r="C12" s="8">
-        <v>69265</v>
-      </c>
-      <c r="D12" s="15">
-        <v>6.1007350123970037</v>
-      </c>
-      <c r="E12" s="16">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70991</v>
+      </c>
+      <c r="D12" s="16">
+        <v>6.2446726628988634</v>
+      </c>
+      <c r="E12" s="17">
+        <v>201</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="13">
-        <v>45114160</v>
+        <v>46319641</v>
       </c>
       <c r="C13" s="13">
-        <v>2685563</v>
+        <v>2762316</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:E15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2431,145 +2209,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="7">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>27</v>
       </c>
       <c r="C2" s="8">
-        <v>16720</v>
+        <v>16920</v>
       </c>
       <c r="D2" s="8">
-        <v>79300</v>
+        <v>80300</v>
       </c>
       <c r="E2" s="8">
-        <v>39550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7">
-        <v>37</v>
+        <v>40950</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>38</v>
       </c>
       <c r="C3" s="8">
-        <v>33420</v>
+        <v>33620</v>
       </c>
       <c r="D3" s="8">
-        <v>163050</v>
+        <v>164050</v>
       </c>
       <c r="E3" s="8">
-        <v>118300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7">
-        <v>106</v>
+        <v>119700</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>107</v>
       </c>
       <c r="C4" s="8">
-        <v>78160</v>
+        <v>78360</v>
       </c>
       <c r="D4" s="8">
-        <v>148820</v>
+        <v>149820</v>
       </c>
       <c r="E4" s="8">
-        <v>366230.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="7">
-        <v>125</v>
+        <v>367630</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>126</v>
       </c>
       <c r="C5" s="8">
-        <v>116830</v>
+        <v>117030</v>
       </c>
       <c r="D5" s="8">
-        <v>164960</v>
+        <v>165960</v>
       </c>
       <c r="E5" s="8">
-        <v>529980.00529999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7">
-        <v>131</v>
+        <v>531380</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>132</v>
       </c>
       <c r="C6" s="8">
-        <v>128380</v>
+        <v>128580</v>
       </c>
       <c r="D6" s="8">
-        <v>374420</v>
+        <v>375420</v>
       </c>
       <c r="E6" s="8">
-        <v>663560.04500000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="7">
+        <v>664960</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
         <v>138</v>
       </c>
       <c r="C7" s="8">
         <v>139604</v>
       </c>
       <c r="D7" s="8">
-        <v>831246</v>
+        <v>831046</v>
       </c>
       <c r="E7" s="8">
-        <v>669250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7">
+        <v>670650</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
         <v>135</v>
       </c>
       <c r="C8" s="8">
@@ -2581,12 +2365,13 @@
       <c r="E8" s="8">
         <v>700399</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
         <v>138</v>
       </c>
       <c r="C9" s="8">
@@ -2598,12 +2383,13 @@
       <c r="E9" s="8">
         <v>730541</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
         <v>135</v>
       </c>
       <c r="C10" s="8">
@@ -2613,14 +2399,15 @@
         <v>981515.00199999998</v>
       </c>
       <c r="E10" s="8">
-        <v>831816.00349999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="7">
+        <v>831816</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
         <v>139</v>
       </c>
       <c r="C11" s="8">
@@ -2632,12 +2419,13 @@
       <c r="E11" s="8">
         <v>873162</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
         <v>139</v>
       </c>
       <c r="C12" s="8">
@@ -2649,12 +2437,13 @@
       <c r="E12" s="8">
         <v>882561</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
         <v>146</v>
       </c>
       <c r="C13" s="8">
@@ -2666,12 +2455,13 @@
       <c r="E13" s="8">
         <v>880441</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
         <v>146</v>
       </c>
       <c r="C14" s="8">
@@ -2683,12 +2473,13 @@
       <c r="E14" s="8">
         <v>939801</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
         <v>144</v>
       </c>
       <c r="C15" s="8">
@@ -2700,12 +2491,13 @@
       <c r="E15" s="8">
         <v>974698</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
         <v>141</v>
       </c>
       <c r="C16" s="8">
@@ -2717,12 +2509,13 @@
       <c r="E16" s="8">
         <v>996309</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
         <v>143</v>
       </c>
       <c r="C17" s="8">
@@ -2734,12 +2527,13 @@
       <c r="E17" s="8">
         <v>994060</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
         <v>147</v>
       </c>
       <c r="C18" s="8">
@@ -2751,16 +2545,17 @@
       <c r="E18" s="8">
         <v>1003758</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
         <v>152</v>
       </c>
       <c r="C19" s="8">
-        <v>179914.00002000001</v>
+        <v>179914</v>
       </c>
       <c r="D19" s="8">
         <v>1196640.0000100001</v>
@@ -2768,29 +2563,31 @@
       <c r="E19" s="8">
         <v>1020962</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
         <v>155</v>
       </c>
       <c r="C20" s="8">
-        <v>181011.00002000001</v>
+        <v>181011</v>
       </c>
       <c r="D20" s="8">
         <v>1202855</v>
       </c>
       <c r="E20" s="8">
-        <v>1041871.025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="7">
+        <v>1041871</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8">
         <v>155</v>
       </c>
       <c r="C21" s="8">
@@ -2802,12 +2599,13 @@
       <c r="E21" s="8">
         <v>1040331</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8">
         <v>159</v>
       </c>
       <c r="C22" s="8">
@@ -2819,12 +2617,13 @@
       <c r="E22" s="8">
         <v>1065190</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
         <v>158</v>
       </c>
       <c r="C23" s="8">
@@ -2836,12 +2635,13 @@
       <c r="E23" s="8">
         <v>1046485</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8">
         <v>155</v>
       </c>
       <c r="C24" s="8">
@@ -2853,12 +2653,13 @@
       <c r="E24" s="8">
         <v>1005162</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8">
         <v>164</v>
       </c>
       <c r="C25" s="8">
@@ -2870,12 +2671,13 @@
       <c r="E25" s="8">
         <v>1081246</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8">
         <v>171</v>
       </c>
       <c r="C26" s="8">
@@ -2887,12 +2689,13 @@
       <c r="E26" s="8">
         <v>1189057</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="8">
         <v>171</v>
       </c>
       <c r="C27" s="8">
@@ -2902,14 +2705,15 @@
         <v>1376233</v>
       </c>
       <c r="E27" s="8">
-        <v>1153222.69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="7">
+        <v>1153222</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="8">
         <v>171</v>
       </c>
       <c r="C28" s="8">
@@ -2921,12 +2725,13 @@
       <c r="E28" s="8">
         <v>1206487</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8">
         <v>172</v>
       </c>
       <c r="C29" s="8">
@@ -2938,12 +2743,13 @@
       <c r="E29" s="8">
         <v>1280683</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="8">
         <v>174</v>
       </c>
       <c r="C30" s="8">
@@ -2955,12 +2761,13 @@
       <c r="E30" s="8">
         <v>1377447</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="8">
         <v>169</v>
       </c>
       <c r="C31" s="8">
@@ -2972,12 +2779,13 @@
       <c r="E31" s="8">
         <v>1454962</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="8">
         <v>173</v>
       </c>
       <c r="C32" s="8">
@@ -2989,12 +2797,13 @@
       <c r="E32" s="8">
         <v>1595907</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="8">
         <v>173</v>
       </c>
       <c r="C33" s="8">
@@ -3006,12 +2815,13 @@
       <c r="E33" s="8">
         <v>1557060</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="8">
         <v>188</v>
       </c>
       <c r="C34" s="8">
@@ -3023,12 +2833,13 @@
       <c r="E34" s="8">
         <v>1632858</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="8">
         <v>183</v>
       </c>
       <c r="C35" s="8">
@@ -3040,12 +2851,13 @@
       <c r="E35" s="8">
         <v>1703929</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="7">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8">
         <v>185</v>
       </c>
       <c r="C36" s="8">
@@ -3057,12 +2869,13 @@
       <c r="E36" s="8">
         <v>1732058</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="8">
         <v>182</v>
       </c>
       <c r="C37" s="8">
@@ -3074,12 +2887,13 @@
       <c r="E37" s="8">
         <v>1787673</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="7">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="8">
         <v>181</v>
       </c>
       <c r="C38" s="8">
@@ -3091,12 +2905,13 @@
       <c r="E38" s="8">
         <v>1893368</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="7">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="8">
         <v>177</v>
       </c>
       <c r="C39" s="8">
@@ -3108,12 +2923,13 @@
       <c r="E39" s="8">
         <v>1921326</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="8">
         <v>181</v>
       </c>
       <c r="C40" s="8">
@@ -3125,12 +2941,13 @@
       <c r="E40" s="8">
         <v>2016366</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="8">
         <v>180</v>
       </c>
       <c r="C41" s="8">
@@ -3142,12 +2959,13 @@
       <c r="E41" s="8">
         <v>2008132</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8">
         <v>180</v>
       </c>
       <c r="C42" s="8">
@@ -3159,12 +2977,13 @@
       <c r="E42" s="8">
         <v>2094092</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="8">
         <v>187</v>
       </c>
       <c r="C43" s="8">
@@ -3174,14 +2993,15 @@
         <v>1465033.7</v>
       </c>
       <c r="E43" s="8">
-        <v>1331929.95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="7">
+        <v>1331929</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="8">
         <v>185</v>
       </c>
       <c r="C44" s="8">
@@ -3191,14 +3011,15 @@
         <v>1331534.94</v>
       </c>
       <c r="E44" s="8">
-        <v>1264753.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="7">
+        <v>1264753</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="8">
         <v>183</v>
       </c>
       <c r="C45" s="8">
@@ -3210,438 +3031,494 @@
       <c r="E45" s="8">
         <v>2058917</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="7">
-        <v>182</v>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="8">
+        <v>183</v>
       </c>
       <c r="C46" s="8">
-        <v>337946</v>
+        <v>338746</v>
       </c>
       <c r="D46" s="8">
-        <v>2242574</v>
+        <v>2248174</v>
       </c>
       <c r="E46" s="8">
         <v>2103510</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="7">
-        <v>181</v>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="8">
+        <v>182</v>
       </c>
       <c r="C47" s="8">
-        <v>346437</v>
+        <v>347237</v>
       </c>
       <c r="D47" s="8">
-        <v>2315703</v>
+        <v>2321303</v>
       </c>
       <c r="E47" s="8">
         <v>2221047</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="7">
-        <v>181</v>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="8">
+        <v>182</v>
       </c>
       <c r="C48" s="8">
-        <v>352777</v>
+        <v>353577</v>
       </c>
       <c r="D48" s="8">
-        <v>2358297</v>
+        <v>2363897</v>
       </c>
       <c r="E48" s="8">
         <v>2245960</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="7">
-        <v>178</v>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="8">
+        <v>181</v>
       </c>
       <c r="C49" s="8">
-        <v>350911</v>
+        <v>353411</v>
       </c>
       <c r="D49" s="8">
-        <v>2358139</v>
+        <v>2372639</v>
       </c>
       <c r="E49" s="8">
-        <v>2256908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="7">
-        <v>180</v>
+        <v>2268408</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="8">
+        <v>182</v>
       </c>
       <c r="C50" s="8">
-        <v>352185</v>
+        <v>353885</v>
       </c>
       <c r="D50" s="8">
-        <v>2365045</v>
+        <v>2373945</v>
       </c>
       <c r="E50" s="8">
-        <v>2305887</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="7">
+        <v>2317387</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="8">
+        <v>185</v>
+      </c>
+      <c r="C51" s="8">
+        <v>349801</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2339059.7142857141</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2291430</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="8">
         <v>181</v>
       </c>
-      <c r="C51" s="8">
-        <v>347101.14285714284</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2323559.7142857141</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2278130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="7">
-        <v>177</v>
-      </c>
       <c r="C52" s="8">
-        <v>356462</v>
+        <v>362962</v>
       </c>
       <c r="D52" s="8">
-        <v>2397910</v>
+        <v>2436410</v>
       </c>
       <c r="E52" s="8">
-        <v>2347666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="6">
-        <v>169</v>
-      </c>
-      <c r="C53" s="13">
-        <v>347635</v>
-      </c>
-      <c r="D53" s="13">
-        <v>2317339</v>
-      </c>
-      <c r="E53" s="13">
-        <v>2306497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2387566</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="11">
+        <v>184</v>
+      </c>
+      <c r="C53" s="11">
+        <v>359285</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2389189</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2358917</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="6">
+        <v>179</v>
+      </c>
+      <c r="C54" s="13">
+        <v>354305</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2360879</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2335777</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8">
+        <v>338390</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1465033.7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1331929</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B3" s="7">
+        <v>185</v>
+      </c>
+      <c r="C3" s="8">
+        <v>331055</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1331534.94</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1264753</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="B4" s="7">
+        <v>183</v>
+      </c>
+      <c r="C4" s="8">
+        <v>335608</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2129456</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2058917</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="7">
-        <v>180</v>
-      </c>
-      <c r="C2" s="8">
-        <v>342616</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2290632</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2094092</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="7">
-        <v>187</v>
-      </c>
-      <c r="C3" s="8">
-        <v>338390</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1465033.7</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1331929.95</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="7">
-        <v>185</v>
-      </c>
-      <c r="C4" s="8">
-        <v>331055</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1331534.94</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1264753.5</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="B5" s="7">
         <v>183</v>
       </c>
       <c r="C5" s="8">
-        <v>335608</v>
+        <v>338746</v>
       </c>
       <c r="D5" s="8">
-        <v>2129456</v>
+        <v>2248174</v>
       </c>
       <c r="E5" s="8">
-        <v>2058917</v>
+        <v>2103510</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7">
         <v>182</v>
       </c>
       <c r="C6" s="8">
-        <v>337946</v>
+        <v>347237</v>
       </c>
       <c r="D6" s="8">
-        <v>2242574</v>
+        <v>2321303</v>
       </c>
       <c r="E6" s="8">
-        <v>2103510</v>
+        <v>2221047</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="8">
-        <v>346437</v>
+        <v>353577</v>
       </c>
       <c r="D7" s="8">
-        <v>2315703</v>
+        <v>2363897</v>
       </c>
       <c r="E7" s="8">
-        <v>2221047</v>
+        <v>2245960</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7">
         <v>181</v>
       </c>
       <c r="C8" s="8">
-        <v>352777</v>
+        <v>353411</v>
       </c>
       <c r="D8" s="8">
-        <v>2358297</v>
+        <v>2372639</v>
       </c>
       <c r="E8" s="8">
-        <v>2245960</v>
+        <v>2268408</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C9" s="8">
-        <v>350911</v>
+        <v>353885</v>
       </c>
       <c r="D9" s="8">
-        <v>2358139</v>
+        <v>2373945</v>
       </c>
       <c r="E9" s="8">
-        <v>2256908</v>
+        <v>2317387</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C10" s="8">
-        <v>352185</v>
+        <v>349801</v>
       </c>
       <c r="D10" s="8">
-        <v>2365045</v>
+        <v>2339059.7142857141</v>
       </c>
       <c r="E10" s="8">
-        <v>2305887</v>
+        <v>2291430</v>
       </c>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7">
         <v>181</v>
       </c>
       <c r="C11" s="8">
-        <v>347101.14285714284</v>
+        <v>362962</v>
       </c>
       <c r="D11" s="8">
-        <v>2323559.7142857141</v>
+        <v>2436410</v>
       </c>
       <c r="E11" s="8">
-        <v>2278130</v>
+        <v>2387566</v>
       </c>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C12" s="8">
-        <v>356462</v>
+        <v>359285</v>
       </c>
       <c r="D12" s="8">
-        <v>2397910</v>
+        <v>2389189</v>
       </c>
       <c r="E12" s="8">
-        <v>2347666</v>
+        <v>2358917</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B13" s="6">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C13" s="13">
-        <v>347635</v>
+        <v>354305</v>
       </c>
       <c r="D13" s="13">
-        <v>2317339</v>
+        <v>2360879</v>
       </c>
       <c r="E13" s="13">
-        <v>2306497</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>2335777</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="8">
-        <v>11336.5461</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4162,47 +4039,24 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="6">
+        <v>37</v>
+      </c>
+      <c r="B49" s="6">
+        <v>9</v>
+      </c>
+      <c r="C49" s="13">
+        <v>3525</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -2,18 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D6354CAE-AEBB-487A-9DBB-E80AABFBD34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E82F6D-A899-4279-AC7E-E81A2CB77FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="27735" windowHeight="9930" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
+    <sheet name="0_Erläuterungen" sheetId="1" r:id="rId1"/>
     <sheet name="1_Testzahlerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -153,88 +148,154 @@
     <t>45/2020</t>
   </si>
   <si>
+    <t>46/2020*</t>
+  </si>
+  <si>
+    <t>47/2020*</t>
+  </si>
+  <si>
+    <t>48/2020*</t>
+  </si>
+  <si>
+    <t>49/2020*</t>
+  </si>
+  <si>
+    <t>50/2020*</t>
+  </si>
+  <si>
+    <t>51/2020*</t>
+  </si>
+  <si>
+    <t>52/2020*</t>
+  </si>
+  <si>
+    <t>53/2020*</t>
+  </si>
+  <si>
+    <t>1/2021*</t>
+  </si>
+  <si>
+    <t>2/2021*</t>
+  </si>
+  <si>
+    <t>3/2021*</t>
+  </si>
+  <si>
+    <t>4/2021*</t>
+  </si>
+  <si>
+    <t>5/2021*</t>
+  </si>
+  <si>
+    <t>6/2021*</t>
+  </si>
+  <si>
+    <t>7/2021*</t>
+  </si>
+  <si>
+    <t>8/2021*</t>
+  </si>
+  <si>
+    <t>9/2021*</t>
+  </si>
+  <si>
+    <t>10/2021*</t>
+  </si>
+  <si>
+    <t>11/2021*</t>
+  </si>
+  <si>
+    <t>12/2021*</t>
+  </si>
+  <si>
+    <t>13/2021*</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW2/2021</t>
+    <t>Bis einschließlich KW3/2021</t>
+  </si>
+  <si>
+    <t>4/2021</t>
+  </si>
+  <si>
+    <t>5/2021</t>
+  </si>
+  <si>
+    <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>8/2021</t>
+  </si>
+  <si>
+    <t>9/2021</t>
+  </si>
+  <si>
+    <t>10/2021</t>
+  </si>
+  <si>
+    <t>11/2021</t>
+  </si>
+  <si>
+    <t>12/2021</t>
+  </si>
+  <si>
+    <t>13/2021</t>
+  </si>
+  <si>
+    <t>KW, für die die Angabe prognostisch erfolgt ist</t>
+  </si>
+  <si>
+    <t>Anzahl übermittelnde Labore</t>
+  </si>
+  <si>
+    <t>Testkapazität pro Tag</t>
+  </si>
+  <si>
+    <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
+  </si>
+  <si>
+    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
+  </si>
+  <si>
+    <t>46/2020</t>
+  </si>
+  <si>
+    <t>47/2020</t>
+  </si>
+  <si>
+    <t>48/2020</t>
+  </si>
+  <si>
+    <t>49/2020</t>
+  </si>
+  <si>
+    <t>50/2020</t>
+  </si>
+  <si>
+    <t>51/2020</t>
+  </si>
+  <si>
+    <t>52/2020</t>
+  </si>
+  <si>
+    <t>53/2020</t>
+  </si>
+  <si>
+    <t>1/2021</t>
+  </si>
+  <si>
+    <t>2/2021</t>
   </si>
   <si>
     <t>3/2021</t>
   </si>
   <si>
-    <t>4/2021</t>
-  </si>
-  <si>
-    <t>5/2021</t>
-  </si>
-  <si>
-    <t>6/2021</t>
-  </si>
-  <si>
-    <t>7/2021</t>
-  </si>
-  <si>
-    <t>8/2021</t>
-  </si>
-  <si>
-    <t>9/2021</t>
-  </si>
-  <si>
-    <t>10/2021</t>
-  </si>
-  <si>
-    <t>11/2021</t>
-  </si>
-  <si>
-    <t>12/2021</t>
-  </si>
-  <si>
-    <t>KW, für die die Angabe prognostisch erfolgt ist</t>
-  </si>
-  <si>
-    <t>Anzahl übermittelnde Labore</t>
-  </si>
-  <si>
-    <t>Testkapazität pro Tag</t>
-  </si>
-  <si>
-    <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
-  </si>
-  <si>
-    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
-  </si>
-  <si>
-    <t>46/2020</t>
-  </si>
-  <si>
-    <t>47/2020</t>
-  </si>
-  <si>
-    <t>48/2020</t>
-  </si>
-  <si>
-    <t>49/2020</t>
-  </si>
-  <si>
-    <t>50/2020</t>
-  </si>
-  <si>
-    <t>51/2020</t>
-  </si>
-  <si>
-    <t>52/2020</t>
-  </si>
-  <si>
-    <t>53/2020</t>
-  </si>
-  <si>
-    <t>1/2021</t>
-  </si>
-  <si>
-    <t>2/2021</t>
-  </si>
-  <si>
-    <t>13/2021</t>
+    <t>14/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -244,41 +305,17 @@
   </si>
   <si>
     <t>Probenrückstau</t>
-  </si>
-  <si>
-    <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlerfassung).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -294,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -302,84 +339,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{B0FA2865-ADBC-49E2-9083-175E9876BD74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,61 +390,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5108FBD-A02F-472E-A5A6-5DA6D0D468FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3686175" y="762000"/>
-          <a:ext cx="10058400" cy="4470400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,1034 +688,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A54B639-2C46-4745-8760-9129F285296B}">
-  <dimension ref="A3:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <v>69184</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>1722</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>128008</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>7470</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>5.835572776701456</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>374534</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>25886</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>6.9115220514025424</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>377599</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>33139</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>8.7762414625038723</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>417646</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>37649</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>9.0145721496195339</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>386241</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>30829</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>7.9818041067623575</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>339983</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>22724</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>6.6838636049449534</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>363659</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>18127</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>4.984614707734444</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>327799</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>12600</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>3.8438189256221036</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>385638</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>10181</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>2.6400406598934754</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>431682</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>7142</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>1.6544586061035669</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>356489</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>5315</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>1.4909295939005129</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>408078</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>4335</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>1.0622969138252982</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>342328</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3219</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0.94032623682550076</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>327980</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>2956</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>0.90127446795536315</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>384834</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>5588</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>1.452054652135726</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>472823</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>3919</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>0.82885138836308725</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>512969</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>3204</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>0.62459914731689448</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>513572</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>3042</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>0.59232201132460494</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>544219</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>3608</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>0.66296840058873363</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>556634</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>4537</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>0.81507777103087486</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>589201</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>5888</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>0.99931941731259788</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>719476</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>7374</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <v>1.0249125752631083</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>871191</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>8545</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <v>0.98084117030593754</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>1034449</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>8868</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>0.85726797551160094</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>1133623</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>8273</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>0.72978406401422702</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>1052942</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>8203</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>0.77905525660482722</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>1148465</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>10403</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>0.90581776545214709</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>1147879</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>13647</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30">
         <v>1.1888883758654005</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>1220279</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>15178</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <v>1.2438139146867233</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>1129127</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>19930</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>1.7650804559628812</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>1218988</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>30220</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>2.4791056187591676</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>1284349</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>46000</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34">
         <v>3.581581018866367</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>1445463</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>80097</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>5.5412694755936336</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>1663992</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>118111</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36">
         <v>7.0980509521680393</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>1634729</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>128537</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37">
         <v>7.8628934826506418</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1467454</v>
+      </c>
+      <c r="C38">
+        <v>128986</v>
+      </c>
+      <c r="D38">
+        <v>8.789781485484383</v>
+      </c>
+      <c r="E38">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1400145</v>
+      </c>
+      <c r="C39">
+        <v>131185</v>
+      </c>
+      <c r="D39">
+        <v>9.3693867420874266</v>
+      </c>
+      <c r="E39">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>1381117</v>
+      </c>
+      <c r="C40">
+        <v>128882</v>
+      </c>
+      <c r="D40">
+        <v>9.3317220771303226</v>
+      </c>
+      <c r="E40">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>1395790</v>
+      </c>
+      <c r="C41">
+        <v>138305</v>
+      </c>
+      <c r="D41">
+        <v>9.9087255246133008</v>
+      </c>
+      <c r="E41">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>1516038</v>
+      </c>
+      <c r="C42">
+        <v>169520</v>
+      </c>
+      <c r="D42">
+        <v>11.181777765464981</v>
+      </c>
+      <c r="E42">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>1672033</v>
+      </c>
+      <c r="C43">
+        <v>188283</v>
+      </c>
+      <c r="D43">
+        <v>11.260722724970142</v>
+      </c>
+      <c r="E43">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>1090372</v>
+      </c>
+      <c r="C44">
+        <v>141413</v>
+      </c>
+      <c r="D44">
+        <v>12.969243524228427</v>
+      </c>
+      <c r="E44">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>845729</v>
+      </c>
+      <c r="C45">
+        <v>129930</v>
+      </c>
+      <c r="D45">
+        <v>15.363077297810529</v>
+      </c>
+      <c r="E45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>1231405</v>
+      </c>
+      <c r="C46">
+        <v>157772</v>
+      </c>
+      <c r="D46">
+        <v>12.812356617035011</v>
+      </c>
+      <c r="E46">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>1187564</v>
+      </c>
+      <c r="C47">
+        <v>124037</v>
+      </c>
+      <c r="D47">
+        <v>10.44465814052969</v>
+      </c>
+      <c r="E47">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>1113690</v>
+      </c>
+      <c r="C48">
+        <v>110163</v>
+      </c>
+      <c r="D48">
+        <v>9.8917113379845372</v>
+      </c>
+      <c r="E48">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>1151633</v>
+      </c>
+      <c r="C49">
+        <v>97383</v>
+      </c>
+      <c r="D49">
+        <v>8.456079323881827</v>
+      </c>
+      <c r="E49">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>1101499</v>
+      </c>
+      <c r="C50">
+        <v>82436</v>
+      </c>
+      <c r="D50">
+        <v>7.4839831901799272</v>
+      </c>
+      <c r="E50">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>1060602</v>
+      </c>
+      <c r="C51">
+        <v>67882</v>
+      </c>
+      <c r="D51">
+        <v>6.4003273612533258</v>
+      </c>
+      <c r="E51">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>1101687</v>
+      </c>
+      <c r="C52">
+        <v>67318</v>
+      </c>
+      <c r="D52">
+        <v>6.1104469781344424</v>
+      </c>
+      <c r="E52">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>1170335</v>
+      </c>
+      <c r="C53">
+        <v>72008</v>
+      </c>
+      <c r="D53">
+        <v>6.1527682244827337</v>
+      </c>
+      <c r="E53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>1151639</v>
+      </c>
+      <c r="C54">
+        <v>71647</v>
+      </c>
+      <c r="D54">
+        <v>6.2213071978284864</v>
+      </c>
+      <c r="E54">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="8">
-        <v>1467454</v>
-      </c>
-      <c r="C38" s="8">
-        <v>128986</v>
-      </c>
-      <c r="D38" s="9">
-        <v>8.789781485484383</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="B55">
+        <v>1278442</v>
+      </c>
+      <c r="C55">
+        <v>85587</v>
+      </c>
+      <c r="D55">
+        <v>6.6946329986029864</v>
+      </c>
+      <c r="E55">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>1365255</v>
+      </c>
+      <c r="C56">
+        <v>107754</v>
+      </c>
+      <c r="D56">
+        <v>7.8925914938967443</v>
+      </c>
+      <c r="E56">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1400145</v>
-      </c>
-      <c r="C39" s="8">
-        <v>131185</v>
-      </c>
-      <c r="D39" s="9">
-        <v>9.3693867420874266</v>
-      </c>
-      <c r="E39" s="7">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>1411517</v>
+      </c>
+      <c r="C57">
+        <v>131650</v>
+      </c>
+      <c r="D57">
+        <v>9.3268448059782489</v>
+      </c>
+      <c r="E57">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1381117</v>
-      </c>
-      <c r="C40" s="8">
-        <v>128882</v>
-      </c>
-      <c r="D40" s="9">
-        <v>9.3317220771303226</v>
-      </c>
-      <c r="E40" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="8">
-        <v>1395790</v>
-      </c>
-      <c r="C41" s="8">
-        <v>138305</v>
-      </c>
-      <c r="D41" s="9">
-        <v>9.9087255246133008</v>
-      </c>
-      <c r="E41" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B58">
+        <v>1149279</v>
+      </c>
+      <c r="C58">
+        <v>127158</v>
+      </c>
+      <c r="D58">
+        <v>11.064154134896748</v>
+      </c>
+      <c r="E58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="8">
-        <v>1516038</v>
-      </c>
-      <c r="C42" s="8">
-        <v>169520</v>
-      </c>
-      <c r="D42" s="9">
-        <v>11.181777765464981</v>
-      </c>
-      <c r="E42" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1672033</v>
-      </c>
-      <c r="C43" s="8">
-        <v>188283</v>
-      </c>
-      <c r="D43" s="9">
-        <v>11.260722724970142</v>
-      </c>
-      <c r="E43" s="7">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1090372</v>
-      </c>
-      <c r="C44" s="8">
-        <v>141413</v>
-      </c>
-      <c r="D44" s="9">
-        <v>12.969243524228427</v>
-      </c>
-      <c r="E44" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="8">
-        <v>845729</v>
-      </c>
-      <c r="C45" s="8">
-        <v>129930</v>
-      </c>
-      <c r="D45" s="9">
-        <v>15.363077297810529</v>
-      </c>
-      <c r="E45" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1231405</v>
-      </c>
-      <c r="C46" s="8">
-        <v>157772</v>
-      </c>
-      <c r="D46" s="9">
-        <v>12.812356617035011</v>
-      </c>
-      <c r="E46" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1187564</v>
-      </c>
-      <c r="C47" s="8">
-        <v>124037</v>
-      </c>
-      <c r="D47" s="9">
-        <v>10.44465814052969</v>
-      </c>
-      <c r="E47" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1113690</v>
-      </c>
-      <c r="C48" s="8">
-        <v>110163</v>
-      </c>
-      <c r="D48" s="9">
-        <v>9.8917113379845372</v>
-      </c>
-      <c r="E48" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1151633</v>
-      </c>
-      <c r="C49" s="8">
-        <v>97383</v>
-      </c>
-      <c r="D49" s="9">
-        <v>8.456079323881827</v>
-      </c>
-      <c r="E49" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1101499</v>
-      </c>
-      <c r="C50" s="8">
-        <v>82436</v>
-      </c>
-      <c r="D50" s="9">
-        <v>7.4839831901799272</v>
-      </c>
-      <c r="E50" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1060602</v>
-      </c>
-      <c r="C51" s="8">
-        <v>67882</v>
-      </c>
-      <c r="D51" s="9">
-        <v>6.4003273612533258</v>
-      </c>
-      <c r="E51" s="7">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1101687</v>
-      </c>
-      <c r="C52" s="11">
-        <v>67318</v>
-      </c>
-      <c r="D52" s="12">
-        <v>6.1104469781344424</v>
-      </c>
-      <c r="E52" s="10">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1170335</v>
-      </c>
-      <c r="C53" s="11">
-        <v>72008</v>
-      </c>
-      <c r="D53" s="12">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E53" s="7">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1151639</v>
-      </c>
-      <c r="C54" s="11">
-        <v>71647</v>
-      </c>
-      <c r="D54" s="12">
-        <v>6.2213071978284864</v>
-      </c>
-      <c r="E54" s="10">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1278442</v>
-      </c>
-      <c r="C55" s="11">
-        <v>85587</v>
-      </c>
-      <c r="D55" s="12">
-        <v>6.6946329986029864</v>
-      </c>
-      <c r="E55" s="10">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1364375</v>
-      </c>
-      <c r="C56" s="11">
-        <v>107658</v>
-      </c>
-      <c r="D56" s="12">
-        <v>7.8906459001374261</v>
-      </c>
-      <c r="E56" s="10">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="8">
-        <v>1401576</v>
-      </c>
-      <c r="C57" s="8">
-        <v>130826</v>
-      </c>
-      <c r="D57" s="9">
-        <v>9.3342066359583775</v>
-      </c>
-      <c r="E57" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="13">
-        <v>50399177</v>
-      </c>
-      <c r="C58" s="13">
-        <v>3087687</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="6"/>
+      <c r="B59">
+        <v>51559277</v>
+      </c>
+      <c r="C59">
+        <v>3215765</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,231 +1726,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="8">
-        <v>38503699</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2194779</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3">
+        <v>39617389</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2304942</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1113690</v>
-      </c>
-      <c r="C3" s="8">
-        <v>110163</v>
-      </c>
-      <c r="D3" s="21">
-        <v>9.8917113379845372</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1151633</v>
+      </c>
+      <c r="C3" s="4">
+        <v>97383</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8.456079323881827</v>
+      </c>
+      <c r="E3" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1151633</v>
-      </c>
-      <c r="C4" s="8">
-        <v>97383</v>
-      </c>
-      <c r="D4" s="21">
-        <v>8.456079323881827</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1101499</v>
+      </c>
+      <c r="C4" s="4">
+        <v>82436</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.4839831901799272</v>
+      </c>
+      <c r="E4" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1101499</v>
-      </c>
-      <c r="C5" s="8">
-        <v>82436</v>
-      </c>
-      <c r="D5" s="21">
-        <v>7.4839831901799272</v>
-      </c>
-      <c r="E5" s="22">
-        <v>208</v>
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1060602</v>
+      </c>
+      <c r="C5" s="4">
+        <v>67882</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.4003273612533258</v>
+      </c>
+      <c r="E5" s="4">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1060602</v>
-      </c>
-      <c r="C6" s="8">
-        <v>67882</v>
-      </c>
-      <c r="D6" s="21">
-        <v>6.4003273612533258</v>
-      </c>
-      <c r="E6" s="22">
-        <v>213</v>
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1101687</v>
+      </c>
+      <c r="C6" s="4">
+        <v>67318</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.1104469781344424</v>
+      </c>
+      <c r="E6" s="4">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1101687</v>
-      </c>
-      <c r="C7" s="8">
-        <v>67318</v>
-      </c>
-      <c r="D7" s="21">
-        <v>6.1104469781344424</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1170335</v>
+      </c>
+      <c r="C7" s="4">
+        <v>72008</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.1527682244827337</v>
+      </c>
+      <c r="E7" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1151639</v>
+      </c>
+      <c r="C8" s="4">
+        <v>71647</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.2213071978284864</v>
+      </c>
+      <c r="E8" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1278442</v>
+      </c>
+      <c r="C9" s="4">
+        <v>85587</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6.6946329986029864</v>
+      </c>
+      <c r="E9" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1365255</v>
+      </c>
+      <c r="C10" s="4">
+        <v>107754</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.8925914938967443</v>
+      </c>
+      <c r="E10" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1170335</v>
-      </c>
-      <c r="C8" s="8">
-        <v>72008</v>
-      </c>
-      <c r="D8" s="21">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E8" s="22">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1151639</v>
-      </c>
-      <c r="C9" s="8">
-        <v>71647</v>
-      </c>
-      <c r="D9" s="21">
-        <v>6.2213071978284864</v>
-      </c>
-      <c r="E9" s="22">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1278442</v>
-      </c>
-      <c r="C10" s="8">
-        <v>85587</v>
-      </c>
-      <c r="D10" s="21">
-        <v>6.6946329986029864</v>
-      </c>
-      <c r="E10" s="22">
-        <v>214</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1364375</v>
-      </c>
-      <c r="C11" s="8">
-        <v>107658</v>
-      </c>
-      <c r="D11" s="21">
-        <v>7.8906459001374261</v>
-      </c>
-      <c r="E11" s="22">
-        <v>206</v>
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1411517</v>
+      </c>
+      <c r="C11" s="4">
+        <v>131650</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9.3268448059782489</v>
+      </c>
+      <c r="E11" s="4">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1401576</v>
-      </c>
-      <c r="C12" s="8">
-        <v>130826</v>
-      </c>
-      <c r="D12" s="21">
-        <v>9.3342066359583775</v>
-      </c>
-      <c r="E12" s="22">
-        <v>200</v>
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1149279</v>
+      </c>
+      <c r="C12" s="4">
+        <v>127158</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11.064154134896748</v>
+      </c>
+      <c r="E12" s="4">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="13">
-        <v>50399177</v>
-      </c>
-      <c r="C13" s="13">
-        <v>3087687</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>51559277</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3215765</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,992 +1958,1001 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>58</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>16920</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>80300</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>40950</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>38</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>33620</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>164050</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>119700</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>107</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>78360</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>149820</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>367630</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>126</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>117030</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>165960</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>531380</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>132</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>128580</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>375420</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>664960</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>138</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>139604</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>831046</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>670650</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>135</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>140616</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>901595</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>700399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>138</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>144980</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>955891</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>730541</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>135</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>151063</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>981515.00199999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>831816</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>139</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>156630</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>1030122.5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>873162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>139</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>159588</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>1057365.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>882561</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>146</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>159974</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>1033129</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>880441</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>146</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>167525</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>1115162.5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>939801</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>144</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>169653</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>1096075</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>974698</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>141</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>169858</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>1123147.5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>996309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>143</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>172624</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>1131748</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>994060</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>147</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>170313</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>1120015</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>1003758</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>152</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>179914</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>1196640.0000100001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>1020962</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>155</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>181011</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>1202855</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>1041871</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>155</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>183567</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>1218086</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>1040331</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>159</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>183310</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>1214556</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>1065190</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>158</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>182697</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>1200692</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>1046485</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>155</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>189338</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>1252357</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>1005162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>164</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>198518</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>1308423</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>1081246</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>171</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>208419</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>1362883</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>1189057</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>171</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>211002</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>1376233</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>1153222</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>171</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>223899</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>1458751</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>1206487</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>172</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>230691</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>1512155</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>1280683</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>174</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>235674</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>1540049</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>1377447</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>169</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>238740</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <v>1564437</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>1454962</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>173</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>258089</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>1705581</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>1595907</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>173</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>255622</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33">
         <v>1700116</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33">
         <v>1557060</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>188</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>268521</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
         <v>1790564</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34">
         <v>1632858</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>183</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>285630</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35">
         <v>1910486</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35">
         <v>1703929</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>185</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>297894</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36">
         <v>1937312</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36">
         <v>1732058</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37">
         <v>182</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>305683</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37">
         <v>2020253</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37">
         <v>1787673</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
         <v>181</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>313386</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38">
         <v>2079778</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38">
         <v>1893368</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39">
         <v>177</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>320686</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39">
         <v>2141208</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39">
         <v>1921326</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40">
         <v>181</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>329486</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40">
         <v>2202408</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40">
         <v>2016366</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41">
         <v>180</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>333476</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41">
         <v>2235788</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41">
         <v>2008132</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42">
         <v>180</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>342616</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42">
         <v>2290632</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42">
         <v>2094092</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>187</v>
+      </c>
+      <c r="C43">
+        <v>338390</v>
+      </c>
+      <c r="D43">
+        <v>1465033.7</v>
+      </c>
+      <c r="E43">
+        <v>1331929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <v>185</v>
+      </c>
+      <c r="C44">
+        <v>331055</v>
+      </c>
+      <c r="D44">
+        <v>1331534.94</v>
+      </c>
+      <c r="E44">
+        <v>1264753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>183</v>
+      </c>
+      <c r="C45">
+        <v>335608</v>
+      </c>
+      <c r="D45">
+        <v>2129456</v>
+      </c>
+      <c r="E45">
+        <v>2058917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <v>183</v>
+      </c>
+      <c r="C46">
+        <v>338746</v>
+      </c>
+      <c r="D46">
+        <v>2248174</v>
+      </c>
+      <c r="E46">
+        <v>2103510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>182</v>
+      </c>
+      <c r="C47">
+        <v>347237</v>
+      </c>
+      <c r="D47">
+        <v>2321303</v>
+      </c>
+      <c r="E47">
+        <v>2221047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B48">
+        <v>183</v>
+      </c>
+      <c r="C48">
+        <v>354177</v>
+      </c>
+      <c r="D48">
+        <v>2368097</v>
+      </c>
+      <c r="E48">
+        <v>2247760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>182</v>
+      </c>
+      <c r="C49">
+        <v>354011</v>
+      </c>
+      <c r="D49">
+        <v>2376839</v>
+      </c>
+      <c r="E49">
+        <v>2270208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>183</v>
+      </c>
+      <c r="C50">
+        <v>354485</v>
+      </c>
+      <c r="D50">
+        <v>2378145</v>
+      </c>
+      <c r="E50">
+        <v>2319187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51">
         <v>187</v>
       </c>
-      <c r="C43" s="8">
-        <v>338390</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1465033.7</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1331929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="8">
-        <v>185</v>
-      </c>
-      <c r="C44" s="8">
-        <v>331055</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1331534.94</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1264753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="8">
-        <v>183</v>
-      </c>
-      <c r="C45" s="8">
-        <v>335608</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2129456</v>
-      </c>
-      <c r="E45" s="8">
-        <v>2058917</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="8">
-        <v>183</v>
-      </c>
-      <c r="C46" s="8">
-        <v>338746</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2248174</v>
-      </c>
-      <c r="E46" s="8">
-        <v>2103510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="C51">
+        <v>350601</v>
+      </c>
+      <c r="D51">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E51">
+        <v>2294630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
         <v>182</v>
       </c>
-      <c r="C47" s="8">
-        <v>347237</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2321303</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="8">
-        <v>183</v>
-      </c>
-      <c r="C48" s="8">
-        <v>354177</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2368097</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2247760</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8">
-        <v>182</v>
-      </c>
-      <c r="C49" s="8">
-        <v>354011</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2376839</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2270208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="8">
-        <v>183</v>
-      </c>
-      <c r="C50" s="8">
-        <v>354485</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2378145</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2319187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="8">
-        <v>187</v>
-      </c>
-      <c r="C51" s="8">
-        <v>350601</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2344259.7142857141</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2294630</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="8">
-        <v>182</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>363562</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52">
         <v>2440610</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52">
         <v>2389366</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="11">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
         <v>184</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53">
         <v>359285</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53">
         <v>2389189</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53">
         <v>2358917</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="10">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54">
         <v>186</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54">
         <v>358185</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54">
         <v>2384739</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54">
         <v>2345917</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="24">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
         <v>186</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55">
         <v>360611</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55">
         <v>2412343</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55">
         <v>2384239</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56">
         <v>181</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56">
         <v>351349</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56">
         <v>2354103</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56">
         <v>2324335</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="8">
-        <v>175</v>
-      </c>
-      <c r="C57" s="8">
-        <v>347033</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2306063</v>
-      </c>
-      <c r="E57" s="8">
-        <v>2305923</v>
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>178</v>
+      </c>
+      <c r="C57">
+        <v>349013</v>
+      </c>
+      <c r="D57">
+        <v>2318123</v>
+      </c>
+      <c r="E57">
+        <v>2306463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <v>169</v>
+      </c>
+      <c r="C58">
+        <v>343855</v>
+      </c>
+      <c r="D58">
+        <v>2278709</v>
+      </c>
+      <c r="E58">
+        <v>2285659</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3011,834 +2960,830 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>58</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>182</v>
+      </c>
+      <c r="C2">
+        <v>347237</v>
+      </c>
+      <c r="D2">
+        <v>2321303</v>
+      </c>
+      <c r="E2">
+        <v>2221047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>183</v>
+      </c>
+      <c r="C3">
+        <v>354177</v>
+      </c>
+      <c r="D3">
+        <v>2368097</v>
+      </c>
+      <c r="E3">
+        <v>2247760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>182</v>
+      </c>
+      <c r="C4">
+        <v>354011</v>
+      </c>
+      <c r="D4">
+        <v>2376839</v>
+      </c>
+      <c r="E4">
+        <v>2270208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>183</v>
+      </c>
+      <c r="C5">
+        <v>354485</v>
+      </c>
+      <c r="D5">
+        <v>2378145</v>
+      </c>
+      <c r="E5">
+        <v>2319187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="7">
-        <v>183</v>
-      </c>
-      <c r="C2" s="8">
-        <v>338746</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2248174</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2103510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B6">
+        <v>187</v>
+      </c>
+      <c r="C6">
+        <v>350601</v>
+      </c>
+      <c r="D6">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E6">
+        <v>2294630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
         <v>182</v>
       </c>
-      <c r="C3" s="8">
-        <v>347237</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2321303</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7">
-        <v>183</v>
-      </c>
-      <c r="C4" s="8">
-        <v>354177</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2368097</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2247760</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7">
-        <v>182</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354011</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2376839</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2270208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="7">
-        <v>183</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354485</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2378145</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2319187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="7">
-        <v>187</v>
-      </c>
-      <c r="C7" s="8">
-        <v>350601</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2344259.7142857141</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2294630</v>
+      <c r="C7">
+        <v>363562</v>
+      </c>
+      <c r="D7">
+        <v>2440610</v>
+      </c>
+      <c r="E7">
+        <v>2389366</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7">
-        <v>182</v>
-      </c>
-      <c r="C8" s="8">
-        <v>363562</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2440610</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2389366</v>
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>359285</v>
+      </c>
+      <c r="D8">
+        <v>2389189</v>
+      </c>
+      <c r="E8">
+        <v>2358917</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7">
-        <v>184</v>
-      </c>
-      <c r="C9" s="8">
-        <v>359285</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2389189</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2358917</v>
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>186</v>
+      </c>
+      <c r="C9">
+        <v>358185</v>
+      </c>
+      <c r="D9">
+        <v>2384739</v>
+      </c>
+      <c r="E9">
+        <v>2345917</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
         <v>186</v>
       </c>
-      <c r="C10" s="8">
-        <v>358185</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2384739</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2345917</v>
+      <c r="C10">
+        <v>360611</v>
+      </c>
+      <c r="D10">
+        <v>2412343</v>
+      </c>
+      <c r="E10">
+        <v>2384239</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7">
-        <v>186</v>
-      </c>
-      <c r="C11" s="8">
-        <v>360611</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2412343</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2384239</v>
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>351349</v>
+      </c>
+      <c r="D11">
+        <v>2354103</v>
+      </c>
+      <c r="E11">
+        <v>2324335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="7">
-        <v>181</v>
-      </c>
-      <c r="C12" s="8">
-        <v>351349</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2354103</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2324335</v>
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>178</v>
+      </c>
+      <c r="C12">
+        <v>349013</v>
+      </c>
+      <c r="D12">
+        <v>2318123</v>
+      </c>
+      <c r="E12">
+        <v>2306463</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6">
-        <v>175</v>
-      </c>
-      <c r="C13" s="13">
-        <v>347033</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2306063</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2305923</v>
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>169</v>
+      </c>
+      <c r="C13">
+        <v>343855</v>
+      </c>
+      <c r="D13">
+        <v>2278709</v>
+      </c>
+      <c r="E13">
+        <v>2285659</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>72</v>
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>3423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>35</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>2259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>28</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>2243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>3790</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>3224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>2478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>1646</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>31</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>3056</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>27</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>1483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>32</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>10693</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>44</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>33</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>17143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>48</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>34</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>27828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>49</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>35</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>36812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>47</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>29964</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>51</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>32397</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>42</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>12617</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>46</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>15983</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27">
         <v>42</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>40</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>8245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>46</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>41</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>16829</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>52</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>20799</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30">
         <v>57</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>43</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>69524</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31">
         <v>69</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>44</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>98931</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32">
         <v>66</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>45</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>60113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33">
         <v>59</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>46</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>23780</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>47</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>17207</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>54</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>48</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>14191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>51</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>49</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>12267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>51</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>19159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>57</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38">
         <v>51</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>21364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39">
         <v>43</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>52</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>11321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <v>53</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>6507</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41">
         <v>47</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>11691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42">
         <v>46</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>11336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43">
         <v>48</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>11980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>5572</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45">
         <v>6202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46">
         <v>5850</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47">
         <v>6820</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>8</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48">
         <v>3767</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>37</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49">
         <v>3525</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>38</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50">
         <v>2893</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>43</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>11</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51">
         <v>4766</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>39</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>12</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>8033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>2527</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E82F6D-A899-4279-AC7E-E81A2CB77FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE9A07-BB48-414F-9CE0-D66DC83F2F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0_Erläuterungen" sheetId="1" r:id="rId1"/>
+    <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
     <sheet name="1_Testzahlerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -148,103 +148,79 @@
     <t>45/2020</t>
   </si>
   <si>
-    <t>46/2020*</t>
-  </si>
-  <si>
-    <t>47/2020*</t>
-  </si>
-  <si>
-    <t>48/2020*</t>
-  </si>
-  <si>
-    <t>49/2020*</t>
-  </si>
-  <si>
-    <t>50/2020*</t>
-  </si>
-  <si>
-    <t>51/2020*</t>
-  </si>
-  <si>
-    <t>52/2020*</t>
-  </si>
-  <si>
-    <t>53/2020*</t>
-  </si>
-  <si>
-    <t>1/2021*</t>
-  </si>
-  <si>
-    <t>2/2021*</t>
-  </si>
-  <si>
-    <t>3/2021*</t>
-  </si>
-  <si>
-    <t>4/2021*</t>
-  </si>
-  <si>
-    <t>5/2021*</t>
-  </si>
-  <si>
-    <t>6/2021*</t>
-  </si>
-  <si>
-    <t>7/2021*</t>
-  </si>
-  <si>
-    <t>8/2021*</t>
-  </si>
-  <si>
-    <t>9/2021*</t>
-  </si>
-  <si>
-    <t>10/2021*</t>
-  </si>
-  <si>
-    <t>11/2021*</t>
-  </si>
-  <si>
-    <t>12/2021*</t>
-  </si>
-  <si>
-    <t>13/2021*</t>
+    <t>46/2020</t>
+  </si>
+  <si>
+    <t>47/2020</t>
+  </si>
+  <si>
+    <t>48/2020</t>
+  </si>
+  <si>
+    <t>49/2020</t>
+  </si>
+  <si>
+    <t>50/2020</t>
+  </si>
+  <si>
+    <t>51/2020</t>
+  </si>
+  <si>
+    <t>52/2020</t>
+  </si>
+  <si>
+    <t>53/2020</t>
+  </si>
+  <si>
+    <t>1/2021</t>
+  </si>
+  <si>
+    <t>2/2021</t>
+  </si>
+  <si>
+    <t>3/2021</t>
+  </si>
+  <si>
+    <t>4/2021</t>
+  </si>
+  <si>
+    <t>5/2021</t>
+  </si>
+  <si>
+    <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>8/2021</t>
+  </si>
+  <si>
+    <t>9/2021</t>
+  </si>
+  <si>
+    <t>10/2021</t>
+  </si>
+  <si>
+    <t>11/2021</t>
+  </si>
+  <si>
+    <t>12/2021</t>
+  </si>
+  <si>
+    <t>13/2021</t>
+  </si>
+  <si>
+    <t>14/2021</t>
+  </si>
+  <si>
+    <t>15/2021</t>
   </si>
   <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW3/2021</t>
-  </si>
-  <si>
-    <t>4/2021</t>
-  </si>
-  <si>
-    <t>5/2021</t>
-  </si>
-  <si>
-    <t>6/2021</t>
-  </si>
-  <si>
-    <t>7/2021</t>
-  </si>
-  <si>
-    <t>8/2021</t>
-  </si>
-  <si>
-    <t>9/2021</t>
-  </si>
-  <si>
-    <t>10/2021</t>
-  </si>
-  <si>
-    <t>11/2021</t>
-  </si>
-  <si>
-    <t>12/2021</t>
-  </si>
-  <si>
-    <t>13/2021</t>
+    <t>Bis einschließlich KW5/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -262,40 +238,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>46/2020</t>
-  </si>
-  <si>
-    <t>47/2020</t>
-  </si>
-  <si>
-    <t>48/2020</t>
-  </si>
-  <si>
-    <t>49/2020</t>
-  </si>
-  <si>
-    <t>50/2020</t>
-  </si>
-  <si>
-    <t>51/2020</t>
-  </si>
-  <si>
-    <t>52/2020</t>
-  </si>
-  <si>
-    <t>53/2020</t>
-  </si>
-  <si>
-    <t>1/2021</t>
-  </si>
-  <si>
-    <t>2/2021</t>
-  </si>
-  <si>
-    <t>3/2021</t>
-  </si>
-  <si>
-    <t>14/2021</t>
+    <t>16/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -305,17 +248,41 @@
   </si>
   <si>
     <t>Probenrückstau</t>
+  </si>
+  <si>
+    <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlerfassung).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -331,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -339,45 +306,75 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{FC40BBD3-355B-4913-963C-1E1AE1BA8A91}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,6 +387,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFA1BA3-D42D-4557-9AE1-6C65A1BB3F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="508000"/>
+          <a:ext cx="9772650" cy="4343400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,1033 +740,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2B9231-EB8D-4A9E-93C6-AD643485F64F}">
+  <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:E59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>69184</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>1722</v>
       </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>128008</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>7470</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>5.835572776701456</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>374534</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>25886</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>6.9115220514025424</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>377599</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>33139</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>8.7762414625038723</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>417646</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>37649</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>9.0145721496195339</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>386241</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>30829</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>7.9818041067623575</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>339983</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>22724</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>6.6838636049449534</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>363659</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>18127</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>4.984614707734444</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>327799</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>12600</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>3.8438189256221036</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>385638</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>10181</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>2.6400406598934754</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>431682</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>7142</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>1.6544586061035669</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>356489</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>5315</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>1.4909295939005129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>408078</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>4335</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>1.0622969138252982</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>342328</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>3219</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>0.94032623682550076</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>327980</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>2956</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>0.90127446795536315</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>384834</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>5588</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>1.452054652135726</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>472823</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>3919</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>0.82885138836308725</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>512969</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>3204</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>0.62459914731689448</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>513572</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>3042</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="9">
         <v>0.59232201132460494</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>544219</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>3608</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="9">
         <v>0.66296840058873363</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>556634</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>4537</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="9">
         <v>0.81507777103087486</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>589201</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>5888</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>0.99931941731259788</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>719476</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>7374</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="9">
         <v>1.0249125752631083</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>871191</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>8545</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="9">
         <v>0.98084117030593754</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>1034449</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>8868</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="9">
         <v>0.85726797551160094</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>1133623</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>8273</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="9">
         <v>0.72978406401422702</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>1052942</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>8203</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="9">
         <v>0.77905525660482722</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>1148465</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>10403</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="9">
         <v>0.90581776545214709</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1147879</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>13647</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="9">
         <v>1.1888883758654005</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>1220279</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>15178</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="9">
         <v>1.2438139146867233</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>1129127</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>19930</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="9">
         <v>1.7650804559628812</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>1218988</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>30220</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="9">
         <v>2.4791056187591676</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>1284349</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>46000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="9">
         <v>3.581581018866367</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>1445463</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>80097</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="9">
         <v>5.5412694755936336</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>1663992</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>118111</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="9">
         <v>7.0980509521680393</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>1634729</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>128537</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="9">
         <v>7.8628934826506418</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>1467454</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>128986</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="9">
         <v>8.789781485484383</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>1400145</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>131185</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="9">
         <v>9.3693867420874266</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>1381117</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>128882</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="9">
         <v>9.3317220771303226</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>1395790</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>138305</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="9">
         <v>9.9087255246133008</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>1516038</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>169520</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="9">
         <v>11.181777765464981</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>1672033</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>188283</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="9">
         <v>11.260722724970142</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>1090372</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>141413</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="9">
         <v>12.969243524228427</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>845729</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>129930</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="9">
         <v>15.363077297810529</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>1231405</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>157772</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="9">
         <v>12.812356617035011</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>1187564</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>124037</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="9">
         <v>10.44465814052969</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>1113690</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="8">
         <v>110163</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="9">
         <v>9.8917113379845372</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>1151633</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="8">
         <v>97383</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="9">
         <v>8.456079323881827</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>1101499</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>82436</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="9">
         <v>7.4839831901799272</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>1060602</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>67882</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="9">
         <v>6.4003273612533258</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
-        <v>1101687</v>
-      </c>
-      <c r="C52">
-        <v>67318</v>
-      </c>
-      <c r="D52">
-        <v>6.1104469781344424</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="11">
+        <v>1103231</v>
+      </c>
+      <c r="C52" s="11">
+        <v>67379</v>
+      </c>
+      <c r="D52" s="12">
+        <v>6.1074244650485703</v>
+      </c>
+      <c r="E52" s="10">
+        <v>207</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1171798</v>
+      </c>
+      <c r="C53" s="11">
+        <v>72059</v>
+      </c>
+      <c r="D53" s="12">
+        <v>6.149438725787209</v>
+      </c>
+      <c r="E53" s="7">
+        <v>210</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1153270</v>
+      </c>
+      <c r="C54" s="11">
+        <v>71715</v>
+      </c>
+      <c r="D54" s="12">
+        <v>6.218405056925091</v>
+      </c>
+      <c r="E54" s="10">
+        <v>211</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1280050</v>
+      </c>
+      <c r="C55" s="11">
+        <v>85655</v>
+      </c>
+      <c r="D55" s="12">
+        <v>6.6915354868950434</v>
+      </c>
+      <c r="E55" s="10">
+        <v>215</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1367247</v>
+      </c>
+      <c r="C56" s="10">
+        <v>107827</v>
+      </c>
+      <c r="D56" s="12">
+        <v>7.8864316396378999</v>
+      </c>
+      <c r="E56" s="10">
+        <v>209</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1415220</v>
+      </c>
+      <c r="C57" s="8">
+        <v>131857</v>
+      </c>
+      <c r="D57" s="9">
+        <v>9.317067311089442</v>
+      </c>
+      <c r="E57" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53">
-        <v>1170335</v>
-      </c>
-      <c r="C53">
-        <v>72008</v>
-      </c>
-      <c r="D53">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E53">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>1151639</v>
-      </c>
-      <c r="C54">
-        <v>71647</v>
-      </c>
-      <c r="D54">
-        <v>6.2213071978284864</v>
-      </c>
-      <c r="E54">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>1278442</v>
-      </c>
-      <c r="C55">
-        <v>85587</v>
-      </c>
-      <c r="D55">
-        <v>6.6946329986029864</v>
-      </c>
-      <c r="E55">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>1365255</v>
-      </c>
-      <c r="C56">
-        <v>107754</v>
-      </c>
-      <c r="D56">
-        <v>7.8925914938967443</v>
-      </c>
-      <c r="E56">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1178378</v>
+      </c>
+      <c r="C58" s="8">
+        <v>128814</v>
+      </c>
+      <c r="D58" s="9">
+        <v>10.931466812856316</v>
+      </c>
+      <c r="E58" s="7">
+        <v>207</v>
+      </c>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1165380</v>
+      </c>
+      <c r="C59" s="8">
+        <v>140491</v>
+      </c>
+      <c r="D59" s="9">
+        <v>12.05538107741681</v>
+      </c>
+      <c r="E59" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57">
-        <v>1411517</v>
-      </c>
-      <c r="C57">
-        <v>131650</v>
-      </c>
-      <c r="D57">
-        <v>9.3268448059782489</v>
-      </c>
-      <c r="E57">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58">
-        <v>1149279</v>
-      </c>
-      <c r="C58">
-        <v>127158</v>
-      </c>
-      <c r="D58">
-        <v>11.064154134896748</v>
-      </c>
-      <c r="E58">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>51559277</v>
-      </c>
-      <c r="C59">
-        <v>3215765</v>
-      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1295635</v>
+      </c>
+      <c r="C60" s="11">
+        <v>160735</v>
+      </c>
+      <c r="D60" s="12">
+        <v>12.4058859169442</v>
+      </c>
+      <c r="E60" s="10">
+        <v>202</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="13">
+        <v>54061332</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3519175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1724,231 +1894,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8">
+        <v>41870521</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2484761</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1060602</v>
+      </c>
+      <c r="C3" s="8">
+        <v>67882</v>
+      </c>
+      <c r="D3" s="18">
+        <v>6.4003273612533258</v>
+      </c>
+      <c r="E3" s="19">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1103231</v>
+      </c>
+      <c r="C4" s="8">
+        <v>67379</v>
+      </c>
+      <c r="D4" s="18">
+        <v>6.1074244650485703</v>
+      </c>
+      <c r="E4" s="19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1171798</v>
+      </c>
+      <c r="C5" s="8">
+        <v>72059</v>
+      </c>
+      <c r="D5" s="18">
+        <v>6.149438725787209</v>
+      </c>
+      <c r="E5" s="19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1153270</v>
+      </c>
+      <c r="C6" s="8">
+        <v>71715</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6.218405056925091</v>
+      </c>
+      <c r="E6" s="19">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1280050</v>
+      </c>
+      <c r="C7" s="8">
+        <v>85655</v>
+      </c>
+      <c r="D7" s="18">
+        <v>6.6915354868950434</v>
+      </c>
+      <c r="E7" s="19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1367247</v>
+      </c>
+      <c r="C8" s="8">
+        <v>107827</v>
+      </c>
+      <c r="D8" s="18">
+        <v>7.8864316396378999</v>
+      </c>
+      <c r="E8" s="19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1415220</v>
+      </c>
+      <c r="C9" s="8">
+        <v>131857</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9.317067311089442</v>
+      </c>
+      <c r="E9" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1178378</v>
+      </c>
+      <c r="C10" s="8">
+        <v>128814</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10.931466812856316</v>
+      </c>
+      <c r="E10" s="19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1165380</v>
+      </c>
+      <c r="C11" s="8">
+        <v>140491</v>
+      </c>
+      <c r="D11" s="18">
+        <v>12.05538107741681</v>
+      </c>
+      <c r="E11" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3">
-        <v>39617389</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2304942</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B12" s="8">
+        <v>1295635</v>
+      </c>
+      <c r="C12" s="8">
+        <v>160735</v>
+      </c>
+      <c r="D12" s="18">
+        <v>12.4058859169442</v>
+      </c>
+      <c r="E12" s="19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4">
-        <v>1151633</v>
-      </c>
-      <c r="C3" s="4">
-        <v>97383</v>
-      </c>
-      <c r="D3" s="5">
-        <v>8.456079323881827</v>
-      </c>
-      <c r="E3" s="4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1101499</v>
-      </c>
-      <c r="C4" s="4">
-        <v>82436</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7.4839831901799272</v>
-      </c>
-      <c r="E4" s="4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1060602</v>
-      </c>
-      <c r="C5" s="4">
-        <v>67882</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6.4003273612533258</v>
-      </c>
-      <c r="E5" s="4">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1101687</v>
-      </c>
-      <c r="C6" s="4">
-        <v>67318</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6.1104469781344424</v>
-      </c>
-      <c r="E6" s="4">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1170335</v>
-      </c>
-      <c r="C7" s="4">
-        <v>72008</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E7" s="4">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1151639</v>
-      </c>
-      <c r="C8" s="4">
-        <v>71647</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.2213071978284864</v>
-      </c>
-      <c r="E8" s="4">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1278442</v>
-      </c>
-      <c r="C9" s="4">
-        <v>85587</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6.6946329986029864</v>
-      </c>
-      <c r="E9" s="4">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1365255</v>
-      </c>
-      <c r="C10" s="4">
-        <v>107754</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7.8925914938967443</v>
-      </c>
-      <c r="E10" s="4">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1411517</v>
-      </c>
-      <c r="C11" s="4">
-        <v>131650</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9.3268448059782489</v>
-      </c>
-      <c r="E11" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1149279</v>
-      </c>
-      <c r="C12" s="4">
-        <v>127158</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11.064154134896748</v>
-      </c>
-      <c r="E12" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="4">
-        <v>51559277</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3215765</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="13">
+        <v>54061332</v>
+      </c>
+      <c r="C13" s="13">
+        <v>3519175</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,997 +2137,1108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>16920</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>80300</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>40950</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>33620</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>164050</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>119700</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>107</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>78360</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>149820</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>367630</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>126</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>117030</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>165960</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>531380</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>132</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>128580</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>375420</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>664960</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>138</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>139604</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>831046</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>670650</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>135</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>140616</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>901595</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>700399</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>138</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>144980</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>955891</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>730541</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>135</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>151063</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>981515.00199999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>831816</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>139</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>156630</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>1030122.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>873162</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>139</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>159588</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>1057365.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>882561</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>146</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>159974</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>1033129</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>880441</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>146</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>167525</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>1115162.5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>939801</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>144</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>169653</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>1096075</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>974698</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>141</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>169858</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>1123147.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>996309</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>143</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>172624</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>1131748</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>994060</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>147</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>170313</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>1120015</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>1003758</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>152</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>179914</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>1196640.0000100001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>1020962</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>155</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>181011</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>1202855</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>1041871</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>155</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>183567</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>1218086</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>1040331</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>159</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>183310</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>1214556</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>1065190</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>158</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>182697</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>1200692</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>1046485</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>155</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>189338</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>1252357</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>1005162</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>164</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>198518</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>1308423</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>1081246</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>171</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>208419</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>1362883</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>1189057</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>171</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>211002</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>1376233</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>1153222</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>171</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>223899</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>1458751</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>1206487</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>172</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>230691</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>1512155</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>1280683</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>174</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>235674</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>1540049</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>1377447</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>169</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>238740</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>1564437</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="8">
         <v>1454962</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>173</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>258089</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>1705581</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>1595907</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>173</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>255622</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>1700116</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>1557060</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>188</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>268521</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>1790564</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="8">
         <v>1632858</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>183</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>285630</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>1910486</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="8">
         <v>1703929</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>185</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>297894</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <v>1937312</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>1732058</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="8">
         <v>182</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>305683</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <v>2020253</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>1787673</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8">
         <v>181</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>313386</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <v>2079778</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="8">
         <v>1893368</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8">
         <v>177</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>320686</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>2141208</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>1921326</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8">
         <v>181</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>329486</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>2202408</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>2016366</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="8">
         <v>180</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>333476</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <v>2235788</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="8">
         <v>2008132</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="8">
         <v>180</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>342616</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>2290632</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="8">
         <v>2094092</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8">
         <v>187</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>338390</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="8">
         <v>1465033.7</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="8">
         <v>1331929</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="8">
         <v>185</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>331055</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="8">
         <v>1331534.94</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="8">
         <v>1264753</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="8">
         <v>183</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>335608</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <v>2129456</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <v>2058917</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="8">
         <v>183</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>338746</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="8">
         <v>2248174</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="8">
         <v>2103510</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="8">
         <v>182</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>347237</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="8">
         <v>2321303</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="8">
         <v>2221047</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="8">
         <v>183</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="8">
         <v>354177</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="8">
         <v>2368097</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="8">
         <v>2247760</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8">
         <v>182</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="8">
         <v>354011</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="8">
         <v>2376839</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="8">
         <v>2270208</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="8">
         <v>183</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>354485</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="8">
         <v>2378145</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="8">
         <v>2319187</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="8">
         <v>187</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>350601</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="8">
         <v>2344259.7142857141</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="8">
         <v>2294630</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="8">
+        <v>183</v>
+      </c>
+      <c r="C52" s="8">
+        <v>363862</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2442710</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2391466</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="11">
+        <v>185</v>
+      </c>
+      <c r="C53" s="11">
+        <v>359585</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2391289</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2361017</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="10">
+        <v>187</v>
+      </c>
+      <c r="C54" s="11">
+        <v>358485</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2386839</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2348017</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="21">
+        <v>187</v>
+      </c>
+      <c r="C55" s="21">
+        <v>360911</v>
+      </c>
+      <c r="D55" s="22">
+        <v>2414443</v>
+      </c>
+      <c r="E55" s="21">
+        <v>2386339</v>
+      </c>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="8">
         <v>182</v>
       </c>
-      <c r="C52">
-        <v>363562</v>
-      </c>
-      <c r="D52">
-        <v>2440610</v>
-      </c>
-      <c r="E52">
-        <v>2389366</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53">
-        <v>184</v>
-      </c>
-      <c r="C53">
-        <v>359285</v>
-      </c>
-      <c r="D53">
-        <v>2389189</v>
-      </c>
-      <c r="E53">
-        <v>2358917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54">
-        <v>186</v>
-      </c>
-      <c r="C54">
-        <v>358185</v>
-      </c>
-      <c r="D54">
-        <v>2384739</v>
-      </c>
-      <c r="E54">
-        <v>2345917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56" s="8">
+        <v>351649</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2356203</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2326435</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="22">
+        <v>180</v>
+      </c>
+      <c r="C57" s="22">
+        <v>351313</v>
+      </c>
+      <c r="D57" s="22">
+        <v>2329923</v>
+      </c>
+      <c r="E57" s="22">
+        <v>2321963</v>
+      </c>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="8">
+        <v>182</v>
+      </c>
+      <c r="C58" s="8">
+        <v>353705</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2336559</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2332259</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="11">
+        <v>180</v>
+      </c>
+      <c r="C59" s="11">
+        <v>351985</v>
+      </c>
+      <c r="D59" s="11">
+        <v>2305267</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2358863</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B55">
-        <v>186</v>
-      </c>
-      <c r="C55">
-        <v>360611</v>
-      </c>
-      <c r="D55">
-        <v>2412343</v>
-      </c>
-      <c r="E55">
-        <v>2384239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56">
-        <v>181</v>
-      </c>
-      <c r="C56">
-        <v>351349</v>
-      </c>
-      <c r="D56">
-        <v>2354103</v>
-      </c>
-      <c r="E56">
-        <v>2324335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57">
-        <v>178</v>
-      </c>
-      <c r="C57">
-        <v>349013</v>
-      </c>
-      <c r="D57">
-        <v>2318123</v>
-      </c>
-      <c r="E57">
-        <v>2306463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58">
-        <v>169</v>
-      </c>
-      <c r="C58">
-        <v>343855</v>
-      </c>
-      <c r="D58">
-        <v>2278709</v>
-      </c>
-      <c r="E58">
-        <v>2285659</v>
-      </c>
+      <c r="B60" s="13">
+        <v>176</v>
+      </c>
+      <c r="C60" s="13">
+        <v>352811</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2368413</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2370981</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,232 +3248,254 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7">
         <v>182</v>
       </c>
-      <c r="C2">
-        <v>347237</v>
-      </c>
-      <c r="D2">
-        <v>2321303</v>
-      </c>
-      <c r="E2">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="8">
+        <v>354011</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2376839</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2270208</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7">
         <v>183</v>
       </c>
-      <c r="C3">
-        <v>354177</v>
-      </c>
-      <c r="D3">
-        <v>2368097</v>
-      </c>
-      <c r="E3">
-        <v>2247760</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="8">
+        <v>354485</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2378145</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2319187</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7">
+        <v>187</v>
+      </c>
+      <c r="C4" s="8">
+        <v>350601</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2294630</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7">
+        <v>183</v>
+      </c>
+      <c r="C5" s="8">
+        <v>363862</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2442710</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2391466</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7">
+        <v>185</v>
+      </c>
+      <c r="C6" s="8">
+        <v>359585</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2391289</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2361017</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="7">
+        <v>187</v>
+      </c>
+      <c r="C7" s="8">
+        <v>358485</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2386839</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2348017</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>187</v>
+      </c>
+      <c r="C8" s="8">
+        <v>360911</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2414443</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2386339</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7">
         <v>182</v>
       </c>
-      <c r="C4">
-        <v>354011</v>
-      </c>
-      <c r="D4">
-        <v>2376839</v>
-      </c>
-      <c r="E4">
-        <v>2270208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>183</v>
-      </c>
-      <c r="C5">
-        <v>354485</v>
-      </c>
-      <c r="D5">
-        <v>2378145</v>
-      </c>
-      <c r="E5">
-        <v>2319187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>187</v>
-      </c>
-      <c r="C6">
-        <v>350601</v>
-      </c>
-      <c r="D6">
-        <v>2344259.7142857141</v>
-      </c>
-      <c r="E6">
-        <v>2294630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
+      <c r="C9" s="8">
+        <v>351649</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2356203</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2326435</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7">
+        <v>180</v>
+      </c>
+      <c r="C10" s="8">
+        <v>351313</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2329923</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2321963</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
         <v>182</v>
       </c>
-      <c r="C7">
-        <v>363562</v>
-      </c>
-      <c r="D7">
-        <v>2440610</v>
-      </c>
-      <c r="E7">
-        <v>2389366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>184</v>
-      </c>
-      <c r="C8">
-        <v>359285</v>
-      </c>
-      <c r="D8">
-        <v>2389189</v>
-      </c>
-      <c r="E8">
-        <v>2358917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>186</v>
-      </c>
-      <c r="C9">
-        <v>358185</v>
-      </c>
-      <c r="D9">
-        <v>2384739</v>
-      </c>
-      <c r="E9">
-        <v>2345917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="8">
+        <v>353705</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2336559</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2332259</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>180</v>
+      </c>
+      <c r="C12" s="8">
+        <v>351985</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2305267</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2358863</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10">
-        <v>186</v>
-      </c>
-      <c r="C10">
-        <v>360611</v>
-      </c>
-      <c r="D10">
-        <v>2412343</v>
-      </c>
-      <c r="E10">
-        <v>2384239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>181</v>
-      </c>
-      <c r="C11">
-        <v>351349</v>
-      </c>
-      <c r="D11">
-        <v>2354103</v>
-      </c>
-      <c r="E11">
-        <v>2324335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>178</v>
-      </c>
-      <c r="C12">
-        <v>349013</v>
-      </c>
-      <c r="D12">
-        <v>2318123</v>
-      </c>
-      <c r="E12">
-        <v>2306463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13">
-        <v>169</v>
-      </c>
-      <c r="C13">
-        <v>343855</v>
-      </c>
-      <c r="D13">
-        <v>2278709</v>
-      </c>
-      <c r="E13">
-        <v>2285659</v>
-      </c>
+      <c r="B13" s="6">
+        <v>176</v>
+      </c>
+      <c r="C13" s="13">
+        <v>352811</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2368413</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2370981</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3193,597 +3505,632 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>3423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>2259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>2243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>3790</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>3224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>27</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>2478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>24</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>1646</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>3056</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>27</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>3242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>29</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>1483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>31</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>35</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>10693</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>44</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>33</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>17143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>48</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>34</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>27828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>49</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>35</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>36812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>47</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>29964</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>51</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>37</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>32397</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>42</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>38</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>12617</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>46</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>39</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>15983</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>42</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>40</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>8245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>46</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>41</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>16829</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>52</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>42</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>20799</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>57</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>43</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>69524</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>69</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>98931</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="7">
         <v>66</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>45</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>60113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>59</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>46</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>23780</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="7">
         <v>50</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>47</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>17207</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>54</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>48</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>14191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>51</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>49</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>12267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>50</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>19159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="7">
         <v>57</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>51</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>21364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>43</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>52</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>11321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>53</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>6507</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>47</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>11691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>11336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>48</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>11980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>5572</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>6202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="7">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>5850</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>6820</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="10">
         <v>44</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="10">
         <v>8</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <v>3767</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="10">
         <v>37</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <v>3525</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="10">
         <v>38</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="11">
         <v>2893</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="10">
         <v>43</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>11</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <v>4766</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="10">
         <v>39</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="10">
         <v>12</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="11">
         <v>8033</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="10">
         <v>31</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="10">
         <v>13</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <v>2527</v>
       </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>44</v>
+      </c>
+      <c r="B54" s="10">
+        <v>14</v>
+      </c>
+      <c r="C54" s="11">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>40</v>
+      </c>
+      <c r="B55" s="6">
+        <v>15</v>
+      </c>
+      <c r="C55" s="13">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE9A07-BB48-414F-9CE0-D66DC83F2F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237D2E0-ABFE-4456-9330-B4969BBF43E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="14025" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -217,10 +222,16 @@
     <t>15/2021</t>
   </si>
   <si>
+    <t>16/2021</t>
+  </si>
+  <si>
+    <t>17/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW5/2021</t>
+    <t>Bis einschließlich KW7/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -235,10 +246,7 @@
     <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
   </si>
   <si>
-    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
-  </si>
-  <si>
-    <t>16/2021</t>
+    <t>18/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -254,6 +262,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
+  </si>
+  <si>
+    <t>Reale wöchentlich Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
 </sst>
 </file>
@@ -311,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -345,19 +356,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,10 +385,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{FC40BBD3-355B-4913-963C-1E1AE1BA8A91}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{FF7C9AA8-EA69-40E3-A9CB-070669631353}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,14 +414,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -409,7 +429,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFA1BA3-D42D-4557-9AE1-6C65A1BB3F8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62657391-4922-4CEE-8CD0-EDF9F578FDE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -431,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="508000"/>
-          <a:ext cx="9772650" cy="4343400"/>
+          <a:off x="4305300" y="1143000"/>
+          <a:ext cx="10058400" cy="4470400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2B9231-EB8D-4A9E-93C6-AD643485F64F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28073797-B94F-4806-B155-ABE333043471}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,12 +780,12 @@
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -776,19 +796,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,55 +1856,94 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>1165380</v>
+        <v>1169510</v>
       </c>
       <c r="C59" s="8">
-        <v>140491</v>
+        <v>140935</v>
       </c>
       <c r="D59" s="9">
-        <v>12.05538107741681</v>
+        <v>12.050773400825987</v>
       </c>
       <c r="E59" s="7">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="11">
-        <v>1295635</v>
+        <v>1312521</v>
       </c>
       <c r="C60" s="11">
-        <v>160735</v>
+        <v>163451</v>
       </c>
       <c r="D60" s="12">
-        <v>12.4058859169442</v>
+        <v>12.453210272445164</v>
       </c>
       <c r="E60" s="10">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="13">
-        <v>54061332</v>
-      </c>
-      <c r="C61" s="13">
-        <v>3519175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="B61" s="11">
+        <v>1417117</v>
+      </c>
+      <c r="C61" s="11">
+        <v>176192</v>
+      </c>
+      <c r="D61" s="13">
+        <v>12.433130080296827</v>
+      </c>
+      <c r="E61" s="8">
+        <v>208</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1337504</v>
+      </c>
+      <c r="C62" s="11">
+        <v>149805</v>
+      </c>
+      <c r="D62" s="12">
+        <v>11.200340335430772</v>
+      </c>
+      <c r="E62" s="10">
+        <v>200</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="14">
+        <v>56836969</v>
+      </c>
+      <c r="C63" s="14">
+        <v>3848332</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,281 +1953,294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44034354</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2620022</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1171798</v>
+      </c>
+      <c r="C3" s="8">
+        <v>72059</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6.149438725787209</v>
+      </c>
+      <c r="E3" s="20">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1153270</v>
+      </c>
+      <c r="C4" s="8">
+        <v>71715</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6.218405056925091</v>
+      </c>
+      <c r="E4" s="20">
+        <v>211</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1280050</v>
+      </c>
+      <c r="C5" s="8">
+        <v>85655</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6.6915354868950434</v>
+      </c>
+      <c r="E5" s="20">
+        <v>215</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1367247</v>
+      </c>
+      <c r="C6" s="8">
+        <v>107827</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7.8864316396378999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>209</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1415220</v>
+      </c>
+      <c r="C7" s="8">
+        <v>131857</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9.317067311089442</v>
+      </c>
+      <c r="E7" s="20">
+        <v>206</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1178378</v>
+      </c>
+      <c r="C8" s="8">
+        <v>128814</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10.931466812856316</v>
+      </c>
+      <c r="E8" s="20">
+        <v>207</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1169510</v>
+      </c>
+      <c r="C9" s="8">
+        <v>140935</v>
+      </c>
+      <c r="D9" s="13">
+        <v>12.050773400825987</v>
+      </c>
+      <c r="E9" s="20">
+        <v>209</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1312521</v>
+      </c>
+      <c r="C10" s="8">
+        <v>163451</v>
+      </c>
+      <c r="D10" s="13">
+        <v>12.453210272445164</v>
+      </c>
+      <c r="E10" s="20">
+        <v>209</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1417117</v>
+      </c>
+      <c r="C11" s="8">
+        <v>176192</v>
+      </c>
+      <c r="D11" s="13">
+        <v>12.433130080296827</v>
+      </c>
+      <c r="E11" s="20">
+        <v>208</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="8">
-        <v>41870521</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2484761</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1060602</v>
-      </c>
-      <c r="C3" s="8">
-        <v>67882</v>
-      </c>
-      <c r="D3" s="18">
-        <v>6.4003273612533258</v>
-      </c>
-      <c r="E3" s="19">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1103231</v>
-      </c>
-      <c r="C4" s="8">
-        <v>67379</v>
-      </c>
-      <c r="D4" s="18">
-        <v>6.1074244650485703</v>
-      </c>
-      <c r="E4" s="19">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1171798</v>
-      </c>
-      <c r="C5" s="8">
-        <v>72059</v>
-      </c>
-      <c r="D5" s="18">
-        <v>6.149438725787209</v>
-      </c>
-      <c r="E5" s="19">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1153270</v>
-      </c>
-      <c r="C6" s="8">
-        <v>71715</v>
-      </c>
-      <c r="D6" s="18">
-        <v>6.218405056925091</v>
-      </c>
-      <c r="E6" s="19">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1280050</v>
-      </c>
-      <c r="C7" s="8">
-        <v>85655</v>
-      </c>
-      <c r="D7" s="18">
-        <v>6.6915354868950434</v>
-      </c>
-      <c r="E7" s="19">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1367247</v>
-      </c>
-      <c r="C8" s="8">
-        <v>107827</v>
-      </c>
-      <c r="D8" s="18">
-        <v>7.8864316396378999</v>
-      </c>
-      <c r="E8" s="19">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1415220</v>
-      </c>
-      <c r="C9" s="8">
-        <v>131857</v>
-      </c>
-      <c r="D9" s="18">
-        <v>9.317067311089442</v>
-      </c>
-      <c r="E9" s="19">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1178378</v>
-      </c>
-      <c r="C10" s="8">
-        <v>128814</v>
-      </c>
-      <c r="D10" s="18">
-        <v>10.931466812856316</v>
-      </c>
-      <c r="E10" s="19">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1165380</v>
-      </c>
-      <c r="C11" s="8">
-        <v>140491</v>
-      </c>
-      <c r="D11" s="18">
-        <v>12.05538107741681</v>
-      </c>
-      <c r="E11" s="19">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="B12" s="8">
-        <v>1295635</v>
+        <v>1337504</v>
       </c>
       <c r="C12" s="8">
-        <v>160735</v>
-      </c>
-      <c r="D12" s="18">
-        <v>12.4058859169442</v>
-      </c>
-      <c r="E12" s="19">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="13">
-        <v>54061332</v>
-      </c>
-      <c r="C13" s="13">
-        <v>3519175</v>
+        <v>149805</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11.200340335430772</v>
+      </c>
+      <c r="E12" s="20">
+        <v>200</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="14">
+        <v>56836969</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3848332</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2184,7 +2256,7 @@
         <v>80300</v>
       </c>
       <c r="E2" s="8">
-        <v>40950</v>
+        <v>39000</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -2202,7 +2274,7 @@
         <v>164050</v>
       </c>
       <c r="E3" s="8">
-        <v>119700</v>
+        <v>117750</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -2220,7 +2292,7 @@
         <v>149820</v>
       </c>
       <c r="E4" s="8">
-        <v>367630</v>
+        <v>128000</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -2238,7 +2310,7 @@
         <v>165960</v>
       </c>
       <c r="E5" s="8">
-        <v>531380</v>
+        <v>136660</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2256,7 +2328,7 @@
         <v>375420</v>
       </c>
       <c r="E6" s="8">
-        <v>664960</v>
+        <v>259650</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -2274,7 +2346,7 @@
         <v>831046</v>
       </c>
       <c r="E7" s="8">
-        <v>670650</v>
+        <v>589620</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2292,7 +2364,7 @@
         <v>901595</v>
       </c>
       <c r="E8" s="8">
-        <v>700399</v>
+        <v>667170</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -2310,7 +2382,7 @@
         <v>955891</v>
       </c>
       <c r="E9" s="8">
-        <v>730541</v>
+        <v>701268</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -2328,7 +2400,7 @@
         <v>981515.00199999998</v>
       </c>
       <c r="E10" s="8">
-        <v>831816</v>
+        <v>777476</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -2346,7 +2418,7 @@
         <v>1030122.5</v>
       </c>
       <c r="E11" s="8">
-        <v>873162</v>
+        <v>825063</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -2364,7 +2436,7 @@
         <v>1057365.5</v>
       </c>
       <c r="E12" s="8">
-        <v>882561</v>
+        <v>837380</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -2382,7 +2454,7 @@
         <v>1033129</v>
       </c>
       <c r="E13" s="8">
-        <v>880441</v>
+        <v>821554</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -2400,7 +2472,7 @@
         <v>1115162.5</v>
       </c>
       <c r="E14" s="8">
-        <v>939801</v>
+        <v>904760</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -2418,7 +2490,7 @@
         <v>1096075</v>
       </c>
       <c r="E15" s="8">
-        <v>974698</v>
+        <v>907022</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -2436,7 +2508,7 @@
         <v>1123147.5</v>
       </c>
       <c r="E16" s="8">
-        <v>996309</v>
+        <v>951456</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -2454,7 +2526,7 @@
         <v>1131748</v>
       </c>
       <c r="E17" s="8">
-        <v>994060</v>
+        <v>950136</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -2472,7 +2544,7 @@
         <v>1120015</v>
       </c>
       <c r="E18" s="8">
-        <v>1003758</v>
+        <v>961246</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2490,7 +2562,7 @@
         <v>1196640.0000100001</v>
       </c>
       <c r="E19" s="8">
-        <v>1020962</v>
+        <v>989576</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -2508,7 +2580,7 @@
         <v>1202855</v>
       </c>
       <c r="E20" s="8">
-        <v>1041871</v>
+        <v>1011165</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -2526,7 +2598,7 @@
         <v>1218086</v>
       </c>
       <c r="E21" s="8">
-        <v>1040331</v>
+        <v>1009137</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -2544,7 +2616,7 @@
         <v>1214556</v>
       </c>
       <c r="E22" s="8">
-        <v>1065190</v>
+        <v>1029124</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -2562,7 +2634,7 @@
         <v>1200692</v>
       </c>
       <c r="E23" s="8">
-        <v>1046485</v>
+        <v>1009346</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -2580,7 +2652,7 @@
         <v>1252357</v>
       </c>
       <c r="E24" s="8">
-        <v>1005162</v>
+        <v>976187</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -2598,7 +2670,7 @@
         <v>1308423</v>
       </c>
       <c r="E25" s="8">
-        <v>1081246</v>
+        <v>1035958</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -2616,7 +2688,7 @@
         <v>1362883</v>
       </c>
       <c r="E26" s="8">
-        <v>1189057</v>
+        <v>1126195</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -2634,7 +2706,7 @@
         <v>1376233</v>
       </c>
       <c r="E27" s="8">
-        <v>1153222</v>
+        <v>1089353</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -2652,7 +2724,7 @@
         <v>1458751</v>
       </c>
       <c r="E28" s="8">
-        <v>1206487</v>
+        <v>1130813</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2670,7 +2742,7 @@
         <v>1512155</v>
       </c>
       <c r="E29" s="8">
-        <v>1280683</v>
+        <v>1206181</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -2688,7 +2760,7 @@
         <v>1540049</v>
       </c>
       <c r="E30" s="8">
-        <v>1377447</v>
+        <v>1292743</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -2706,7 +2778,7 @@
         <v>1564437</v>
       </c>
       <c r="E31" s="8">
-        <v>1454962</v>
+        <v>1378063</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -2724,7 +2796,7 @@
         <v>1705581</v>
       </c>
       <c r="E32" s="8">
-        <v>1595907</v>
+        <v>1527677</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -2742,7 +2814,7 @@
         <v>1700116</v>
       </c>
       <c r="E33" s="8">
-        <v>1557060</v>
+        <v>1505312</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -2760,7 +2832,7 @@
         <v>1790564</v>
       </c>
       <c r="E34" s="8">
-        <v>1632858</v>
+        <v>1578454</v>
       </c>
       <c r="F34" s="8"/>
     </row>
@@ -2778,7 +2850,7 @@
         <v>1910486</v>
       </c>
       <c r="E35" s="8">
-        <v>1703929</v>
+        <v>1648626</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -2796,7 +2868,7 @@
         <v>1937312</v>
       </c>
       <c r="E36" s="8">
-        <v>1732058</v>
+        <v>1622662</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -2814,7 +2886,7 @@
         <v>2020253</v>
       </c>
       <c r="E37" s="8">
-        <v>1787673</v>
+        <v>1710271</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2832,7 +2904,7 @@
         <v>2079778</v>
       </c>
       <c r="E38" s="8">
-        <v>1893368</v>
+        <v>1821960</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -2850,7 +2922,7 @@
         <v>2141208</v>
       </c>
       <c r="E39" s="8">
-        <v>1921326</v>
+        <v>1868184</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2868,7 +2940,7 @@
         <v>2202408</v>
       </c>
       <c r="E40" s="8">
-        <v>2016366</v>
+        <v>1958814</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -2886,7 +2958,7 @@
         <v>2235788</v>
       </c>
       <c r="E41" s="8">
-        <v>2008132</v>
+        <v>1954270</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -2904,7 +2976,7 @@
         <v>2290632</v>
       </c>
       <c r="E42" s="8">
-        <v>2094092</v>
+        <v>2029684</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -2922,7 +2994,7 @@
         <v>1465033.7</v>
       </c>
       <c r="E43" s="8">
-        <v>1331929</v>
+        <v>1284895</v>
       </c>
       <c r="F43" s="8"/>
     </row>
@@ -2940,7 +3012,7 @@
         <v>1331534.94</v>
       </c>
       <c r="E44" s="8">
-        <v>1264753</v>
+        <v>1190932</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -2958,7 +3030,7 @@
         <v>2129456</v>
       </c>
       <c r="E45" s="8">
-        <v>2058917</v>
+        <v>1891309</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2976,7 +3048,7 @@
         <v>2248174</v>
       </c>
       <c r="E46" s="8">
-        <v>2103510</v>
+        <v>2020530</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2994,7 +3066,7 @@
         <v>2321303</v>
       </c>
       <c r="E47" s="8">
-        <v>2221047</v>
+        <v>2149827</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -3012,7 +3084,7 @@
         <v>2368097</v>
       </c>
       <c r="E48" s="8">
-        <v>2247760</v>
+        <v>2180930</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -3030,7 +3102,7 @@
         <v>2376839</v>
       </c>
       <c r="E49" s="8">
-        <v>2270208</v>
+        <v>2208506</v>
       </c>
       <c r="F49" s="8"/>
     </row>
@@ -3048,7 +3120,7 @@
         <v>2378145</v>
       </c>
       <c r="E50" s="8">
-        <v>2319187</v>
+        <v>2247447</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -3066,7 +3138,7 @@
         <v>2344259.7142857141</v>
       </c>
       <c r="E51" s="8">
-        <v>2294630</v>
+        <v>2219267</v>
       </c>
       <c r="F51" s="8"/>
     </row>
@@ -3084,7 +3156,7 @@
         <v>2442710</v>
       </c>
       <c r="E52" s="8">
-        <v>2391466</v>
+        <v>2319328</v>
       </c>
       <c r="F52" s="8"/>
     </row>
@@ -3102,7 +3174,7 @@
         <v>2391289</v>
       </c>
       <c r="E53" s="11">
-        <v>2361017</v>
+        <v>2274497</v>
       </c>
       <c r="F53" s="11"/>
     </row>
@@ -3120,27 +3192,27 @@
         <v>2386839</v>
       </c>
       <c r="E54" s="11">
-        <v>2348017</v>
+        <v>2264447</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="22">
         <v>187</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="22">
         <v>360911</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="23">
         <v>2414443</v>
       </c>
-      <c r="E55" s="21">
-        <v>2386339</v>
-      </c>
-      <c r="F55" s="21"/>
+      <c r="E55" s="22">
+        <v>2304591</v>
+      </c>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
@@ -3156,27 +3228,27 @@
         <v>2356203</v>
       </c>
       <c r="E56" s="8">
-        <v>2326435</v>
+        <v>2251915</v>
       </c>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="23">
         <v>180</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="23">
         <v>351313</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="23">
         <v>2329923</v>
       </c>
-      <c r="E57" s="22">
-        <v>2321963</v>
-      </c>
-      <c r="F57" s="21"/>
+      <c r="E57" s="23">
+        <v>2221205</v>
+      </c>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -3192,7 +3264,7 @@
         <v>2336559</v>
       </c>
       <c r="E58" s="8">
-        <v>2332259</v>
+        <v>2229117</v>
       </c>
       <c r="F58" s="8"/>
     </row>
@@ -3201,44 +3273,88 @@
         <v>64</v>
       </c>
       <c r="B59" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C59" s="11">
-        <v>351985</v>
-      </c>
-      <c r="D59" s="11">
-        <v>2305267</v>
-      </c>
-      <c r="E59" s="11">
-        <v>2358863</v>
-      </c>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="13">
+        <v>354235</v>
+      </c>
+      <c r="D59" s="24">
+        <v>2317717</v>
+      </c>
+      <c r="E59" s="24">
+        <v>2248479</v>
+      </c>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="14">
+        <v>183</v>
+      </c>
+      <c r="C60" s="14">
+        <v>358261</v>
+      </c>
+      <c r="D60" s="24">
+        <v>2399763</v>
+      </c>
+      <c r="E60" s="24">
+        <v>2315015</v>
+      </c>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="22">
+        <v>179</v>
+      </c>
+      <c r="C61" s="11">
+        <v>354771</v>
+      </c>
+      <c r="D61" s="11">
+        <v>2381693</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2309815</v>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="21">
         <v>176</v>
       </c>
-      <c r="C60" s="13">
-        <v>352811</v>
-      </c>
-      <c r="D60" s="13">
-        <v>2368413</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2370981</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="C62" s="25">
+        <v>352673</v>
+      </c>
+      <c r="D62" s="25">
+        <v>2367013</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2299915</v>
+      </c>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3248,288 +3364,292 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8">
-        <v>354011</v>
+        <v>350601</v>
       </c>
       <c r="D2" s="8">
-        <v>2376839</v>
+        <v>2344259.7142857141</v>
       </c>
       <c r="E2" s="8">
-        <v>2270208</v>
+        <v>2219267</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7">
         <v>183</v>
       </c>
       <c r="C3" s="8">
-        <v>354485</v>
+        <v>363862</v>
       </c>
       <c r="D3" s="8">
-        <v>2378145</v>
+        <v>2442710</v>
       </c>
       <c r="E3" s="8">
-        <v>2319187</v>
+        <v>2319328</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="8">
-        <v>350601</v>
+        <v>359585</v>
       </c>
       <c r="D4" s="8">
-        <v>2344259.7142857141</v>
+        <v>2391289</v>
       </c>
       <c r="E4" s="8">
-        <v>2294630</v>
+        <v>2274497</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8">
-        <v>363862</v>
+        <v>358485</v>
       </c>
       <c r="D5" s="8">
-        <v>2442710</v>
+        <v>2386839</v>
       </c>
       <c r="E5" s="8">
-        <v>2391466</v>
+        <v>2264447</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" s="8">
-        <v>359585</v>
+        <v>360911</v>
       </c>
       <c r="D6" s="8">
-        <v>2391289</v>
+        <v>2414443</v>
       </c>
       <c r="E6" s="8">
-        <v>2361017</v>
+        <v>2304591</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C7" s="8">
-        <v>358485</v>
+        <v>351649</v>
       </c>
       <c r="D7" s="8">
-        <v>2386839</v>
+        <v>2356203</v>
       </c>
       <c r="E7" s="8">
-        <v>2348017</v>
+        <v>2251915</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8">
-        <v>360911</v>
+        <v>351313</v>
       </c>
       <c r="D8" s="8">
-        <v>2414443</v>
+        <v>2329923</v>
       </c>
       <c r="E8" s="8">
-        <v>2386339</v>
+        <v>2221205</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7">
         <v>182</v>
       </c>
       <c r="C9" s="8">
-        <v>351649</v>
+        <v>353705</v>
       </c>
       <c r="D9" s="8">
-        <v>2356203</v>
+        <v>2336559</v>
       </c>
       <c r="E9" s="8">
-        <v>2326435</v>
+        <v>2229117</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C10" s="8">
-        <v>351313</v>
+        <v>354235</v>
       </c>
       <c r="D10" s="8">
-        <v>2329923</v>
+        <v>2317717</v>
       </c>
       <c r="E10" s="8">
-        <v>2321963</v>
+        <v>2248479</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="8">
-        <v>353705</v>
+        <v>358261</v>
       </c>
       <c r="D11" s="8">
-        <v>2336559</v>
+        <v>2399763</v>
       </c>
       <c r="E11" s="8">
-        <v>2332259</v>
+        <v>2315015</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="8">
-        <v>351985</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2305267</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2358863</v>
+        <v>354771</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2381693</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2309815</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6">
         <v>176</v>
       </c>
-      <c r="C13" s="13">
-        <v>352811</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2368413</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2370981</v>
+      <c r="C13" s="14">
+        <v>352673</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2367013</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2299915</v>
       </c>
       <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -3539,8 +3659,9 @@
       <c r="C2" s="8">
         <v>3423</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>35</v>
       </c>
@@ -3550,8 +3671,9 @@
       <c r="C3" s="8">
         <v>2259</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>28</v>
       </c>
@@ -3561,8 +3683,9 @@
       <c r="C4" s="8">
         <v>2243</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>30</v>
       </c>
@@ -3572,8 +3695,9 @@
       <c r="C5" s="8">
         <v>3790</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>29</v>
       </c>
@@ -3583,8 +3707,9 @@
       <c r="C6" s="8">
         <v>3224</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>29</v>
       </c>
@@ -3594,8 +3719,9 @@
       <c r="C7" s="8">
         <v>1552</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>29</v>
       </c>
@@ -3605,8 +3731,9 @@
       <c r="C8" s="8">
         <v>1578</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>26</v>
       </c>
@@ -3616,8 +3743,9 @@
       <c r="C9" s="8">
         <v>1454</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>27</v>
       </c>
@@ -3627,8 +3755,9 @@
       <c r="C10" s="8">
         <v>2478</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>27</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="C11" s="8">
         <v>1646</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>22</v>
       </c>
@@ -3649,8 +3779,9 @@
       <c r="C12" s="8">
         <v>553</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>31</v>
       </c>
@@ -3660,8 +3791,9 @@
       <c r="C13" s="8">
         <v>3056</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>21</v>
       </c>
@@ -3671,8 +3803,9 @@
       <c r="C14" s="8">
         <v>960</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>25</v>
       </c>
@@ -3682,8 +3815,9 @@
       <c r="C15" s="8">
         <v>3242</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>22</v>
       </c>
@@ -3693,8 +3827,9 @@
       <c r="C16" s="8">
         <v>1483</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -3704,8 +3839,9 @@
       <c r="C17" s="8">
         <v>1256</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>24</v>
       </c>
@@ -3715,8 +3851,9 @@
       <c r="C18" s="8">
         <v>1274</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>35</v>
       </c>
@@ -3726,8 +3863,9 @@
       <c r="C19" s="8">
         <v>10693</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44</v>
       </c>
@@ -3737,8 +3875,9 @@
       <c r="C20" s="8">
         <v>17143</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>48</v>
       </c>
@@ -3748,8 +3887,9 @@
       <c r="C21" s="8">
         <v>27828</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>49</v>
       </c>
@@ -3759,8 +3899,9 @@
       <c r="C22" s="8">
         <v>36812</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>47</v>
       </c>
@@ -3770,8 +3911,9 @@
       <c r="C23" s="8">
         <v>29964</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>51</v>
       </c>
@@ -3781,8 +3923,9 @@
       <c r="C24" s="8">
         <v>32397</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>42</v>
       </c>
@@ -3792,8 +3935,9 @@
       <c r="C25" s="8">
         <v>12617</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>46</v>
       </c>
@@ -3803,8 +3947,9 @@
       <c r="C26" s="8">
         <v>15983</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>42</v>
       </c>
@@ -3814,8 +3959,9 @@
       <c r="C27" s="8">
         <v>8245</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>46</v>
       </c>
@@ -3825,8 +3971,9 @@
       <c r="C28" s="8">
         <v>16829</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>52</v>
       </c>
@@ -3836,8 +3983,9 @@
       <c r="C29" s="8">
         <v>20799</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>57</v>
       </c>
@@ -3847,8 +3995,9 @@
       <c r="C30" s="8">
         <v>69524</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>69</v>
       </c>
@@ -3858,8 +4007,9 @@
       <c r="C31" s="8">
         <v>98931</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>66</v>
       </c>
@@ -3869,8 +4019,9 @@
       <c r="C32" s="8">
         <v>60113</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>59</v>
       </c>
@@ -3880,8 +4031,9 @@
       <c r="C33" s="8">
         <v>23780</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>50</v>
       </c>
@@ -3891,8 +4043,9 @@
       <c r="C34" s="8">
         <v>17207</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>54</v>
       </c>
@@ -3902,8 +4055,9 @@
       <c r="C35" s="8">
         <v>14191</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>51</v>
       </c>
@@ -3913,8 +4067,9 @@
       <c r="C36" s="8">
         <v>12267</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>51</v>
       </c>
@@ -3924,8 +4079,9 @@
       <c r="C37" s="8">
         <v>19159</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>57</v>
       </c>
@@ -3935,8 +4091,9 @@
       <c r="C38" s="8">
         <v>21364</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43</v>
       </c>
@@ -3946,8 +4103,9 @@
       <c r="C39" s="8">
         <v>11321</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3957,8 +4115,9 @@
       <c r="C40" s="8">
         <v>6507</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>47</v>
       </c>
@@ -3968,8 +4127,9 @@
       <c r="C41" s="8">
         <v>11691</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>46</v>
       </c>
@@ -3979,8 +4139,9 @@
       <c r="C42" s="8">
         <v>11336</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>48</v>
       </c>
@@ -3990,8 +4151,9 @@
       <c r="C43" s="8">
         <v>11980</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -4001,8 +4163,9 @@
       <c r="C44" s="8">
         <v>5572</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -4012,8 +4175,9 @@
       <c r="C45" s="8">
         <v>6202</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>46</v>
       </c>
@@ -4023,8 +4187,9 @@
       <c r="C46" s="8">
         <v>5850</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -4034,8 +4199,9 @@
       <c r="C47" s="8">
         <v>6820</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -4045,8 +4211,9 @@
       <c r="C48" s="11">
         <v>3767</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>37</v>
       </c>
@@ -4056,8 +4223,9 @@
       <c r="C49" s="11">
         <v>3525</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>38</v>
       </c>
@@ -4067,8 +4235,9 @@
       <c r="C50" s="11">
         <v>2893</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>43</v>
       </c>
@@ -4078,8 +4247,9 @@
       <c r="C51" s="10">
         <v>4766</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>39</v>
       </c>
@@ -4089,8 +4259,9 @@
       <c r="C52" s="11">
         <v>8033</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>31</v>
       </c>
@@ -4100,8 +4271,9 @@
       <c r="C53" s="11">
         <v>2527</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>44</v>
       </c>
@@ -4111,26 +4283,46 @@
       <c r="C54" s="11">
         <v>3631</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>40</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="10">
         <v>15</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
         <v>4205</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-    </row>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>37</v>
+      </c>
+      <c r="B56" s="10">
+        <v>16</v>
+      </c>
+      <c r="C56" s="11">
+        <v>3786</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>36</v>
+      </c>
+      <c r="B57" s="6">
+        <v>17</v>
+      </c>
+      <c r="C57" s="14">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237D2E0-ABFE-4456-9330-B4969BBF43E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A3DB8-4B3B-4B17-B3FA-E88F0E973CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="14025" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -228,10 +228,16 @@
     <t>17/2021</t>
   </si>
   <si>
+    <t>18/2021</t>
+  </si>
+  <si>
+    <t>19/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW7/2021</t>
+    <t>Bis einschließlich KW9/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -246,7 +252,10 @@
     <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
   </si>
   <si>
-    <t>18/2021</t>
+    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
+  </si>
+  <si>
+    <t>20/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -262,9 +271,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
-  </si>
-  <si>
-    <t>Reale wöchentlich Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -362,11 +368,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,13 +393,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{FF7C9AA8-EA69-40E3-A9CB-070669631353}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{3E15B335-3DF1-4446-9328-1C5A859CB833}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,21 +417,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62657391-4922-4CEE-8CD0-EDF9F578FDE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B94E9AF-27C2-4453-A8D0-9909BC7ACD68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +453,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="1143000"/>
+          <a:off x="4229100" y="762000"/>
           <a:ext cx="10058400" cy="4470400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -760,11 +762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28073797-B94F-4806-B155-ABE333043471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B544CF9-85D7-4C3B-AB55-3DCF25D6558C}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,12 +782,12 @@
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -796,22 +798,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -827,41 +829,38 @@
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>69184</v>
+        <v>69493</v>
       </c>
       <c r="C2" s="8">
         <v>1722</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>128008</v>
+        <v>129291</v>
       </c>
       <c r="C3" s="8">
-        <v>7470</v>
+        <v>7502</v>
       </c>
       <c r="D3" s="9">
-        <v>5.835572776701456</v>
+        <v>5.8024147079069692</v>
       </c>
       <c r="E3" s="7">
-        <v>118</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -877,9 +876,8 @@
       <c r="E4" s="7">
         <v>154</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -895,9 +893,8 @@
       <c r="E5" s="7">
         <v>159</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -913,9 +910,8 @@
       <c r="E6" s="7">
         <v>163</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -931,9 +927,8 @@
       <c r="E7" s="7">
         <v>175</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -949,9 +944,8 @@
       <c r="E8" s="7">
         <v>172</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -967,9 +961,8 @@
       <c r="E9" s="7">
         <v>180</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -985,9 +978,8 @@
       <c r="E10" s="7">
         <v>178</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1003,9 +995,8 @@
       <c r="E11" s="7">
         <v>181</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1021,9 +1012,8 @@
       <c r="E12" s="7">
         <v>183</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1039,9 +1029,8 @@
       <c r="E13" s="7">
         <v>181</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1057,9 +1046,8 @@
       <c r="E14" s="7">
         <v>175</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1075,9 +1063,8 @@
       <c r="E15" s="7">
         <v>178</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1093,9 +1080,8 @@
       <c r="E16" s="7">
         <v>175</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1111,9 +1097,8 @@
       <c r="E17" s="7">
         <v>175</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1129,9 +1114,8 @@
       <c r="E18" s="7">
         <v>182</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1147,9 +1131,8 @@
       <c r="E19" s="7">
         <v>154</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1165,9 +1148,8 @@
       <c r="E20" s="7">
         <v>182</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1183,9 +1165,8 @@
       <c r="E21" s="7">
         <v>182</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1201,9 +1182,8 @@
       <c r="E22" s="7">
         <v>187</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1219,9 +1199,8 @@
       <c r="E23" s="7">
         <v>175</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1237,9 +1216,8 @@
       <c r="E24" s="7">
         <v>174</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1255,9 +1233,8 @@
       <c r="E25" s="7">
         <v>189</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1273,9 +1250,8 @@
       <c r="E26" s="7">
         <v>197</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1291,9 +1267,8 @@
       <c r="E27" s="7">
         <v>196</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1309,9 +1284,8 @@
       <c r="E28" s="7">
         <v>195</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1327,9 +1301,8 @@
       <c r="E29" s="7">
         <v>197</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1345,9 +1318,8 @@
       <c r="E30" s="7">
         <v>206</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1363,9 +1335,8 @@
       <c r="E31" s="7">
         <v>200</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1381,9 +1352,8 @@
       <c r="E32" s="7">
         <v>198</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1399,9 +1369,8 @@
       <c r="E33" s="7">
         <v>198</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1417,9 +1386,8 @@
       <c r="E34" s="7">
         <v>205</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1435,9 +1403,8 @@
       <c r="E35" s="7">
         <v>209</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1453,9 +1420,8 @@
       <c r="E36" s="7">
         <v>210</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -1471,9 +1437,8 @@
       <c r="E37" s="7">
         <v>208</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1489,9 +1454,8 @@
       <c r="E38" s="7">
         <v>206</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -1507,9 +1471,8 @@
       <c r="E39" s="7">
         <v>204</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -1525,9 +1488,8 @@
       <c r="E40" s="7">
         <v>206</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1543,9 +1505,8 @@
       <c r="E41" s="7">
         <v>208</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1561,9 +1522,8 @@
       <c r="E42" s="7">
         <v>206</v>
       </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1579,9 +1539,8 @@
       <c r="E43" s="7">
         <v>212</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1597,9 +1556,8 @@
       <c r="E44" s="7">
         <v>208</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1615,9 +1573,8 @@
       <c r="E45" s="7">
         <v>205</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1633,9 +1590,8 @@
       <c r="E46" s="7">
         <v>206</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1651,9 +1607,8 @@
       <c r="E47" s="7">
         <v>206</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1669,9 +1624,8 @@
       <c r="E48" s="7">
         <v>208</v>
       </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1687,9 +1641,8 @@
       <c r="E49" s="7">
         <v>208</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1705,9 +1658,8 @@
       <c r="E50" s="7">
         <v>208</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1723,9 +1675,8 @@
       <c r="E51" s="7">
         <v>213</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
@@ -1741,9 +1692,8 @@
       <c r="E52" s="10">
         <v>207</v>
       </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -1759,9 +1709,8 @@
       <c r="E53" s="7">
         <v>210</v>
       </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -1777,9 +1726,8 @@
       <c r="E54" s="10">
         <v>211</v>
       </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>59</v>
       </c>
@@ -1795,9 +1743,8 @@
       <c r="E55" s="10">
         <v>215</v>
       </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>60</v>
       </c>
@@ -1813,9 +1760,8 @@
       <c r="E56" s="10">
         <v>209</v>
       </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
@@ -1831,9 +1777,8 @@
       <c r="E57" s="7">
         <v>206</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -1849,9 +1794,8 @@
       <c r="E58" s="7">
         <v>207</v>
       </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -1867,87 +1811,113 @@
       <c r="E59" s="7">
         <v>209</v>
       </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="11">
-        <v>1312521</v>
+        <v>1312602</v>
       </c>
       <c r="C60" s="11">
-        <v>163451</v>
+        <v>163464</v>
       </c>
       <c r="D60" s="12">
-        <v>12.453210272445164</v>
+        <v>12.453432190412631</v>
       </c>
       <c r="E60" s="10">
-        <v>209</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="11">
-        <v>1417117</v>
+        <v>1427509</v>
       </c>
       <c r="C61" s="11">
-        <v>176192</v>
+        <v>177250</v>
       </c>
       <c r="D61" s="13">
-        <v>12.433130080296827</v>
+        <v>12.416734325317739</v>
       </c>
       <c r="E61" s="8">
-        <v>208</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="11">
-        <v>1337504</v>
+        <v>1360792</v>
       </c>
       <c r="C62" s="11">
-        <v>149805</v>
+        <v>152086</v>
       </c>
       <c r="D62" s="12">
-        <v>11.200340335430772</v>
+        <v>11.176285574871105</v>
       </c>
       <c r="E62" s="10">
-        <v>200</v>
-      </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="14">
-        <v>56836969</v>
-      </c>
-      <c r="C63" s="14">
-        <v>3848332</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="B63" s="11">
+        <v>1242437</v>
+      </c>
+      <c r="C63" s="11">
+        <v>127733</v>
+      </c>
+      <c r="D63" s="12">
+        <v>10.28084321378066</v>
+      </c>
+      <c r="E63" s="10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="11">
+        <v>1082880</v>
+      </c>
+      <c r="C64" s="11">
+        <v>89408</v>
+      </c>
+      <c r="D64" s="12">
+        <v>8.2565011820330962</v>
+      </c>
+      <c r="E64" s="10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="14">
+        <v>59197639</v>
+      </c>
+      <c r="C65" s="14">
+        <v>4068857</v>
+      </c>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1956,1405 +1926,251 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="8">
-        <v>44034354</v>
+        <v>46361014</v>
       </c>
       <c r="C2" s="8">
-        <v>2620022</v>
+        <v>2763828</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>57</v>
+      <c r="A3" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="8">
-        <v>1171798</v>
+        <v>1280050</v>
       </c>
       <c r="C3" s="8">
-        <v>72059</v>
+        <v>85655</v>
       </c>
       <c r="D3" s="13">
-        <v>6.149438725787209</v>
-      </c>
-      <c r="E3" s="20">
+        <v>6.6915354868950434</v>
+      </c>
+      <c r="E3" s="19">
+        <v>215</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1367247</v>
+      </c>
+      <c r="C4" s="8">
+        <v>107827</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7.8864316396378999</v>
+      </c>
+      <c r="E4" s="19">
+        <v>209</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1415220</v>
+      </c>
+      <c r="C5" s="8">
+        <v>131857</v>
+      </c>
+      <c r="D5" s="13">
+        <v>9.317067311089442</v>
+      </c>
+      <c r="E5" s="19">
+        <v>206</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1178378</v>
+      </c>
+      <c r="C6" s="8">
+        <v>128814</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10.931466812856316</v>
+      </c>
+      <c r="E6" s="19">
+        <v>207</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1169510</v>
+      </c>
+      <c r="C7" s="8">
+        <v>140935</v>
+      </c>
+      <c r="D7" s="13">
+        <v>12.050773400825987</v>
+      </c>
+      <c r="E7" s="19">
+        <v>209</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1312602</v>
+      </c>
+      <c r="C8" s="8">
+        <v>163464</v>
+      </c>
+      <c r="D8" s="13">
+        <v>12.453432190412631</v>
+      </c>
+      <c r="E8" s="19">
         <v>210</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1153270</v>
-      </c>
-      <c r="C4" s="8">
-        <v>71715</v>
-      </c>
-      <c r="D4" s="13">
-        <v>6.218405056925091</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1427509</v>
+      </c>
+      <c r="C9" s="8">
+        <v>177250</v>
+      </c>
+      <c r="D9" s="13">
+        <v>12.416734325317739</v>
+      </c>
+      <c r="E9" s="19">
         <v>211</v>
       </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1280050</v>
-      </c>
-      <c r="C5" s="8">
-        <v>85655</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6.6915354868950434</v>
-      </c>
-      <c r="E5" s="20">
-        <v>215</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1367247</v>
-      </c>
-      <c r="C6" s="8">
-        <v>107827</v>
-      </c>
-      <c r="D6" s="13">
-        <v>7.8864316396378999</v>
-      </c>
-      <c r="E6" s="20">
-        <v>209</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1415220</v>
-      </c>
-      <c r="C7" s="8">
-        <v>131857</v>
-      </c>
-      <c r="D7" s="13">
-        <v>9.317067311089442</v>
-      </c>
-      <c r="E7" s="20">
-        <v>206</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1178378</v>
-      </c>
-      <c r="C8" s="8">
-        <v>128814</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10.931466812856316</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1360792</v>
+      </c>
+      <c r="C10" s="8">
+        <v>152086</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11.176285574871105</v>
+      </c>
+      <c r="E10" s="19">
+        <v>210</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1242437</v>
+      </c>
+      <c r="C11" s="8">
+        <v>127733</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10.28084321378066</v>
+      </c>
+      <c r="E11" s="19">
         <v>207</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1169510</v>
-      </c>
-      <c r="C9" s="8">
-        <v>140935</v>
-      </c>
-      <c r="D9" s="13">
-        <v>12.050773400825987</v>
-      </c>
-      <c r="E9" s="20">
-        <v>209</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1312521</v>
-      </c>
-      <c r="C10" s="8">
-        <v>163451</v>
-      </c>
-      <c r="D10" s="13">
-        <v>12.453210272445164</v>
-      </c>
-      <c r="E10" s="20">
-        <v>209</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1417117</v>
-      </c>
-      <c r="C11" s="8">
-        <v>176192</v>
-      </c>
-      <c r="D11" s="13">
-        <v>12.433130080296827</v>
-      </c>
-      <c r="E11" s="20">
-        <v>208</v>
-      </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>66</v>
+      <c r="A12" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B12" s="8">
-        <v>1337504</v>
+        <v>1082880</v>
       </c>
       <c r="C12" s="8">
-        <v>149805</v>
+        <v>89408</v>
       </c>
       <c r="D12" s="13">
-        <v>11.200340335430772</v>
-      </c>
-      <c r="E12" s="20">
-        <v>200</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>8.2565011820330962</v>
+      </c>
+      <c r="E12" s="19">
+        <v>204</v>
+      </c>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="14">
-        <v>56836969</v>
+        <v>59197639</v>
       </c>
       <c r="C13" s="14">
-        <v>3848332</v>
+        <v>4068857</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8">
-        <v>16920</v>
-      </c>
-      <c r="D2" s="8">
-        <v>80300</v>
-      </c>
-      <c r="E2" s="8">
-        <v>39000</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8">
-        <v>33620</v>
-      </c>
-      <c r="D3" s="8">
-        <v>164050</v>
-      </c>
-      <c r="E3" s="8">
-        <v>117750</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8">
-        <v>107</v>
-      </c>
-      <c r="C4" s="8">
-        <v>78360</v>
-      </c>
-      <c r="D4" s="8">
-        <v>149820</v>
-      </c>
-      <c r="E4" s="8">
-        <v>128000</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8">
-        <v>126</v>
-      </c>
-      <c r="C5" s="8">
-        <v>117030</v>
-      </c>
-      <c r="D5" s="8">
-        <v>165960</v>
-      </c>
-      <c r="E5" s="8">
-        <v>136660</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8">
-        <v>132</v>
-      </c>
-      <c r="C6" s="8">
-        <v>128580</v>
-      </c>
-      <c r="D6" s="8">
-        <v>375420</v>
-      </c>
-      <c r="E6" s="8">
-        <v>259650</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
-        <v>138</v>
-      </c>
-      <c r="C7" s="8">
-        <v>139604</v>
-      </c>
-      <c r="D7" s="8">
-        <v>831046</v>
-      </c>
-      <c r="E7" s="8">
-        <v>589620</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8">
-        <v>135</v>
-      </c>
-      <c r="C8" s="8">
-        <v>140616</v>
-      </c>
-      <c r="D8" s="8">
-        <v>901595</v>
-      </c>
-      <c r="E8" s="8">
-        <v>667170</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <v>138</v>
-      </c>
-      <c r="C9" s="8">
-        <v>144980</v>
-      </c>
-      <c r="D9" s="8">
-        <v>955891</v>
-      </c>
-      <c r="E9" s="8">
-        <v>701268</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <v>135</v>
-      </c>
-      <c r="C10" s="8">
-        <v>151063</v>
-      </c>
-      <c r="D10" s="8">
-        <v>981515.00199999998</v>
-      </c>
-      <c r="E10" s="8">
-        <v>777476</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8">
-        <v>139</v>
-      </c>
-      <c r="C11" s="8">
-        <v>156630</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1030122.5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>825063</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8">
-        <v>139</v>
-      </c>
-      <c r="C12" s="8">
-        <v>159588</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1057365.5</v>
-      </c>
-      <c r="E12" s="8">
-        <v>837380</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8">
-        <v>146</v>
-      </c>
-      <c r="C13" s="8">
-        <v>159974</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1033129</v>
-      </c>
-      <c r="E13" s="8">
-        <v>821554</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8">
-        <v>146</v>
-      </c>
-      <c r="C14" s="8">
-        <v>167525</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1115162.5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>904760</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8">
-        <v>144</v>
-      </c>
-      <c r="C15" s="8">
-        <v>169653</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1096075</v>
-      </c>
-      <c r="E15" s="8">
-        <v>907022</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8">
-        <v>141</v>
-      </c>
-      <c r="C16" s="8">
-        <v>169858</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1123147.5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>951456</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8">
-        <v>143</v>
-      </c>
-      <c r="C17" s="8">
-        <v>172624</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1131748</v>
-      </c>
-      <c r="E17" s="8">
-        <v>950136</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8">
-        <v>147</v>
-      </c>
-      <c r="C18" s="8">
-        <v>170313</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1120015</v>
-      </c>
-      <c r="E18" s="8">
-        <v>961246</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8">
-        <v>152</v>
-      </c>
-      <c r="C19" s="8">
-        <v>179914</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1196640.0000100001</v>
-      </c>
-      <c r="E19" s="8">
-        <v>989576</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8">
-        <v>155</v>
-      </c>
-      <c r="C20" s="8">
-        <v>181011</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1202855</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1011165</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8">
-        <v>155</v>
-      </c>
-      <c r="C21" s="8">
-        <v>183567</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1218086</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1009137</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8">
-        <v>159</v>
-      </c>
-      <c r="C22" s="8">
-        <v>183310</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1214556</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1029124</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <v>158</v>
-      </c>
-      <c r="C23" s="8">
-        <v>182697</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1200692</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1009346</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="8">
-        <v>155</v>
-      </c>
-      <c r="C24" s="8">
-        <v>189338</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1252357</v>
-      </c>
-      <c r="E24" s="8">
-        <v>976187</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="8">
-        <v>164</v>
-      </c>
-      <c r="C25" s="8">
-        <v>198518</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1308423</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1035958</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="8">
-        <v>171</v>
-      </c>
-      <c r="C26" s="8">
-        <v>208419</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1362883</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1126195</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8">
-        <v>171</v>
-      </c>
-      <c r="C27" s="8">
-        <v>211002</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1376233</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1089353</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="8">
-        <v>171</v>
-      </c>
-      <c r="C28" s="8">
-        <v>223899</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1458751</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1130813</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="8">
-        <v>172</v>
-      </c>
-      <c r="C29" s="8">
-        <v>230691</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1512155</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1206181</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="8">
-        <v>174</v>
-      </c>
-      <c r="C30" s="8">
-        <v>235674</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1540049</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1292743</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="8">
-        <v>169</v>
-      </c>
-      <c r="C31" s="8">
-        <v>238740</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1564437</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1378063</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>173</v>
-      </c>
-      <c r="C32" s="8">
-        <v>258089</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1705581</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1527677</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="8">
-        <v>173</v>
-      </c>
-      <c r="C33" s="8">
-        <v>255622</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1700116</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1505312</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8">
-        <v>188</v>
-      </c>
-      <c r="C34" s="8">
-        <v>268521</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1790564</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1578454</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="8">
-        <v>183</v>
-      </c>
-      <c r="C35" s="8">
-        <v>285630</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1910486</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1648626</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8">
-        <v>185</v>
-      </c>
-      <c r="C36" s="8">
-        <v>297894</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1937312</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1622662</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8">
-        <v>182</v>
-      </c>
-      <c r="C37" s="8">
-        <v>305683</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2020253</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1710271</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="8">
-        <v>181</v>
-      </c>
-      <c r="C38" s="8">
-        <v>313386</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2079778</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1821960</v>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="8">
-        <v>177</v>
-      </c>
-      <c r="C39" s="8">
-        <v>320686</v>
-      </c>
-      <c r="D39" s="8">
-        <v>2141208</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1868184</v>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="8">
-        <v>181</v>
-      </c>
-      <c r="C40" s="8">
-        <v>329486</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2202408</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1958814</v>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="8">
-        <v>180</v>
-      </c>
-      <c r="C41" s="8">
-        <v>333476</v>
-      </c>
-      <c r="D41" s="8">
-        <v>2235788</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1954270</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="8">
-        <v>180</v>
-      </c>
-      <c r="C42" s="8">
-        <v>342616</v>
-      </c>
-      <c r="D42" s="8">
-        <v>2290632</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2029684</v>
-      </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="8">
-        <v>187</v>
-      </c>
-      <c r="C43" s="8">
-        <v>338390</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1465033.7</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1284895</v>
-      </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="8">
-        <v>185</v>
-      </c>
-      <c r="C44" s="8">
-        <v>331055</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1331534.94</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1190932</v>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="8">
-        <v>183</v>
-      </c>
-      <c r="C45" s="8">
-        <v>335608</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2129456</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1891309</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="8">
-        <v>183</v>
-      </c>
-      <c r="C46" s="8">
-        <v>338746</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2248174</v>
-      </c>
-      <c r="E46" s="8">
-        <v>2020530</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="8">
-        <v>182</v>
-      </c>
-      <c r="C47" s="8">
-        <v>347237</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2321303</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2149827</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="8">
-        <v>183</v>
-      </c>
-      <c r="C48" s="8">
-        <v>354177</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2368097</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2180930</v>
-      </c>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="8">
-        <v>182</v>
-      </c>
-      <c r="C49" s="8">
-        <v>354011</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2376839</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2208506</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="8">
-        <v>183</v>
-      </c>
-      <c r="C50" s="8">
-        <v>354485</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2378145</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2247447</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="8">
-        <v>187</v>
-      </c>
-      <c r="C51" s="8">
-        <v>350601</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2344259.7142857141</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2219267</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="8">
-        <v>183</v>
-      </c>
-      <c r="C52" s="8">
-        <v>363862</v>
-      </c>
-      <c r="D52" s="8">
-        <v>2442710</v>
-      </c>
-      <c r="E52" s="8">
-        <v>2319328</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="11">
-        <v>185</v>
-      </c>
-      <c r="C53" s="11">
-        <v>359585</v>
-      </c>
-      <c r="D53" s="11">
-        <v>2391289</v>
-      </c>
-      <c r="E53" s="11">
-        <v>2274497</v>
-      </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="10">
-        <v>187</v>
-      </c>
-      <c r="C54" s="11">
-        <v>358485</v>
-      </c>
-      <c r="D54" s="11">
-        <v>2386839</v>
-      </c>
-      <c r="E54" s="11">
-        <v>2264447</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="22">
-        <v>187</v>
-      </c>
-      <c r="C55" s="22">
-        <v>360911</v>
-      </c>
-      <c r="D55" s="23">
-        <v>2414443</v>
-      </c>
-      <c r="E55" s="22">
-        <v>2304591</v>
-      </c>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="8">
-        <v>182</v>
-      </c>
-      <c r="C56" s="8">
-        <v>351649</v>
-      </c>
-      <c r="D56" s="8">
-        <v>2356203</v>
-      </c>
-      <c r="E56" s="8">
-        <v>2251915</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="23">
-        <v>180</v>
-      </c>
-      <c r="C57" s="23">
-        <v>351313</v>
-      </c>
-      <c r="D57" s="23">
-        <v>2329923</v>
-      </c>
-      <c r="E57" s="23">
-        <v>2221205</v>
-      </c>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="8">
-        <v>182</v>
-      </c>
-      <c r="C58" s="8">
-        <v>353705</v>
-      </c>
-      <c r="D58" s="8">
-        <v>2336559</v>
-      </c>
-      <c r="E58" s="8">
-        <v>2229117</v>
-      </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="11">
-        <v>183</v>
-      </c>
-      <c r="C59" s="11">
-        <v>354235</v>
-      </c>
-      <c r="D59" s="24">
-        <v>2317717</v>
-      </c>
-      <c r="E59" s="24">
-        <v>2248479</v>
-      </c>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="14">
-        <v>183</v>
-      </c>
-      <c r="C60" s="14">
-        <v>358261</v>
-      </c>
-      <c r="D60" s="24">
-        <v>2399763</v>
-      </c>
-      <c r="E60" s="24">
-        <v>2315015</v>
-      </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="22">
-        <v>179</v>
-      </c>
-      <c r="C61" s="11">
-        <v>354771</v>
-      </c>
-      <c r="D61" s="11">
-        <v>2381693</v>
-      </c>
-      <c r="E61" s="11">
-        <v>2309815</v>
-      </c>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="21">
-        <v>176</v>
-      </c>
-      <c r="C62" s="25">
-        <v>352673</v>
-      </c>
-      <c r="D62" s="25">
-        <v>2367013</v>
-      </c>
-      <c r="E62" s="25">
-        <v>2299915</v>
-      </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3362,260 +2178,1360 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8">
+        <v>19420</v>
+      </c>
+      <c r="D2" s="8">
+        <v>97800</v>
+      </c>
+      <c r="E2" s="8">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>36120</v>
+      </c>
+      <c r="D3" s="8">
+        <v>181550</v>
+      </c>
+      <c r="E3" s="8">
+        <v>135250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8">
+        <v>80860</v>
+      </c>
+      <c r="D4" s="8">
+        <v>167320</v>
+      </c>
+      <c r="E4" s="8">
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>126</v>
+      </c>
+      <c r="C5" s="8">
+        <v>117030</v>
+      </c>
+      <c r="D5" s="8">
+        <v>186960</v>
+      </c>
+      <c r="E5" s="8">
+        <v>157660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>132</v>
+      </c>
+      <c r="C6" s="8">
+        <v>128580</v>
+      </c>
+      <c r="D6" s="8">
+        <v>403420</v>
+      </c>
+      <c r="E6" s="8">
+        <v>287650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>138</v>
+      </c>
+      <c r="C7" s="8">
+        <v>139604</v>
+      </c>
+      <c r="D7" s="8">
+        <v>831046</v>
+      </c>
+      <c r="E7" s="8">
+        <v>589620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>135</v>
+      </c>
+      <c r="C8" s="8">
+        <v>140616</v>
+      </c>
+      <c r="D8" s="8">
+        <v>901595</v>
+      </c>
+      <c r="E8" s="8">
+        <v>667170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>138</v>
+      </c>
+      <c r="C9" s="8">
+        <v>144980</v>
+      </c>
+      <c r="D9" s="8">
+        <v>955891</v>
+      </c>
+      <c r="E9" s="8">
+        <v>701268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>135</v>
+      </c>
+      <c r="C10" s="8">
+        <v>151063</v>
+      </c>
+      <c r="D10" s="8">
+        <v>981515.00199999998</v>
+      </c>
+      <c r="E10" s="8">
+        <v>777476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <v>139</v>
+      </c>
+      <c r="C11" s="8">
+        <v>156630</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1030122.5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>825063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>139</v>
+      </c>
+      <c r="C12" s="8">
+        <v>159588</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1057365.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>837380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>146</v>
+      </c>
+      <c r="C13" s="8">
+        <v>159974</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1033129</v>
+      </c>
+      <c r="E13" s="8">
+        <v>821554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>146</v>
+      </c>
+      <c r="C14" s="8">
+        <v>167525</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1115162.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>904760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>144</v>
+      </c>
+      <c r="C15" s="8">
+        <v>169653</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1096075</v>
+      </c>
+      <c r="E15" s="8">
+        <v>907022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8">
+        <v>169858</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1123147.5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>951456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <v>143</v>
+      </c>
+      <c r="C17" s="8">
+        <v>172624</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1131748</v>
+      </c>
+      <c r="E17" s="8">
+        <v>950136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
+        <v>147</v>
+      </c>
+      <c r="C18" s="8">
+        <v>170313</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1120015</v>
+      </c>
+      <c r="E18" s="8">
+        <v>961246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <v>152</v>
+      </c>
+      <c r="C19" s="8">
+        <v>179914</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1196640.0000100001</v>
+      </c>
+      <c r="E19" s="8">
+        <v>989576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>155</v>
+      </c>
+      <c r="C20" s="8">
+        <v>181011</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1202855</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1011165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8">
+        <v>155</v>
+      </c>
+      <c r="C21" s="8">
+        <v>183567</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1218086</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1009137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8">
+        <v>159</v>
+      </c>
+      <c r="C22" s="8">
+        <v>183310</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1214556</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1029124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <v>158</v>
+      </c>
+      <c r="C23" s="8">
+        <v>182697</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1200692</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1009346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8">
+        <v>155</v>
+      </c>
+      <c r="C24" s="8">
+        <v>189338</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1252357</v>
+      </c>
+      <c r="E24" s="8">
+        <v>976187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8">
+        <v>164</v>
+      </c>
+      <c r="C25" s="8">
+        <v>198518</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1308423</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1035958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8">
+        <v>171</v>
+      </c>
+      <c r="C26" s="8">
+        <v>208419</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1362883</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1126195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="8">
+        <v>171</v>
+      </c>
+      <c r="C27" s="8">
+        <v>211002</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1376233</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1089353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="8">
+        <v>171</v>
+      </c>
+      <c r="C28" s="8">
+        <v>223899</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1458751</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1130813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8">
+        <v>172</v>
+      </c>
+      <c r="C29" s="8">
+        <v>230691</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1512155</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1206181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="8">
+        <v>174</v>
+      </c>
+      <c r="C30" s="8">
+        <v>235674</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1540049</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1292743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="8">
+        <v>169</v>
+      </c>
+      <c r="C31" s="8">
+        <v>238740</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1564437</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1378063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="8">
+        <v>173</v>
+      </c>
+      <c r="C32" s="8">
+        <v>258089</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1705581</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1527677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="8">
+        <v>173</v>
+      </c>
+      <c r="C33" s="8">
+        <v>255622</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1700116</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1505312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="8">
+        <v>188</v>
+      </c>
+      <c r="C34" s="8">
+        <v>268521</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1790564</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1578454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="8">
+        <v>183</v>
+      </c>
+      <c r="C35" s="8">
+        <v>285630</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1910486</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1648626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8">
+        <v>185</v>
+      </c>
+      <c r="C36" s="8">
+        <v>297894</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1937312</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1622662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="8">
+        <v>182</v>
+      </c>
+      <c r="C37" s="8">
+        <v>305683</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2020253</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1710271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8">
+        <v>181</v>
+      </c>
+      <c r="C38" s="8">
+        <v>313386</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2079778</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1821960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8">
+        <v>177</v>
+      </c>
+      <c r="C39" s="8">
+        <v>320686</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2141208</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1868184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8">
+        <v>181</v>
+      </c>
+      <c r="C40" s="8">
+        <v>329486</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2202408</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1958814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="8">
+        <v>180</v>
+      </c>
+      <c r="C41" s="8">
+        <v>333476</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2235788</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1954270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="8">
+        <v>180</v>
+      </c>
+      <c r="C42" s="8">
+        <v>342616</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2290632</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2029684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8">
+        <v>187</v>
+      </c>
+      <c r="C43" s="8">
+        <v>338390</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1465033.7</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1284895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="8">
+        <v>185</v>
+      </c>
+      <c r="C44" s="8">
+        <v>331055</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1331534.94</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1190932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="8">
+        <v>183</v>
+      </c>
+      <c r="C45" s="8">
+        <v>335608</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2129456</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1891309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="8">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8">
+        <v>338746</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2248174</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2020530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="8">
+        <v>182</v>
+      </c>
+      <c r="C47" s="8">
+        <v>347237</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2321303</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2149827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="8">
+        <v>183</v>
+      </c>
+      <c r="C48" s="8">
+        <v>354177</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2368097</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2180930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8">
+        <v>182</v>
+      </c>
+      <c r="C49" s="8">
+        <v>354011</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2376839</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2208506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="8">
+        <v>183</v>
+      </c>
+      <c r="C50" s="8">
+        <v>354485</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2378145</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2247447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="8">
+        <v>187</v>
+      </c>
+      <c r="C51" s="8">
+        <v>350601</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2219267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="8">
+        <v>183</v>
+      </c>
+      <c r="C52" s="8">
+        <v>363862</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2442710</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2319328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="11">
+        <v>185</v>
+      </c>
+      <c r="C53" s="11">
+        <v>359585</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2391289</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2274497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="10">
+        <v>187</v>
+      </c>
+      <c r="C54" s="11">
+        <v>358485</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2386839</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2264447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="21">
+        <v>187</v>
+      </c>
+      <c r="C55" s="22">
+        <v>360911</v>
+      </c>
+      <c r="D55" s="22">
+        <v>2414443</v>
+      </c>
+      <c r="E55" s="22">
+        <v>2304591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="8">
+        <v>182</v>
+      </c>
+      <c r="C56" s="8">
+        <v>351649</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2356203</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2251915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="22">
+        <v>180</v>
+      </c>
+      <c r="C57" s="22">
+        <v>351313</v>
+      </c>
+      <c r="D57" s="22">
+        <v>2329923</v>
+      </c>
+      <c r="E57" s="22">
+        <v>2221205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="8">
+        <v>182</v>
+      </c>
+      <c r="C58" s="8">
+        <v>353705</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2336559</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2229117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="11">
+        <v>183</v>
+      </c>
+      <c r="C59" s="11">
+        <v>354235</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2317717</v>
+      </c>
+      <c r="E59" s="23">
+        <v>2248479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="11">
+        <v>184</v>
+      </c>
+      <c r="C60" s="11">
+        <v>358761</v>
+      </c>
+      <c r="D60" s="23">
+        <v>2402263</v>
+      </c>
+      <c r="E60" s="23">
+        <v>2317515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="21">
+        <v>182</v>
+      </c>
+      <c r="C61" s="11">
+        <v>357271</v>
+      </c>
+      <c r="D61" s="11">
+        <v>2396693</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2315815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="21">
+        <v>184</v>
+      </c>
+      <c r="C62" s="22">
+        <v>359723</v>
+      </c>
+      <c r="D62" s="22">
+        <v>2403713</v>
+      </c>
+      <c r="E62" s="22">
+        <v>2317415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="11">
+        <v>183</v>
+      </c>
+      <c r="C63" s="11">
+        <v>363374</v>
+      </c>
+      <c r="D63" s="11">
+        <v>2431869.5</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2358035</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="14">
+        <v>179</v>
+      </c>
+      <c r="C64" s="14">
+        <v>359727</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2381577</v>
+      </c>
+      <c r="E64" s="14">
+        <v>2322638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7">
+        <v>185</v>
+      </c>
+      <c r="C2" s="8">
+        <v>359585</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2391289</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2274497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7">
         <v>187</v>
       </c>
-      <c r="C2" s="8">
-        <v>350601</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2344259.7142857141</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2219267</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7">
-        <v>183</v>
-      </c>
       <c r="C3" s="8">
-        <v>363862</v>
+        <v>358485</v>
       </c>
       <c r="D3" s="8">
-        <v>2442710</v>
+        <v>2386839</v>
       </c>
       <c r="E3" s="8">
-        <v>2319328</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2264447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="7">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" s="8">
-        <v>359585</v>
+        <v>360911</v>
       </c>
       <c r="D4" s="8">
-        <v>2391289</v>
+        <v>2414443</v>
       </c>
       <c r="E4" s="8">
-        <v>2274497</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2304591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="8">
-        <v>358485</v>
+        <v>351649</v>
       </c>
       <c r="D5" s="8">
-        <v>2386839</v>
+        <v>2356203</v>
       </c>
       <c r="E5" s="8">
-        <v>2264447</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2251915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8">
-        <v>360911</v>
+        <v>351313</v>
       </c>
       <c r="D6" s="8">
-        <v>2414443</v>
+        <v>2329923</v>
       </c>
       <c r="E6" s="8">
-        <v>2304591</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2221205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="7">
         <v>182</v>
       </c>
       <c r="C7" s="8">
-        <v>351649</v>
+        <v>353705</v>
       </c>
       <c r="D7" s="8">
-        <v>2356203</v>
+        <v>2336559</v>
       </c>
       <c r="E7" s="8">
-        <v>2251915</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2229117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="7">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" s="8">
-        <v>351313</v>
+        <v>354235</v>
       </c>
       <c r="D8" s="8">
-        <v>2329923</v>
+        <v>2317717</v>
       </c>
       <c r="E8" s="8">
-        <v>2221205</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2248479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7">
+        <v>184</v>
+      </c>
+      <c r="C9" s="8">
+        <v>358761</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2402263</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2317515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7">
         <v>182</v>
       </c>
-      <c r="C9" s="8">
-        <v>353705</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2336559</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2229117</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="C10" s="8">
+        <v>357271</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2396693</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2315815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="7">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8">
+        <v>359723</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2403713</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2317415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7">
         <v>183</v>
       </c>
-      <c r="C10" s="8">
-        <v>354235</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2317717</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2248479</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7">
-        <v>183</v>
-      </c>
-      <c r="C11" s="8">
-        <v>358261</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2399763</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2315015</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="C12" s="8">
+        <v>363374</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2431869.5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2358035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="6">
         <v>179</v>
       </c>
-      <c r="C12" s="8">
-        <v>354771</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2381693</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2309815</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6">
-        <v>176</v>
-      </c>
       <c r="C13" s="14">
-        <v>352673</v>
+        <v>359727</v>
       </c>
       <c r="D13" s="14">
-        <v>2367013</v>
+        <v>2381577</v>
       </c>
       <c r="E13" s="14">
-        <v>2299915</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+        <v>2322638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,32 +3540,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -3659,9 +3574,8 @@
       <c r="C2" s="8">
         <v>3423</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>35</v>
       </c>
@@ -3671,9 +3585,8 @@
       <c r="C3" s="8">
         <v>2259</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>28</v>
       </c>
@@ -3683,9 +3596,8 @@
       <c r="C4" s="8">
         <v>2243</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>30</v>
       </c>
@@ -3695,9 +3607,8 @@
       <c r="C5" s="8">
         <v>3790</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>29</v>
       </c>
@@ -3707,9 +3618,8 @@
       <c r="C6" s="8">
         <v>3224</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>29</v>
       </c>
@@ -3719,9 +3629,8 @@
       <c r="C7" s="8">
         <v>1552</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>29</v>
       </c>
@@ -3731,9 +3640,8 @@
       <c r="C8" s="8">
         <v>1578</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>26</v>
       </c>
@@ -3743,9 +3651,8 @@
       <c r="C9" s="8">
         <v>1454</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>27</v>
       </c>
@@ -3755,9 +3662,8 @@
       <c r="C10" s="8">
         <v>2478</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>27</v>
       </c>
@@ -3767,9 +3673,8 @@
       <c r="C11" s="8">
         <v>1646</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>22</v>
       </c>
@@ -3779,9 +3684,8 @@
       <c r="C12" s="8">
         <v>553</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>31</v>
       </c>
@@ -3791,9 +3695,8 @@
       <c r="C13" s="8">
         <v>3056</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>21</v>
       </c>
@@ -3803,9 +3706,8 @@
       <c r="C14" s="8">
         <v>960</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>25</v>
       </c>
@@ -3815,9 +3717,8 @@
       <c r="C15" s="8">
         <v>3242</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>22</v>
       </c>
@@ -3827,9 +3728,8 @@
       <c r="C16" s="8">
         <v>1483</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -3839,9 +3739,8 @@
       <c r="C17" s="8">
         <v>1256</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>24</v>
       </c>
@@ -3851,9 +3750,8 @@
       <c r="C18" s="8">
         <v>1274</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>35</v>
       </c>
@@ -3863,9 +3761,8 @@
       <c r="C19" s="8">
         <v>10693</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44</v>
       </c>
@@ -3875,9 +3772,8 @@
       <c r="C20" s="8">
         <v>17143</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>48</v>
       </c>
@@ -3887,9 +3783,8 @@
       <c r="C21" s="8">
         <v>27828</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>49</v>
       </c>
@@ -3899,9 +3794,8 @@
       <c r="C22" s="8">
         <v>36812</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>47</v>
       </c>
@@ -3911,9 +3805,8 @@
       <c r="C23" s="8">
         <v>29964</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>51</v>
       </c>
@@ -3923,9 +3816,8 @@
       <c r="C24" s="8">
         <v>32397</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>42</v>
       </c>
@@ -3935,9 +3827,8 @@
       <c r="C25" s="8">
         <v>12617</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>46</v>
       </c>
@@ -3947,9 +3838,8 @@
       <c r="C26" s="8">
         <v>15983</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>42</v>
       </c>
@@ -3959,9 +3849,8 @@
       <c r="C27" s="8">
         <v>8245</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>46</v>
       </c>
@@ -3971,9 +3860,8 @@
       <c r="C28" s="8">
         <v>16829</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>52</v>
       </c>
@@ -3983,9 +3871,8 @@
       <c r="C29" s="8">
         <v>20799</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>57</v>
       </c>
@@ -3995,9 +3882,8 @@
       <c r="C30" s="8">
         <v>69524</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>69</v>
       </c>
@@ -4007,9 +3893,8 @@
       <c r="C31" s="8">
         <v>98931</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>66</v>
       </c>
@@ -4019,9 +3904,8 @@
       <c r="C32" s="8">
         <v>60113</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>59</v>
       </c>
@@ -4031,9 +3915,8 @@
       <c r="C33" s="8">
         <v>23780</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>50</v>
       </c>
@@ -4043,9 +3926,8 @@
       <c r="C34" s="8">
         <v>17207</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>54</v>
       </c>
@@ -4055,9 +3937,8 @@
       <c r="C35" s="8">
         <v>14191</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>51</v>
       </c>
@@ -4067,9 +3948,8 @@
       <c r="C36" s="8">
         <v>12267</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>51</v>
       </c>
@@ -4079,9 +3959,8 @@
       <c r="C37" s="8">
         <v>19159</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>57</v>
       </c>
@@ -4091,9 +3970,8 @@
       <c r="C38" s="8">
         <v>21364</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43</v>
       </c>
@@ -4103,9 +3981,8 @@
       <c r="C39" s="8">
         <v>11321</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -4115,9 +3992,8 @@
       <c r="C40" s="8">
         <v>6507</v>
       </c>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>47</v>
       </c>
@@ -4127,9 +4003,8 @@
       <c r="C41" s="8">
         <v>11691</v>
       </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>46</v>
       </c>
@@ -4139,9 +4014,8 @@
       <c r="C42" s="8">
         <v>11336</v>
       </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>48</v>
       </c>
@@ -4151,9 +4025,8 @@
       <c r="C43" s="8">
         <v>11980</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -4163,9 +4036,8 @@
       <c r="C44" s="8">
         <v>5572</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -4175,9 +4047,8 @@
       <c r="C45" s="8">
         <v>6202</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>46</v>
       </c>
@@ -4187,9 +4058,8 @@
       <c r="C46" s="8">
         <v>5850</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -4199,9 +4069,8 @@
       <c r="C47" s="8">
         <v>6820</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -4211,9 +4080,8 @@
       <c r="C48" s="11">
         <v>3767</v>
       </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>37</v>
       </c>
@@ -4223,9 +4091,8 @@
       <c r="C49" s="11">
         <v>3525</v>
       </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>38</v>
       </c>
@@ -4235,9 +4102,8 @@
       <c r="C50" s="11">
         <v>2893</v>
       </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>43</v>
       </c>
@@ -4247,9 +4113,8 @@
       <c r="C51" s="10">
         <v>4766</v>
       </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>39</v>
       </c>
@@ -4259,9 +4124,8 @@
       <c r="C52" s="11">
         <v>8033</v>
       </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>31</v>
       </c>
@@ -4271,9 +4135,8 @@
       <c r="C53" s="11">
         <v>2527</v>
       </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>44</v>
       </c>
@@ -4283,9 +4146,8 @@
       <c r="C54" s="11">
         <v>3631</v>
       </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>40</v>
       </c>
@@ -4295,9 +4157,8 @@
       <c r="C55" s="11">
         <v>4205</v>
       </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>37</v>
       </c>
@@ -4307,20 +4168,40 @@
       <c r="C56" s="11">
         <v>3786</v>
       </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>36</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="10">
         <v>17</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="11">
         <v>2280</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>40</v>
+      </c>
+      <c r="B58" s="10">
+        <v>18</v>
+      </c>
+      <c r="C58" s="11">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>36</v>
+      </c>
+      <c r="B59" s="6">
+        <v>19</v>
+      </c>
+      <c r="C59" s="14">
+        <v>3436</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A3DB8-4B3B-4B17-B3FA-E88F0E973CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73147B49-3681-4A85-8A34-2315163AEE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="11805" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -234,10 +234,16 @@
     <t>19/2021</t>
   </si>
   <si>
+    <t>20/2021</t>
+  </si>
+  <si>
+    <t>21/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW9/2021</t>
+    <t>Bis einschließlich KW11/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -255,7 +261,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>20/2021</t>
+    <t>22/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -328,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,22 +350,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -393,10 +399,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{3E15B335-3DF1-4446-9328-1C5A859CB833}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{0B934B0A-9746-477A-86C8-E2652C37DFD0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,21 +424,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
+        <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B94E9AF-27C2-4453-A8D0-9909BC7ACD68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F37B96-820E-41ED-8BC8-7A159E45E4EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="762000"/>
+          <a:off x="4343400" y="1333500"/>
           <a:ext cx="10058400" cy="4470400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -762,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B544CF9-85D7-4C3B-AB55-3DCF25D6558C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F408F6-2026-4564-B29F-E69AEF7BC7DA}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,12 +789,12 @@
     </row>
     <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -798,22 +805,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -829,923 +836,978 @@
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>69493</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1722</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>129291</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>7502</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5.8024147079069692</v>
       </c>
       <c r="E3" s="7">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>374534</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>25886</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.9115220514025424</v>
       </c>
       <c r="E4" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>377599</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>33139</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>8.7762414625038723</v>
       </c>
       <c r="E5" s="7">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>417646</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>37649</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>9.0145721496195339</v>
       </c>
       <c r="E6" s="7">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>386241</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>30829</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>7.9818041067623575</v>
       </c>
       <c r="E7" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>339983</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>22724</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>6.6838636049449534</v>
       </c>
       <c r="E8" s="7">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>363659</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>18127</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>4.984614707734444</v>
       </c>
       <c r="E9" s="7">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>327799</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>12600</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3.8438189256221036</v>
       </c>
       <c r="E10" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>385638</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>10181</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.6400406598934754</v>
       </c>
       <c r="E11" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>431682</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>7142</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>1.6544586061035669</v>
       </c>
       <c r="E12" s="7">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>356489</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5315</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1.4909295939005129</v>
       </c>
       <c r="E13" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>408078</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>4335</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1.0622969138252982</v>
       </c>
       <c r="E14" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>342328</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>3219</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.94032623682550076</v>
       </c>
       <c r="E15" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>327980</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2956</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.90127446795536315</v>
       </c>
       <c r="E16" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>384834</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>5588</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>1.452054652135726</v>
       </c>
       <c r="E17" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>472823</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>3919</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.82885138836308725</v>
       </c>
       <c r="E18" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>512969</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>3204</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.62459914731689448</v>
       </c>
       <c r="E19" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>513572</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>3042</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.59232201132460494</v>
       </c>
       <c r="E20" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>544219</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>3608</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.66296840058873363</v>
       </c>
       <c r="E21" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>556634</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>4537</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0.81507777103087486</v>
       </c>
       <c r="E22" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>589201</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>5888</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.99931941731259788</v>
       </c>
       <c r="E23" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>719476</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>7374</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1.0249125752631083</v>
       </c>
       <c r="E24" s="7">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>871191</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>8545</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.98084117030593754</v>
       </c>
       <c r="E25" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>1034449</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>8868</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.85726797551160094</v>
       </c>
       <c r="E26" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>1133623</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>8273</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.72978406401422702</v>
       </c>
       <c r="E27" s="7">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>1052942</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>8203</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.77905525660482722</v>
       </c>
       <c r="E28" s="7">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>1148465</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>10403</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.90581776545214709</v>
       </c>
       <c r="E29" s="7">
         <v>197</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>1147879</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>13647</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>1.1888883758654005</v>
       </c>
       <c r="E30" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>1220279</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>15178</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1.2438139146867233</v>
       </c>
       <c r="E31" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>1129127</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>19930</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>1.7650804559628812</v>
       </c>
       <c r="E32" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>1218988</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>30220</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>2.4791056187591676</v>
       </c>
       <c r="E33" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>1284349</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>46000</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>3.581581018866367</v>
       </c>
       <c r="E34" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>1445463</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>80097</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>5.5412694755936336</v>
       </c>
       <c r="E35" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>1663992</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>118111</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>7.0980509521680393</v>
       </c>
       <c r="E36" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>1634729</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>128537</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>7.8628934826506418</v>
       </c>
       <c r="E37" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>1467454</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>128986</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>8.789781485484383</v>
       </c>
       <c r="E38" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>1400145</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>131185</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>9.3693867420874266</v>
       </c>
       <c r="E39" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>1381117</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>128882</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>9.3317220771303226</v>
       </c>
       <c r="E40" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>1395790</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>138305</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>9.9087255246133008</v>
       </c>
       <c r="E41" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>1516038</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>169520</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>11.181777765464981</v>
       </c>
       <c r="E42" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>1672033</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>188283</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>11.260722724970142</v>
       </c>
       <c r="E43" s="7">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>1090372</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>141413</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>12.969243524228427</v>
       </c>
       <c r="E44" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>845729</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>129930</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>15.363077297810529</v>
       </c>
       <c r="E45" s="7">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>1231405</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>157772</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>12.812356617035011</v>
       </c>
       <c r="E46" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>1187564</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>124037</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>10.44465814052969</v>
       </c>
       <c r="E47" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>1113690</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>110163</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>9.8917113379845372</v>
       </c>
       <c r="E48" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>1151633</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>97383</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>8.456079323881827</v>
       </c>
       <c r="E49" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>1101499</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>82436</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>7.4839831901799272</v>
       </c>
       <c r="E50" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>1060602</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>67882</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>6.4003273612533258</v>
       </c>
       <c r="E51" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>1103231</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>67379</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>6.1074244650485703</v>
       </c>
       <c r="E52" s="10">
         <v>207</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>1171798</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>72059</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="8">
         <v>6.149438725787209</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="10">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>1153270</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>71715</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>6.218405056925091</v>
       </c>
       <c r="E54" s="10">
         <v>211</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>1280050</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>85655</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>6.6915354868950434</v>
       </c>
       <c r="E55" s="10">
         <v>215</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="10">
@@ -1754,170 +1816,224 @@
       <c r="C56" s="10">
         <v>107827</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>7.8864316396378999</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="12">
         <v>209</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>1415220</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>131857</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>9.317067311089442</v>
       </c>
       <c r="E57" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>1178378</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>128814</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>10.931466812856316</v>
       </c>
       <c r="E58" s="7">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>1169510</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>140935</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>12.050773400825987</v>
       </c>
       <c r="E59" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>1312602</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>163464</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>12.453432190412631</v>
       </c>
       <c r="E60" s="10">
         <v>210</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="11">
-        <v>1427509</v>
-      </c>
-      <c r="C61" s="11">
-        <v>177250</v>
-      </c>
-      <c r="D61" s="13">
-        <v>12.416734325317739</v>
-      </c>
-      <c r="E61" s="8">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>1427668</v>
+      </c>
+      <c r="C61" s="7">
+        <v>177251</v>
+      </c>
+      <c r="D61" s="8">
+        <v>12.415421512564546</v>
+      </c>
+      <c r="E61" s="10">
+        <v>212</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="11">
-        <v>1360792</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="B62" s="10">
+        <v>1360960</v>
+      </c>
+      <c r="C62" s="10">
         <v>152086</v>
       </c>
-      <c r="D62" s="12">
-        <v>11.176285574871105</v>
+      <c r="D62" s="11">
+        <v>11.174905948742065</v>
       </c>
       <c r="E62" s="10">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="11">
-        <v>1242437</v>
-      </c>
-      <c r="C63" s="11">
-        <v>127733</v>
-      </c>
-      <c r="D63" s="12">
-        <v>10.28084321378066</v>
+      <c r="B63" s="10">
+        <v>1255723</v>
+      </c>
+      <c r="C63" s="10">
+        <v>128709</v>
+      </c>
+      <c r="D63" s="11">
+        <v>10.249792350701547</v>
       </c>
       <c r="E63" s="10">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="11">
-        <v>1082880</v>
-      </c>
-      <c r="C64" s="11">
-        <v>89408</v>
-      </c>
-      <c r="D64" s="12">
-        <v>8.2565011820330962</v>
+      <c r="B64" s="10">
+        <v>1100259</v>
+      </c>
+      <c r="C64" s="10">
+        <v>90312</v>
+      </c>
+      <c r="D64" s="11">
+        <v>8.2082491486095552</v>
       </c>
       <c r="E64" s="10">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="14">
-        <v>59197639</v>
-      </c>
-      <c r="C65" s="14">
-        <v>4068857</v>
-      </c>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="B65" s="10">
+        <v>1215641</v>
+      </c>
+      <c r="C65" s="10">
+        <v>70140</v>
+      </c>
+      <c r="D65" s="11">
+        <v>5.769795523513932</v>
+      </c>
+      <c r="E65" s="10">
+        <v>207</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="14">
+        <v>936414</v>
+      </c>
+      <c r="C66" s="14">
+        <v>38972</v>
+      </c>
+      <c r="D66" s="15">
+        <v>4.1618344023049634</v>
+      </c>
+      <c r="E66" s="14">
+        <v>202</v>
+      </c>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="14">
+        <v>61380686</v>
+      </c>
+      <c r="C67" s="14">
+        <v>4179850</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1926,19 +2042,19 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1957,157 +2073,157 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="8">
-        <v>46361014</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2763828</v>
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="7">
+        <v>49008311</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2957310</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1280050</v>
-      </c>
-      <c r="C3" s="8">
-        <v>85655</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1415220</v>
+      </c>
+      <c r="C3" s="7">
+        <v>131857</v>
       </c>
       <c r="D3" s="13">
-        <v>6.6915354868950434</v>
+        <v>9.317067311089442</v>
       </c>
       <c r="E3" s="19">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1367247</v>
-      </c>
-      <c r="C4" s="8">
-        <v>107827</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1178378</v>
+      </c>
+      <c r="C4" s="7">
+        <v>128814</v>
       </c>
       <c r="D4" s="13">
-        <v>7.8864316396378999</v>
+        <v>10.931466812856316</v>
       </c>
       <c r="E4" s="19">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1415220</v>
-      </c>
-      <c r="C5" s="8">
-        <v>131857</v>
+        <v>63</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1169510</v>
+      </c>
+      <c r="C5" s="7">
+        <v>140935</v>
       </c>
       <c r="D5" s="13">
-        <v>9.317067311089442</v>
+        <v>12.050773400825987</v>
       </c>
       <c r="E5" s="19">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1178378</v>
-      </c>
-      <c r="C6" s="8">
-        <v>128814</v>
+        <v>64</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1312602</v>
+      </c>
+      <c r="C6" s="7">
+        <v>163464</v>
       </c>
       <c r="D6" s="13">
-        <v>10.931466812856316</v>
+        <v>12.453432190412631</v>
       </c>
       <c r="E6" s="19">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1169510</v>
-      </c>
-      <c r="C7" s="8">
-        <v>140935</v>
+        <v>65</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1427668</v>
+      </c>
+      <c r="C7" s="7">
+        <v>177251</v>
       </c>
       <c r="D7" s="13">
-        <v>12.050773400825987</v>
+        <v>12.415421512564546</v>
       </c>
       <c r="E7" s="19">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1312602</v>
-      </c>
-      <c r="C8" s="8">
-        <v>163464</v>
+        <v>66</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1360960</v>
+      </c>
+      <c r="C8" s="7">
+        <v>152086</v>
       </c>
       <c r="D8" s="13">
-        <v>12.453432190412631</v>
+        <v>11.174905948742065</v>
       </c>
       <c r="E8" s="19">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1427509</v>
-      </c>
-      <c r="C9" s="8">
-        <v>177250</v>
+        <v>67</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1255723</v>
+      </c>
+      <c r="C9" s="7">
+        <v>128709</v>
       </c>
       <c r="D9" s="13">
-        <v>12.416734325317739</v>
+        <v>10.249792350701547</v>
       </c>
       <c r="E9" s="19">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1360792</v>
-      </c>
-      <c r="C10" s="8">
-        <v>152086</v>
+        <v>68</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1100259</v>
+      </c>
+      <c r="C10" s="7">
+        <v>90312</v>
       </c>
       <c r="D10" s="13">
-        <v>11.176285574871105</v>
+        <v>8.2082491486095552</v>
       </c>
       <c r="E10" s="19">
         <v>210</v>
@@ -2116,16 +2232,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1242437</v>
-      </c>
-      <c r="C11" s="8">
-        <v>127733</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1215641</v>
+      </c>
+      <c r="C11" s="7">
+        <v>70140</v>
       </c>
       <c r="D11" s="13">
-        <v>10.28084321378066</v>
+        <v>5.769795523513932</v>
       </c>
       <c r="E11" s="19">
         <v>207</v>
@@ -2134,33 +2250,33 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1082880</v>
-      </c>
-      <c r="C12" s="8">
-        <v>89408</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
+        <v>936414</v>
+      </c>
+      <c r="C12" s="7">
+        <v>38972</v>
       </c>
       <c r="D12" s="13">
-        <v>8.2565011820330962</v>
+        <v>4.1618344023049634</v>
       </c>
       <c r="E12" s="19">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="14">
-        <v>59197639</v>
+        <v>61380686</v>
       </c>
       <c r="C13" s="14">
-        <v>4068857</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>4179850</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
@@ -2174,942 +2290,941 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>28</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>19420</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>97800</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>56500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>39</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>36120</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>181550</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>135250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>108</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>80860</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>167320</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>145500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>126</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>117030</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>186960</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>157660</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>132</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>128580</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>403420</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>287650</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>138</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>139604</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>831046</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>589620</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>135</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>140616</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>901595</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>667170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>138</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>144980</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>955891</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>701268</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>135</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>151063</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>981515.00199999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>777476</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>139</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>156630</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1030122.5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>825063</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>139</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>159588</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1057365.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>837380</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>146</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>159974</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>1033129</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>821554</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>146</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>167525</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>1115162.5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>904760</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>144</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>169653</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1096075</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>907022</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>141</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>169858</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>1123147.5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>951456</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>143</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>172624</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>1131748</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>950136</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>147</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>170313</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>1120015</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>961246</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>152</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>179914</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>1196640.0000100001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>989576</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>155</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>181011</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1202855</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>1011165</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>155</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>183567</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1218086</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>1009137</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>159</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>183310</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1214556</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>1029124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>158</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>182697</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1200692</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>1009346</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>155</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>189338</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1252357</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>976187</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>164</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>198518</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1308423</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>1035958</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>171</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>208419</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1362883</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>1126195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>171</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>211002</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>1376233</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>1089353</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>171</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>223899</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>1458751</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>1130813</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>172</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>230691</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>1512155</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>1206181</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>174</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>235674</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>1540049</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>1292743</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>169</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>238740</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1564437</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>1378063</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>173</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>258089</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>1705581</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>1527677</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>173</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>255622</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>1700116</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>1505312</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>188</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>268521</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>1790564</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>1578454</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>183</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>285630</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>1910486</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>1648626</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>185</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>297894</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1937312</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>1622662</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>182</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>305683</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>2020253</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>1710271</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>181</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>313386</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>2079778</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>1821960</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>177</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>320686</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>2141208</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>1868184</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>181</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>329486</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>2202408</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>1958814</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>180</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>333476</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>2235788</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>1954270</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>180</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>342616</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>2290632</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>2029684</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>187</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>338390</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>1465033.7</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>1284895</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>185</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>331055</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>1331534.94</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>1190932</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>183</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>335608</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>2129456</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>1891309</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>183</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>338746</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>2248174</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>2020530</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>182</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>347237</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>2321303</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>2149827</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>183</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>354177</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>2368097</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>2180930</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>182</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>354011</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>2376839</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>2208506</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>183</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>354485</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>2378145</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>2247447</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>187</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>350601</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>2344259.7142857141</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>2219267</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>183</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>363862</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>2442710</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>2319328</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>185</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>359585</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <v>2391289</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>2274497</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="12">
         <v>187</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>358485</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>2386839</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>2264447</v>
       </c>
     </row>
@@ -3131,19 +3246,19 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>182</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>351649</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>2356203</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>2251915</v>
       </c>
     </row>
@@ -3165,30 +3280,30 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>182</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>353705</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>2336559</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>2229117</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>183</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>354235</v>
       </c>
       <c r="D59" s="23">
@@ -3199,13 +3314,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>184</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>358761</v>
       </c>
       <c r="D60" s="23">
@@ -3220,16 +3335,16 @@
         <v>66</v>
       </c>
       <c r="B61" s="21">
-        <v>182</v>
-      </c>
-      <c r="C61" s="11">
-        <v>357271</v>
-      </c>
-      <c r="D61" s="11">
-        <v>2396693</v>
-      </c>
-      <c r="E61" s="11">
-        <v>2315815</v>
+        <v>183</v>
+      </c>
+      <c r="C61" s="10">
+        <v>357471</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2397893</v>
+      </c>
+      <c r="E61" s="10">
+        <v>2317015</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,51 +3352,246 @@
         <v>67</v>
       </c>
       <c r="B62" s="21">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" s="22">
-        <v>359723</v>
+        <v>359923</v>
       </c>
       <c r="D62" s="22">
-        <v>2403713</v>
+        <v>2404913</v>
       </c>
       <c r="E62" s="22">
-        <v>2317415</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+        <v>2318615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
+        <v>186</v>
+      </c>
+      <c r="C63" s="10">
+        <v>365549</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2445394.5</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2362560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="10">
         <v>183</v>
       </c>
-      <c r="C63" s="11">
-        <v>363374</v>
-      </c>
-      <c r="D63" s="11">
-        <v>2431869.5</v>
-      </c>
-      <c r="E63" s="11">
-        <v>2358035</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="14">
-        <v>179</v>
-      </c>
-      <c r="C64" s="14">
-        <v>359727</v>
-      </c>
-      <c r="D64" s="14">
-        <v>2381577</v>
-      </c>
-      <c r="E64" s="14">
-        <v>2322638</v>
-      </c>
+      <c r="C64" s="10">
+        <v>362177</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2396427</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2326988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="21">
+        <v>181</v>
+      </c>
+      <c r="C65" s="10">
+        <v>363307</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2441017</v>
+      </c>
+      <c r="E65" s="10">
+        <v>2376431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="14">
+        <v>177</v>
+      </c>
+      <c r="C66" s="14">
+        <v>357857</v>
+      </c>
+      <c r="D66" s="14">
+        <v>2380537</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2338608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,248 +3600,262 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7">
+        <v>77</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9">
+        <v>187</v>
+      </c>
+      <c r="C2" s="7">
+        <v>360911</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2414443</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2304591</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9">
+        <v>182</v>
+      </c>
+      <c r="C3" s="7">
+        <v>351649</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2356203</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2251915</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="9">
+        <v>180</v>
+      </c>
+      <c r="C4" s="7">
+        <v>351313</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2329923</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2221205</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="9">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7">
+        <v>353705</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2336559</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2229117</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9">
+        <v>183</v>
+      </c>
+      <c r="C6" s="7">
+        <v>354235</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2317717</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2248479</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9">
+        <v>184</v>
+      </c>
+      <c r="C7" s="7">
+        <v>358761</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2402263</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2317515</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="9">
+        <v>183</v>
+      </c>
+      <c r="C8" s="7">
+        <v>357471</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2397893</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2317015</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="9">
         <v>185</v>
       </c>
-      <c r="C2" s="8">
-        <v>359585</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2391289</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2274497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="7">
-        <v>187</v>
-      </c>
-      <c r="C3" s="8">
-        <v>358485</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2386839</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2264447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="7">
-        <v>187</v>
-      </c>
-      <c r="C4" s="8">
-        <v>360911</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2414443</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2304591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7">
-        <v>182</v>
-      </c>
-      <c r="C5" s="8">
-        <v>351649</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2356203</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2251915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="7">
-        <v>180</v>
-      </c>
-      <c r="C6" s="8">
-        <v>351313</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2329923</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2221205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="7">
-        <v>182</v>
-      </c>
-      <c r="C7" s="8">
-        <v>353705</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2336559</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2229117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="C9" s="7">
+        <v>359923</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2404913</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2318615</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="9">
+        <v>186</v>
+      </c>
+      <c r="C10" s="7">
+        <v>365549</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2445394.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2362560</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="9">
         <v>183</v>
       </c>
-      <c r="C8" s="8">
-        <v>354235</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2317717</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2248479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="7">
-        <v>184</v>
-      </c>
-      <c r="C9" s="8">
-        <v>358761</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2402263</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2317515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="7">
-        <v>182</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357271</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2396693</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2315815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="7">
-        <v>184</v>
-      </c>
-      <c r="C11" s="8">
-        <v>359723</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2403713</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2317415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="7">
-        <v>183</v>
-      </c>
-      <c r="C12" s="8">
-        <v>363374</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2431869.5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2358035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>362177</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2396427</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2326988</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="9">
+        <v>181</v>
+      </c>
+      <c r="C12" s="7">
+        <v>363307</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2441017</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2376431</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="14">
-        <v>359727</v>
+        <v>357857</v>
       </c>
       <c r="D13" s="14">
-        <v>2381577</v>
+        <v>2380537</v>
       </c>
       <c r="E13" s="14">
-        <v>2322638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+        <v>2338608</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3540,667 +3864,699 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>3423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>35</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>28</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>30</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3790</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>29</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>29</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>27</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1646</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>22</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>31</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>3056</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>27</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>25</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>3242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>24</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="9">
         <v>35</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>32</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>10693</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>44</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>33</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>17143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>48</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>34</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>27828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>49</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>35</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>36812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>47</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>29964</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>51</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>32397</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>42</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>12617</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>46</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>15983</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>42</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>40</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>8245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="9">
         <v>46</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>41</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>16829</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>52</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>20799</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="9">
         <v>57</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>43</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>69524</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="9">
         <v>69</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>44</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>98931</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="9">
         <v>66</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>45</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>60113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="9">
         <v>59</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>46</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>23780</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="9">
         <v>50</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>47</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>17207</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>54</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>48</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>14191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="9">
         <v>51</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>49</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>12267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>51</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>50</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>19159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="9">
         <v>57</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>51</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>21364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="9">
         <v>43</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>52</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>11321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>53</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>6507</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="9">
         <v>47</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>1</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>11691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="9">
         <v>46</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>11336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="9">
         <v>48</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>3</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>11980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>4</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>5572</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="9">
         <v>42</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>6202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="9">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="9">
         <v>6</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>5850</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="9">
         <v>44</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>7</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>6820</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="12">
         <v>8</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>3767</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>37</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="12">
         <v>9</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>3525</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="12">
         <v>38</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="12">
         <v>10</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>2893</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="12">
         <v>43</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="12">
         <v>11</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="12">
         <v>4766</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="12">
         <v>39</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="12">
         <v>12</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>8033</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="12">
         <v>31</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="12">
         <v>13</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>2527</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="12">
         <v>14</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>3631</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="12">
         <v>40</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="12">
         <v>15</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>4205</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="12">
         <v>37</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="12">
         <v>16</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>3786</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="12">
         <v>36</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="12">
         <v>17</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>2280</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>40</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="12">
         <v>18</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="12">
         <v>36</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="12">
         <v>19</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="10">
         <v>3436</v>
       </c>
+    </row>
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>30</v>
+      </c>
+      <c r="B60" s="12">
+        <v>20</v>
+      </c>
+      <c r="C60" s="12">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>36</v>
+      </c>
+      <c r="B61" s="6">
+        <v>21</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73147B49-3681-4A85-8A34-2315163AEE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3EB49F-23AF-4845-9097-82781A857853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="11805" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="14380" windowHeight="6140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -240,10 +240,16 @@
     <t>21/2021</t>
   </si>
   <si>
+    <t>22/2021</t>
+  </si>
+  <si>
+    <t>23/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW11/2021</t>
+    <t>Bis einschließlich KW13/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -261,7 +267,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>22/2021</t>
+    <t>24/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -276,7 +282,10 @@
     <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlerfassung).</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
+    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus (bis KW 22/2021) befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
+  </si>
+  <si>
+    <t>Die Erfassung von Probenrückstau wurde in der KW 22/2021 eingestellt.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -353,10 +362,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -368,9 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,13 +384,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,11 +412,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{0B934B0A-9746-477A-86C8-E2652C37DFD0}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{280100AE-25BA-4BBB-98E4-05557DEC5717}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,23 +434,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F37B96-820E-41ED-8BC8-7A159E45E4EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0364F-EA04-4AD7-BB9A-1B49F5F69B48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -460,7 +472,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="1333500"/>
+          <a:off x="4921250" y="552450"/>
           <a:ext cx="10058400" cy="4470400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -769,32 +781,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F408F6-2026-4564-B29F-E69AEF7BC7DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D881B2C2-1F6C-4E24-992B-A52020D26B48}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="140.81640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -805,22 +817,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -838,7 +850,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -848,11 +860,11 @@
       <c r="C2" s="7">
         <v>1722</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -862,7 +874,7 @@
       <c r="C3" s="7">
         <v>7502</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>5.8024147079069692</v>
       </c>
       <c r="E3" s="7">
@@ -870,7 +882,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -880,7 +892,7 @@
       <c r="C4" s="7">
         <v>25886</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>6.9115220514025424</v>
       </c>
       <c r="E4" s="7">
@@ -888,7 +900,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -898,7 +910,7 @@
       <c r="C5" s="7">
         <v>33139</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>8.7762414625038723</v>
       </c>
       <c r="E5" s="7">
@@ -906,7 +918,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -916,7 +928,7 @@
       <c r="C6" s="7">
         <v>37649</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>9.0145721496195339</v>
       </c>
       <c r="E6" s="7">
@@ -924,7 +936,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -934,7 +946,7 @@
       <c r="C7" s="7">
         <v>30829</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>7.9818041067623575</v>
       </c>
       <c r="E7" s="7">
@@ -942,7 +954,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -952,7 +964,7 @@
       <c r="C8" s="7">
         <v>22724</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>6.6838636049449534</v>
       </c>
       <c r="E8" s="7">
@@ -960,7 +972,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -970,7 +982,7 @@
       <c r="C9" s="7">
         <v>18127</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>4.984614707734444</v>
       </c>
       <c r="E9" s="7">
@@ -978,7 +990,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -988,7 +1000,7 @@
       <c r="C10" s="7">
         <v>12600</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>3.8438189256221036</v>
       </c>
       <c r="E10" s="7">
@@ -996,7 +1008,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1018,7 @@
       <c r="C11" s="7">
         <v>10181</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>2.6400406598934754</v>
       </c>
       <c r="E11" s="7">
@@ -1014,7 +1026,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1036,7 @@
       <c r="C12" s="7">
         <v>7142</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>1.6544586061035669</v>
       </c>
       <c r="E12" s="7">
@@ -1032,7 +1044,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1054,7 @@
       <c r="C13" s="7">
         <v>5315</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>1.4909295939005129</v>
       </c>
       <c r="E13" s="7">
@@ -1050,7 +1062,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1072,7 @@
       <c r="C14" s="7">
         <v>4335</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>1.0622969138252982</v>
       </c>
       <c r="E14" s="7">
@@ -1068,7 +1080,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1090,7 @@
       <c r="C15" s="7">
         <v>3219</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>0.94032623682550076</v>
       </c>
       <c r="E15" s="7">
@@ -1086,7 +1098,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1108,7 @@
       <c r="C16" s="7">
         <v>2956</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>0.90127446795536315</v>
       </c>
       <c r="E16" s="7">
@@ -1104,7 +1116,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1126,7 @@
       <c r="C17" s="7">
         <v>5588</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>1.452054652135726</v>
       </c>
       <c r="E17" s="7">
@@ -1122,7 +1134,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1144,7 @@
       <c r="C18" s="7">
         <v>3919</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>0.82885138836308725</v>
       </c>
       <c r="E18" s="7">
@@ -1140,7 +1152,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1162,7 @@
       <c r="C19" s="7">
         <v>3204</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>0.62459914731689448</v>
       </c>
       <c r="E19" s="7">
@@ -1158,7 +1170,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1180,7 @@
       <c r="C20" s="7">
         <v>3042</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>0.59232201132460494</v>
       </c>
       <c r="E20" s="7">
@@ -1176,7 +1188,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1198,7 @@
       <c r="C21" s="7">
         <v>3608</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>0.66296840058873363</v>
       </c>
       <c r="E21" s="7">
@@ -1194,7 +1206,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="C22" s="7">
         <v>4537</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>0.81507777103087486</v>
       </c>
       <c r="E22" s="7">
@@ -1212,7 +1224,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1234,7 @@
       <c r="C23" s="7">
         <v>5888</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>0.99931941731259788</v>
       </c>
       <c r="E23" s="7">
@@ -1230,7 +1242,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1252,7 @@
       <c r="C24" s="7">
         <v>7374</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>1.0249125752631083</v>
       </c>
       <c r="E24" s="7">
@@ -1248,7 +1260,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1270,7 @@
       <c r="C25" s="7">
         <v>8545</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>0.98084117030593754</v>
       </c>
       <c r="E25" s="7">
@@ -1266,7 +1278,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1288,7 @@
       <c r="C26" s="7">
         <v>8868</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>0.85726797551160094</v>
       </c>
       <c r="E26" s="7">
@@ -1284,7 +1296,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1306,7 @@
       <c r="C27" s="7">
         <v>8273</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>0.72978406401422702</v>
       </c>
       <c r="E27" s="7">
@@ -1302,7 +1314,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="C28" s="7">
         <v>8203</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>0.77905525660482722</v>
       </c>
       <c r="E28" s="7">
@@ -1320,7 +1332,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1330,7 +1342,7 @@
       <c r="C29" s="7">
         <v>10403</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <v>0.90581776545214709</v>
       </c>
       <c r="E29" s="7">
@@ -1338,7 +1350,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1348,7 +1360,7 @@
       <c r="C30" s="7">
         <v>13647</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>1.1888883758654005</v>
       </c>
       <c r="E30" s="7">
@@ -1356,7 +1368,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1378,7 @@
       <c r="C31" s="7">
         <v>15178</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>1.2438139146867233</v>
       </c>
       <c r="E31" s="7">
@@ -1374,7 +1386,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1396,7 @@
       <c r="C32" s="7">
         <v>19930</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>1.7650804559628812</v>
       </c>
       <c r="E32" s="7">
@@ -1392,7 +1404,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1414,7 @@
       <c r="C33" s="7">
         <v>30220</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>2.4791056187591676</v>
       </c>
       <c r="E33" s="7">
@@ -1410,7 +1422,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1420,7 +1432,7 @@
       <c r="C34" s="7">
         <v>46000</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>3.581581018866367</v>
       </c>
       <c r="E34" s="7">
@@ -1428,7 +1440,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="C35" s="7">
         <v>80097</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <v>5.5412694755936336</v>
       </c>
       <c r="E35" s="7">
@@ -1446,7 +1458,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1456,7 +1468,7 @@
       <c r="C36" s="7">
         <v>118111</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>7.0980509521680393</v>
       </c>
       <c r="E36" s="7">
@@ -1464,7 +1476,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1486,7 @@
       <c r="C37" s="7">
         <v>128537</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <v>7.8628934826506418</v>
       </c>
       <c r="E37" s="7">
@@ -1482,7 +1494,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1492,7 +1504,7 @@
       <c r="C38" s="7">
         <v>128986</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>8.789781485484383</v>
       </c>
       <c r="E38" s="7">
@@ -1500,7 +1512,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1522,7 @@
       <c r="C39" s="7">
         <v>131185</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>9.3693867420874266</v>
       </c>
       <c r="E39" s="7">
@@ -1518,7 +1530,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -1528,7 +1540,7 @@
       <c r="C40" s="7">
         <v>128882</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>9.3317220771303226</v>
       </c>
       <c r="E40" s="7">
@@ -1536,7 +1548,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="C41" s="7">
         <v>138305</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>9.9087255246133008</v>
       </c>
       <c r="E41" s="7">
@@ -1554,7 +1566,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1576,7 @@
       <c r="C42" s="7">
         <v>169520</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>11.181777765464981</v>
       </c>
       <c r="E42" s="7">
@@ -1572,7 +1584,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1582,7 +1594,7 @@
       <c r="C43" s="7">
         <v>188283</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>11.260722724970142</v>
       </c>
       <c r="E43" s="7">
@@ -1590,7 +1602,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1600,7 +1612,7 @@
       <c r="C44" s="7">
         <v>141413</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>12.969243524228427</v>
       </c>
       <c r="E44" s="7">
@@ -1608,7 +1620,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1618,7 +1630,7 @@
       <c r="C45" s="7">
         <v>129930</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>15.363077297810529</v>
       </c>
       <c r="E45" s="7">
@@ -1626,7 +1638,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1636,7 +1648,7 @@
       <c r="C46" s="7">
         <v>157772</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>12.812356617035011</v>
       </c>
       <c r="E46" s="7">
@@ -1644,7 +1656,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="C47" s="7">
         <v>124037</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>10.44465814052969</v>
       </c>
       <c r="E47" s="7">
@@ -1662,7 +1674,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1672,7 +1684,7 @@
       <c r="C48" s="7">
         <v>110163</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>9.8917113379845372</v>
       </c>
       <c r="E48" s="7">
@@ -1680,7 +1692,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="C49" s="7">
         <v>97383</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>8.456079323881827</v>
       </c>
       <c r="E49" s="7">
@@ -1698,7 +1710,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1708,7 +1720,7 @@
       <c r="C50" s="7">
         <v>82436</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>7.4839831901799272</v>
       </c>
       <c r="E50" s="7">
@@ -1716,7 +1728,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="C51" s="7">
         <v>67882</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>6.4003273612533258</v>
       </c>
       <c r="E51" s="7">
@@ -1734,7 +1746,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
@@ -1752,7 +1764,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -1762,7 +1774,7 @@
       <c r="C53" s="10">
         <v>72059</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>6.149438725787209</v>
       </c>
       <c r="E53" s="10">
@@ -1770,7 +1782,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1800,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>59</v>
       </c>
@@ -1806,7 +1818,7 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>60</v>
       </c>
@@ -1824,25 +1836,25 @@
       </c>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="7">
-        <v>1415220</v>
+        <v>1416888</v>
       </c>
       <c r="C57" s="7">
-        <v>131857</v>
-      </c>
-      <c r="D57" s="8">
-        <v>9.317067311089442</v>
+        <v>131911</v>
+      </c>
+      <c r="D57" s="9">
+        <v>9.3099101693288393</v>
       </c>
       <c r="E57" s="7">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +1864,7 @@
       <c r="C58" s="7">
         <v>128814</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>10.931466812856316</v>
       </c>
       <c r="E58" s="7">
@@ -1860,7 +1872,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="C59" s="7">
         <v>140935</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>12.050773400825987</v>
       </c>
       <c r="E59" s="7">
@@ -1878,7 +1890,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1896,7 +1908,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
@@ -1906,7 +1918,7 @@
       <c r="C61" s="7">
         <v>177251</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>12.415421512564546</v>
       </c>
       <c r="E61" s="10">
@@ -1914,7 +1926,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>66</v>
       </c>
@@ -1932,25 +1944,25 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="10">
-        <v>1255723</v>
+        <v>1255724</v>
       </c>
       <c r="C63" s="10">
         <v>128709</v>
       </c>
       <c r="D63" s="11">
-        <v>10.249792350701547</v>
+        <v>10.249784188245188</v>
       </c>
       <c r="E63" s="10">
         <v>212</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -1968,68 +1980,99 @@
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="10">
-        <v>1215641</v>
+        <v>1218879</v>
       </c>
       <c r="C65" s="10">
-        <v>70140</v>
+        <v>70279</v>
       </c>
       <c r="D65" s="11">
-        <v>5.769795523513932</v>
+        <v>5.7658717559331158</v>
       </c>
       <c r="E65" s="10">
+        <v>209</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="10">
+        <v>944376</v>
+      </c>
+      <c r="C66" s="10">
+        <v>39105</v>
+      </c>
+      <c r="D66" s="11">
+        <v>4.1408295001143607</v>
+      </c>
+      <c r="E66" s="10">
         <v>207</v>
       </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="14">
-        <v>936414</v>
-      </c>
-      <c r="C66" s="14">
-        <v>38972</v>
-      </c>
-      <c r="D66" s="15">
-        <v>4.1618344023049634</v>
-      </c>
-      <c r="E66" s="14">
-        <v>202</v>
-      </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="14">
-        <v>61380686</v>
-      </c>
-      <c r="C67" s="14">
-        <v>4179850</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="7"/>
+      <c r="B67" s="10">
+        <v>874665</v>
+      </c>
+      <c r="C67" s="10">
+        <v>27259</v>
+      </c>
+      <c r="D67" s="11">
+        <v>3.116507462857208</v>
+      </c>
+      <c r="E67" s="12">
+        <v>206</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="13">
+        <v>822977</v>
+      </c>
+      <c r="C68" s="13">
+        <v>19018</v>
+      </c>
+      <c r="D68" s="14">
+        <v>2.3108786758317668</v>
+      </c>
+      <c r="E68" s="13">
+        <v>200</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="10">
+        <v>63091197</v>
+      </c>
+      <c r="C69" s="10">
+        <v>4226453</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,22 +2082,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2072,215 +2115,215 @@
       </c>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7">
+        <v>51603577</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3218035</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1169510</v>
+      </c>
+      <c r="C3" s="7">
+        <v>140935</v>
+      </c>
+      <c r="D3" s="19">
+        <v>12.050773400825987</v>
+      </c>
+      <c r="E3" s="20">
+        <v>209</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1312602</v>
+      </c>
+      <c r="C4" s="7">
+        <v>163464</v>
+      </c>
+      <c r="D4" s="19">
+        <v>12.453432190412631</v>
+      </c>
+      <c r="E4" s="20">
+        <v>210</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1427668</v>
+      </c>
+      <c r="C5" s="7">
+        <v>177251</v>
+      </c>
+      <c r="D5" s="19">
+        <v>12.415421512564546</v>
+      </c>
+      <c r="E5" s="20">
+        <v>212</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1360960</v>
+      </c>
+      <c r="C6" s="7">
+        <v>152086</v>
+      </c>
+      <c r="D6" s="19">
+        <v>11.174905948742065</v>
+      </c>
+      <c r="E6" s="20">
+        <v>211</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1255724</v>
+      </c>
+      <c r="C7" s="7">
+        <v>128709</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10.249784188245188</v>
+      </c>
+      <c r="E7" s="20">
+        <v>212</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1100259</v>
+      </c>
+      <c r="C8" s="7">
+        <v>90312</v>
+      </c>
+      <c r="D8" s="19">
+        <v>8.2082491486095552</v>
+      </c>
+      <c r="E8" s="20">
+        <v>210</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1218879</v>
+      </c>
+      <c r="C9" s="7">
+        <v>70279</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5.7658717559331158</v>
+      </c>
+      <c r="E9" s="20">
+        <v>209</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7">
+        <v>944376</v>
+      </c>
+      <c r="C10" s="7">
+        <v>39105</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4.1408295001143607</v>
+      </c>
+      <c r="E10" s="20">
+        <v>207</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7">
+        <v>874665</v>
+      </c>
+      <c r="C11" s="7">
+        <v>27259</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3.116507462857208</v>
+      </c>
+      <c r="E11" s="20">
+        <v>206</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="7">
-        <v>49008311</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2957310</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1415220</v>
-      </c>
-      <c r="C3" s="7">
-        <v>131857</v>
-      </c>
-      <c r="D3" s="13">
-        <v>9.317067311089442</v>
-      </c>
-      <c r="E3" s="19">
-        <v>206</v>
-      </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1178378</v>
-      </c>
-      <c r="C4" s="7">
-        <v>128814</v>
-      </c>
-      <c r="D4" s="13">
-        <v>10.931466812856316</v>
-      </c>
-      <c r="E4" s="19">
-        <v>207</v>
-      </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1169510</v>
-      </c>
-      <c r="C5" s="7">
-        <v>140935</v>
-      </c>
-      <c r="D5" s="13">
-        <v>12.050773400825987</v>
-      </c>
-      <c r="E5" s="19">
-        <v>209</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1312602</v>
-      </c>
-      <c r="C6" s="7">
-        <v>163464</v>
-      </c>
-      <c r="D6" s="13">
-        <v>12.453432190412631</v>
-      </c>
-      <c r="E6" s="19">
-        <v>210</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1427668</v>
-      </c>
-      <c r="C7" s="7">
-        <v>177251</v>
-      </c>
-      <c r="D7" s="13">
-        <v>12.415421512564546</v>
-      </c>
-      <c r="E7" s="19">
-        <v>212</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1360960</v>
-      </c>
-      <c r="C8" s="7">
-        <v>152086</v>
-      </c>
-      <c r="D8" s="13">
-        <v>11.174905948742065</v>
-      </c>
-      <c r="E8" s="19">
-        <v>211</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1255723</v>
-      </c>
-      <c r="C9" s="7">
-        <v>128709</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10.249792350701547</v>
-      </c>
-      <c r="E9" s="19">
-        <v>212</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1100259</v>
-      </c>
-      <c r="C10" s="7">
-        <v>90312</v>
-      </c>
-      <c r="D10" s="13">
-        <v>8.2082491486095552</v>
-      </c>
-      <c r="E10" s="19">
-        <v>210</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1215641</v>
-      </c>
-      <c r="C11" s="7">
-        <v>70140</v>
-      </c>
-      <c r="D11" s="13">
-        <v>5.769795523513932</v>
-      </c>
-      <c r="E11" s="19">
-        <v>207</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7">
-        <v>936414</v>
-      </c>
-      <c r="C12" s="7">
-        <v>38972</v>
-      </c>
-      <c r="D12" s="13">
-        <v>4.1618344023049634</v>
-      </c>
-      <c r="E12" s="19">
-        <v>202</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="14">
-        <v>61380686</v>
-      </c>
-      <c r="C13" s="14">
-        <v>4179850</v>
+      <c r="B12" s="13">
+        <v>822977</v>
+      </c>
+      <c r="C12" s="13">
+        <v>19018</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2.3108786758317668</v>
+      </c>
+      <c r="E12" s="21">
+        <v>200</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="13">
+        <v>63091197</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4226453</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2288,46 +2331,56 @@
       <c r="E14" s="18"/>
       <c r="F14" s="17"/>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2343,8 +2396,10 @@
       <c r="E2" s="7">
         <v>56500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2360,8 +2415,10 @@
       <c r="E3" s="7">
         <v>135250</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2377,8 +2434,10 @@
       <c r="E4" s="7">
         <v>145500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2394,8 +2453,10 @@
       <c r="E5" s="7">
         <v>157660</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2411,8 +2472,10 @@
       <c r="E6" s="7">
         <v>287650</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2428,8 +2491,10 @@
       <c r="E7" s="7">
         <v>589620</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2445,8 +2510,10 @@
       <c r="E8" s="7">
         <v>667170</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2462,8 +2529,10 @@
       <c r="E9" s="7">
         <v>701268</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2479,8 +2548,10 @@
       <c r="E10" s="7">
         <v>777476</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2496,8 +2567,10 @@
       <c r="E11" s="7">
         <v>825063</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2513,8 +2586,10 @@
       <c r="E12" s="7">
         <v>837380</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2530,8 +2605,10 @@
       <c r="E13" s="7">
         <v>821554</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2547,8 +2624,10 @@
       <c r="E14" s="7">
         <v>904760</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2564,8 +2643,10 @@
       <c r="E15" s="7">
         <v>907022</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2581,8 +2662,10 @@
       <c r="E16" s="7">
         <v>951456</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2598,8 +2681,10 @@
       <c r="E17" s="7">
         <v>950136</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2615,8 +2700,10 @@
       <c r="E18" s="7">
         <v>961246</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2632,8 +2719,10 @@
       <c r="E19" s="7">
         <v>989576</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2649,8 +2738,10 @@
       <c r="E20" s="7">
         <v>1011165</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2666,8 +2757,10 @@
       <c r="E21" s="7">
         <v>1009137</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -2683,8 +2776,10 @@
       <c r="E22" s="7">
         <v>1029124</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -2700,8 +2795,10 @@
       <c r="E23" s="7">
         <v>1009346</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -2717,8 +2814,10 @@
       <c r="E24" s="7">
         <v>976187</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -2734,8 +2833,10 @@
       <c r="E25" s="7">
         <v>1035958</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -2751,8 +2852,10 @@
       <c r="E26" s="7">
         <v>1126195</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -2768,8 +2871,10 @@
       <c r="E27" s="7">
         <v>1089353</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2785,8 +2890,10 @@
       <c r="E28" s="7">
         <v>1130813</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -2802,8 +2909,10 @@
       <c r="E29" s="7">
         <v>1206181</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -2819,8 +2928,10 @@
       <c r="E30" s="7">
         <v>1292743</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2836,8 +2947,10 @@
       <c r="E31" s="7">
         <v>1378063</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -2853,8 +2966,10 @@
       <c r="E32" s="7">
         <v>1527677</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -2870,8 +2985,10 @@
       <c r="E33" s="7">
         <v>1505312</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -2887,8 +3004,10 @@
       <c r="E34" s="7">
         <v>1578454</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -2904,8 +3023,10 @@
       <c r="E35" s="7">
         <v>1648626</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -2921,8 +3042,10 @@
       <c r="E36" s="7">
         <v>1622662</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -2938,8 +3061,10 @@
       <c r="E37" s="7">
         <v>1710271</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -2955,8 +3080,10 @@
       <c r="E38" s="7">
         <v>1821960</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
@@ -2972,8 +3099,10 @@
       <c r="E39" s="7">
         <v>1868184</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
@@ -2989,8 +3118,10 @@
       <c r="E40" s="7">
         <v>1958814</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
@@ -3006,8 +3137,10 @@
       <c r="E41" s="7">
         <v>1954270</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
@@ -3023,8 +3156,10 @@
       <c r="E42" s="7">
         <v>2029684</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -3040,8 +3175,10 @@
       <c r="E43" s="7">
         <v>1284895</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
@@ -3057,8 +3194,10 @@
       <c r="E44" s="7">
         <v>1190932</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
@@ -3074,8 +3213,10 @@
       <c r="E45" s="7">
         <v>1891309</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -3091,8 +3232,10 @@
       <c r="E46" s="7">
         <v>2020530</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -3108,8 +3251,10 @@
       <c r="E47" s="7">
         <v>2149827</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
@@ -3125,8 +3270,10 @@
       <c r="E48" s="7">
         <v>2180930</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
@@ -3142,8 +3289,10 @@
       <c r="E49" s="7">
         <v>2208506</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
@@ -3159,8 +3308,10 @@
       <c r="E50" s="7">
         <v>2247447</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
@@ -3176,8 +3327,10 @@
       <c r="E51" s="7">
         <v>2219267</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
@@ -3193,8 +3346,10 @@
       <c r="E52" s="7">
         <v>2319328</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
@@ -3210,8 +3365,10 @@
       <c r="E53" s="10">
         <v>2274497</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
@@ -3227,25 +3384,29 @@
       <c r="E54" s="10">
         <v>2264447</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="23">
         <v>187</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="24">
         <v>360911</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="24">
         <v>2414443</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="24">
         <v>2304591</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
@@ -3261,25 +3422,29 @@
       <c r="E56" s="7">
         <v>2251915</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="24">
         <v>180</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="24">
         <v>351313</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="24">
         <v>2329923</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="24">
         <v>2221205</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
@@ -3295,8 +3460,10 @@
       <c r="E58" s="7">
         <v>2229117</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
@@ -3306,14 +3473,16 @@
       <c r="C59" s="10">
         <v>354235</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="25">
         <v>2317717</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="25">
         <v>2248479</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -3323,18 +3492,20 @@
       <c r="C60" s="10">
         <v>358761</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="25">
         <v>2402263</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="25">
         <v>2317515</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="23">
         <v>183</v>
       </c>
       <c r="C61" s="10">
@@ -3346,25 +3517,29 @@
       <c r="E61" s="10">
         <v>2317015</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="23">
         <v>185</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="24">
         <v>359923</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="24">
         <v>2404913</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="24">
         <v>2318615</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -3380,8 +3555,10 @@
       <c r="E63" s="10">
         <v>2362560</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -3397,201 +3574,228 @@
       <c r="E64" s="10">
         <v>2326988</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="21">
-        <v>181</v>
+      <c r="B65" s="23">
+        <v>183</v>
       </c>
       <c r="C65" s="10">
-        <v>363307</v>
+        <v>363957</v>
       </c>
       <c r="D65" s="10">
-        <v>2441017</v>
+        <v>2445367</v>
       </c>
       <c r="E65" s="10">
-        <v>2376431</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="14">
-        <v>177</v>
-      </c>
-      <c r="C66" s="14">
-        <v>357857</v>
-      </c>
-      <c r="D66" s="14">
-        <v>2380537</v>
-      </c>
-      <c r="E66" s="14">
-        <v>2338608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2380781</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="10">
+        <v>182</v>
+      </c>
+      <c r="C66" s="10">
+        <v>361507</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2402287</v>
+      </c>
+      <c r="E66" s="10">
+        <v>2350458</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="10">
+        <v>182</v>
+      </c>
+      <c r="C67" s="10">
+        <v>361683</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2419537</v>
+      </c>
+      <c r="E67" s="10">
+        <v>2359693</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="22">
+        <v>178</v>
+      </c>
+      <c r="C68" s="10">
+        <v>356103</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2395597</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2332333</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,260 +3806,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="9">
-        <v>187</v>
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
+        <v>180</v>
       </c>
       <c r="C2" s="7">
-        <v>360911</v>
+        <v>351313</v>
       </c>
       <c r="D2" s="7">
-        <v>2414443</v>
+        <v>2329923</v>
       </c>
       <c r="E2" s="7">
-        <v>2304591</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="9">
+        <v>2221205</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8">
         <v>182</v>
       </c>
       <c r="C3" s="7">
-        <v>351649</v>
+        <v>353705</v>
       </c>
       <c r="D3" s="7">
-        <v>2356203</v>
+        <v>2336559</v>
       </c>
       <c r="E3" s="7">
-        <v>2251915</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="9">
-        <v>180</v>
+        <v>2229117</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8">
+        <v>183</v>
       </c>
       <c r="C4" s="7">
-        <v>351313</v>
+        <v>354235</v>
       </c>
       <c r="D4" s="7">
-        <v>2329923</v>
+        <v>2317717</v>
       </c>
       <c r="E4" s="7">
-        <v>2221205</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="9">
+        <v>2248479</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8">
+        <v>184</v>
+      </c>
+      <c r="C5" s="7">
+        <v>358761</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2402263</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2317515</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8">
+        <v>183</v>
+      </c>
+      <c r="C6" s="7">
+        <v>357471</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2397893</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2317015</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8">
+        <v>185</v>
+      </c>
+      <c r="C7" s="7">
+        <v>359923</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2404913</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2318615</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="8">
+        <v>186</v>
+      </c>
+      <c r="C8" s="7">
+        <v>365549</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2445394.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2362560</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="8">
+        <v>183</v>
+      </c>
+      <c r="C9" s="7">
+        <v>362177</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2396427</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2326988</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8">
+        <v>183</v>
+      </c>
+      <c r="C10" s="7">
+        <v>363957</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2445367</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2380781</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8">
         <v>182</v>
       </c>
-      <c r="C5" s="7">
-        <v>353705</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2336559</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2229117</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="9">
-        <v>183</v>
-      </c>
-      <c r="C6" s="7">
-        <v>354235</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2317717</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2248479</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="9">
-        <v>184</v>
-      </c>
-      <c r="C7" s="7">
-        <v>358761</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2402263</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2317515</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="9">
-        <v>183</v>
-      </c>
-      <c r="C8" s="7">
-        <v>357471</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2397893</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2317015</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="9">
-        <v>185</v>
-      </c>
-      <c r="C9" s="7">
-        <v>359923</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2404913</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2318615</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="9">
-        <v>186</v>
-      </c>
-      <c r="C10" s="7">
-        <v>365549</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2445394.5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2362560</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="9">
-        <v>183</v>
-      </c>
       <c r="C11" s="7">
-        <v>362177</v>
+        <v>361507</v>
       </c>
       <c r="D11" s="7">
-        <v>2396427</v>
+        <v>2402287</v>
       </c>
       <c r="E11" s="7">
-        <v>2326988</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="9">
-        <v>181</v>
+        <v>2350458</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="8">
+        <v>182</v>
       </c>
       <c r="C12" s="7">
-        <v>363307</v>
+        <v>361683</v>
       </c>
       <c r="D12" s="10">
-        <v>2441017</v>
+        <v>2419537</v>
       </c>
       <c r="E12" s="10">
-        <v>2376431</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2359693</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6">
-        <v>177</v>
-      </c>
-      <c r="C13" s="14">
-        <v>357857</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2380537</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2338608</v>
+        <v>178</v>
+      </c>
+      <c r="C13" s="13">
+        <v>356103</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2395597</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2332333</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3864,537 +4076,583 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>24</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>15</v>
       </c>
       <c r="C2" s="7">
         <v>3423</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>35</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>2259</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>28</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>17</v>
       </c>
       <c r="C4" s="7">
         <v>2243</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>3790</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>29</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>19</v>
       </c>
       <c r="C6" s="7">
         <v>3224</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>29</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>1552</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>29</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>1578</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>26</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>1454</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>27</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>2478</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>27</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>24</v>
       </c>
       <c r="C11" s="7">
         <v>1646</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>553</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>31</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>26</v>
       </c>
       <c r="C13" s="7">
         <v>3056</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>21</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>960</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>25</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>28</v>
       </c>
       <c r="C15" s="7">
         <v>3242</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>22</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1483</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>20</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>30</v>
       </c>
       <c r="C17" s="7">
         <v>1256</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>24</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>31</v>
       </c>
       <c r="C18" s="7">
         <v>1274</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>35</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>10693</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>44</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>17143</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>48</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>27828</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>49</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>36812</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>47</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>36</v>
       </c>
       <c r="C23" s="7">
         <v>29964</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>51</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>37</v>
       </c>
       <c r="C24" s="7">
         <v>32397</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>42</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>12617</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>46</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>15983</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>42</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>8245</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>46</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>41</v>
       </c>
       <c r="C28" s="7">
         <v>16829</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>52</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>42</v>
       </c>
       <c r="C29" s="7">
         <v>20799</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>57</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>43</v>
       </c>
       <c r="C30" s="7">
         <v>69524</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>69</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>44</v>
       </c>
       <c r="C31" s="7">
         <v>98931</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>66</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>60113</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>59</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>46</v>
       </c>
       <c r="C33" s="7">
         <v>23780</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>50</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>47</v>
       </c>
       <c r="C34" s="7">
         <v>17207</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>54</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>48</v>
       </c>
       <c r="C35" s="7">
         <v>14191</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>51</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>12267</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>51</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>50</v>
       </c>
       <c r="C37" s="7">
         <v>19159</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>57</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>51</v>
       </c>
       <c r="C38" s="7">
         <v>21364</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>43</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>52</v>
       </c>
       <c r="C39" s="7">
         <v>11321</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>53</v>
       </c>
       <c r="C40" s="7">
         <v>6507</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
         <v>47</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>1</v>
       </c>
       <c r="C41" s="7">
         <v>11691</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
         <v>46</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
       <c r="C42" s="7">
         <v>11336</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>48</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="7">
         <v>11980</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>4</v>
       </c>
       <c r="C44" s="7">
         <v>5572</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>5</v>
       </c>
       <c r="C45" s="7">
         <v>6202</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>46</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>6</v>
       </c>
       <c r="C46" s="7">
         <v>5850</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>7</v>
       </c>
       <c r="C47" s="7">
         <v>6820</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -4404,8 +4662,9 @@
       <c r="C48" s="10">
         <v>3767</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>37</v>
       </c>
@@ -4415,8 +4674,9 @@
       <c r="C49" s="10">
         <v>3525</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>38</v>
       </c>
@@ -4426,8 +4686,9 @@
       <c r="C50" s="10">
         <v>2893</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>43</v>
       </c>
@@ -4437,8 +4698,9 @@
       <c r="C51" s="12">
         <v>4766</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>39</v>
       </c>
@@ -4448,8 +4710,9 @@
       <c r="C52" s="10">
         <v>8033</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>31</v>
       </c>
@@ -4459,8 +4722,9 @@
       <c r="C53" s="10">
         <v>2527</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
@@ -4470,8 +4734,9 @@
       <c r="C54" s="10">
         <v>3631</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>40</v>
       </c>
@@ -4481,8 +4746,9 @@
       <c r="C55" s="10">
         <v>4205</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>37</v>
       </c>
@@ -4492,8 +4758,9 @@
       <c r="C56" s="10">
         <v>3786</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>36</v>
       </c>
@@ -4503,8 +4770,9 @@
       <c r="C57" s="10">
         <v>2280</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>40</v>
       </c>
@@ -4514,8 +4782,9 @@
       <c r="C58" s="10">
         <v>2350</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>36</v>
       </c>
@@ -4525,8 +4794,9 @@
       <c r="C59" s="10">
         <v>3436</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>30</v>
       </c>
@@ -4536,27 +4806,36 @@
       <c r="C60" s="12">
         <v>821</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="12">
         <v>36</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="12">
         <v>21</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="10">
         <v>1832</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3EB49F-23AF-4845-9097-82781A857853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C99A63-ACFA-4797-AA54-956F0EFF0F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="14380" windowHeight="6140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="11820" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
     <sheet name="2_Testkapazitäten kurz" sheetId="5" r:id="rId5"/>
-    <sheet name="3_Probenrückstau" sheetId="6" r:id="rId6"/>
+    <sheet name="3_Probenrückstau" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -246,10 +246,13 @@
     <t>23/2021</t>
   </si>
   <si>
+    <t>24/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW13/2021</t>
+    <t>Bis einschließlich KW14/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -267,7 +270,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>24/2021</t>
+    <t>25/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -415,7 +418,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{280100AE-25BA-4BBB-98E4-05557DEC5717}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{A11541B0-70D0-41AD-BDC0-D8DA15CF9ECE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,10 +450,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
+        <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0364F-EA04-4AD7-BB9A-1B49F5F69B48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC48C407-508E-442A-BDD0-C658F4C22A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,8 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4921250" y="552450"/>
-          <a:ext cx="10058400" cy="4470400"/>
+          <a:off x="4695825" y="571500"/>
+          <a:ext cx="9601200" cy="4622800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,32 +784,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D881B2C2-1F6C-4E24-992B-A52020D26B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3132DAF9-BD0D-4BAF-9722-D24FDE443CE4}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.81640625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -817,22 +820,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -850,7 +853,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -864,7 +867,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -882,7 +885,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -900,7 +903,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -918,7 +921,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -936,7 +939,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -954,7 +957,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -972,7 +975,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -990,7 +993,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1047,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1083,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1155,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1209,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1281,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1335,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1353,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1407,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1443,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1458,7 +1461,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1476,7 +1479,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -1494,7 +1497,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1512,7 +1515,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -1530,7 +1533,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -1548,7 +1551,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1569,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1587,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1602,7 +1605,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1638,7 +1641,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1659,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1692,7 +1695,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1728,7 +1731,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +1785,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
@@ -1800,7 +1803,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>59</v>
       </c>
@@ -1818,61 +1821,61 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="10">
-        <v>1367247</v>
+        <v>1370314</v>
       </c>
       <c r="C56" s="10">
-        <v>107827</v>
+        <v>108108</v>
       </c>
       <c r="D56" s="11">
-        <v>7.8864316396378999</v>
+        <v>7.8892866890362363</v>
       </c>
       <c r="E56" s="12">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="7">
-        <v>1416888</v>
+        <v>1420289</v>
       </c>
       <c r="C57" s="7">
-        <v>131911</v>
+        <v>132249</v>
       </c>
       <c r="D57" s="9">
-        <v>9.3099101693288393</v>
+        <v>9.3114147895252319</v>
       </c>
       <c r="E57" s="7">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="7">
-        <v>1178378</v>
+        <v>1181417</v>
       </c>
       <c r="C58" s="7">
-        <v>128814</v>
+        <v>129155</v>
       </c>
       <c r="D58" s="9">
-        <v>10.931466812856316</v>
+        <v>10.932211065186975</v>
       </c>
       <c r="E58" s="7">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -1890,7 +1893,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>66</v>
       </c>
@@ -1944,7 +1947,7 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>70</v>
       </c>
@@ -2016,7 +2019,7 @@
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>71</v>
       </c>
@@ -2034,45 +2037,63 @@
       </c>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="13">
-        <v>822977</v>
-      </c>
-      <c r="C68" s="13">
-        <v>19018</v>
-      </c>
-      <c r="D68" s="14">
-        <v>2.3108786758317668</v>
-      </c>
-      <c r="E68" s="13">
-        <v>200</v>
-      </c>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="B68" s="10">
+        <v>827277</v>
+      </c>
+      <c r="C68" s="10">
+        <v>19178</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2.3182078070585788</v>
+      </c>
+      <c r="E68" s="10">
+        <v>206</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="10">
-        <v>63091197</v>
-      </c>
-      <c r="C69" s="10">
-        <v>4226453</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="6"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B69" s="13">
+        <v>708164</v>
+      </c>
+      <c r="C69" s="13">
+        <v>10231</v>
+      </c>
+      <c r="D69" s="14">
+        <v>1.4447218440926113</v>
+      </c>
+      <c r="E69" s="13">
+        <v>195</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="13">
+        <v>63813168</v>
+      </c>
+      <c r="C70" s="13">
+        <v>4237804</v>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,22 +2103,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2114,273 +2135,287 @@
         <v>5</v>
       </c>
       <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>51603577</v>
+        <v>52782594</v>
       </c>
       <c r="C2" s="7">
-        <v>3218035</v>
+        <v>3359930</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7">
-        <v>1169510</v>
+        <v>1312602</v>
       </c>
       <c r="C3" s="7">
-        <v>140935</v>
+        <v>163464</v>
       </c>
       <c r="D3" s="19">
-        <v>12.050773400825987</v>
+        <v>12.453432190412631</v>
       </c>
       <c r="E3" s="20">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1427668</v>
+      </c>
+      <c r="C4" s="7">
+        <v>177251</v>
+      </c>
+      <c r="D4" s="19">
+        <v>12.415421512564546</v>
+      </c>
+      <c r="E4" s="20">
+        <v>212</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1360960</v>
+      </c>
+      <c r="C5" s="7">
+        <v>152086</v>
+      </c>
+      <c r="D5" s="19">
+        <v>11.174905948742065</v>
+      </c>
+      <c r="E5" s="20">
+        <v>211</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1255724</v>
+      </c>
+      <c r="C6" s="7">
+        <v>128709</v>
+      </c>
+      <c r="D6" s="19">
+        <v>10.249784188245188</v>
+      </c>
+      <c r="E6" s="20">
+        <v>212</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1100259</v>
+      </c>
+      <c r="C7" s="7">
+        <v>90312</v>
+      </c>
+      <c r="D7" s="19">
+        <v>8.2082491486095552</v>
+      </c>
+      <c r="E7" s="20">
+        <v>210</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1218879</v>
+      </c>
+      <c r="C8" s="7">
+        <v>70279</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5.7658717559331158</v>
+      </c>
+      <c r="E8" s="20">
         <v>209</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1312602</v>
-      </c>
-      <c r="C4" s="7">
-        <v>163464</v>
-      </c>
-      <c r="D4" s="19">
-        <v>12.453432190412631</v>
-      </c>
-      <c r="E4" s="20">
-        <v>210</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1427668</v>
-      </c>
-      <c r="C5" s="7">
-        <v>177251</v>
-      </c>
-      <c r="D5" s="19">
-        <v>12.415421512564546</v>
-      </c>
-      <c r="E5" s="20">
-        <v>212</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1360960</v>
-      </c>
-      <c r="C6" s="7">
-        <v>152086</v>
-      </c>
-      <c r="D6" s="19">
-        <v>11.174905948742065</v>
-      </c>
-      <c r="E6" s="20">
-        <v>211</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1255724</v>
-      </c>
-      <c r="C7" s="7">
-        <v>128709</v>
-      </c>
-      <c r="D7" s="19">
-        <v>10.249784188245188</v>
-      </c>
-      <c r="E7" s="20">
-        <v>212</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1100259</v>
-      </c>
-      <c r="C8" s="7">
-        <v>90312</v>
-      </c>
-      <c r="D8" s="19">
-        <v>8.2082491486095552</v>
-      </c>
-      <c r="E8" s="20">
-        <v>210</v>
-      </c>
       <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7">
-        <v>1218879</v>
+        <v>944376</v>
       </c>
       <c r="C9" s="7">
-        <v>70279</v>
+        <v>39105</v>
       </c>
       <c r="D9" s="19">
-        <v>5.7658717559331158</v>
+        <v>4.1408295001143607</v>
       </c>
       <c r="E9" s="20">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7">
-        <v>944376</v>
+        <v>874665</v>
       </c>
       <c r="C10" s="7">
-        <v>39105</v>
+        <v>27259</v>
       </c>
       <c r="D10" s="19">
-        <v>4.1408295001143607</v>
+        <v>3.116507462857208</v>
       </c>
       <c r="E10" s="20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7">
-        <v>874665</v>
+        <v>827277</v>
       </c>
       <c r="C11" s="7">
-        <v>27259</v>
+        <v>19178</v>
       </c>
       <c r="D11" s="19">
-        <v>3.116507462857208</v>
+        <v>2.3182078070585788</v>
       </c>
       <c r="E11" s="20">
         <v>206</v>
       </c>
       <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="13">
-        <v>822977</v>
+        <v>708164</v>
       </c>
       <c r="C12" s="13">
-        <v>19018</v>
+        <v>10231</v>
       </c>
       <c r="D12" s="17">
-        <v>2.3108786758317668</v>
+        <v>1.4447218440926113</v>
       </c>
       <c r="E12" s="21">
-        <v>200</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="13">
-        <v>63091197</v>
+        <v>63813168</v>
       </c>
       <c r="C13" s="13">
-        <v>4226453</v>
+        <v>4237804</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="17"/>
       <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2397,9 +2432,8 @@
         <v>56500</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2416,9 +2450,8 @@
         <v>135250</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2435,9 +2468,8 @@
         <v>145500</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2454,9 +2486,8 @@
         <v>157660</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2473,9 +2504,8 @@
         <v>287650</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2492,9 +2522,8 @@
         <v>589620</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2511,9 +2540,8 @@
         <v>667170</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2530,9 +2558,8 @@
         <v>701268</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2549,9 +2576,8 @@
         <v>777476</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2568,9 +2594,8 @@
         <v>825063</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2587,9 +2612,8 @@
         <v>837380</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2606,9 +2630,8 @@
         <v>821554</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2625,9 +2648,8 @@
         <v>904760</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2644,9 +2666,8 @@
         <v>907022</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2663,9 +2684,8 @@
         <v>951456</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2682,9 +2702,8 @@
         <v>950136</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2701,9 +2720,8 @@
         <v>961246</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2720,9 +2738,8 @@
         <v>989576</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2739,9 +2756,8 @@
         <v>1011165</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2758,9 +2774,8 @@
         <v>1009137</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -2777,9 +2792,8 @@
         <v>1029124</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -2796,9 +2810,8 @@
         <v>1009346</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -2815,9 +2828,8 @@
         <v>976187</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -2834,9 +2846,8 @@
         <v>1035958</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -2853,9 +2864,8 @@
         <v>1126195</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -2872,9 +2882,8 @@
         <v>1089353</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2891,9 +2900,8 @@
         <v>1130813</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -2910,9 +2918,8 @@
         <v>1206181</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -2929,9 +2936,8 @@
         <v>1292743</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2948,9 +2954,8 @@
         <v>1378063</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -2967,9 +2972,8 @@
         <v>1527677</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -2986,9 +2990,8 @@
         <v>1505312</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -3005,9 +3008,8 @@
         <v>1578454</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -3024,9 +3026,8 @@
         <v>1648626</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -3043,9 +3044,8 @@
         <v>1622662</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -3062,9 +3062,8 @@
         <v>1710271</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -3081,9 +3080,8 @@
         <v>1821960</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
@@ -3100,9 +3098,8 @@
         <v>1868184</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
@@ -3119,9 +3116,8 @@
         <v>1958814</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
@@ -3138,9 +3134,8 @@
         <v>1954270</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
@@ -3157,9 +3152,8 @@
         <v>2029684</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -3176,9 +3170,8 @@
         <v>1284895</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
@@ -3195,9 +3188,8 @@
         <v>1190932</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
@@ -3214,9 +3206,8 @@
         <v>1891309</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -3233,9 +3224,8 @@
         <v>2020530</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -3252,9 +3242,8 @@
         <v>2149827</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
@@ -3271,9 +3260,8 @@
         <v>2180930</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
@@ -3290,9 +3278,8 @@
         <v>2208506</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
@@ -3309,9 +3296,8 @@
         <v>2247447</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
@@ -3328,9 +3314,8 @@
         <v>2219267</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
@@ -3347,9 +3332,8 @@
         <v>2319328</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
@@ -3366,9 +3350,8 @@
         <v>2274497</v>
       </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
@@ -3385,9 +3368,8 @@
         <v>2264447</v>
       </c>
       <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>60</v>
       </c>
@@ -3404,66 +3386,62 @@
         <v>2304591</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C56" s="7">
-        <v>351649</v>
+        <v>352249</v>
       </c>
       <c r="D56" s="7">
-        <v>2356203</v>
+        <v>2360403</v>
       </c>
       <c r="E56" s="7">
         <v>2251915</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="24">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="24">
-        <v>351313</v>
+        <v>351913</v>
       </c>
       <c r="D57" s="24">
-        <v>2329923</v>
+        <v>2334123</v>
       </c>
       <c r="E57" s="24">
         <v>2221205</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" s="7">
-        <v>353705</v>
+        <v>354305</v>
       </c>
       <c r="D58" s="7">
-        <v>2336559</v>
+        <v>2340759</v>
       </c>
       <c r="E58" s="7">
         <v>2229117</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
@@ -3480,9 +3458,8 @@
         <v>2248479</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -3499,9 +3476,8 @@
         <v>2317515</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>66</v>
       </c>
@@ -3518,9 +3494,8 @@
         <v>2317015</v>
       </c>
       <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>67</v>
       </c>
@@ -3537,9 +3512,8 @@
         <v>2318615</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -3556,9 +3530,8 @@
         <v>2362560</v>
       </c>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -3575,9 +3548,8 @@
         <v>2326988</v>
       </c>
       <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>70</v>
       </c>
@@ -3594,9 +3566,8 @@
         <v>2380781</v>
       </c>
       <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>71</v>
       </c>
@@ -3613,9 +3584,8 @@
         <v>2350458</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>72</v>
       </c>
@@ -3632,170 +3602,98 @@
         <v>2359693</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="22">
-        <v>178</v>
+    </row>
+    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="23">
+        <v>182</v>
       </c>
       <c r="C68" s="10">
-        <v>356103</v>
+        <v>357883</v>
       </c>
       <c r="D68" s="10">
-        <v>2395597</v>
+        <v>2407357</v>
       </c>
       <c r="E68" s="10">
-        <v>2332333</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2336233</v>
+      </c>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="13">
+        <v>171</v>
+      </c>
+      <c r="C69" s="13">
+        <v>353107</v>
+      </c>
+      <c r="D69" s="13">
+        <v>2377555</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2322835</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3804,270 +3702,285 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="7">
-        <v>351313</v>
+        <v>354305</v>
       </c>
       <c r="D2" s="7">
-        <v>2329923</v>
+        <v>2340759</v>
       </c>
       <c r="E2" s="7">
-        <v>2221205</v>
+        <v>2229117</v>
       </c>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="7">
-        <v>353705</v>
+        <v>354235</v>
       </c>
       <c r="D3" s="7">
-        <v>2336559</v>
+        <v>2317717</v>
       </c>
       <c r="E3" s="7">
-        <v>2229117</v>
+        <v>2248479</v>
       </c>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8">
+        <v>184</v>
+      </c>
+      <c r="C4" s="7">
+        <v>358761</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2402263</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2317515</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8">
         <v>183</v>
       </c>
-      <c r="C4" s="7">
-        <v>354235</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2317717</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2248479</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8">
-        <v>184</v>
-      </c>
       <c r="C5" s="7">
-        <v>358761</v>
+        <v>357471</v>
       </c>
       <c r="D5" s="7">
-        <v>2402263</v>
+        <v>2397893</v>
       </c>
       <c r="E5" s="7">
-        <v>2317515</v>
+        <v>2317015</v>
       </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8">
+        <v>185</v>
+      </c>
+      <c r="C6" s="7">
+        <v>359923</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2404913</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2318615</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8">
+        <v>186</v>
+      </c>
+      <c r="C7" s="7">
+        <v>365549</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2445394.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2362560</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8">
         <v>183</v>
       </c>
-      <c r="C6" s="7">
-        <v>357471</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2397893</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2317015</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8">
-        <v>185</v>
-      </c>
-      <c r="C7" s="7">
-        <v>359923</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2404913</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2318615</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8">
-        <v>186</v>
-      </c>
       <c r="C8" s="7">
-        <v>365549</v>
+        <v>362177</v>
       </c>
       <c r="D8" s="7">
-        <v>2445394.5</v>
+        <v>2396427</v>
       </c>
       <c r="E8" s="7">
-        <v>2362560</v>
+        <v>2326988</v>
       </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8">
         <v>183</v>
       </c>
       <c r="C9" s="7">
-        <v>362177</v>
+        <v>363957</v>
       </c>
       <c r="D9" s="7">
-        <v>2396427</v>
+        <v>2445367</v>
       </c>
       <c r="E9" s="7">
-        <v>2326988</v>
+        <v>2380781</v>
       </c>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="7">
-        <v>363957</v>
+        <v>361507</v>
       </c>
       <c r="D10" s="7">
-        <v>2445367</v>
+        <v>2402287</v>
       </c>
       <c r="E10" s="7">
-        <v>2380781</v>
+        <v>2350458</v>
       </c>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8">
         <v>182</v>
       </c>
       <c r="C11" s="7">
-        <v>361507</v>
+        <v>361683</v>
       </c>
       <c r="D11" s="7">
-        <v>2402287</v>
+        <v>2419537</v>
       </c>
       <c r="E11" s="7">
-        <v>2350458</v>
+        <v>2359693</v>
       </c>
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8">
         <v>182</v>
       </c>
       <c r="C12" s="7">
-        <v>361683</v>
+        <v>357883</v>
       </c>
       <c r="D12" s="10">
-        <v>2419537</v>
+        <v>2407357</v>
       </c>
       <c r="E12" s="10">
-        <v>2359693</v>
+        <v>2336233</v>
       </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C13" s="13">
-        <v>356103</v>
+        <v>353107</v>
       </c>
       <c r="D13" s="13">
-        <v>2395597</v>
+        <v>2377555</v>
       </c>
       <c r="E13" s="13">
-        <v>2332333</v>
+        <v>2322835</v>
       </c>
       <c r="F13" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4075,32 +3988,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34984694-8A1C-457F-9B9E-546DADE7F2A2}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>24</v>
       </c>
@@ -4112,7 +4025,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>35</v>
       </c>
@@ -4124,7 +4037,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>28</v>
       </c>
@@ -4136,7 +4049,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>30</v>
       </c>
@@ -4148,7 +4061,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>29</v>
       </c>
@@ -4160,7 +4073,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>29</v>
       </c>
@@ -4172,7 +4085,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>29</v>
       </c>
@@ -4184,7 +4097,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>26</v>
       </c>
@@ -4196,7 +4109,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>27</v>
       </c>
@@ -4208,7 +4121,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>27</v>
       </c>
@@ -4220,7 +4133,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>22</v>
       </c>
@@ -4232,7 +4145,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>31</v>
       </c>
@@ -4244,7 +4157,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>21</v>
       </c>
@@ -4256,7 +4169,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>25</v>
       </c>
@@ -4268,7 +4181,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>22</v>
       </c>
@@ -4280,7 +4193,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>20</v>
       </c>
@@ -4292,7 +4205,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>24</v>
       </c>
@@ -4304,7 +4217,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>35</v>
       </c>
@@ -4316,7 +4229,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44</v>
       </c>
@@ -4328,7 +4241,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>48</v>
       </c>
@@ -4340,7 +4253,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>49</v>
       </c>
@@ -4352,7 +4265,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>47</v>
       </c>
@@ -4364,7 +4277,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>51</v>
       </c>
@@ -4376,7 +4289,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42</v>
       </c>
@@ -4388,7 +4301,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>46</v>
       </c>
@@ -4400,7 +4313,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>42</v>
       </c>
@@ -4412,7 +4325,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>46</v>
       </c>
@@ -4424,7 +4337,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>52</v>
       </c>
@@ -4436,7 +4349,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>57</v>
       </c>
@@ -4448,7 +4361,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>69</v>
       </c>
@@ -4460,7 +4373,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>66</v>
       </c>
@@ -4472,7 +4385,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>59</v>
       </c>
@@ -4484,7 +4397,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>50</v>
       </c>
@@ -4496,7 +4409,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>54</v>
       </c>
@@ -4508,7 +4421,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>51</v>
       </c>
@@ -4520,7 +4433,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>51</v>
       </c>
@@ -4532,7 +4445,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>57</v>
       </c>
@@ -4544,7 +4457,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43</v>
       </c>
@@ -4556,7 +4469,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -4568,7 +4481,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>47</v>
       </c>
@@ -4580,7 +4493,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>46</v>
       </c>
@@ -4592,7 +4505,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>48</v>
       </c>
@@ -4604,7 +4517,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -4616,7 +4529,7 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -4628,7 +4541,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>46</v>
       </c>
@@ -4640,7 +4553,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -4652,7 +4565,7 @@
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -4664,7 +4577,7 @@
       </c>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>37</v>
       </c>
@@ -4676,7 +4589,7 @@
       </c>
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>38</v>
       </c>
@@ -4688,7 +4601,7 @@
       </c>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43</v>
       </c>
@@ -4700,7 +4613,7 @@
       </c>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>39</v>
       </c>
@@ -4712,7 +4625,7 @@
       </c>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>31</v>
       </c>
@@ -4724,7 +4637,7 @@
       </c>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>44</v>
       </c>
@@ -4736,7 +4649,7 @@
       </c>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>40</v>
       </c>
@@ -4748,7 +4661,7 @@
       </c>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>37</v>
       </c>
@@ -4760,7 +4673,7 @@
       </c>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>36</v>
       </c>
@@ -4772,7 +4685,7 @@
       </c>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>40</v>
       </c>
@@ -4784,7 +4697,7 @@
       </c>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>36</v>
       </c>
@@ -4796,7 +4709,7 @@
       </c>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>30</v>
       </c>
@@ -4808,7 +4721,7 @@
       </c>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>36</v>
       </c>
@@ -4820,21 +4733,21 @@
       </c>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C99A63-ACFA-4797-AA54-956F0EFF0F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A207B8F-6E9A-495E-A090-349B322B1F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="11820" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
@@ -18,14 +13,14 @@
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
     <sheet name="2_Testkapazitäten kurz" sheetId="5" r:id="rId5"/>
-    <sheet name="3_Probenrückstau" sheetId="8" r:id="rId6"/>
+    <sheet name="3_Probenrückstau" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -249,10 +244,13 @@
     <t>24/2021</t>
   </si>
   <si>
+    <t>25/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW14/2021</t>
+    <t>Bis einschließlich KW15/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -270,7 +268,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>25/2021</t>
+    <t>26/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -383,11 +381,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,10 +409,14 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{A11541B0-70D0-41AD-BDC0-D8DA15CF9ECE}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{5B709458-1482-46DE-A395-D42763BB1688}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,61 +429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC48C407-508E-442A-BDD0-C658F4C22A73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="571500"/>
-          <a:ext cx="9601200" cy="4622800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,32 +727,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3132DAF9-BD0D-4BAF-9722-D24FDE443CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C895B36-F0E5-49E7-A0FA-A70A15662355}">
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="140.81640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -820,22 +763,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD70"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -851,9 +794,8 @@
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -865,9 +807,8 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -883,9 +824,8 @@
       <c r="E3" s="7">
         <v>119</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -901,9 +841,8 @@
       <c r="E4" s="7">
         <v>154</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -919,9 +858,8 @@
       <c r="E5" s="7">
         <v>159</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -937,9 +875,8 @@
       <c r="E6" s="7">
         <v>163</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -955,9 +892,8 @@
       <c r="E7" s="7">
         <v>175</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -973,9 +909,8 @@
       <c r="E8" s="7">
         <v>172</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -991,9 +926,8 @@
       <c r="E9" s="7">
         <v>180</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1009,9 +943,8 @@
       <c r="E10" s="7">
         <v>178</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1027,9 +960,8 @@
       <c r="E11" s="7">
         <v>181</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1045,9 +977,8 @@
       <c r="E12" s="7">
         <v>183</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1063,9 +994,8 @@
       <c r="E13" s="7">
         <v>181</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1081,9 +1011,8 @@
       <c r="E14" s="7">
         <v>175</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1099,9 +1028,8 @@
       <c r="E15" s="7">
         <v>178</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1117,9 +1045,8 @@
       <c r="E16" s="7">
         <v>175</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1135,9 +1062,8 @@
       <c r="E17" s="7">
         <v>175</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1153,9 +1079,8 @@
       <c r="E18" s="7">
         <v>182</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1171,9 +1096,8 @@
       <c r="E19" s="7">
         <v>154</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1189,9 +1113,8 @@
       <c r="E20" s="7">
         <v>182</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1207,9 +1130,8 @@
       <c r="E21" s="7">
         <v>182</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1225,9 +1147,8 @@
       <c r="E22" s="7">
         <v>187</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1243,9 +1164,8 @@
       <c r="E23" s="7">
         <v>175</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1261,9 +1181,8 @@
       <c r="E24" s="7">
         <v>174</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1279,9 +1198,8 @@
       <c r="E25" s="7">
         <v>189</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1297,9 +1215,8 @@
       <c r="E26" s="7">
         <v>197</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1315,9 +1232,8 @@
       <c r="E27" s="7">
         <v>196</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1333,9 +1249,8 @@
       <c r="E28" s="7">
         <v>195</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1351,9 +1266,8 @@
       <c r="E29" s="7">
         <v>197</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1369,9 +1283,8 @@
       <c r="E30" s="7">
         <v>206</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1387,9 +1300,8 @@
       <c r="E31" s="7">
         <v>200</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1405,9 +1317,8 @@
       <c r="E32" s="7">
         <v>198</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1423,9 +1334,8 @@
       <c r="E33" s="7">
         <v>198</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1441,9 +1351,8 @@
       <c r="E34" s="7">
         <v>205</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1459,9 +1368,8 @@
       <c r="E35" s="7">
         <v>209</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1477,9 +1385,8 @@
       <c r="E36" s="7">
         <v>210</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -1495,9 +1402,8 @@
       <c r="E37" s="7">
         <v>208</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1513,9 +1419,8 @@
       <c r="E38" s="7">
         <v>206</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -1531,9 +1436,8 @@
       <c r="E39" s="7">
         <v>204</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -1549,9 +1453,8 @@
       <c r="E40" s="7">
         <v>206</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1567,9 +1470,8 @@
       <c r="E41" s="7">
         <v>208</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1585,9 +1487,8 @@
       <c r="E42" s="7">
         <v>206</v>
       </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1603,9 +1504,8 @@
       <c r="E43" s="7">
         <v>212</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1621,9 +1521,8 @@
       <c r="E44" s="7">
         <v>208</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1639,9 +1538,8 @@
       <c r="E45" s="7">
         <v>205</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1657,9 +1555,8 @@
       <c r="E46" s="7">
         <v>206</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1675,9 +1572,8 @@
       <c r="E47" s="7">
         <v>206</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1693,9 +1589,8 @@
       <c r="E48" s="7">
         <v>208</v>
       </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1711,9 +1606,8 @@
       <c r="E49" s="7">
         <v>208</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1729,9 +1623,8 @@
       <c r="E50" s="7">
         <v>208</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1747,9 +1640,8 @@
       <c r="E51" s="7">
         <v>213</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
@@ -1765,9 +1657,8 @@
       <c r="E52" s="10">
         <v>207</v>
       </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -1783,9 +1674,8 @@
       <c r="E53" s="10">
         <v>210</v>
       </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
@@ -1801,9 +1691,8 @@
       <c r="E54" s="10">
         <v>211</v>
       </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>59</v>
       </c>
@@ -1819,9 +1708,8 @@
       <c r="E55" s="10">
         <v>215</v>
       </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>60</v>
       </c>
@@ -1837,9 +1725,8 @@
       <c r="E56" s="12">
         <v>210</v>
       </c>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
@@ -1855,9 +1742,8 @@
       <c r="E57" s="7">
         <v>208</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -1873,9 +1759,8 @@
       <c r="E58" s="7">
         <v>208</v>
       </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -1891,9 +1776,8 @@
       <c r="E59" s="7">
         <v>209</v>
       </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1909,9 +1793,8 @@
       <c r="E60" s="10">
         <v>210</v>
       </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
@@ -1927,9 +1810,8 @@
       <c r="E61" s="10">
         <v>212</v>
       </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>66</v>
       </c>
@@ -1945,9 +1827,8 @@
       <c r="E62" s="10">
         <v>211</v>
       </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>67</v>
       </c>
@@ -1963,9 +1844,8 @@
       <c r="E63" s="10">
         <v>212</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -1981,9 +1861,8 @@
       <c r="E64" s="10">
         <v>210</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
@@ -1999,101 +1878,111 @@
       <c r="E65" s="10">
         <v>209</v>
       </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="10">
-        <v>944376</v>
+        <v>948957</v>
       </c>
       <c r="C66" s="10">
-        <v>39105</v>
+        <v>39316</v>
       </c>
       <c r="D66" s="11">
-        <v>4.1408295001143607</v>
+        <v>4.1430749759999665</v>
       </c>
       <c r="E66" s="10">
-        <v>207</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="10">
-        <v>874665</v>
+        <v>881789</v>
       </c>
       <c r="C67" s="10">
-        <v>27259</v>
+        <v>27440</v>
       </c>
       <c r="D67" s="11">
-        <v>3.116507462857208</v>
+        <v>3.111855557281844</v>
       </c>
       <c r="E67" s="12">
-        <v>206</v>
-      </c>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="10">
-        <v>827277</v>
+        <v>830132</v>
       </c>
       <c r="C68" s="10">
-        <v>19178</v>
+        <v>19211</v>
       </c>
       <c r="D68" s="11">
-        <v>2.3182078070585788</v>
+        <v>2.3142102701739002</v>
       </c>
       <c r="E68" s="10">
-        <v>206</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="13">
-        <v>708164</v>
-      </c>
-      <c r="C69" s="13">
-        <v>10231</v>
-      </c>
-      <c r="D69" s="14">
-        <v>1.4447218440926113</v>
-      </c>
-      <c r="E69" s="13">
-        <v>195</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
+        <v>725937</v>
+      </c>
+      <c r="C69" s="10">
+        <v>10395</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1.4319424412862274</v>
+      </c>
+      <c r="E69" s="10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="13">
-        <v>63813168</v>
+        <v>705520</v>
       </c>
       <c r="C70" s="13">
-        <v>4237804</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+        <v>6793</v>
+      </c>
+      <c r="D70" s="25">
+        <v>0.9628359224401859</v>
+      </c>
+      <c r="E70" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="6">
+        <v>64551021</v>
+      </c>
+      <c r="C71" s="6">
+        <v>4245186</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,319 +1992,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
-        <v>52782594</v>
+        <v>54095196</v>
       </c>
       <c r="C2" s="7">
-        <v>3359930</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+        <v>3523394</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>64</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="7">
-        <v>1312602</v>
+        <v>1427668</v>
       </c>
       <c r="C3" s="7">
-        <v>163464</v>
-      </c>
-      <c r="D3" s="19">
-        <v>12.453432190412631</v>
-      </c>
-      <c r="E3" s="20">
+        <v>177251</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12.415421512564546</v>
+      </c>
+      <c r="E3" s="18">
+        <v>212</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1360960</v>
+      </c>
+      <c r="C4" s="7">
+        <v>152086</v>
+      </c>
+      <c r="D4" s="17">
+        <v>11.174905948742065</v>
+      </c>
+      <c r="E4" s="18">
+        <v>211</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1255724</v>
+      </c>
+      <c r="C5" s="7">
+        <v>128709</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10.249784188245188</v>
+      </c>
+      <c r="E5" s="18">
+        <v>212</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1100259</v>
+      </c>
+      <c r="C6" s="7">
+        <v>90312</v>
+      </c>
+      <c r="D6" s="17">
+        <v>8.2082491486095552</v>
+      </c>
+      <c r="E6" s="18">
         <v>210</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1427668</v>
-      </c>
-      <c r="C4" s="7">
-        <v>177251</v>
-      </c>
-      <c r="D4" s="19">
-        <v>12.415421512564546</v>
-      </c>
-      <c r="E4" s="20">
-        <v>212</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1360960</v>
-      </c>
-      <c r="C5" s="7">
-        <v>152086</v>
-      </c>
-      <c r="D5" s="19">
-        <v>11.174905948742065</v>
-      </c>
-      <c r="E5" s="20">
-        <v>211</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1255724</v>
-      </c>
-      <c r="C6" s="7">
-        <v>128709</v>
-      </c>
-      <c r="D6" s="19">
-        <v>10.249784188245188</v>
-      </c>
-      <c r="E6" s="20">
-        <v>212</v>
-      </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>68</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="7">
-        <v>1100259</v>
+        <v>1218879</v>
       </c>
       <c r="C7" s="7">
-        <v>90312</v>
-      </c>
-      <c r="D7" s="19">
-        <v>8.2082491486095552</v>
-      </c>
-      <c r="E7" s="20">
-        <v>210</v>
-      </c>
-      <c r="F7" s="20"/>
+        <v>70279</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.7658717559331158</v>
+      </c>
+      <c r="E7" s="18">
+        <v>209</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>69</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="7">
-        <v>1218879</v>
+        <v>948957</v>
       </c>
       <c r="C8" s="7">
-        <v>70279</v>
-      </c>
-      <c r="D8" s="19">
-        <v>5.7658717559331158</v>
-      </c>
-      <c r="E8" s="20">
-        <v>209</v>
-      </c>
-      <c r="F8" s="20"/>
+        <v>39316</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4.1430749759999665</v>
+      </c>
+      <c r="E8" s="18">
+        <v>208</v>
+      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>70</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="7">
-        <v>944376</v>
+        <v>881789</v>
       </c>
       <c r="C9" s="7">
-        <v>39105</v>
-      </c>
-      <c r="D9" s="19">
-        <v>4.1408295001143607</v>
-      </c>
-      <c r="E9" s="20">
+        <v>27440</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3.111855557281844</v>
+      </c>
+      <c r="E9" s="18">
+        <v>208</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7">
+        <v>830132</v>
+      </c>
+      <c r="C10" s="7">
+        <v>19211</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2.3142102701739002</v>
+      </c>
+      <c r="E10" s="18">
         <v>207</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="7">
-        <v>874665</v>
-      </c>
-      <c r="C10" s="7">
-        <v>27259</v>
-      </c>
-      <c r="D10" s="19">
-        <v>3.116507462857208</v>
-      </c>
-      <c r="E10" s="20">
-        <v>206</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>72</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="7">
-        <v>827277</v>
+        <v>725937</v>
       </c>
       <c r="C11" s="7">
-        <v>19178</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2.3182078070585788</v>
-      </c>
-      <c r="E11" s="20">
-        <v>206</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>10395</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.4319424412862274</v>
+      </c>
+      <c r="E11" s="18">
+        <v>202</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>73</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="13">
-        <v>708164</v>
+        <v>705520</v>
       </c>
       <c r="C12" s="13">
-        <v>10231</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1.4447218440926113</v>
-      </c>
-      <c r="E12" s="21">
-        <v>195</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>6793</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.9628359224401859</v>
+      </c>
+      <c r="E12" s="19">
+        <v>201</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="13">
-        <v>63813168</v>
+        <v>64551021</v>
       </c>
       <c r="C13" s="13">
-        <v>4237804</v>
+        <v>4245186</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A65:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2332,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +2350,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2368,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2386,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2505,7 +2404,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2523,7 +2422,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2541,7 +2440,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2458,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +2476,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2494,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2613,7 +2512,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +2530,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2649,7 +2548,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2566,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -2685,7 +2584,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2703,7 +2602,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +2620,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -2739,7 +2638,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2757,7 +2656,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2775,7 +2674,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -2793,7 +2692,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -2811,7 +2710,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -2829,7 +2728,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -2847,7 +2746,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -2865,7 +2764,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2782,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2800,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -2919,7 +2818,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -2937,7 +2836,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2955,7 +2854,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -2973,7 +2872,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -2991,7 +2890,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -3009,7 +2908,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -3027,7 +2926,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -3045,7 +2944,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -3063,7 +2962,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -3081,7 +2980,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
@@ -3099,7 +2998,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
@@ -3117,7 +3016,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
@@ -3135,7 +3034,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
@@ -3153,7 +3052,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -3171,7 +3070,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
@@ -3189,7 +3088,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
@@ -3207,7 +3106,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -3225,7 +3124,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -3243,7 +3142,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
@@ -3261,7 +3160,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
@@ -3279,7 +3178,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
@@ -3297,7 +3196,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
@@ -3315,7 +3214,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
@@ -3333,7 +3232,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
@@ -3351,7 +3250,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
@@ -3369,25 +3268,25 @@
       </c>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="21">
         <v>187</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="22">
         <v>360911</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="22">
         <v>2414443</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="22">
         <v>2304591</v>
       </c>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
@@ -3405,25 +3304,25 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="22">
         <v>181</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <v>351913</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="22">
         <v>2334123</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="22">
         <v>2221205</v>
       </c>
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
@@ -3441,7 +3340,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
@@ -3451,15 +3350,15 @@
       <c r="C59" s="10">
         <v>354235</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="23">
         <v>2317717</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>2248479</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -3469,19 +3368,19 @@
       <c r="C60" s="10">
         <v>358761</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="23">
         <v>2402263</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="23">
         <v>2317515</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>183</v>
       </c>
       <c r="C61" s="10">
@@ -3493,27 +3392,27 @@
       <c r="E61" s="10">
         <v>2317015</v>
       </c>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="21">
         <v>185</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="22">
         <v>359923</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="22">
         <v>2404913</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="22">
         <v>2318615</v>
       </c>
-      <c r="F62" s="23"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -3531,7 +3430,7 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -3549,11 +3448,11 @@
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>183</v>
       </c>
       <c r="C65" s="10">
@@ -3565,89 +3464,99 @@
       <c r="E65" s="10">
         <v>2380781</v>
       </c>
-      <c r="F65" s="23"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="10">
-        <v>361507</v>
+        <v>363007</v>
       </c>
       <c r="D66" s="10">
-        <v>2402287</v>
+        <v>2411287</v>
       </c>
       <c r="E66" s="10">
         <v>2350458</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C67" s="10">
-        <v>361683</v>
+        <v>363633</v>
       </c>
       <c r="D67" s="10">
-        <v>2419537</v>
+        <v>2431687</v>
       </c>
       <c r="E67" s="10">
-        <v>2359693</v>
+        <v>2362843</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="23">
-        <v>182</v>
+      <c r="B68" s="21">
+        <v>183</v>
       </c>
       <c r="C68" s="10">
-        <v>357883</v>
+        <v>358333</v>
       </c>
       <c r="D68" s="10">
-        <v>2407357</v>
+        <v>2410507</v>
       </c>
       <c r="E68" s="10">
-        <v>2336233</v>
-      </c>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="13">
-        <v>171</v>
-      </c>
-      <c r="C69" s="13">
-        <v>353107</v>
-      </c>
-      <c r="D69" s="13">
-        <v>2377555</v>
-      </c>
-      <c r="E69" s="13">
-        <v>2322835</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2339383</v>
+      </c>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="10">
+        <v>178</v>
+      </c>
+      <c r="C69" s="10">
+        <v>358687</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2413015</v>
+      </c>
+      <c r="E69" s="10">
+        <v>2343035</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="13">
+        <v>178</v>
+      </c>
+      <c r="C70" s="13">
+        <v>356277</v>
+      </c>
+      <c r="D70" s="13">
+        <v>2392005</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2321969</v>
+      </c>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3655,7 +3564,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3663,1095 +3572,960 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8">
         <v>183</v>
       </c>
       <c r="C2" s="7">
-        <v>354305</v>
+        <v>354235</v>
       </c>
       <c r="D2" s="7">
-        <v>2340759</v>
+        <v>2317717</v>
       </c>
       <c r="E2" s="7">
-        <v>2229117</v>
+        <v>2248479</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8">
+        <v>184</v>
+      </c>
+      <c r="C3" s="7">
+        <v>358761</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2402263</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2317515</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8">
         <v>183</v>
       </c>
-      <c r="C3" s="7">
-        <v>354235</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2317717</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2248479</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8">
-        <v>184</v>
-      </c>
       <c r="C4" s="7">
-        <v>358761</v>
+        <v>357471</v>
       </c>
       <c r="D4" s="7">
-        <v>2402263</v>
+        <v>2397893</v>
       </c>
       <c r="E4" s="7">
-        <v>2317515</v>
+        <v>2317015</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8">
+        <v>185</v>
+      </c>
+      <c r="C5" s="7">
+        <v>359923</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2404913</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2318615</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="8">
+        <v>186</v>
+      </c>
+      <c r="C6" s="7">
+        <v>365549</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2445394.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2362560</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8">
         <v>183</v>
       </c>
-      <c r="C5" s="7">
-        <v>357471</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2397893</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2317015</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8">
-        <v>185</v>
-      </c>
-      <c r="C6" s="7">
-        <v>359923</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2404913</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2318615</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="8">
-        <v>186</v>
-      </c>
       <c r="C7" s="7">
-        <v>365549</v>
+        <v>362177</v>
       </c>
       <c r="D7" s="7">
-        <v>2445394.5</v>
+        <v>2396427</v>
       </c>
       <c r="E7" s="7">
-        <v>2362560</v>
+        <v>2326988</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8">
         <v>183</v>
       </c>
       <c r="C8" s="7">
-        <v>362177</v>
+        <v>363957</v>
       </c>
       <c r="D8" s="7">
-        <v>2396427</v>
+        <v>2445367</v>
       </c>
       <c r="E8" s="7">
-        <v>2326988</v>
+        <v>2380781</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8">
         <v>183</v>
       </c>
       <c r="C9" s="7">
-        <v>363957</v>
+        <v>363007</v>
       </c>
       <c r="D9" s="7">
-        <v>2445367</v>
+        <v>2411287</v>
       </c>
       <c r="E9" s="7">
-        <v>2380781</v>
+        <v>2350458</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" s="7">
-        <v>361507</v>
+        <v>363633</v>
       </c>
       <c r="D10" s="7">
-        <v>2402287</v>
+        <v>2431687</v>
       </c>
       <c r="E10" s="7">
-        <v>2350458</v>
+        <v>2362843</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="7">
-        <v>361683</v>
+        <v>358333</v>
       </c>
       <c r="D11" s="7">
-        <v>2419537</v>
+        <v>2410507</v>
       </c>
       <c r="E11" s="7">
-        <v>2359693</v>
+        <v>2339383</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C12" s="7">
-        <v>357883</v>
+        <v>358687</v>
       </c>
       <c r="D12" s="10">
-        <v>2407357</v>
+        <v>2413015</v>
       </c>
       <c r="E12" s="10">
-        <v>2336233</v>
+        <v>2343035</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C13" s="13">
-        <v>353107</v>
+        <v>356277</v>
       </c>
       <c r="D13" s="13">
-        <v>2377555</v>
+        <v>2392005</v>
       </c>
       <c r="E13" s="13">
-        <v>2322835</v>
+        <v>2321969</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34984694-8A1C-457F-9B9E-546DADE7F2A2}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="16384" width="20.54296875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>24</v>
       </c>
       <c r="B2" s="8">
         <v>15</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>3423</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>35</v>
       </c>
       <c r="B3" s="8">
         <v>16</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>2259</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>28</v>
       </c>
       <c r="B4" s="8">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2243</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>3790</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>29</v>
       </c>
       <c r="B6" s="8">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>3224</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>29</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1552</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>29</v>
       </c>
       <c r="B8" s="8">
         <v>21</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1578</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>26</v>
       </c>
       <c r="B9" s="8">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1454</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>27</v>
       </c>
       <c r="B10" s="8">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>2478</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>27</v>
       </c>
       <c r="B11" s="8">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>1646</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>22</v>
       </c>
       <c r="B12" s="8">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>553</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>31</v>
       </c>
       <c r="B13" s="8">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>3056</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>27</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>960</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>25</v>
       </c>
       <c r="B15" s="8">
         <v>28</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>3242</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>29</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>1483</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>20</v>
       </c>
       <c r="B17" s="8">
         <v>30</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>1256</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>24</v>
       </c>
       <c r="B18" s="8">
         <v>31</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>1274</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>35</v>
       </c>
       <c r="B19" s="8">
         <v>32</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>10693</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>33</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>17143</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>48</v>
       </c>
       <c r="B21" s="8">
         <v>34</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>27828</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>49</v>
       </c>
       <c r="B22" s="8">
         <v>35</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>36812</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>47</v>
       </c>
       <c r="B23" s="8">
         <v>36</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>29964</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>51</v>
       </c>
       <c r="B24" s="8">
         <v>37</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>32397</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>42</v>
       </c>
       <c r="B25" s="8">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>12617</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>46</v>
       </c>
       <c r="B26" s="8">
         <v>39</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>15983</v>
       </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>42</v>
       </c>
       <c r="B27" s="8">
         <v>40</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>8245</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>46</v>
       </c>
       <c r="B28" s="8">
         <v>41</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>16829</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>52</v>
       </c>
       <c r="B29" s="8">
         <v>42</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>20799</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>57</v>
       </c>
       <c r="B30" s="8">
         <v>43</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>69524</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>69</v>
       </c>
       <c r="B31" s="8">
         <v>44</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>98931</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>66</v>
       </c>
       <c r="B32" s="8">
         <v>45</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>60113</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>59</v>
       </c>
       <c r="B33" s="8">
         <v>46</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>23780</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>50</v>
       </c>
       <c r="B34" s="8">
         <v>47</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>17207</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>54</v>
       </c>
       <c r="B35" s="8">
         <v>48</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>14191</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>51</v>
       </c>
       <c r="B36" s="8">
         <v>49</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>12267</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>51</v>
       </c>
       <c r="B37" s="8">
         <v>50</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>19159</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>57</v>
       </c>
       <c r="B38" s="8">
         <v>51</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>21364</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>43</v>
       </c>
       <c r="B39" s="8">
         <v>52</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>11321</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="8">
         <v>53</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>6507</v>
       </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>47</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>11691</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>46</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>11336</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>48</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>11980</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>4</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>5572</v>
       </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>42</v>
       </c>
       <c r="B45" s="8">
         <v>5</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>6202</v>
       </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>46</v>
       </c>
       <c r="B46" s="8">
         <v>6</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>5850</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44</v>
       </c>
       <c r="B47" s="8">
         <v>7</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>6820</v>
       </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>44</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="8">
         <v>8</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>3767</v>
       </c>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
         <v>37</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="8">
         <v>9</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>3525</v>
       </c>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
         <v>38</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="8">
         <v>10</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>2893</v>
       </c>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
         <v>43</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>11</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="8">
         <v>4766</v>
       </c>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
         <v>39</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="8">
         <v>12</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>8033</v>
       </c>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>31</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="8">
         <v>13</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>2527</v>
       </c>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
         <v>44</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="8">
         <v>14</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>3631</v>
       </c>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
         <v>40</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="8">
         <v>15</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <v>4205</v>
       </c>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
         <v>37</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="8">
         <v>16</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <v>3786</v>
       </c>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
         <v>36</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="8">
         <v>17</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <v>2280</v>
       </c>
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
         <v>40</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="8">
         <v>18</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <v>2350</v>
       </c>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
         <v>36</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="8">
         <v>19</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>3436</v>
       </c>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
         <v>30</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="8">
         <v>20</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="8">
         <v>821</v>
       </c>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
         <v>36</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="8">
         <v>21</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>1832</v>
       </c>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>87</v>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Testzahlen-gesamt.xlsx
+++ b/input/Testzahlen-gesamt.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A207B8F-6E9A-495E-A090-349B322B1F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF79CDD-8ADE-44F2-955E-73CAA3356509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
+    <sheet name="0_Erläuterungen" sheetId="1" r:id="rId1"/>
     <sheet name="1_Testzahlerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -247,10 +247,16 @@
     <t>25/2021</t>
   </si>
   <si>
+    <t>26/2021</t>
+  </si>
+  <si>
+    <t>27/2021</t>
+  </si>
+  <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW15/2021</t>
+    <t>Bis einschließlich KW17/2021</t>
   </si>
   <si>
     <t>KW, für die die Angabe prognostisch erfolgt ist</t>
@@ -268,7 +274,7 @@
     <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
   </si>
   <si>
-    <t>26/2021</t>
+    <t>28/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -284,16 +290,13 @@
   </si>
   <si>
     <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus (bis KW 22/2021) befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
-  </si>
-  <si>
-    <t>Die Erfassung von Probenrückstau wurde in der KW 22/2021 eingestellt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -310,14 +313,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,79 +339,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{5B709458-1482-46DE-A395-D42763BB1688}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{D50DE7AA-732F-4411-823F-1DFCB8473B17}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,1262 +664,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C895B36-F0E5-49E7-A0FA-A70A15662355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.81640625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="140.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>87</v>
+    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>69493</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>1722</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>129291</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>7502</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>5.8024147079069692</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>374534</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>25886</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>6.9115220514025424</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>377599</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>33139</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>8.7762414625038723</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>417646</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>37649</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>9.0145721496195339</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>386241</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>30829</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>7.9818041067623575</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>339983</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>22724</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>6.6838636049449534</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>363659</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>18127</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>4.984614707734444</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>327799</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>12600</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>3.8438189256221036</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>385638</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>10181</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>2.6400406598934754</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>431682</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>7142</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>1.6544586061035669</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>356489</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>5315</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>1.4909295939005129</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>408078</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>4335</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>1.0622969138252982</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>342328</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>3219</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0.94032623682550076</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>327980</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>2956</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>0.90127446795536315</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>384834</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>5588</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>1.452054652135726</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>472823</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>3919</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>0.82885138836308725</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>512969</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>3204</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>0.62459914731689448</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>513572</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>3042</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>0.59232201132460494</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>544219</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>3608</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>0.66296840058873363</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>556634</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>4537</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>0.81507777103087486</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>589201</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>5888</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>0.99931941731259788</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>719476</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>7374</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <v>1.0249125752631083</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>871191</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>8545</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <v>0.98084117030593754</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>1034449</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>8868</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>0.85726797551160094</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>1133623</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>8273</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>0.72978406401422702</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>1052942</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>8203</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>0.77905525660482722</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>1148465</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>10403</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>0.90581776545214709</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>1147879</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>13647</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30">
         <v>1.1888883758654005</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>1220279</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>15178</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <v>1.2438139146867233</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>1129127</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>19930</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>1.7650804559628812</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>1218988</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>30220</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>2.4791056187591676</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>1284349</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>46000</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34">
         <v>3.581581018866367</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>1445463</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>80097</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>5.5412694755936336</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>1663992</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>118111</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36">
         <v>7.0980509521680393</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>1634729</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>128537</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37">
         <v>7.8628934826506418</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38">
         <v>1467454</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
         <v>128986</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38">
         <v>8.789781485484383</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>1400145</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>131185</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39">
         <v>9.3693867420874266</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <v>1381117</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <v>128882</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40">
         <v>9.3317220771303226</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>1395790</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>138305</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>9.9087255246133008</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>1516038</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>169520</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42">
         <v>11.181777765464981</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>1672033</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>188283</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43">
         <v>11.260722724970142</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>1090372</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>141413</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44">
         <v>12.969243524228427</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>845729</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>129930</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45">
         <v>15.363077297810529</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>1231405</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>157772</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46">
         <v>12.812356617035011</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>1187564</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47">
         <v>124037</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47">
         <v>10.44465814052969</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>1113690</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>110163</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48">
         <v>9.8917113379845372</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>1151633</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>97383</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49">
         <v>8.456079323881827</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>1101499</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>82436</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50">
         <v>7.4839831901799272</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>1060602</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>67882</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51">
         <v>6.4003273612533258</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>1103231</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52">
         <v>67379</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52">
         <v>6.1074244650485703</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>1171798</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53">
         <v>72059</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53">
         <v>6.149438725787209</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>1153270</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54">
         <v>71715</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54">
         <v>6.218405056925091</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>1280050</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55">
         <v>85655</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55">
         <v>6.6915354868950434</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>1370314</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56">
         <v>108108</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56">
         <v>7.8892866890362363</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57">
         <v>1420289</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57">
         <v>132249</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57">
         <v>9.3114147895252319</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>1181417</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>129155</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58">
         <v>10.932211065186975</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59">
         <v>1169510</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59">
         <v>140935</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59">
         <v>12.050773400825987</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59">
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>1312602</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60">
         <v>163464</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60">
         <v>12.453432190412631</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60">
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61">
         <v>1427668</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61">
         <v>177251</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61">
         <v>12.415421512564546</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61">
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62">
         <v>1360960</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62">
         <v>152086</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62">
         <v>11.174905948742065</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63">
         <v>1255724</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63">
         <v>128709</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63">
         <v>10.249784188245188</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63">
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64">
         <v>1100259</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64">
         <v>90312</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64">
         <v>8.2082491486095552</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64">
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65">
         <v>1218879</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65">
         <v>70279</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65">
         <v>5.7658717559331158</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66">
         <v>948957</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66">
         <v>39316</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66">
         <v>4.1430749759999665</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67">
         <v>881789</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67">
         <v>27440</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67">
         <v>3.111855557281844</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67">
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68">
         <v>830132</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68">
         <v>19211</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68">
         <v>2.3142102701739002</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="10">
-        <v>725937</v>
-      </c>
-      <c r="C69" s="10">
-        <v>10395</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1.4319424412862274</v>
-      </c>
-      <c r="E69" s="10">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+      <c r="B69">
+        <v>726368</v>
+      </c>
+      <c r="C69">
+        <v>10398</v>
+      </c>
+      <c r="D69">
+        <v>1.4315057932067492</v>
+      </c>
+      <c r="E69">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="13">
-        <v>705520</v>
-      </c>
-      <c r="C70" s="13">
-        <v>6793</v>
-      </c>
-      <c r="D70" s="25">
-        <v>0.9628359224401859</v>
-      </c>
-      <c r="E70" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+      <c r="B70">
+        <v>709606</v>
+      </c>
+      <c r="C70">
+        <v>6882</v>
+      </c>
+      <c r="D70">
+        <v>0.96983396419985168</v>
+      </c>
+      <c r="E70">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="6">
-        <v>64551021</v>
-      </c>
-      <c r="C71" s="6">
-        <v>4245186</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="7"/>
+      <c r="B71">
+        <v>701576</v>
+      </c>
+      <c r="C71">
+        <v>5572</v>
+      </c>
+      <c r="D71">
+        <v>0.79421188866209791</v>
+      </c>
+      <c r="E71">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>588454</v>
+      </c>
+      <c r="C72">
+        <v>6499</v>
+      </c>
+      <c r="D72">
+        <v>1.1044193768756776</v>
+      </c>
+      <c r="E72">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>65845568</v>
+      </c>
+      <c r="C73">
+        <v>4257349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,286 +1948,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>56883824</v>
+      </c>
+      <c r="C2">
+        <v>3852731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1255724</v>
+      </c>
+      <c r="C3">
+        <v>128709</v>
+      </c>
+      <c r="D3">
+        <v>10.249784188245188</v>
+      </c>
+      <c r="E3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>1100259</v>
+      </c>
+      <c r="C4">
+        <v>90312</v>
+      </c>
+      <c r="D4">
+        <v>8.2082491486095552</v>
+      </c>
+      <c r="E4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1218879</v>
+      </c>
+      <c r="C5">
+        <v>70279</v>
+      </c>
+      <c r="D5">
+        <v>5.7658717559331158</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>948957</v>
+      </c>
+      <c r="C6">
+        <v>39316</v>
+      </c>
+      <c r="D6">
+        <v>4.1430749759999665</v>
+      </c>
+      <c r="E6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>881789</v>
+      </c>
+      <c r="C7">
+        <v>27440</v>
+      </c>
+      <c r="D7">
+        <v>3.111855557281844</v>
+      </c>
+      <c r="E7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>830132</v>
+      </c>
+      <c r="C8">
+        <v>19211</v>
+      </c>
+      <c r="D8">
+        <v>2.3142102701739002</v>
+      </c>
+      <c r="E8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>726368</v>
+      </c>
+      <c r="C9">
+        <v>10398</v>
+      </c>
+      <c r="D9">
+        <v>1.4315057932067492</v>
+      </c>
+      <c r="E9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>709606</v>
+      </c>
+      <c r="C10">
+        <v>6882</v>
+      </c>
+      <c r="D10">
+        <v>0.96983396419985168</v>
+      </c>
+      <c r="E10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>701576</v>
+      </c>
+      <c r="C11">
+        <v>5572</v>
+      </c>
+      <c r="D11">
+        <v>0.79421188866209791</v>
+      </c>
+      <c r="E11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="7">
-        <v>54095196</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3523394</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1427668</v>
-      </c>
-      <c r="C3" s="7">
-        <v>177251</v>
-      </c>
-      <c r="D3" s="17">
-        <v>12.415421512564546</v>
-      </c>
-      <c r="E3" s="18">
-        <v>212</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1360960</v>
-      </c>
-      <c r="C4" s="7">
-        <v>152086</v>
-      </c>
-      <c r="D4" s="17">
-        <v>11.174905948742065</v>
-      </c>
-      <c r="E4" s="18">
-        <v>211</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1255724</v>
-      </c>
-      <c r="C5" s="7">
-        <v>128709</v>
-      </c>
-      <c r="D5" s="17">
-        <v>10.249784188245188</v>
-      </c>
-      <c r="E5" s="18">
-        <v>212</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1100259</v>
-      </c>
-      <c r="C6" s="7">
-        <v>90312</v>
-      </c>
-      <c r="D6" s="17">
-        <v>8.2082491486095552</v>
-      </c>
-      <c r="E6" s="18">
-        <v>210</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1218879</v>
-      </c>
-      <c r="C7" s="7">
-        <v>70279</v>
-      </c>
-      <c r="D7" s="17">
-        <v>5.7658717559331158</v>
-      </c>
-      <c r="E7" s="18">
-        <v>209</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7">
-        <v>948957</v>
-      </c>
-      <c r="C8" s="7">
-        <v>39316</v>
-      </c>
-      <c r="D8" s="17">
-        <v>4.1430749759999665</v>
-      </c>
-      <c r="E8" s="18">
-        <v>208</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="7">
-        <v>881789</v>
-      </c>
-      <c r="C9" s="7">
-        <v>27440</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3.111855557281844</v>
-      </c>
-      <c r="E9" s="18">
-        <v>208</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7">
-        <v>830132</v>
-      </c>
-      <c r="C10" s="7">
-        <v>19211</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2.3142102701739002</v>
-      </c>
-      <c r="E10" s="18">
-        <v>207</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="7">
-        <v>725937</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10395</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1.4319424412862274</v>
-      </c>
-      <c r="E11" s="18">
-        <v>202</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="13">
-        <v>705520</v>
-      </c>
-      <c r="C12" s="13">
-        <v>6793</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.9628359224401859</v>
-      </c>
-      <c r="E12" s="19">
-        <v>201</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="13">
-        <v>64551021</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4245186</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B12">
+        <v>588454</v>
+      </c>
+      <c r="C12">
+        <v>6499</v>
+      </c>
+      <c r="D12">
+        <v>1.1044193768756776</v>
+      </c>
+      <c r="E12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>65845568</v>
+      </c>
+      <c r="C13">
+        <v>4257349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,1296 +2173,1235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A65:XFD66"/>
-    </sheetView>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>28</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>19420</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>97800</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>56500</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>39</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>36120</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>181550</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>135250</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>108</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>80860</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>167320</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>145500</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>126</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>117030</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>186960</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>157660</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>132</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>128580</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>403420</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>287650</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>138</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>139604</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>831046</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>589620</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>135</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>140616</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>901595</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>667170</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>138</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>144980</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>955891</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>701268</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>135</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>151063</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>981515.00199999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>777476</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>139</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>156630</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>1030122.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>825063</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>139</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>159588</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>1057365.5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>837380</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>146</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>159974</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>1033129</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>821554</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>146</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>167525</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>1115162.5</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>904760</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>144</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>169653</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>1096075</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>907022</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>141</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>169858</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>1123147.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>951456</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>143</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>172624</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>1131748</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>950136</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>147</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>170313</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>1120015</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>961246</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>152</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>179914</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>1196640.0000100001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>989576</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>155</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>181011</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>1202855</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>1011165</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>155</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>183567</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>1218086</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>1009137</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>159</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>183310</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>1214556</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>1029124</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>158</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>182697</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>1200692</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>1009346</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>155</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>189338</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>1252357</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>976187</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>164</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>198518</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>1308423</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>1035958</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>171</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>208419</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>1362883</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>1126195</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>171</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>211002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>1376233</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>1089353</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>171</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>223899</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>1458751</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>1130813</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>172</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>230691</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>1512155</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>1206181</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>174</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>235674</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>1540049</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>1292743</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>169</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>238740</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>1564437</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>1378063</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>173</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>258089</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>1705581</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>1527677</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>173</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>255622</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33">
         <v>1700116</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>1505312</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>188</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>268521</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34">
         <v>1790564</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>1578454</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>183</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>285630</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>1910486</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>1648626</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>185</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>297894</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36">
         <v>1937312</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>1622662</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>182</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>305683</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37">
         <v>2020253</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>1710271</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38">
         <v>181</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
         <v>313386</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38">
         <v>2079778</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>1821960</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>177</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>320686</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>2141208</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>1868184</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <v>181</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <v>329486</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40">
         <v>2202408</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>1958814</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>180</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>333476</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41">
         <v>2235788</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>1954270</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>180</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>342616</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42">
         <v>2290632</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>2029684</v>
       </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>187</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>338390</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>1465033.7</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>1284895</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>185</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>331055</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44">
         <v>1331534.94</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>1190932</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>183</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>335608</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45">
         <v>2129456</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>1891309</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>183</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>338746</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46">
         <v>2248174</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>2020530</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>182</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47">
         <v>347237</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47">
         <v>2321303</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47">
         <v>2149827</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>183</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>354177</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48">
         <v>2368097</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>2180930</v>
       </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>182</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>354011</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49">
         <v>2376839</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>2208506</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>183</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>354485</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50">
         <v>2378145</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <v>2247447</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>187</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>350601</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51">
         <v>2344259.7142857141</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <v>2219267</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>183</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52">
         <v>363862</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52">
         <v>2442710</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52">
         <v>2319328</v>
       </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>185</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53">
         <v>359585</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53">
         <v>2391289</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53">
         <v>2274497</v>
       </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54">
         <v>187</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54">
         <v>358485</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54">
         <v>2386839</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54">
         <v>2264447</v>
       </c>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55">
         <v>187</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55">
         <v>360911</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55">
         <v>2414443</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55">
         <v>2304591</v>
       </c>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56">
         <v>183</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56">
         <v>352249</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56">
         <v>2360403</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56">
         <v>2251915</v>
       </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57">
         <v>181</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57">
         <v>351913</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57">
         <v>2334123</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57">
         <v>2221205</v>
       </c>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>183</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>354305</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58">
         <v>2340759</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <v>2229117</v>
       </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59">
         <v>183</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59">
         <v>354235</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59">
         <v>2317717</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59">
         <v>2248479</v>
       </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>184</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60">
         <v>358761</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60">
         <v>2402263</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60">
         <v>2317515</v>
       </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="21" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61">
         <v>183</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61">
         <v>357471</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61">
         <v>2397893</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61">
         <v>2317015</v>
       </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="21" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62">
         <v>185</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62">
         <v>359923</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62">
         <v>2404913</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62">
         <v>2318615</v>
       </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63">
         <v>186</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63">
         <v>365549</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63">
         <v>2445394.5</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63">
         <v>2362560</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64">
         <v>183</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64">
         <v>362177</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64">
         <v>2396427</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64">
         <v>2326988</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="21" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65">
         <v>183</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65">
         <v>363957</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65">
         <v>2445367</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65">
         <v>2380781</v>
       </c>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66">
         <v>183</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66">
         <v>363007</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66">
         <v>2411287</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66">
         <v>2350458</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67">
         <v>184</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67">
         <v>363633</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67">
         <v>2431687</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67">
         <v>2362843</v>
       </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="21" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68">
         <v>183</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68">
         <v>358333</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68">
         <v>2410507</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68">
         <v>2339383</v>
       </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="10">
-        <v>178</v>
-      </c>
-      <c r="C69" s="10">
-        <v>358687</v>
-      </c>
-      <c r="D69" s="10">
-        <v>2413015</v>
-      </c>
-      <c r="E69" s="10">
-        <v>2343035</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="13">
-        <v>178</v>
-      </c>
-      <c r="C70" s="13">
-        <v>356277</v>
-      </c>
-      <c r="D70" s="13">
-        <v>2392005</v>
-      </c>
-      <c r="E70" s="13">
-        <v>2321969</v>
-      </c>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="B69">
+        <v>179</v>
+      </c>
+      <c r="C69">
+        <v>360187</v>
+      </c>
+      <c r="D69">
+        <v>2420515</v>
+      </c>
+      <c r="E69">
+        <v>2350535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>182</v>
+      </c>
+      <c r="C70">
+        <v>358757</v>
+      </c>
+      <c r="D70">
+        <v>2405765</v>
+      </c>
+      <c r="E70">
+        <v>2333869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>181</v>
+      </c>
+      <c r="C71">
+        <v>343683</v>
+      </c>
+      <c r="D71">
+        <v>2309277</v>
+      </c>
+      <c r="E71">
+        <v>2244431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>175</v>
+      </c>
+      <c r="C72">
+        <v>340013</v>
+      </c>
+      <c r="D72">
+        <v>2278607</v>
+      </c>
+      <c r="E72">
+        <v>2232401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3580,254 +3411,232 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
         <v>183</v>
       </c>
-      <c r="C2" s="7">
-        <v>354235</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2317717</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2248479</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="C2">
+        <v>357471</v>
+      </c>
+      <c r="D2">
+        <v>2397893</v>
+      </c>
+      <c r="E2">
+        <v>2317015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>185</v>
+      </c>
+      <c r="C3">
+        <v>359923</v>
+      </c>
+      <c r="D3">
+        <v>2404913</v>
+      </c>
+      <c r="E3">
+        <v>2318615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>186</v>
+      </c>
+      <c r="C4">
+        <v>365549</v>
+      </c>
+      <c r="D4">
+        <v>2445394.5</v>
+      </c>
+      <c r="E4">
+        <v>2362560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>183</v>
+      </c>
+      <c r="C5">
+        <v>362177</v>
+      </c>
+      <c r="D5">
+        <v>2396427</v>
+      </c>
+      <c r="E5">
+        <v>2326988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>183</v>
+      </c>
+      <c r="C6">
+        <v>363957</v>
+      </c>
+      <c r="D6">
+        <v>2445367</v>
+      </c>
+      <c r="E6">
+        <v>2380781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>363007</v>
+      </c>
+      <c r="D7">
+        <v>2411287</v>
+      </c>
+      <c r="E7">
+        <v>2350458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
         <v>184</v>
       </c>
-      <c r="C3" s="7">
-        <v>358761</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2402263</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2317515</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="C8">
+        <v>363633</v>
+      </c>
+      <c r="D8">
+        <v>2431687</v>
+      </c>
+      <c r="E8">
+        <v>2362843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
         <v>183</v>
       </c>
-      <c r="C4" s="7">
-        <v>357471</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2397893</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2317015</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="8">
-        <v>185</v>
-      </c>
-      <c r="C5" s="7">
-        <v>359923</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2404913</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2318615</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="8">
-        <v>186</v>
-      </c>
-      <c r="C6" s="7">
-        <v>365549</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2445394.5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2362560</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="8">
-        <v>183</v>
-      </c>
-      <c r="C7" s="7">
-        <v>362177</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2396427</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2326988</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8">
-        <v>183</v>
-      </c>
-      <c r="C8" s="7">
-        <v>363957</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2445367</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2380781</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="8">
-        <v>183</v>
-      </c>
-      <c r="C9" s="7">
-        <v>363007</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2411287</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2350458</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="8">
-        <v>184</v>
-      </c>
-      <c r="C10" s="7">
-        <v>363633</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2431687</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2362843</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="8">
-        <v>183</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="C9">
         <v>358333</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D9">
         <v>2410507</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E9">
         <v>2339383</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="8">
-        <v>178</v>
-      </c>
-      <c r="C12" s="7">
-        <v>358687</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2413015</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2343035</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="6">
-        <v>178</v>
-      </c>
-      <c r="C13" s="13">
-        <v>356277</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2392005</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2321969</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="B10">
+        <v>179</v>
+      </c>
+      <c r="C10">
+        <v>360187</v>
+      </c>
+      <c r="D10">
+        <v>2420515</v>
+      </c>
+      <c r="E10">
+        <v>2350535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>182</v>
+      </c>
+      <c r="C11">
+        <v>358757</v>
+      </c>
+      <c r="D11">
+        <v>2405765</v>
+      </c>
+      <c r="E11">
+        <v>2333869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>181</v>
+      </c>
+      <c r="C12">
+        <v>343683</v>
+      </c>
+      <c r="D12">
+        <v>2309277</v>
+      </c>
+      <c r="E12">
+        <v>2244431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>175</v>
+      </c>
+      <c r="C13">
+        <v>340013</v>
+      </c>
+      <c r="D13">
+        <v>2278607</v>
+      </c>
+      <c r="E13">
+        <v>2232401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3837,691 +3646,747 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="20.54296875" style="8"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>3423</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>35</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>2259</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>28</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>2243</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>3790</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>3224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1552</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>1578</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>26</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>1454</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>27</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>2478</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>1646</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>31</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>3056</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>27</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3242</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>1483</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>1256</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>1274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>32</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>10693</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>44</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>33</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>17143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>48</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>34</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>27828</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>49</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>35</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>36812</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>47</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>29964</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>51</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>32397</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>42</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>12617</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>46</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>15983</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>42</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>40</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>8245</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>46</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>41</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>16829</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>52</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>20799</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>57</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>43</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>69524</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>69</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>44</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>98931</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>66</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>45</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>60113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>59</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>46</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>23780</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>47</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>17207</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>54</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>48</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>14191</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>51</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>49</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>12267</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>51</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>19159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>57</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38">
         <v>51</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>21364</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>43</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39">
         <v>52</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>11321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40">
         <v>53</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>6507</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>47</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>11691</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>46</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>11336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>48</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>11980</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>5572</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45">
         <v>6202</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46">
         <v>5850</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47">
         <v>6820</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48">
         <v>8</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48">
         <v>3767</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>37</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49">
         <v>3525</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>38</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50">
         <v>2893</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>43</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51">
         <v>11</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51">
         <v>4766</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>39</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52">
         <v>12</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>8033</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>31</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53">
         <v>13</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53">
         <v>2527</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>44</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54">
         <v>14</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54">
         <v>3631</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55">
         <v>15</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55">
         <v>4205</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>37</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56">
         <v>16</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56">
         <v>3786</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>36</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57">
         <v>17</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57">
         <v>2280</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>40</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58">
         <v>18</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58">
         <v>2350</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>36</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59">
         <v>19</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59">
         <v>3436</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>30</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60">
         <v>20</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60">
         <v>821</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>36</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61">
         <v>21</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61">
         <v>1832</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
-        <v>88</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
